--- a/datasets/D1_riskprem_expost.xlsx
+++ b/datasets/D1_riskprem_expost.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B637"/>
+  <dimension ref="A1:B760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,1005 +447,1005 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>Ex-post</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42913</v>
+        <v>42738</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.02925187677970496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42914</v>
+        <v>42739</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1090573012939001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42915</v>
+        <v>42740</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.01581265012009606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42916</v>
+        <v>42741</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.04439959636730581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42917</v>
+        <v>42742</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.07736240913810999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42920</v>
+        <v>42745</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.05694927668925105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42921</v>
+        <v>42746</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.04398663697104672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42922</v>
+        <v>42747</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.00936220011702751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42923</v>
+        <v>42748</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.01758793969849253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42924</v>
+        <v>42749</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.01260126012601265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42927</v>
+        <v>42752</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.01311936277380818</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42928</v>
+        <v>42753</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.1041009463722398</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42929</v>
+        <v>42754</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.0843553694286569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42930</v>
+        <v>42755</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.04166666666666662</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42931</v>
+        <v>42756</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.03605470368835479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42934</v>
+        <v>42759</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.1022370486656201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42935</v>
+        <v>42760</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.01755609812812469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42936</v>
+        <v>42761</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.08740044925464573</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42937</v>
+        <v>42762</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.05046814341173786</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42938</v>
+        <v>42763</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.05048360462373203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42941</v>
+        <v>42766</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05448154657293496</v>
+        <v>-0.0929459381324083</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42942</v>
+        <v>42767</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.03313840155945425</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>42943</v>
+        <v>42768</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.02495543672014254</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42944</v>
+        <v>42769</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.02264030612244901</v>
+        <v>0.03426791277258564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>42945</v>
+        <v>42770</v>
       </c>
       <c r="B26" t="n">
-        <v>0.113558492413118</v>
+        <v>-0.0573951434878586</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>42948</v>
+        <v>42773</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.06701609883938596</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>42949</v>
+        <v>42774</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01815431164901669</v>
+        <v>0.02665102246061018</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42950</v>
+        <v>42775</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.01496259351620954</v>
+        <v>0.03763812154696132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42951</v>
+        <v>42776</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.003120820329915305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42952</v>
+        <v>42777</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02715255448374425</v>
+        <v>-0.001297016861219122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42955</v>
+        <v>42780</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003515500159795444</v>
+        <v>0.05281526291298286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42956</v>
+        <v>42781</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.008919722497522285</v>
+        <v>-0.00464919695688924</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42957</v>
+        <v>42782</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.008729935229512677</v>
+        <v>0.009106571498892381</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42958</v>
+        <v>42783</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0.01208740120874019</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42959</v>
+        <v>42784</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08625461254612551</v>
+        <v>0.03508335406817626</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42962</v>
+        <v>42787</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03642508449117546</v>
+        <v>0.009791921664626693</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42963</v>
+        <v>42788</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-0.05343827671913833</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42964</v>
+        <v>42789</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01254480286738357</v>
+        <v>0.08203124999999992</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42965</v>
+        <v>42790</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.02612826603325423</v>
+        <v>0.008695652173913044</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42966</v>
+        <v>42791</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.04271779347460476</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42969</v>
+        <v>42794</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.04083825900053724</v>
+        <v>-0.0835579514824798</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42970</v>
+        <v>42795</v>
       </c>
       <c r="B43" t="n">
-        <v>0.003554826360404773</v>
+        <v>-0.006455234353073364</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42971</v>
+        <v>42796</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.04204753199268733</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42972</v>
+        <v>42797</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>-0.01358766657956632</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42973</v>
+        <v>42798</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-0.03988183161004435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42976</v>
+        <v>42801</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>-0.0226915299932599</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42977</v>
+        <v>42802</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>-0.02499313375446297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42978</v>
+        <v>42803</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>-0.01229722658294084</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42979</v>
+        <v>42804</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03865979381443299</v>
+        <v>0.02502979737783064</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42980</v>
+        <v>42805</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.03186646433990886</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42983</v>
+        <v>42808</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.005787037037036914</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42984</v>
+        <v>42809</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06840288672732965</v>
+        <v>-0.01544401544401554</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42985</v>
+        <v>42810</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.01646706586826339</v>
+        <v>0.00232423009877973</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42986</v>
+        <v>42811</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07562408223201184</v>
+        <v>0.009126009126009181</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42987</v>
+        <v>42812</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.09331259720062209</v>
+        <v>-0.1865785460091511</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42990</v>
+        <v>42815</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.04858987427794766</v>
+        <v>-0.01378404988513286</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42991</v>
+        <v>42816</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.04225352112676056</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42992</v>
+        <v>42817</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.01939180255619221</v>
+        <v>0.02575358501609586</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42993</v>
+        <v>42818</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.006565800742221067</v>
+        <v>-0.002624671916010391</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42994</v>
+        <v>42819</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>-0.04761904761904766</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42997</v>
+        <v>42822</v>
       </c>
       <c r="B62" t="n">
-        <v>0.04645535930316965</v>
+        <v>-0.008120649651971986</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42998</v>
+        <v>42823</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02171136653895278</v>
+        <v>-0.06470211402946828</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42999</v>
+        <v>42824</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>-0.02290303390838775</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43000</v>
+        <v>42825</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>-0.01232616940581544</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43001</v>
+        <v>42826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0251103752759381</v>
+        <v>0.04180381830151414</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43004</v>
+        <v>42829</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.003461918892185969</v>
+        <v>-0.003880983182406173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43005</v>
+        <v>42830</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.003364943407769943</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43006</v>
+        <v>42831</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01116625310173704</v>
+        <v>-0.009669889963321078</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43007</v>
+        <v>42832</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.0005035246727088626</v>
+        <v>-0.04966006503103754</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43008</v>
+        <v>42833</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.03144300954519925</v>
+        <v>-0.03132250580046399</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43011</v>
+        <v>42836</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1013071895424837</v>
+        <v>-0.03014025663980895</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43012</v>
+        <v>42837</v>
       </c>
       <c r="B73" t="n">
-        <v>0.004893393918210436</v>
+        <v>0.04768786127167631</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43013</v>
+        <v>42838</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1369938990571269</v>
+        <v>0.007857874957294172</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43014</v>
+        <v>42839</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03669724770642202</v>
+        <v>0.001980851766259567</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43015</v>
+        <v>42844</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7880794701986755</v>
+        <v>-0.004860923575479333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43018</v>
+        <v>42845</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.003215434083601218</v>
+        <v>0.04491662183969881</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43019</v>
+        <v>42846</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.03677758318739049</v>
+        <v>0.08342361863488619</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43020</v>
+        <v>42847</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04018912529550826</v>
+        <v>0.07986960065199677</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43021</v>
+        <v>42850</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01769911504424786</v>
+        <v>0.02348066298342525</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43022</v>
+        <v>42851</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>0.02355299423703345</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43025</v>
+        <v>42852</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01225359616409166</v>
+        <v>0.02337591736885022</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43026</v>
+        <v>42853</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.05328258801141764</v>
+        <v>0.02657987523732042</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43027</v>
+        <v>42854</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.007551240560949329</v>
+        <v>0.03374131657294077</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43028</v>
+        <v>42858</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.00158898305084733</v>
+        <v>-0.04320092780516097</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43029</v>
+        <v>42859</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01489485981308405</v>
+        <v>-0.0237949969493594</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43032</v>
+        <v>42860</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1067400996590611</v>
+        <v>-0.028909329829172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43033</v>
+        <v>42861</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.03020432336393257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43034</v>
+        <v>42864</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>-0.01282696177062369</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43035</v>
+        <v>42865</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01642036124794746</v>
+        <v>-0.02781354622714392</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43036</v>
+        <v>42866</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.21505376344086</v>
+        <v>0.0713233127026231</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43039</v>
+        <v>42867</v>
       </c>
       <c r="B92" t="n">
-        <v>0.006493506493506547</v>
+        <v>-0.04267265581134183</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43040</v>
+        <v>42868</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.01294498381877018</v>
+        <v>0.03157236636448895</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43041</v>
+        <v>42871</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.02249488752556247</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43042</v>
+        <v>42872</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.00376685170499599</v>
+        <v>0.01168511685116837</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43043</v>
+        <v>42873</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.0008688097306690164</v>
+        <v>-0.02718387293830179</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43046</v>
+        <v>42874</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.02455272173582031</v>
+        <v>-0.02378880185668698</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43047</v>
+        <v>42875</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.05947955390334572</v>
+        <v>0.1333585190782018</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43048</v>
+        <v>42878</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.01513681350669515</v>
+        <v>0.002390200179264963</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43049</v>
+        <v>42879</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03109137055837565</v>
+        <v>-0.03165735567970204</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43050</v>
+        <v>42880</v>
       </c>
       <c r="B101" t="n">
-        <v>0.07573149741824448</v>
+        <v>-0.1451612903225805</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43053</v>
+        <v>42881</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08262817322050772</v>
+        <v>-0.02060270602706032</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43054</v>
+        <v>42882</v>
       </c>
       <c r="B103" t="n">
-        <v>0.005102829751043734</v>
+        <v>-0.0007401924500369939</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43055</v>
+        <v>42885</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.006309148264984168</v>
+        <v>-0.02280130293159618</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43056</v>
+        <v>42886</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.009093028678013535</v>
+        <v>0.008798543689320362</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43057</v>
+        <v>42887</v>
       </c>
       <c r="B106" t="n">
-        <v>0.04251012145748987</v>
+        <v>0.02730281301709879</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43060</v>
+        <v>42888</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0040567951318459</v>
+        <v>-0.0150891632373115</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43061</v>
+        <v>42889</v>
       </c>
       <c r="B108" t="n">
-        <v>0.02616645649432529</v>
+        <v>-0.01639344262295082</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43062</v>
+        <v>42892</v>
       </c>
       <c r="B109" t="n">
-        <v>0.07020547945205483</v>
+        <v>0.2772875058058522</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43063</v>
+        <v>42893</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.02293470629534278</v>
+        <v>0.09691960931630346</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43064</v>
+        <v>42894</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.01948538596052963</v>
+        <v>0.05939562348037516</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43067</v>
+        <v>42895</v>
       </c>
       <c r="B112" t="n">
-        <v>0.008818813468733252</v>
+        <v>-0.03834631515877774</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43068</v>
+        <v>42896</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.05244755244755245</v>
+        <v>-0.05736384144376414</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43069</v>
+        <v>42899</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09146070741453319</v>
+        <v>-0.03969465648854964</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43070</v>
+        <v>42900</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0773390135998689</v>
+        <v>0.008818813468733252</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43071</v>
+        <v>42901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03675192450956039</v>
+        <v>0.02205653929791864</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43074</v>
+        <v>42902</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.0016708437761068</v>
+        <v>0.1386138613861387</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43075</v>
+        <v>42903</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.02560000000000002</v>
+        <v>0.01144258275439318</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43076</v>
+        <v>42906</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1066198008201523</v>
+        <v>0.02643419572553424</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43077</v>
+        <v>42907</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1089367253750815</v>
+        <v>-0.0007589172780167249</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43078</v>
+        <v>42908</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>0.01208883890919313</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43081</v>
+        <v>42909</v>
       </c>
       <c r="B122" t="n">
-        <v>0.04075691411935949</v>
+        <v>0.03505843071786313</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43082</v>
+        <v>42910</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1532738095238096</v>
+        <v>0.01580135440180594</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43083</v>
+        <v>42913</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01580135440180582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43084</v>
+        <v>42914</v>
       </c>
       <c r="B125" t="n">
-        <v>0.08084738434932992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43085</v>
+        <v>42915</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43088</v>
+        <v>42916</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43089</v>
+        <v>42917</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -1469,47 +1469,47 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43090</v>
+        <v>42920</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0629646840148699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43091</v>
+        <v>42921</v>
       </c>
       <c r="B130" t="n">
-        <v>0.01924537857685485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43092</v>
+        <v>42922</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43097</v>
+        <v>42923</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0772545398584179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43098</v>
+        <v>42924</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1260182079540009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43099</v>
+        <v>42927</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1517,183 +1517,183 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43103</v>
+        <v>42928</v>
       </c>
       <c r="B135" t="n">
-        <v>0.2263099219620958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43104</v>
+        <v>42929</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1795043536503684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43105</v>
+        <v>42930</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.04792129482703908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43106</v>
+        <v>42931</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.06420765027322407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43109</v>
+        <v>42934</v>
       </c>
       <c r="B139" t="n">
-        <v>0.06576338400528746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43110</v>
+        <v>42935</v>
       </c>
       <c r="B140" t="n">
-        <v>0.04040648439390278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43111</v>
+        <v>42936</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.01005656819610301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43112</v>
+        <v>42937</v>
       </c>
       <c r="B142" t="n">
-        <v>0.02913085004775546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43113</v>
+        <v>42938</v>
       </c>
       <c r="B143" t="n">
-        <v>0.04351687388987563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43116</v>
+        <v>42941</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.04481998530492281</v>
+        <v>0.05448154657293496</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43117</v>
+        <v>42942</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.02720385674931127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43118</v>
+        <v>42943</v>
       </c>
       <c r="B146" t="n">
-        <v>0.007585751978891835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43119</v>
+        <v>42944</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>-0.02264030612244901</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43120</v>
+        <v>42945</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>0.113558492413118</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43123</v>
+        <v>42948</v>
       </c>
       <c r="B149" t="n">
-        <v>0.005901287553648038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43124</v>
+        <v>42949</v>
       </c>
       <c r="B150" t="n">
-        <v>0.02596314907872701</v>
+        <v>0.01815431164901669</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43125</v>
+        <v>42950</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03427358204428276</v>
+        <v>-0.01496259351620954</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43126</v>
+        <v>42951</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.03654485049833884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43127</v>
+        <v>42952</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.05516610789393484</v>
+        <v>0.02715255448374425</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43130</v>
+        <v>42955</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.02960067020385374</v>
+        <v>0.003515500159795444</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43131</v>
+        <v>42956</v>
       </c>
       <c r="B155" t="n">
-        <v>0.09514031485284057</v>
+        <v>-0.008919722497522285</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43132</v>
+        <v>42957</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0005885815185404099</v>
+        <v>-0.008729935229512677</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43133</v>
+        <v>42958</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -1701,791 +1701,791 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43134</v>
+        <v>42959</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.04419066534260181</v>
+        <v>0.08625461254612551</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43137</v>
+        <v>42962</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0717317487266554</v>
+        <v>0.03642508449117546</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43138</v>
+        <v>42963</v>
       </c>
       <c r="B160" t="n">
-        <v>0.03218293457548176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43139</v>
+        <v>42964</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.03229041315683914</v>
+        <v>0.01254480286738357</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43140</v>
+        <v>42965</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0220588235294119</v>
+        <v>-0.02612826603325423</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43141</v>
+        <v>42966</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.02234636871508386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43144</v>
+        <v>42969</v>
       </c>
       <c r="B164" t="n">
-        <v>0.01010101010101007</v>
+        <v>-0.04083825900053724</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43145</v>
+        <v>42970</v>
       </c>
       <c r="B165" t="n">
-        <v>0.003512293025589578</v>
+        <v>0.003554826360404773</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43146</v>
+        <v>42971</v>
       </c>
       <c r="B166" t="n">
-        <v>0.009953161592505956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43147</v>
+        <v>42972</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.04926962119336474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43148</v>
+        <v>42973</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.02310149913983774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43151</v>
+        <v>42976</v>
       </c>
       <c r="B169" t="n">
-        <v>0.004077471967380283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43152</v>
+        <v>42977</v>
       </c>
       <c r="B170" t="n">
-        <v>0.01925133689839569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43153</v>
+        <v>42978</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.03627161535217206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43154</v>
+        <v>42979</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.006098938332956926</v>
+        <v>0.03865979381443299</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43155</v>
+        <v>42980</v>
       </c>
       <c r="B173" t="n">
-        <v>0.04053489343919761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43158</v>
+        <v>42983</v>
       </c>
       <c r="B174" t="n">
-        <v>0.04402386340259207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43159</v>
+        <v>42984</v>
       </c>
       <c r="B175" t="n">
-        <v>0.01724137931034479</v>
+        <v>0.06840288672732965</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43160</v>
+        <v>42985</v>
       </c>
       <c r="B176" t="n">
-        <v>0.08760826115922715</v>
+        <v>-0.01646706586826339</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43161</v>
+        <v>42986</v>
       </c>
       <c r="B177" t="n">
-        <v>0.045274616526472</v>
+        <v>0.07562408223201184</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43162</v>
+        <v>42987</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.01420701652652949</v>
+        <v>-0.09331259720062209</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43165</v>
+        <v>42990</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.05849358974358978</v>
+        <v>-0.04858987427794766</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43166</v>
+        <v>42991</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02315006200909461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43167</v>
+        <v>42992</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.04076738609112713</v>
+        <v>-0.01939180255619221</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43168</v>
+        <v>42993</v>
       </c>
       <c r="B182" t="n">
-        <v>0.00593311758360299</v>
+        <v>-0.006565800742221067</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43169</v>
+        <v>42994</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.0290563866513233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43172</v>
+        <v>42997</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.02910185649774201</v>
+        <v>0.04645535930316965</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43173</v>
+        <v>42998</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.0006412997007268306</v>
+        <v>0.02171136653895278</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43174</v>
+        <v>42999</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1368250101502234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43175</v>
+        <v>43000</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.1217598908594816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43176</v>
+        <v>43001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.03015075376884414</v>
+        <v>0.0251103752759381</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43179</v>
+        <v>43004</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.01024685607824867</v>
+        <v>-0.003461918892185969</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43180</v>
+        <v>43005</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.02180204514759783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43181</v>
+        <v>43006</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.06285845377380136</v>
+        <v>0.01116625310173704</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43182</v>
+        <v>43007</v>
       </c>
       <c r="B192" t="n">
-        <v>0.002079788239742852</v>
+        <v>-0.0005035246727088626</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43183</v>
+        <v>43008</v>
       </c>
       <c r="B193" t="n">
-        <v>0.008454106280193271</v>
+        <v>-0.03144300954519925</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43186</v>
+        <v>43011</v>
       </c>
       <c r="B194" t="n">
-        <v>0.03727534945640115</v>
+        <v>-0.1013071895424837</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43187</v>
+        <v>43012</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.01554404145077726</v>
+        <v>0.004893393918210436</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43188</v>
+        <v>43013</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.006300866369125807</v>
+        <v>0.1369938990571269</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43189</v>
+        <v>43014</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0292616536236815</v>
+        <v>0.03669724770642202</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43194</v>
+        <v>43015</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01286613742129753</v>
+        <v>0.7880794701986755</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43195</v>
+        <v>43018</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.09398034398034405</v>
+        <v>-0.003215434083601218</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43196</v>
+        <v>43019</v>
       </c>
       <c r="B200" t="n">
-        <v>0.03551136363636363</v>
+        <v>-0.03677758318739049</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43197</v>
+        <v>43020</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.07463592233009711</v>
+        <v>0.04018912529550826</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43200</v>
+        <v>43021</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.004995836802664438</v>
+        <v>0.01769911504424786</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43201</v>
+        <v>43022</v>
       </c>
       <c r="B203" t="n">
-        <v>0.05488578680203047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43202</v>
+        <v>43025</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.04658176943699734</v>
+        <v>0.01225359616409166</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43203</v>
+        <v>43026</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.03322086685699458</v>
+        <v>-0.05328258801141764</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43204</v>
+        <v>43027</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.07507082152974501</v>
+        <v>-0.007551240560949329</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43207</v>
+        <v>43028</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0182648401826485</v>
+        <v>-0.00158898305084733</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43208</v>
+        <v>43029</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.008767657087189464</v>
+        <v>0.01489485981308405</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43209</v>
+        <v>43032</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.02108433734939768</v>
+        <v>0.1067400996590611</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43210</v>
+        <v>43033</v>
       </c>
       <c r="B210" t="n">
-        <v>0.005695055656225701</v>
+        <v>-0.03020432336393257</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43211</v>
+        <v>43034</v>
       </c>
       <c r="B211" t="n">
-        <v>0.05833333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43214</v>
+        <v>43035</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.002039627039627048</v>
+        <v>0.01642036124794746</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43215</v>
+        <v>43036</v>
       </c>
       <c r="B213" t="n">
-        <v>0.04433858556247713</v>
+        <v>-1.21505376344086</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43216</v>
+        <v>43039</v>
       </c>
       <c r="B214" t="n">
-        <v>0.02627257799671595</v>
+        <v>0.006493506493506547</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43217</v>
+        <v>43040</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.04137235116044401</v>
+        <v>-0.01294498381877018</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43218</v>
+        <v>43041</v>
       </c>
       <c r="B216" t="n">
-        <v>0.005500171880371266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43223</v>
+        <v>43042</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>-0.00376685170499599</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43224</v>
+        <v>43043</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.01876079980251785</v>
+        <v>-0.0008688097306690164</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43225</v>
+        <v>43046</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.03555086237240414</v>
+        <v>-0.02455272173582031</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43228</v>
+        <v>43047</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1030214779759739</v>
+        <v>-0.05947955390334572</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43229</v>
+        <v>43048</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.02375750955761872</v>
+        <v>-0.01513681350669515</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43230</v>
+        <v>43049</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.1379310344827586</v>
+        <v>0.03109137055837565</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43231</v>
+        <v>43050</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.06990521327014225</v>
+        <v>0.07573149741824448</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43232</v>
+        <v>43053</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.01538461538461539</v>
+        <v>0.08262817322050772</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43235</v>
+        <v>43054</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.03959462644355408</v>
+        <v>0.005102829751043734</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43236</v>
+        <v>43055</v>
       </c>
       <c r="B226" t="n">
-        <v>0.02644230769230773</v>
+        <v>-0.006309148264984168</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43237</v>
+        <v>43056</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0200621644532354</v>
+        <v>-0.009093028678013535</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43238</v>
+        <v>43057</v>
       </c>
       <c r="B228" t="n">
-        <v>0.03554078240859117</v>
+        <v>0.04251012145748987</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43239</v>
+        <v>43060</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.03190319031903181</v>
+        <v>0.0040567951318459</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43242</v>
+        <v>43061</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.09260991580916747</v>
+        <v>0.02616645649432529</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43243</v>
+        <v>43062</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.02551381998582562</v>
+        <v>0.07020547945205483</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43244</v>
+        <v>43063</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.01155327342747119</v>
+        <v>-0.02293470629534278</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43245</v>
+        <v>43064</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.02130822596630326</v>
+        <v>-0.01948538596052963</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43246</v>
+        <v>43067</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.06283710895361376</v>
+        <v>0.008818813468733252</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43249</v>
+        <v>43068</v>
       </c>
       <c r="B235" t="n">
-        <v>0.01374970869261253</v>
+        <v>-0.05244755244755245</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43250</v>
+        <v>43069</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0122107969151671</v>
+        <v>0.09146070741453319</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43251</v>
+        <v>43070</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.005917159763313609</v>
+        <v>0.0773390135998689</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43252</v>
+        <v>43071</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.04873294346978558</v>
+        <v>0.03675192450956039</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43253</v>
+        <v>43074</v>
       </c>
       <c r="B239" t="n">
-        <v>0.04052710094480365</v>
+        <v>-0.0016708437761068</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43256</v>
+        <v>43075</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.01391883944324644</v>
+        <v>-0.02560000000000002</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43257</v>
+        <v>43076</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>-0.1066198008201523</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43258</v>
+        <v>43077</v>
       </c>
       <c r="B242" t="n">
-        <v>0.03809715783108245</v>
+        <v>0.1089367253750815</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43259</v>
+        <v>43078</v>
       </c>
       <c r="B243" t="n">
-        <v>0.03238866396761136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43260</v>
+        <v>43081</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.01106663527195665</v>
+        <v>0.04075691411935949</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43263</v>
+        <v>43082</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.02473356123064542</v>
+        <v>0.1532738095238096</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43264</v>
+        <v>43083</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.003115264797507759</v>
+        <v>0.01580135440180582</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43265</v>
+        <v>43084</v>
       </c>
       <c r="B247" t="n">
-        <v>0.0286368843069874</v>
+        <v>0.08084738434932992</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43266</v>
+        <v>43085</v>
       </c>
       <c r="B248" t="n">
-        <v>0.005055611729019211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43267</v>
+        <v>43088</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.01143994031335491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43270</v>
+        <v>43089</v>
       </c>
       <c r="B250" t="n">
-        <v>0.001719690455717934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43271</v>
+        <v>43090</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.02243589743589738</v>
+        <v>0.0629646840148699</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43272</v>
+        <v>43091</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1309523809523811</v>
+        <v>0.01924537857685485</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43273</v>
+        <v>43092</v>
       </c>
       <c r="B253" t="n">
-        <v>0.1818620356970574</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43274</v>
+        <v>43097</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.05818334030975306</v>
+        <v>0.0772545398584179</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43277</v>
+        <v>43098</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.005480008118530609</v>
+        <v>0.1260182079540009</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43278</v>
+        <v>43099</v>
       </c>
       <c r="B256" t="n">
         <v>0</v>
@@ -2493,3050 +2493,4034 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43279</v>
+        <v>43103</v>
       </c>
       <c r="B257" t="n">
-        <v>0.005791935843172154</v>
+        <v>0.2263099219620958</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43280</v>
+        <v>43104</v>
       </c>
       <c r="B258" t="n">
-        <v>0.009702166064981943</v>
+        <v>-0.1795043536503684</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43281</v>
+        <v>43105</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.04697491392031473</v>
+        <v>-0.04792129482703908</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43284</v>
+        <v>43106</v>
       </c>
       <c r="B260" t="n">
-        <v>0.01286173633440516</v>
+        <v>-0.06420765027322407</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43285</v>
+        <v>43109</v>
       </c>
       <c r="B261" t="n">
-        <v>0.01484683330201088</v>
+        <v>0.06576338400528746</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43286</v>
+        <v>43110</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.02721482339316741</v>
+        <v>0.04040648439390278</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43287</v>
+        <v>43111</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.03785818866345957</v>
+        <v>-0.01005656819610301</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43288</v>
+        <v>43112</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.01215805471124616</v>
+        <v>0.02913085004775546</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43291</v>
+        <v>43113</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>0.04351687388987563</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43292</v>
+        <v>43116</v>
       </c>
       <c r="B266" t="n">
-        <v>0.02380952380952381</v>
+        <v>-0.04481998530492281</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43293</v>
+        <v>43117</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.000187582067154476</v>
+        <v>-0.02720385674931127</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43294</v>
+        <v>43118</v>
       </c>
       <c r="B268" t="n">
-        <v>0.007279165846940873</v>
+        <v>0.007585751978891835</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43295</v>
+        <v>43119</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.01930261519302615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43298</v>
+        <v>43120</v>
       </c>
       <c r="B270" t="n">
-        <v>0.02991944764096667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43299</v>
+        <v>43123</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.007035175879397014</v>
+        <v>0.005901287553648038</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43300</v>
+        <v>43124</v>
       </c>
       <c r="B272" t="n">
-        <v>0.00968054211035818</v>
+        <v>0.02596314907872701</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43301</v>
+        <v>43125</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.00448262980948827</v>
+        <v>0.03427358204428276</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43302</v>
+        <v>43126</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.008371536774965152</v>
+        <v>-0.03654485049833884</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43305</v>
+        <v>43127</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.002471751412429389</v>
+        <v>-0.05516610789393484</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43306</v>
+        <v>43130</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.007019346002396792</v>
+        <v>-0.02960067020385374</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43307</v>
+        <v>43131</v>
       </c>
       <c r="B277" t="n">
-        <v>0.003268567278009801</v>
+        <v>0.09514031485284057</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43308</v>
+        <v>43132</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.01454409845235878</v>
+        <v>0.0005885815185404099</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43309</v>
+        <v>43133</v>
       </c>
       <c r="B279" t="n">
-        <v>0.002155172413793134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43312</v>
+        <v>43134</v>
       </c>
       <c r="B280" t="n">
-        <v>0.009231315462453456</v>
+        <v>-0.04419066534260181</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43313</v>
+        <v>43137</v>
       </c>
       <c r="B281" t="n">
-        <v>0.01651278409090908</v>
+        <v>0.0717317487266554</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43314</v>
+        <v>43138</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.008069939475453883</v>
+        <v>0.03218293457548176</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43315</v>
+        <v>43139</v>
       </c>
       <c r="B283" t="n">
-        <v>0.0004783163265306304</v>
+        <v>-0.03229041315683914</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43316</v>
+        <v>43140</v>
       </c>
       <c r="B284" t="n">
-        <v>0.03971048513302037</v>
+        <v>0.0220588235294119</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43319</v>
+        <v>43141</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.02210884353741507</v>
+        <v>-0.02234636871508386</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43320</v>
+        <v>43144</v>
       </c>
       <c r="B286" t="n">
-        <v>0.02477276777757977</v>
+        <v>0.01010101010101007</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43321</v>
+        <v>43145</v>
       </c>
       <c r="B287" t="n">
-        <v>0.03523428986560112</v>
+        <v>0.003512293025589578</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43322</v>
+        <v>43146</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.07654650645304846</v>
+        <v>0.009953161592505956</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43323</v>
+        <v>43147</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.0397574123989219</v>
+        <v>-0.04926962119336474</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43326</v>
+        <v>43148</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.02651652742462769</v>
+        <v>-0.02310149913983774</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43327</v>
+        <v>43151</v>
       </c>
       <c r="B291" t="n">
-        <v>0.0289990645463049</v>
+        <v>0.004077471967380283</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43328</v>
+        <v>43152</v>
       </c>
       <c r="B292" t="n">
-        <v>0.009992862241256286</v>
+        <v>0.01925133689839569</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43329</v>
+        <v>43153</v>
       </c>
       <c r="B293" t="n">
-        <v>0.01207937877480579</v>
+        <v>-0.03627161535217206</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43330</v>
+        <v>43154</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.02361911846754702</v>
+        <v>-0.006098938332956926</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43333</v>
+        <v>43155</v>
       </c>
       <c r="B295" t="n">
-        <v>0.01580135440180582</v>
+        <v>0.04053489343919761</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43334</v>
+        <v>43158</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.006116207951070423</v>
+        <v>0.04402386340259207</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43335</v>
+        <v>43159</v>
       </c>
       <c r="B297" t="n">
-        <v>0.02160638797557543</v>
+        <v>0.01724137931034479</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43336</v>
+        <v>43160</v>
       </c>
       <c r="B298" t="n">
-        <v>0.004340277777777778</v>
+        <v>0.08760826115922715</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43337</v>
+        <v>43161</v>
       </c>
       <c r="B299" t="n">
-        <v>0.006523765144454827</v>
+        <v>0.045274616526472</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43340</v>
+        <v>43162</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.008627213561374197</v>
+        <v>-0.01420701652652949</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43341</v>
+        <v>43165</v>
       </c>
       <c r="B301" t="n">
-        <v>0.0195641800540798</v>
+        <v>-0.05849358974358978</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43342</v>
+        <v>43166</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.02003484320557489</v>
+        <v>0.02315006200909461</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43343</v>
+        <v>43167</v>
       </c>
       <c r="B303" t="n">
-        <v>0.01194168734491309</v>
+        <v>-0.04076738609112713</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43344</v>
+        <v>43168</v>
       </c>
       <c r="B304" t="n">
-        <v>0.02074966532797861</v>
+        <v>0.00593311758360299</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43347</v>
+        <v>43169</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.008711324722138755</v>
+        <v>-0.0290563866513233</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43348</v>
+        <v>43172</v>
       </c>
       <c r="B306" t="n">
-        <v>0.00540216086434573</v>
+        <v>-0.02910185649774201</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43349</v>
+        <v>43173</v>
       </c>
       <c r="B307" t="n">
-        <v>0.00566355426297267</v>
+        <v>-0.0006412997007268306</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43350</v>
+        <v>43174</v>
       </c>
       <c r="B308" t="n">
-        <v>0.001121255806503288</v>
+        <v>0.1368250101502234</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43351</v>
+        <v>43175</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.005188585112751906</v>
+        <v>-0.1217598908594816</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43354</v>
+        <v>43176</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.003460207612456674</v>
+        <v>0.03015075376884414</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43355</v>
+        <v>43179</v>
       </c>
       <c r="B311" t="n">
-        <v>0.003449357165255548</v>
+        <v>-0.01024685607824867</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43356</v>
+        <v>43180</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.0282438478747203</v>
+        <v>-0.02180204514759783</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43357</v>
+        <v>43181</v>
       </c>
       <c r="B313" t="n">
-        <v>0.008636644046884674</v>
+        <v>-0.06285845377380136</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43358</v>
+        <v>43182</v>
       </c>
       <c r="B314" t="n">
-        <v>0.01853639698783551</v>
+        <v>0.002079788239742852</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43361</v>
+        <v>43183</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.0510697032436163</v>
+        <v>0.008454106280193271</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43362</v>
+        <v>43186</v>
       </c>
       <c r="B316" t="n">
-        <v>0.03732638888888886</v>
+        <v>0.03727534945640115</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43363</v>
+        <v>43187</v>
       </c>
       <c r="B317" t="n">
-        <v>0.01188425766448498</v>
+        <v>-0.01554404145077726</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43364</v>
+        <v>43188</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.05637254901960777</v>
+        <v>-0.006300866369125807</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43365</v>
+        <v>43189</v>
       </c>
       <c r="B319" t="n">
-        <v>0.2593467138921685</v>
+        <v>0.0292616536236815</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43368</v>
+        <v>43194</v>
       </c>
       <c r="B320" t="n">
-        <v>0.0008020532563361751</v>
+        <v>0.01286613742129753</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43369</v>
+        <v>43195</v>
       </c>
       <c r="B321" t="n">
-        <v>0.134861172322609</v>
+        <v>-0.09398034398034405</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43370</v>
+        <v>43196</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.005381332343663002</v>
+        <v>0.03551136363636363</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43371</v>
+        <v>43197</v>
       </c>
       <c r="B323" t="n">
-        <v>0.01981912641908796</v>
+        <v>-0.07463592233009711</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43372</v>
+        <v>43200</v>
       </c>
       <c r="B324" t="n">
-        <v>0.05399010539901049</v>
+        <v>-0.004995836802664438</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43375</v>
+        <v>43201</v>
       </c>
       <c r="B325" t="n">
-        <v>0.08880491261218701</v>
+        <v>0.05488578680203047</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43376</v>
+        <v>43202</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.1115363586659376</v>
+        <v>-0.04658176943699734</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43377</v>
+        <v>43203</v>
       </c>
       <c r="B327" t="n">
-        <v>0.005372217958557088</v>
+        <v>-0.03322086685699458</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43378</v>
+        <v>43204</v>
       </c>
       <c r="B328" t="n">
-        <v>0.01990049751243786</v>
+        <v>-0.07507082152974501</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43379</v>
+        <v>43207</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.02866517009152127</v>
+        <v>0.0182648401826485</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43382</v>
+        <v>43208</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.05686740254296484</v>
+        <v>-0.008767657087189464</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43383</v>
+        <v>43209</v>
       </c>
       <c r="B331" t="n">
-        <v>0.01737172269583398</v>
+        <v>-0.02108433734939768</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43384</v>
+        <v>43210</v>
       </c>
       <c r="B332" t="n">
-        <v>0.002759889604415797</v>
+        <v>0.005695055656225701</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>43385</v>
+        <v>43211</v>
       </c>
       <c r="B333" t="n">
-        <v>0.01814338559098105</v>
+        <v>0.05833333333333333</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>43386</v>
+        <v>43214</v>
       </c>
       <c r="B334" t="n">
-        <v>0.04166666666666661</v>
+        <v>-0.002039627039627048</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>43389</v>
+        <v>43215</v>
       </c>
       <c r="B335" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04433858556247713</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>43390</v>
+        <v>43216</v>
       </c>
       <c r="B336" t="n">
-        <v>0.004794810322944626</v>
+        <v>0.02627257799671595</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>43391</v>
+        <v>43217</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.01440785307156423</v>
+        <v>-0.04137235116044401</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>43392</v>
+        <v>43218</v>
       </c>
       <c r="B338" t="n">
-        <v>0.009466055317260769</v>
+        <v>0.005500171880371266</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>43393</v>
+        <v>43223</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.0400808352980802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>43396</v>
+        <v>43224</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.07567879838243782</v>
+        <v>-0.01876079980251785</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>43397</v>
+        <v>43225</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.1137536459501907</v>
+        <v>-0.03555086237240414</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>43398</v>
+        <v>43228</v>
       </c>
       <c r="B342" t="n">
-        <v>0.0155929421419778</v>
+        <v>0.1030214779759739</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>43399</v>
+        <v>43229</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.01332649923116352</v>
+        <v>-0.02375750955761872</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>43400</v>
+        <v>43230</v>
       </c>
       <c r="B344" t="n">
-        <v>0.01309226932668335</v>
+        <v>-0.1379310344827586</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>43403</v>
+        <v>43231</v>
       </c>
       <c r="B345" t="n">
-        <v>0.0246510246510246</v>
+        <v>-0.06990521327014225</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>43404</v>
+        <v>43232</v>
       </c>
       <c r="B346" t="n">
-        <v>0.06889676561807707</v>
+        <v>-0.01538461538461539</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>43405</v>
+        <v>43235</v>
       </c>
       <c r="B347" t="n">
-        <v>0.03840534335211863</v>
+        <v>-0.03959462644355408</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>43406</v>
+        <v>43236</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.08252693080153374</v>
+        <v>0.02644230769230773</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>43407</v>
+        <v>43237</v>
       </c>
       <c r="B349" t="n">
-        <v>0.06648731744811685</v>
+        <v>0.0200621644532354</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>43410</v>
+        <v>43238</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.04355251921434666</v>
+        <v>0.03554078240859117</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>43411</v>
+        <v>43239</v>
       </c>
       <c r="B351" t="n">
-        <v>0.005177646848776989</v>
+        <v>-0.03190319031903181</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>43412</v>
+        <v>43242</v>
       </c>
       <c r="B352" t="n">
-        <v>0.00604421822808975</v>
+        <v>-0.09260991580916747</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>43413</v>
+        <v>43243</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.008569988237271014</v>
+        <v>-0.02551381998582562</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>43414</v>
+        <v>43244</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.01903877408869283</v>
+        <v>-0.01155327342747119</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>43417</v>
+        <v>43245</v>
       </c>
       <c r="B355" t="n">
-        <v>0.002636038410845426</v>
+        <v>-0.02130822596630326</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>43418</v>
+        <v>43246</v>
       </c>
       <c r="B356" t="n">
-        <v>0.02634556327784068</v>
+        <v>-0.06283710895361376</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>43419</v>
+        <v>43249</v>
       </c>
       <c r="B357" t="n">
-        <v>0.0003150598613737103</v>
+        <v>0.01374970869261253</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>43420</v>
+        <v>43250</v>
       </c>
       <c r="B358" t="n">
-        <v>0.003981305175696674</v>
+        <v>0.0122107969151671</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>43421</v>
+        <v>43251</v>
       </c>
       <c r="B359" t="n">
-        <v>0.0215722879070732</v>
+        <v>-0.005917159763313609</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>43424</v>
+        <v>43252</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.02143622722400857</v>
+        <v>-0.04873294346978558</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>43425</v>
+        <v>43253</v>
       </c>
       <c r="B361" t="n">
-        <v>0.06575144508670522</v>
+        <v>0.04052710094480365</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>43426</v>
+        <v>43256</v>
       </c>
       <c r="B362" t="n">
-        <v>0.008997429305912633</v>
+        <v>-0.01391883944324644</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>43427</v>
+        <v>43257</v>
       </c>
       <c r="B363" t="n">
-        <v>0.0207892443669862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>43428</v>
+        <v>43258</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.007263922518159852</v>
+        <v>0.03809715783108245</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>43431</v>
+        <v>43259</v>
       </c>
       <c r="B365" t="n">
-        <v>0.08263806118394908</v>
+        <v>0.03238866396761136</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>43432</v>
+        <v>43260</v>
       </c>
       <c r="B366" t="n">
-        <v>0.03227023966786188</v>
+        <v>-0.01106663527195665</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>43433</v>
+        <v>43263</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.0724206349206349</v>
+        <v>-0.02473356123064542</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>43434</v>
+        <v>43264</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.02608695652173913</v>
+        <v>-0.003115264797507759</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>43435</v>
+        <v>43265</v>
       </c>
       <c r="B369" t="n">
-        <v>0.04033290653008964</v>
+        <v>0.0286368843069874</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>43438</v>
+        <v>43266</v>
       </c>
       <c r="B370" t="n">
-        <v>0.07601184600197436</v>
+        <v>0.005055611729019211</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>43439</v>
+        <v>43267</v>
       </c>
       <c r="B371" t="n">
-        <v>0.01925350447559535</v>
+        <v>-0.01143994031335491</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>43440</v>
+        <v>43270</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.0410958904109589</v>
+        <v>0.001719690455717934</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>43441</v>
+        <v>43271</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.03710662282761856</v>
+        <v>-0.02243589743589738</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>43442</v>
+        <v>43272</v>
       </c>
       <c r="B374" t="n">
-        <v>0.4321819713563607</v>
+        <v>0.1309523809523811</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>43445</v>
+        <v>43273</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.02474264041899941</v>
+        <v>0.1818620356970574</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>43446</v>
+        <v>43274</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.005864683164068039</v>
+        <v>-0.05818334030975306</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>43447</v>
+        <v>43277</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.005887681159420299</v>
+        <v>-0.005480008118530609</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>43448</v>
+        <v>43278</v>
       </c>
       <c r="B378" t="n">
-        <v>0.0237492973580663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>43449</v>
+        <v>43279</v>
       </c>
       <c r="B379" t="n">
-        <v>0.05679103106046689</v>
+        <v>0.005791935843172154</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>43452</v>
+        <v>43280</v>
       </c>
       <c r="B380" t="n">
-        <v>0.04289318755256513</v>
+        <v>0.009702166064981943</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>43453</v>
+        <v>43281</v>
       </c>
       <c r="B381" t="n">
-        <v>0.009922041105598908</v>
+        <v>-0.04697491392031473</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>43454</v>
+        <v>43284</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.02540130534485796</v>
+        <v>0.01286173633440516</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>43455</v>
+        <v>43285</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.0175332527206771</v>
+        <v>0.01484683330201088</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>43456</v>
+        <v>43286</v>
       </c>
       <c r="B384" t="n">
-        <v>0.0581649371927909</v>
+        <v>-0.02721482339316741</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>43462</v>
+        <v>43287</v>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>-0.03785818866345957</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>43463</v>
+        <v>43288</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.1233629066328687</v>
+        <v>-0.01215805471124616</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>43468</v>
+        <v>43291</v>
       </c>
       <c r="B387" t="n">
-        <v>0.0221760221760222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>43469</v>
+        <v>43292</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.003205770386695985</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>43470</v>
+        <v>43293</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.01612138454243717</v>
+        <v>-0.000187582067154476</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>43473</v>
+        <v>43294</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.1594202898550725</v>
+        <v>0.007279165846940873</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>43474</v>
+        <v>43295</v>
       </c>
       <c r="B391" t="n">
-        <v>0.05875000000000004</v>
+        <v>-0.01930261519302615</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>43475</v>
+        <v>43298</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.02098418797103593</v>
+        <v>0.02991944764096667</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>43476</v>
+        <v>43299</v>
       </c>
       <c r="B393" t="n">
-        <v>0.06370192307692307</v>
+        <v>-0.007035175879397014</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>43477</v>
+        <v>43300</v>
       </c>
       <c r="B394" t="n">
-        <v>0.0220588235294119</v>
+        <v>0.00968054211035818</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>43480</v>
+        <v>43301</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.02090209020902096</v>
+        <v>-0.00448262980948827</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>43481</v>
+        <v>43302</v>
       </c>
       <c r="B396" t="n">
-        <v>0.0309734513274336</v>
+        <v>-0.008371536774965152</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>43482</v>
+        <v>43305</v>
       </c>
       <c r="B397" t="n">
-        <v>0.04458450046685333</v>
+        <v>-0.002471751412429389</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>43483</v>
+        <v>43306</v>
       </c>
       <c r="B398" t="n">
-        <v>0.02057346508990772</v>
+        <v>-0.007019346002396792</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>43484</v>
+        <v>43307</v>
       </c>
       <c r="B399" t="n">
-        <v>0.02003971836071492</v>
+        <v>0.003268567278009801</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>43487</v>
+        <v>43308</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.01587301587301587</v>
+        <v>-0.01454409845235878</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>43488</v>
+        <v>43309</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.05101225359616407</v>
+        <v>0.002155172413793134</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>43489</v>
+        <v>43312</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.02680652680652677</v>
+        <v>0.009231315462453456</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>43490</v>
+        <v>43313</v>
       </c>
       <c r="B403" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.01651278409090908</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>43491</v>
+        <v>43314</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.01201874108779799</v>
+        <v>-0.008069939475453883</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>43494</v>
+        <v>43315</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.02890845655424481</v>
+        <v>0.0004783163265306304</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>43495</v>
+        <v>43316</v>
       </c>
       <c r="B406" t="n">
-        <v>0.05521009986809873</v>
+        <v>0.03971048513302037</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>43496</v>
+        <v>43319</v>
       </c>
       <c r="B407" t="n">
-        <v>0.01938502673796786</v>
+        <v>-0.02210884353741507</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>43497</v>
+        <v>43320</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.01315789473684205</v>
+        <v>0.02477276777757977</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>43498</v>
+        <v>43321</v>
       </c>
       <c r="B409" t="n">
-        <v>0.01613867304243878</v>
+        <v>0.03523428986560112</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>43501</v>
+        <v>43322</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.01003904071388732</v>
+        <v>-0.07654650645304846</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>43502</v>
+        <v>43323</v>
       </c>
       <c r="B411" t="n">
-        <v>0.0132501948558067</v>
+        <v>-0.0397574123989219</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>43503</v>
+        <v>43326</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.05162738496071823</v>
+        <v>-0.02651652742462769</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>43504</v>
+        <v>43327</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.03892359442575679</v>
+        <v>0.0289990645463049</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>43505</v>
+        <v>43328</v>
       </c>
       <c r="B414" t="n">
-        <v>0.3215859030837005</v>
+        <v>0.009992862241256286</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>43508</v>
+        <v>43329</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.005134788189987205</v>
+        <v>0.01207937877480579</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>43509</v>
+        <v>43330</v>
       </c>
       <c r="B416" t="n">
-        <v>0.02137505509034815</v>
+        <v>-0.02361911846754702</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>43510</v>
+        <v>43333</v>
       </c>
       <c r="B417" t="n">
-        <v>0.008352006518639163</v>
+        <v>0.01580135440180582</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>43511</v>
+        <v>43334</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.02141957160856775</v>
+        <v>-0.006116207951070423</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>43512</v>
+        <v>43335</v>
       </c>
       <c r="B419" t="n">
-        <v>0.01988781234064256</v>
+        <v>0.02160638797557543</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>43515</v>
+        <v>43336</v>
       </c>
       <c r="B420" t="n">
-        <v>0.002178649237472677</v>
+        <v>0.004340277777777778</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>43516</v>
+        <v>43337</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.0175438596491229</v>
+        <v>0.006523765144454827</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>43517</v>
+        <v>43340</v>
       </c>
       <c r="B422" t="n">
-        <v>0.0316909553550776</v>
+        <v>-0.008627213561374197</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>43518</v>
+        <v>43341</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.02012711864406785</v>
+        <v>0.0195641800540798</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>43519</v>
+        <v>43342</v>
       </c>
       <c r="B424" t="n">
-        <v>0.008968609865470838</v>
+        <v>-0.02003484320557489</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>43522</v>
+        <v>43343</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.007847533632287027</v>
+        <v>0.01194168734491309</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>43523</v>
+        <v>43344</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.01040488577244969</v>
+        <v>0.02074966532797861</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>43524</v>
+        <v>43347</v>
       </c>
       <c r="B427" t="n">
-        <v>0.003477396920019885</v>
+        <v>-0.008711324722138755</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>43525</v>
+        <v>43348</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.01526717557251915</v>
+        <v>0.00540216086434573</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>43526</v>
+        <v>43349</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.01818181818181818</v>
+        <v>0.00566355426297267</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>43529</v>
+        <v>43350</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.1464582003828973</v>
+        <v>0.001121255806503288</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>43530</v>
+        <v>43351</v>
       </c>
       <c r="B431" t="n">
-        <v>0.1216566005176876</v>
+        <v>-0.005188585112751906</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43531</v>
+        <v>43354</v>
       </c>
       <c r="B432" t="n">
-        <v>0.01481736733287387</v>
+        <v>-0.003460207612456674</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43532</v>
+        <v>43355</v>
       </c>
       <c r="B433" t="n">
-        <v>0.05153467222432737</v>
+        <v>0.003449357165255548</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43533</v>
+        <v>43356</v>
       </c>
       <c r="B434" t="n">
-        <v>0.4097744360902255</v>
+        <v>-0.0282438478747203</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43536</v>
+        <v>43357</v>
       </c>
       <c r="B435" t="n">
-        <v>0.01393823449029784</v>
+        <v>0.008636644046884674</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43537</v>
+        <v>43358</v>
       </c>
       <c r="B436" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.01853639698783551</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43538</v>
+        <v>43361</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.0396435156730178</v>
+        <v>-0.0510697032436163</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43539</v>
+        <v>43362</v>
       </c>
       <c r="B438" t="n">
-        <v>0.09083696945656482</v>
+        <v>0.03732638888888886</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43540</v>
+        <v>43363</v>
       </c>
       <c r="B439" t="n">
-        <v>0.1759581881533102</v>
+        <v>0.01188425766448498</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43543</v>
+        <v>43364</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.0163211292456992</v>
+        <v>-0.05637254901960777</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43544</v>
+        <v>43365</v>
       </c>
       <c r="B441" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.2593467138921685</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43545</v>
+        <v>43368</v>
       </c>
       <c r="B442" t="n">
-        <v>0.02412666499120384</v>
+        <v>0.0008020532563361751</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43546</v>
+        <v>43369</v>
       </c>
       <c r="B443" t="n">
-        <v>0.00443677594281488</v>
+        <v>0.134861172322609</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43547</v>
+        <v>43370</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.05925301881493961</v>
+        <v>-0.005381332343663002</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43550</v>
+        <v>43371</v>
       </c>
       <c r="B445" t="n">
-        <v>0.0136986301369863</v>
+        <v>0.01981912641908796</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43551</v>
+        <v>43372</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.004727544165215172</v>
+        <v>0.05399010539901049</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43552</v>
+        <v>43375</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.01937618147448016</v>
+        <v>0.08880491261218701</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43553</v>
+        <v>43376</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.01505646173149313</v>
+        <v>-0.1115363586659376</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43554</v>
+        <v>43377</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.01541095890410957</v>
+        <v>0.005372217958557088</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43557</v>
+        <v>43378</v>
       </c>
       <c r="B450" t="n">
-        <v>0.03397341211225993</v>
+        <v>0.01990049751243786</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43558</v>
+        <v>43379</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.01160037878787883</v>
+        <v>-0.02866517009152127</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43559</v>
+        <v>43382</v>
       </c>
       <c r="B452" t="n">
-        <v>0.01142313184197993</v>
+        <v>-0.05686740254296484</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43560</v>
+        <v>43383</v>
       </c>
       <c r="B453" t="n">
-        <v>0.001655629139072854</v>
+        <v>0.01737172269583398</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43561</v>
+        <v>43384</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.04774328202452383</v>
+        <v>0.002759889604415797</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43564</v>
+        <v>43385</v>
       </c>
       <c r="B455" t="n">
-        <v>0.01809954751131217</v>
+        <v>0.01814338559098105</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43565</v>
+        <v>43386</v>
       </c>
       <c r="B456" t="n">
-        <v>0.004203643157403076</v>
+        <v>0.04166666666666661</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43566</v>
+        <v>43389</v>
       </c>
       <c r="B457" t="n">
-        <v>0.005811354492624005</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43567</v>
+        <v>43390</v>
       </c>
       <c r="B458" t="n">
-        <v>0.007795100222717181</v>
+        <v>0.004794810322944626</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43568</v>
+        <v>43391</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.01014002897151139</v>
+        <v>-0.01440785307156423</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43571</v>
+        <v>43392</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.007688611244593952</v>
+        <v>0.009466055317260769</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43572</v>
+        <v>43393</v>
       </c>
       <c r="B461" t="n">
-        <v>0.01200686106346471</v>
+        <v>-0.0400808352980802</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43573</v>
+        <v>43396</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.0658667972575907</v>
+        <v>-0.07567879838243782</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43574</v>
+        <v>43397</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.09131205673758874</v>
+        <v>-0.1137536459501907</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43579</v>
+        <v>43398</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.03458213256484158</v>
+        <v>0.0155929421419778</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43580</v>
+        <v>43399</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.02696514881709494</v>
+        <v>-0.01332649923116352</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43581</v>
+        <v>43400</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.02388608176389525</v>
+        <v>0.01309226932668335</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43582</v>
+        <v>43403</v>
       </c>
       <c r="B467" t="n">
-        <v>0.02375742419506101</v>
+        <v>0.0246510246510246</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43585</v>
+        <v>43404</v>
       </c>
       <c r="B468" t="n">
-        <v>0.0006997900629811322</v>
+        <v>0.06889676561807707</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43586</v>
+        <v>43405</v>
       </c>
       <c r="B469" t="n">
-        <v>0.02080879466038481</v>
+        <v>0.03840534335211863</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43588</v>
+        <v>43406</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.02948402948402955</v>
+        <v>-0.08252693080153374</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>43589</v>
+        <v>43407</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.05720070868134645</v>
+        <v>0.06648731744811685</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>43592</v>
+        <v>43410</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.02912621359223299</v>
+        <v>-0.04355251921434666</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>43593</v>
+        <v>43411</v>
       </c>
       <c r="B473" t="n">
-        <v>0.04509754243729418</v>
+        <v>0.005177646848776989</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>43594</v>
+        <v>43412</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.04972375690607735</v>
+        <v>0.00604421822808975</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>43595</v>
+        <v>43413</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.006474659522214761</v>
+        <v>-0.008569988237271014</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>43596</v>
+        <v>43414</v>
       </c>
       <c r="B476" t="n">
-        <v>0.0170167508641319</v>
+        <v>-0.01903877408869283</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>43599</v>
+        <v>43417</v>
       </c>
       <c r="B477" t="n">
-        <v>0.02414045354791519</v>
+        <v>0.002636038410845426</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>43600</v>
+        <v>43418</v>
       </c>
       <c r="B478" t="n">
-        <v>0.04651162790697671</v>
+        <v>0.02634556327784068</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>43601</v>
+        <v>43419</v>
       </c>
       <c r="B479" t="n">
-        <v>0.04958469670274367</v>
+        <v>0.0003150598613737103</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>43602</v>
+        <v>43420</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.06286379511059377</v>
+        <v>0.003981305175696674</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>43603</v>
+        <v>43421</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.01855337456305452</v>
+        <v>0.0215722879070732</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>43606</v>
+        <v>43424</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.02748902748902744</v>
+        <v>-0.02143622722400857</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>43607</v>
+        <v>43425</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.002244948865053714</v>
+        <v>0.06575144508670522</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>43608</v>
+        <v>43426</v>
       </c>
       <c r="B484" t="n">
-        <v>0.05114334890582735</v>
+        <v>0.008997429305912633</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>43609</v>
+        <v>43427</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.01136925358378648</v>
+        <v>0.0207892443669862</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>43610</v>
+        <v>43428</v>
       </c>
       <c r="B486" t="n">
-        <v>0.00872410032715377</v>
+        <v>-0.007263922518159852</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>43613</v>
+        <v>43431</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.03069466882067847</v>
+        <v>0.08263806118394908</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>43614</v>
+        <v>43432</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.0002394636015325194</v>
+        <v>0.03227023966786188</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>43615</v>
+        <v>43433</v>
       </c>
       <c r="B489" t="n">
-        <v>0.3362336855189559</v>
+        <v>-0.0724206349206349</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>43616</v>
+        <v>43434</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.0156380899190171</v>
+        <v>-0.02608695652173913</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>43617</v>
+        <v>43435</v>
       </c>
       <c r="B491" t="n">
-        <v>0.04305740987983975</v>
+        <v>0.04033290653008964</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>43620</v>
+        <v>43438</v>
       </c>
       <c r="B492" t="n">
-        <v>0.02590407796870987</v>
+        <v>0.07601184600197436</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>43621</v>
+        <v>43439</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.04429211705773793</v>
+        <v>0.01925350447559535</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>43622</v>
+        <v>43440</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.02001096491228062</v>
+        <v>-0.0410958904109589</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>43623</v>
+        <v>43441</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.06274926881148629</v>
+        <v>-0.03710662282761856</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>43627</v>
+        <v>43442</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.0038056861428252</v>
+        <v>0.4321819713563607</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>43628</v>
+        <v>43445</v>
       </c>
       <c r="B497" t="n">
-        <v>0.01136363636363636</v>
+        <v>-0.02474264041899941</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>43629</v>
+        <v>43446</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.01973513373149826</v>
+        <v>-0.005864683164068039</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>43630</v>
+        <v>43447</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.01249399327246507</v>
+        <v>-0.005887681159420299</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>43631</v>
+        <v>43448</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.02714192282537601</v>
+        <v>0.0237492973580663</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>43634</v>
+        <v>43449</v>
       </c>
       <c r="B501" t="n">
-        <v>0.001655629139072854</v>
+        <v>0.05679103106046689</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>43635</v>
+        <v>43452</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.008495145631067996</v>
+        <v>0.04289318755256513</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>43636</v>
+        <v>43453</v>
       </c>
       <c r="B503" t="n">
-        <v>0.01676284693597141</v>
+        <v>0.009922041105598908</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>43637</v>
+        <v>43454</v>
       </c>
       <c r="B504" t="n">
-        <v>0.001550788317394734</v>
+        <v>-0.02540130534485796</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>43638</v>
+        <v>43455</v>
       </c>
       <c r="B505" t="n">
-        <v>0.04331331014859314</v>
+        <v>-0.0175332527206771</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>43641</v>
+        <v>43456</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.01283316880552821</v>
+        <v>0.0581649371927909</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>43642</v>
+        <v>43462</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.02619294605809142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>43643</v>
+        <v>43463</v>
       </c>
       <c r="B508" t="n">
-        <v>0.01494220468001131</v>
+        <v>-0.1233629066328687</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>43644</v>
+        <v>43468</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.03337169159953977</v>
+        <v>0.0221760221760222</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>43645</v>
+        <v>43469</v>
       </c>
       <c r="B510" t="n">
-        <v>0.007518796992481203</v>
+        <v>-0.003205770386695985</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>43648</v>
+        <v>43470</v>
       </c>
       <c r="B511" t="n">
-        <v>0.01949025487256368</v>
+        <v>-0.01612138454243717</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>43649</v>
+        <v>43473</v>
       </c>
       <c r="B512" t="n">
-        <v>0.009809578765147244</v>
+        <v>-0.1594202898550725</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>43650</v>
+        <v>43474</v>
       </c>
       <c r="B513" t="n">
-        <v>0.006474396703943673</v>
+        <v>0.05875000000000004</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>43651</v>
+        <v>43475</v>
       </c>
       <c r="B514" t="n">
-        <v>0.01389676687464555</v>
+        <v>-0.02098418797103593</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>43652</v>
+        <v>43476</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.0171370967741936</v>
+        <v>0.06370192307692307</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>43655</v>
+        <v>43477</v>
       </c>
       <c r="B516" t="n">
-        <v>0.01096549879646955</v>
+        <v>0.0220588235294119</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>43656</v>
+        <v>43480</v>
       </c>
       <c r="B517" t="n">
-        <v>0.007957559681697571</v>
+        <v>-0.02090209020902096</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>43657</v>
+        <v>43481</v>
       </c>
       <c r="B518" t="n">
-        <v>0.001960357220649171</v>
+        <v>0.0309734513274336</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>43658</v>
+        <v>43482</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.02740937223695849</v>
+        <v>0.04458450046685333</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>43659</v>
+        <v>43483</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.009129967776584409</v>
+        <v>0.02057346508990772</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>43662</v>
+        <v>43484</v>
       </c>
       <c r="B521" t="n">
-        <v>0.0258801585451154</v>
+        <v>0.02003971836071492</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>43663</v>
+        <v>43487</v>
       </c>
       <c r="B522" t="n">
-        <v>0.02877070619006103</v>
+        <v>-0.01587301587301587</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>43664</v>
+        <v>43488</v>
       </c>
       <c r="B523" t="n">
-        <v>0.01866605964033691</v>
+        <v>-0.05101225359616407</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>43665</v>
+        <v>43489</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.00133898683329619</v>
+        <v>-0.02680652680652677</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>43666</v>
+        <v>43490</v>
       </c>
       <c r="B525" t="n">
-        <v>0.03305785123966932</v>
+        <v>0.007518796992481203</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>43669</v>
+        <v>43491</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.01287553648068672</v>
+        <v>-0.01201874108779799</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>43670</v>
+        <v>43494</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.04028436018957345</v>
+        <v>-0.02890845655424481</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>43671</v>
+        <v>43495</v>
       </c>
       <c r="B528" t="n">
-        <v>0.04021501094963176</v>
+        <v>0.05521009986809873</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>43672</v>
+        <v>43496</v>
       </c>
       <c r="B529" t="n">
-        <v>0.02808988764044944</v>
+        <v>0.01938502673796786</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>43673</v>
+        <v>43497</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.004424778761061853</v>
+        <v>-0.01315789473684205</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>43676</v>
+        <v>43498</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.01190208847967665</v>
+        <v>0.01613867304243878</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>43677</v>
+        <v>43501</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.1211058386630905</v>
+        <v>-0.01003904071388732</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>43678</v>
+        <v>43502</v>
       </c>
       <c r="B533" t="n">
-        <v>0.02440662785490379</v>
+        <v>0.0132501948558067</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>43679</v>
+        <v>43503</v>
       </c>
       <c r="B534" t="n">
-        <v>0.01487414187643017</v>
+        <v>-0.05162738496071823</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>43680</v>
+        <v>43504</v>
       </c>
       <c r="B535" t="n">
-        <v>0.0393181193291174</v>
+        <v>-0.03892359442575679</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>43683</v>
+        <v>43505</v>
       </c>
       <c r="B536" t="n">
-        <v>0.01759391345696612</v>
+        <v>0.3215859030837005</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>43684</v>
+        <v>43508</v>
       </c>
       <c r="B537" t="n">
-        <v>0.03988255444091027</v>
+        <v>-0.005134788189987205</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>43685</v>
+        <v>43509</v>
       </c>
       <c r="B538" t="n">
-        <v>0.02246543778801847</v>
+        <v>0.02137505509034815</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>43686</v>
+        <v>43510</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.004910829671749748</v>
+        <v>0.008352006518639163</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>43687</v>
+        <v>43511</v>
       </c>
       <c r="B540" t="n">
-        <v>0.01286173633440516</v>
+        <v>-0.02141957160856775</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>43690</v>
+        <v>43512</v>
       </c>
       <c r="B541" t="n">
-        <v>0.03180862250262884</v>
+        <v>0.01988781234064256</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>43691</v>
+        <v>43515</v>
       </c>
       <c r="B542" t="n">
-        <v>0.07686355429455756</v>
+        <v>0.002178649237472677</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>43692</v>
+        <v>43516</v>
       </c>
       <c r="B543" t="n">
-        <v>0.03278688524590164</v>
+        <v>-0.0175438596491229</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>43693</v>
+        <v>43517</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.005323620061641853</v>
+        <v>0.0316909553550776</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>43694</v>
+        <v>43518</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.04462242562929055</v>
+        <v>-0.02012711864406785</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>43697</v>
+        <v>43519</v>
       </c>
       <c r="B546" t="n">
-        <v>0.04396984924623116</v>
+        <v>0.008968609865470838</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>43698</v>
+        <v>43522</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.0283109404990403</v>
+        <v>-0.007847533632287027</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>43699</v>
+        <v>43523</v>
       </c>
       <c r="B548" t="n">
-        <v>0.04654365188653257</v>
+        <v>-0.01040488577244969</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>43700</v>
+        <v>43524</v>
       </c>
       <c r="B549" t="n">
-        <v>0.0329581993569131</v>
+        <v>0.003477396920019885</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>43701</v>
+        <v>43525</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.002787240631774429</v>
+        <v>-0.01526717557251915</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>43704</v>
+        <v>43526</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.01981904351572602</v>
+        <v>-0.01818181818181818</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>43705</v>
+        <v>43529</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.05075742671650597</v>
+        <v>-0.1464582003828973</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>43706</v>
+        <v>43530</v>
       </c>
       <c r="B553" t="n">
-        <v>0.03843560350640595</v>
+        <v>0.1216566005176876</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>43707</v>
+        <v>43531</v>
       </c>
       <c r="B554" t="n">
-        <v>0.02443154329946778</v>
+        <v>0.01481736733287387</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>43708</v>
+        <v>43532</v>
       </c>
       <c r="B555" t="n">
-        <v>0.0101010101010102</v>
+        <v>0.05153467222432737</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>43711</v>
+        <v>43533</v>
       </c>
       <c r="B556" t="n">
-        <v>0.0225988700564973</v>
+        <v>0.4097744360902255</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>43712</v>
+        <v>43536</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.01499558953249039</v>
+        <v>0.01393823449029784</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>43713</v>
+        <v>43537</v>
       </c>
       <c r="B558" t="n">
-        <v>0.002522068095838646</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>43714</v>
+        <v>43538</v>
       </c>
       <c r="B559" t="n">
-        <v>0.03389830508474558</v>
+        <v>-0.0396435156730178</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>43715</v>
+        <v>43539</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.05954368391764053</v>
+        <v>0.09083696945656482</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>43718</v>
+        <v>43540</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.001901140684410654</v>
+        <v>0.1759581881533102</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>43719</v>
+        <v>43543</v>
       </c>
       <c r="B562" t="n">
-        <v>0.02269378131447106</v>
+        <v>-0.0163211292456992</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>43720</v>
+        <v>43544</v>
       </c>
       <c r="B563" t="n">
-        <v>0.01905770248808891</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>43721</v>
+        <v>43545</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.05945668887749872</v>
+        <v>0.02412666499120384</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>43722</v>
+        <v>43546</v>
       </c>
       <c r="B565" t="n">
-        <v>0.02209944751381207</v>
+        <v>0.00443677594281488</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>43725</v>
+        <v>43547</v>
       </c>
       <c r="B566" t="n">
-        <v>0.02598169471508718</v>
+        <v>-0.05925301881493961</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>43726</v>
+        <v>43550</v>
       </c>
       <c r="B567" t="n">
-        <v>0.0005482456140351734</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>43727</v>
+        <v>43551</v>
       </c>
       <c r="B568" t="n">
-        <v>0.005025125628140678</v>
+        <v>-0.004727544165215172</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>43728</v>
+        <v>43552</v>
       </c>
       <c r="B569" t="n">
-        <v>0.02459016393442616</v>
+        <v>-0.01937618147448016</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>43729</v>
+        <v>43553</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.05627705627705615</v>
+        <v>-0.01505646173149313</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>43732</v>
+        <v>43554</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.03793466807165446</v>
+        <v>-0.01541095890410957</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>43733</v>
+        <v>43557</v>
       </c>
       <c r="B572" t="n">
-        <v>0.01091142490372268</v>
+        <v>0.03397341211225993</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>43734</v>
+        <v>43558</v>
       </c>
       <c r="B573" t="n">
-        <v>0.004330045706038001</v>
+        <v>-0.01160037878787883</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>43735</v>
+        <v>43559</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.002341311134235076</v>
+        <v>0.01142313184197993</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>43736</v>
+        <v>43560</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.04564315352697101</v>
+        <v>0.001655629139072854</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>43739</v>
+        <v>43561</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.03642773207990593</v>
+        <v>-0.04774328202452383</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>43740</v>
+        <v>43564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.021781693587861</v>
+        <v>0.01809954751131217</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>43741</v>
+        <v>43565</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.01921637135013734</v>
+        <v>0.004203643157403076</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>43742</v>
+        <v>43566</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.009844322344322337</v>
+        <v>0.005811354492624005</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>43743</v>
+        <v>43567</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.02277039848197353</v>
+        <v>0.007795100222717181</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>43746</v>
+        <v>43568</v>
       </c>
       <c r="B581" t="n">
-        <v>0.05421686746987953</v>
+        <v>-0.01014002897151139</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>43747</v>
+        <v>43571</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.03409090909090917</v>
+        <v>-0.007688611244593952</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>43748</v>
+        <v>43572</v>
       </c>
       <c r="B583" t="n">
-        <v>0.01772816808929741</v>
+        <v>0.01200686106346471</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>43749</v>
+        <v>43573</v>
       </c>
       <c r="B584" t="n">
-        <v>0.001155179052753221</v>
+        <v>-0.0658667972575907</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>43750</v>
+        <v>43574</v>
       </c>
       <c r="B585" t="n">
-        <v>0.1277242777496198</v>
+        <v>-0.09131205673758874</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>43753</v>
+        <v>43579</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.04652761861104747</v>
+        <v>-0.03458213256484158</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>43754</v>
+        <v>43580</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.01165737455651295</v>
+        <v>-0.02696514881709494</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>43755</v>
+        <v>43581</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.006168608636052161</v>
+        <v>-0.02388608176389525</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>43756</v>
+        <v>43582</v>
       </c>
       <c r="B589" t="n">
-        <v>0.03394625176803383</v>
+        <v>0.02375742419506101</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>43757</v>
+        <v>43585</v>
       </c>
       <c r="B590" t="n">
-        <v>0.004835297673012892</v>
+        <v>0.0006997900629811322</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>43760</v>
+        <v>43586</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.01772368140081141</v>
+        <v>0.02080879466038481</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>43761</v>
+        <v>43588</v>
       </c>
       <c r="B592" t="n">
-        <v>0.01102941176470581</v>
+        <v>-0.02948402948402955</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>43762</v>
+        <v>43589</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.002849002849002834</v>
+        <v>-0.05720070868134645</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>43763</v>
+        <v>43592</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.0168928274716145</v>
+        <v>-0.02912621359223299</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>43764</v>
+        <v>43593</v>
       </c>
       <c r="B595" t="n">
-        <v>0.01434933201385448</v>
+        <v>0.04509754243729418</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>43767</v>
+        <v>43594</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.002286426938266461</v>
+        <v>-0.04972375690607735</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>43768</v>
+        <v>43595</v>
       </c>
       <c r="B597" t="n">
-        <v>0.009995835068721301</v>
+        <v>-0.006474659522214761</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>43769</v>
+        <v>43596</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.008913910391742963</v>
+        <v>0.0170167508641319</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>43770</v>
+        <v>43599</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.03036876355748385</v>
+        <v>0.02414045354791519</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>43771</v>
+        <v>43600</v>
       </c>
       <c r="B600" t="n">
-        <v>0.009825327510917015</v>
+        <v>0.04651162790697671</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>43774</v>
+        <v>43601</v>
       </c>
       <c r="B601" t="n">
-        <v>0.007025761124121713</v>
+        <v>0.04958469670274367</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>43775</v>
+        <v>43602</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.04325159297161618</v>
+        <v>-0.06286379511059377</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>43776</v>
+        <v>43603</v>
       </c>
       <c r="B603" t="n">
-        <v>0.01825842696629216</v>
+        <v>-0.01855337456305452</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>43777</v>
+        <v>43606</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.00785229202037346</v>
+        <v>-0.02748902748902744</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>43778</v>
+        <v>43607</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.03454065723195005</v>
+        <v>-0.002244948865053714</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>43781</v>
+        <v>43608</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.02369668246445497</v>
+        <v>0.05114334890582735</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>43782</v>
+        <v>43609</v>
       </c>
       <c r="B607" t="n">
-        <v>0.003610875106202245</v>
+        <v>-0.01136925358378648</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>43783</v>
+        <v>43610</v>
       </c>
       <c r="B608" t="n">
-        <v>0.03155339805825242</v>
+        <v>0.00872410032715377</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>43784</v>
+        <v>43613</v>
       </c>
       <c r="B609" t="n">
-        <v>0.0105540897097625</v>
+        <v>-0.03069466882067847</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>43785</v>
+        <v>43614</v>
       </c>
       <c r="B610" t="n">
-        <v>0.003937007874015711</v>
+        <v>-0.0002394636015325194</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>43788</v>
+        <v>43615</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.06969240696924074</v>
+        <v>0.3362336855189559</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>43789</v>
+        <v>43616</v>
       </c>
       <c r="B612" t="n">
-        <v>0.06666666666666661</v>
+        <v>-0.0156380899190171</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>43790</v>
+        <v>43617</v>
       </c>
       <c r="B613" t="n">
-        <v>0.008185266520263457</v>
+        <v>0.04305740987983975</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>43791</v>
+        <v>43620</v>
       </c>
       <c r="B614" t="n">
-        <v>0.00160624139513539</v>
+        <v>0.02590407796870987</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>43792</v>
+        <v>43621</v>
       </c>
       <c r="B615" t="n">
-        <v>0.0137344669718771</v>
+        <v>-0.04429211705773793</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>43795</v>
+        <v>43622</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.01393581081081074</v>
+        <v>-0.02001096491228062</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>43796</v>
+        <v>43623</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.03164556962025317</v>
+        <v>-0.06274926881148629</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>43797</v>
+        <v>43627</v>
       </c>
       <c r="B618" t="n">
-        <v>0.006887504099704849</v>
+        <v>-0.0038056861428252</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>43798</v>
+        <v>43628</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.0331836327345309</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>43799</v>
+        <v>43629</v>
       </c>
       <c r="B620" t="n">
-        <v>0.01761485360628427</v>
+        <v>-0.01973513373149826</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>43802</v>
+        <v>43630</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.04108255451713395</v>
+        <v>-0.01249399327246507</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>43803</v>
+        <v>43631</v>
       </c>
       <c r="B622" t="n">
-        <v>0.02211097204839388</v>
+        <v>-0.02714192282537601</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>43804</v>
+        <v>43634</v>
       </c>
       <c r="B623" t="n">
-        <v>0.04017216642754662</v>
+        <v>0.001655629139072854</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>43805</v>
+        <v>43635</v>
       </c>
       <c r="B624" t="n">
-        <v>-0.05144694533762062</v>
+        <v>-0.008495145631067996</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>43806</v>
+        <v>43636</v>
       </c>
       <c r="B625" t="n">
-        <v>-0.07667603372139703</v>
+        <v>0.01676284693597141</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>43809</v>
+        <v>43637</v>
       </c>
       <c r="B626" t="n">
-        <v>0.02066218571072936</v>
+        <v>0.001550788317394734</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>43810</v>
+        <v>43638</v>
       </c>
       <c r="B627" t="n">
-        <v>0.04931794333683113</v>
+        <v>0.04331331014859314</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>43811</v>
+        <v>43641</v>
       </c>
       <c r="B628" t="n">
-        <v>0.002913491707754428</v>
+        <v>-0.01283316880552821</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>43812</v>
+        <v>43642</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.04188338352039422</v>
+        <v>-0.02619294605809142</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>43813</v>
+        <v>43643</v>
       </c>
       <c r="B630" t="n">
-        <v>0.01162290142057682</v>
+        <v>0.01494220468001131</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>43816</v>
+        <v>43644</v>
       </c>
       <c r="B631" t="n">
-        <v>0.06209150326797389</v>
+        <v>-0.03337169159953977</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>43817</v>
+        <v>43645</v>
       </c>
       <c r="B632" t="n">
-        <v>0.001243781094527292</v>
+        <v>0.007518796992481203</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>43818</v>
+        <v>43648</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.0115440115440115</v>
+        <v>0.01949025487256368</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>43819</v>
+        <v>43649</v>
       </c>
       <c r="B634" t="n">
-        <v>0.0098605916354981</v>
+        <v>0.009809578765147244</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>43820</v>
+        <v>43650</v>
       </c>
       <c r="B635" t="n">
-        <v>0.06723585912486661</v>
+        <v>0.006474396703943673</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>43823</v>
+        <v>43651</v>
       </c>
       <c r="B636" t="n">
-        <v>0.1208576998050682</v>
+        <v>0.01389676687464555</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
+        <v>43652</v>
+      </c>
+      <c r="B637" t="n">
+        <v>-0.0171370967741936</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>43655</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0.01096549879646955</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>43656</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0.007957559681697571</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>43657</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0.001960357220649171</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>43658</v>
+      </c>
+      <c r="B641" t="n">
+        <v>-0.02740937223695849</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>43659</v>
+      </c>
+      <c r="B642" t="n">
+        <v>-0.009129967776584409</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>43662</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0.0258801585451154</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>43663</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.02877070619006103</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>43664</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0.01866605964033691</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B646" t="n">
+        <v>-0.00133898683329619</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>43666</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.03305785123966932</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>43669</v>
+      </c>
+      <c r="B648" t="n">
+        <v>-0.01287553648068672</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>43670</v>
+      </c>
+      <c r="B649" t="n">
+        <v>-0.04028436018957345</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>43671</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.04021501094963176</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>43672</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0.02808988764044944</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>43673</v>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.004424778761061853</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>43676</v>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.01190208847967665</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B654" t="n">
+        <v>-0.1211058386630905</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.02440662785490379</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>43679</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.01487414187643017</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>43680</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.0393181193291174</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.01759391345696612</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.03988255444091027</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0.02246543778801847</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>43686</v>
+      </c>
+      <c r="B661" t="n">
+        <v>-0.004910829671749748</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>43687</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0.01286173633440516</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>43690</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0.03180862250262884</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>43691</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0.07686355429455756</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>43692</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0.03278688524590164</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B666" t="n">
+        <v>-0.005323620061641853</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>43694</v>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.04462242562929055</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>43697</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0.04396984924623116</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>43698</v>
+      </c>
+      <c r="B669" t="n">
+        <v>-0.0283109404990403</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>43699</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0.04654365188653257</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>43700</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0.0329581993569131</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>43701</v>
+      </c>
+      <c r="B672" t="n">
+        <v>-0.002787240631774429</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="B673" t="n">
+        <v>-0.01981904351572602</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>43705</v>
+      </c>
+      <c r="B674" t="n">
+        <v>-0.05075742671650597</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0.03843560350640595</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.02443154329946778</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>43708</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0.0101010101010102</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>43711</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0.0225988700564973</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>43712</v>
+      </c>
+      <c r="B679" t="n">
+        <v>-0.01499558953249039</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>43713</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0.002522068095838646</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>43714</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0.03389830508474558</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>43715</v>
+      </c>
+      <c r="B682" t="n">
+        <v>-0.05954368391764053</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>43718</v>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.001901140684410654</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>43719</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0.02269378131447106</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>43720</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0.01905770248808891</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>43721</v>
+      </c>
+      <c r="B686" t="n">
+        <v>-0.05945668887749872</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>43722</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0.02209944751381207</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>43725</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0.02598169471508718</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0.0005482456140351734</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>43727</v>
+      </c>
+      <c r="B690" t="n">
+        <v>0.005025125628140678</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>43728</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0.02459016393442616</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>43729</v>
+      </c>
+      <c r="B692" t="n">
+        <v>-0.05627705627705615</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>43732</v>
+      </c>
+      <c r="B693" t="n">
+        <v>-0.03793466807165446</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="B694" t="n">
+        <v>0.01091142490372268</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0.004330045706038001</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>43735</v>
+      </c>
+      <c r="B696" t="n">
+        <v>-0.002341311134235076</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>43736</v>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.04564315352697101</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B698" t="n">
+        <v>-0.03642773207990593</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0.021781693587861</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>43741</v>
+      </c>
+      <c r="B700" t="n">
+        <v>-0.01921637135013734</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>43742</v>
+      </c>
+      <c r="B701" t="n">
+        <v>-0.009844322344322337</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>43743</v>
+      </c>
+      <c r="B702" t="n">
+        <v>-0.02277039848197353</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>43746</v>
+      </c>
+      <c r="B703" t="n">
+        <v>0.05421686746987953</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.03409090909090917</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="B705" t="n">
+        <v>0.01772816808929741</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>43749</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0.001155179052753221</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>43750</v>
+      </c>
+      <c r="B707" t="n">
+        <v>0.1277242777496198</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="B708" t="n">
+        <v>-0.04652761861104747</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>43754</v>
+      </c>
+      <c r="B709" t="n">
+        <v>-0.01165737455651295</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>43755</v>
+      </c>
+      <c r="B710" t="n">
+        <v>-0.006168608636052161</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>43756</v>
+      </c>
+      <c r="B711" t="n">
+        <v>0.03394625176803383</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>43757</v>
+      </c>
+      <c r="B712" t="n">
+        <v>0.004835297673012892</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>43760</v>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.01772368140081141</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="B714" t="n">
+        <v>0.01102941176470581</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.002849002849002834</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>43763</v>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.0168928274716145</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>43764</v>
+      </c>
+      <c r="B717" t="n">
+        <v>0.01434933201385448</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="B718" t="n">
+        <v>-0.002286426938266461</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="B719" t="n">
+        <v>0.009995835068721301</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.008913910391742963</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.03036876355748385</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>43771</v>
+      </c>
+      <c r="B722" t="n">
+        <v>0.009825327510917015</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>43774</v>
+      </c>
+      <c r="B723" t="n">
+        <v>0.007025761124121713</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>43775</v>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.04325159297161618</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>43776</v>
+      </c>
+      <c r="B725" t="n">
+        <v>0.01825842696629216</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>43777</v>
+      </c>
+      <c r="B726" t="n">
+        <v>-0.00785229202037346</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>43778</v>
+      </c>
+      <c r="B727" t="n">
+        <v>-0.03454065723195005</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>43781</v>
+      </c>
+      <c r="B728" t="n">
+        <v>-0.02369668246445497</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>43782</v>
+      </c>
+      <c r="B729" t="n">
+        <v>0.003610875106202245</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>43783</v>
+      </c>
+      <c r="B730" t="n">
+        <v>0.03155339805825242</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>43784</v>
+      </c>
+      <c r="B731" t="n">
+        <v>0.0105540897097625</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>43785</v>
+      </c>
+      <c r="B732" t="n">
+        <v>0.003937007874015711</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>43788</v>
+      </c>
+      <c r="B733" t="n">
+        <v>-0.06969240696924074</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>43789</v>
+      </c>
+      <c r="B734" t="n">
+        <v>0.06666666666666661</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>43790</v>
+      </c>
+      <c r="B735" t="n">
+        <v>0.008185266520263457</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>43791</v>
+      </c>
+      <c r="B736" t="n">
+        <v>0.00160624139513539</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>43792</v>
+      </c>
+      <c r="B737" t="n">
+        <v>0.0137344669718771</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>43795</v>
+      </c>
+      <c r="B738" t="n">
+        <v>-0.01393581081081074</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="B739" t="n">
+        <v>-0.03164556962025317</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>43797</v>
+      </c>
+      <c r="B740" t="n">
+        <v>0.006887504099704849</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B741" t="n">
+        <v>-0.0331836327345309</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>43799</v>
+      </c>
+      <c r="B742" t="n">
+        <v>0.01761485360628427</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>43802</v>
+      </c>
+      <c r="B743" t="n">
+        <v>-0.04108255451713395</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>43803</v>
+      </c>
+      <c r="B744" t="n">
+        <v>0.02211097204839388</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>43804</v>
+      </c>
+      <c r="B745" t="n">
+        <v>0.04017216642754662</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>43805</v>
+      </c>
+      <c r="B746" t="n">
+        <v>-0.05144694533762062</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>43806</v>
+      </c>
+      <c r="B747" t="n">
+        <v>-0.07667603372139703</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>43809</v>
+      </c>
+      <c r="B748" t="n">
+        <v>0.02066218571072936</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B749" t="n">
+        <v>0.04931794333683113</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>43811</v>
+      </c>
+      <c r="B750" t="n">
+        <v>0.002913491707754428</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>43812</v>
+      </c>
+      <c r="B751" t="n">
+        <v>-0.04188338352039422</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>43813</v>
+      </c>
+      <c r="B752" t="n">
+        <v>0.01162290142057682</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>43816</v>
+      </c>
+      <c r="B753" t="n">
+        <v>0.06209150326797389</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>43817</v>
+      </c>
+      <c r="B754" t="n">
+        <v>0.001243781094527292</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>43818</v>
+      </c>
+      <c r="B755" t="n">
+        <v>-0.0115440115440115</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>43819</v>
+      </c>
+      <c r="B756" t="n">
+        <v>0.0098605916354981</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>43820</v>
+      </c>
+      <c r="B757" t="n">
+        <v>0.06723585912486661</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>43823</v>
+      </c>
+      <c r="B758" t="n">
+        <v>0.1208576998050682</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
         <v>43827</v>
       </c>
-      <c r="B637" t="n">
+      <c r="B759" t="n">
         <v>0.02070574511519396</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B760" t="n">
+        <v>-0.09896151496640201</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/D1_riskprem_expost.xlsx
+++ b/datasets/D1_riskprem_expost.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B760"/>
+  <dimension ref="A1:B759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
         <v>42738</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02925187677970496</v>
+        <v>-0.1198550349469325</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>42739</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1090573012939001</v>
+        <v>0.07208872458410348</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>42740</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01581265012009606</v>
+        <v>0.007806244995996809</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>42741</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04439959636730581</v>
+        <v>0.03935418768920289</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>42742</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07736240913810999</v>
+        <v>0.09034267912772577</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>42745</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05694927668925105</v>
+        <v>-0.0615271928218275</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>42746</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04398663697104672</v>
+        <v>0.007795100222717181</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>42747</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00936220011702751</v>
+        <v>0.0005851375073143104</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>42748</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01758793969849253</v>
+        <v>0.005025125628140776</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>42752</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01311936277380818</v>
+        <v>-0.0219046503455547</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>42753</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1041009463722398</v>
+        <v>0.1155721250358475</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>42754</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0843553694286569</v>
+        <v>0.1067903081064912</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>42755</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04166666666666662</v>
+        <v>0.03371501272264627</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>42756</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03605470368835479</v>
+        <v>0.07749689183588898</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>42759</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1022370486656201</v>
+        <v>-0.1689560439560439</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>42760</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01755609812812469</v>
+        <v>-0.05824904080920829</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>42761</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08740044925464573</v>
+        <v>0.09761078211149686</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>42762</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05046814341173786</v>
+        <v>0.06188627540534371</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>42763</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.05048360462373203</v>
+        <v>-0.03279075253597548</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>42766</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0929459381324083</v>
+        <v>-0.1008962127782597</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>42767</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03313840155945425</v>
+        <v>-0.030214424951267</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>42768</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02495543672014254</v>
+        <v>0.0472370766488413</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>42769</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03426791277258564</v>
+        <v>0.01765316718587749</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>42770</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0573951434878586</v>
+        <v>-0.07284768211920524</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>42773</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06701609883938596</v>
+        <v>0.03893672781729686</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>42774</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02665102246061018</v>
+        <v>-0.05296681193429428</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>42775</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03763812154696132</v>
+        <v>0.06180939226519334</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>42776</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003120820329915305</v>
+        <v>0.069995541685243</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>42777</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.001297016861219122</v>
+        <v>0.007782101167315286</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>42780</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05281526291298286</v>
+        <v>0.05863192182410431</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>42781</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.00464919695688924</v>
+        <v>0.01965342349957734</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>42782</v>
       </c>
       <c r="B34" t="n">
-        <v>0.009106571498892381</v>
+        <v>-0.00566084174255486</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>42783</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.01208740120874019</v>
+        <v>-0.02952115295211536</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>42784</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03508335406817626</v>
+        <v>0.02015426723065445</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>42787</v>
       </c>
       <c r="B37" t="n">
-        <v>0.009791921664626693</v>
+        <v>0.008261933904528859</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>42788</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.05343827671913833</v>
+        <v>0.0149130074565037</v>
       </c>
     </row>
     <row r="39">
@@ -760,7 +760,7 @@
         <v>42790</v>
       </c>
       <c r="B40" t="n">
-        <v>0.008695652173913044</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>42791</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04271779347460476</v>
+        <v>-0.0094180961991255</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>42794</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0835579514824798</v>
+        <v>-0.07345013477088948</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>42795</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.006455234353073364</v>
+        <v>-0.02469828795958469</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>42796</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04204753199268733</v>
+        <v>0.00731261425959778</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>42797</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01358766657956632</v>
+        <v>-0.01489417298144761</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>42798</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.03988183161004435</v>
+        <v>-0.0251107828655835</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>42801</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0226915299932599</v>
+        <v>-0.01370478544147381</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>42802</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.02499313375446297</v>
+        <v>-0.01675363911013457</v>
       </c>
     </row>
     <row r="49">
@@ -840,7 +840,7 @@
         <v>42804</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02502979737783064</v>
+        <v>0.01311084624553032</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>42805</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03186646433990886</v>
+        <v>0.05462822458270097</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>42808</v>
       </c>
       <c r="B52" t="n">
-        <v>0.005787037037036914</v>
+        <v>-0.003182870370370354</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>42809</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.01544401544401554</v>
+        <v>-0.02732402732402737</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>42810</v>
       </c>
       <c r="B54" t="n">
-        <v>0.00232423009877973</v>
+        <v>0.003776873910517009</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>42811</v>
       </c>
       <c r="B55" t="n">
-        <v>0.009126009126009181</v>
+        <v>0.03545103545103551</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>42812</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1865785460091511</v>
+        <v>-0.173868835790544</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>42815</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.01378404988513286</v>
+        <v>-0.007220216606498158</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>42816</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04225352112676056</v>
+        <v>0.07042253521126761</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>42817</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02575358501609586</v>
+        <v>0.0199004975124378</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>42818</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.002624671916010391</v>
+        <v>-0.008457276173811583</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>42819</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.04761904761904766</v>
+        <v>-0.07407407407407413</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>42823</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.06470211402946828</v>
+        <v>-0.05509288917360663</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>42824</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02290303390838775</v>
+        <v>-0.01546698393813195</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>42825</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.01232616940581544</v>
+        <v>-0.01706700379266748</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>42826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04180381830151414</v>
+        <v>0.04509545753785388</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>42829</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.003880983182406173</v>
+        <v>-0.01681759379042687</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>42830</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003364943407769943</v>
+        <v>-0.02110737228510241</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>42831</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.009669889963321078</v>
+        <v>-0.01633877959319768</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>42832</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.04966006503103754</v>
+        <v>-0.06148389003842739</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>42833</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.03132250580046399</v>
+        <v>-0.02842227378190246</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>42836</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.03014025663980895</v>
+        <v>-0.05102954341987459</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>42837</v>
       </c>
       <c r="B73" t="n">
-        <v>0.04768786127167631</v>
+        <v>0.04046242774566478</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>42838</v>
       </c>
       <c r="B74" t="n">
-        <v>0.007857874957294172</v>
+        <v>0.004441407584557534</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>42839</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001980851766259567</v>
+        <v>-0.02608121492241661</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>42844</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.004860923575479333</v>
+        <v>0.0005401026194975971</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>42845</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04491662183969881</v>
+        <v>0.04088219472834866</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>42846</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08342361863488619</v>
+        <v>0.09245214879017691</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>42847</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07986960065199677</v>
+        <v>0.01874490627546866</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>42850</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02348066298342525</v>
+        <v>0.02900552486187837</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>42851</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02355299423703345</v>
+        <v>0.03608118266098734</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>42852</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02337591736885022</v>
+        <v>0.03968469692851321</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>42853</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02657987523732042</v>
+        <v>0.0008136696501220813</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>42854</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03374131657294077</v>
+        <v>0.05028117763810783</v>
       </c>
     </row>
     <row r="85">
@@ -1128,7 +1128,7 @@
         <v>42859</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0237949969493594</v>
+        <v>-0.03904820012202566</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>42860</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.028909329829172</v>
+        <v>-0.03416557161629428</v>
       </c>
     </row>
     <row r="88">
@@ -1152,7 +1152,7 @@
         <v>42864</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.01282696177062369</v>
+        <v>-0.02917505030181078</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>42865</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.02781354622714392</v>
+        <v>-0.0265258820499614</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>42866</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0713233127026231</v>
+        <v>0.08311229000884174</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>42867</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.04267265581134183</v>
+        <v>-0.06653565412689494</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>42868</v>
       </c>
       <c r="B93" t="n">
-        <v>0.03157236636448895</v>
+        <v>0.0003125976867771667</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>42871</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02249488752556247</v>
+        <v>0.04440549225825309</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>42872</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01168511685116837</v>
+        <v>0.01476014760147592</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>42873</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.02718387293830179</v>
+        <v>-0.04551007941356145</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>42874</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.02378880185668698</v>
+        <v>-0.006382361473745253</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42875</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1333585190782018</v>
+        <v>0.1484699659992444</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42878</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002390200179264963</v>
+        <v>0.0008963250672244141</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42879</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.03165735567970204</v>
+        <v>-0.04717566728739912</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42880</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1451612903225805</v>
+        <v>-0.1487455197132616</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42881</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.02060270602706032</v>
+        <v>-0.01291512915129156</v>
       </c>
     </row>
     <row r="103">
@@ -1272,7 +1272,7 @@
         <v>42885</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.02280130293159618</v>
+        <v>-0.04994571118349628</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42886</v>
       </c>
       <c r="B105" t="n">
-        <v>0.008798543689320362</v>
+        <v>0.02396844660194172</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42887</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02730281301709879</v>
+        <v>0.01213458356315513</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42888</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.0150891632373115</v>
+        <v>-0.005486968449931491</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42889</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.01639344262295082</v>
+        <v>-0.01967213114754103</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>42892</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2772875058058522</v>
+        <v>0.2888992104040872</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>42893</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09691960931630346</v>
+        <v>-0.004507888805409504</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>42894</v>
       </c>
       <c r="B111" t="n">
-        <v>0.05939562348037516</v>
+        <v>0.04202848211184442</v>
       </c>
     </row>
     <row r="112">
@@ -1344,7 +1344,7 @@
         <v>42896</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.05736384144376414</v>
+        <v>-0.04930712213986468</v>
       </c>
     </row>
     <row r="114">
@@ -1352,7 +1352,7 @@
         <v>42899</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.03969465648854964</v>
+        <v>-0.04274809160305339</v>
       </c>
     </row>
     <row r="115">
@@ -1360,7 +1360,7 @@
         <v>42900</v>
       </c>
       <c r="B115" t="n">
-        <v>0.008818813468733252</v>
+        <v>0.002137894174238329</v>
       </c>
     </row>
     <row r="116">
@@ -1368,7 +1368,7 @@
         <v>42901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02205653929791864</v>
+        <v>0.01739670705187954</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1376,7 @@
         <v>42902</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1386138613861387</v>
+        <v>0.1212871287128713</v>
       </c>
     </row>
     <row r="118">
@@ -1384,7 +1384,7 @@
         <v>42903</v>
       </c>
       <c r="B118" t="n">
-        <v>0.01144258275439318</v>
+        <v>-0.006947282386595756</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1392,7 @@
         <v>42906</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02643419572553424</v>
+        <v>0.02221597300337455</v>
       </c>
     </row>
     <row r="120">
@@ -1400,7 +1400,7 @@
         <v>42907</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.0007589172780167249</v>
+        <v>-0.00708322792815586</v>
       </c>
     </row>
     <row r="121">
@@ -1408,7 +1408,7 @@
         <v>42908</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01208883890919313</v>
+        <v>0.01911723362384031</v>
       </c>
     </row>
     <row r="122">
@@ -1416,7 +1416,7 @@
         <v>42909</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03505843071786313</v>
+        <v>0.0400667779632721</v>
       </c>
     </row>
     <row r="123">
@@ -1424,7 +1424,7 @@
         <v>42910</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01580135440180594</v>
+        <v>0.02708803611738156</v>
       </c>
     </row>
     <row r="124">
@@ -1640,7 +1640,7 @@
         <v>42949</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01815431164901669</v>
+        <v>0.01210287443267793</v>
       </c>
     </row>
     <row r="151">
@@ -1648,7 +1648,7 @@
         <v>42950</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.01496259351620954</v>
+        <v>-0.01852511578197362</v>
       </c>
     </row>
     <row r="152">
@@ -1848,7 +1848,7 @@
         <v>42985</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.01646706586826339</v>
+        <v>-0.02994011976047904</v>
       </c>
     </row>
     <row r="177">
@@ -1864,7 +1864,7 @@
         <v>42987</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.09331259720062209</v>
+        <v>-0.1057542768273717</v>
       </c>
     </row>
     <row r="179">
@@ -1888,7 +1888,7 @@
         <v>42992</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.01939180255619221</v>
+        <v>-0.0304098721903923</v>
       </c>
     </row>
     <row r="182">
@@ -1896,7 +1896,7 @@
         <v>42993</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.006565800742221067</v>
+        <v>-0.01084784470453904</v>
       </c>
     </row>
     <row r="183">
@@ -1952,7 +1952,7 @@
         <v>43004</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.003461918892185969</v>
+        <v>-0.005934718100890081</v>
       </c>
     </row>
     <row r="190">
@@ -1984,7 +1984,7 @@
         <v>43008</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.03144300954519925</v>
+        <v>-0.01038742279618185</v>
       </c>
     </row>
     <row r="194">
@@ -1992,7 +1992,7 @@
         <v>43011</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1013071895424837</v>
+        <v>-0.1625816993464052</v>
       </c>
     </row>
     <row r="195">
@@ -2000,7 +2000,7 @@
         <v>43012</v>
       </c>
       <c r="B195" t="n">
-        <v>0.004893393918210436</v>
+        <v>-0.05627403005941976</v>
       </c>
     </row>
     <row r="196">
@@ -2008,7 +2008,7 @@
         <v>43013</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1369938990571269</v>
+        <v>0.1397670549084858</v>
       </c>
     </row>
     <row r="197">
@@ -2032,7 +2032,7 @@
         <v>43018</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.003215434083601218</v>
+        <v>-0.0219721329046088</v>
       </c>
     </row>
     <row r="200">
@@ -2040,7 +2040,7 @@
         <v>43019</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.03677758318739049</v>
+        <v>-0.06596614127262108</v>
       </c>
     </row>
     <row r="201">
@@ -2048,7 +2048,7 @@
         <v>43020</v>
       </c>
       <c r="B201" t="n">
-        <v>0.04018912529550826</v>
+        <v>0.04412923561859736</v>
       </c>
     </row>
     <row r="202">
@@ -2072,7 +2072,7 @@
         <v>43025</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01225359616409166</v>
+        <v>0.005594033031433161</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2080,7 @@
         <v>43026</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.05328258801141764</v>
+        <v>-0.09609895337773544</v>
       </c>
     </row>
     <row r="206">
@@ -2088,7 +2088,7 @@
         <v>43027</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.007551240560949329</v>
+        <v>0.005393743257820927</v>
       </c>
     </row>
     <row r="207">
@@ -2096,7 +2096,7 @@
         <v>43028</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.00158898305084733</v>
+        <v>-0.01350635593220334</v>
       </c>
     </row>
     <row r="208">
@@ -2112,7 +2112,7 @@
         <v>43032</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1067400996590611</v>
+        <v>0.1041174927878311</v>
       </c>
     </row>
     <row r="210">
@@ -2120,7 +2120,7 @@
         <v>43033</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.03020432336393257</v>
+        <v>-0.06721942552561454</v>
       </c>
     </row>
     <row r="211">
@@ -2136,7 +2136,7 @@
         <v>43035</v>
       </c>
       <c r="B212" t="n">
-        <v>0.01642036124794746</v>
+        <v>0.01970443349753699</v>
       </c>
     </row>
     <row r="213">
@@ -2152,7 +2152,7 @@
         <v>43039</v>
       </c>
       <c r="B214" t="n">
-        <v>0.006493506493506547</v>
+        <v>0.001082251082251059</v>
       </c>
     </row>
     <row r="215">
@@ -2160,7 +2160,7 @@
         <v>43040</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.01294498381877018</v>
+        <v>0.0129449838187703</v>
       </c>
     </row>
     <row r="216">
@@ -2176,7 +2176,7 @@
         <v>43042</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.00376685170499599</v>
+        <v>0.001189532117367214</v>
       </c>
     </row>
     <row r="218">
@@ -2184,7 +2184,7 @@
         <v>43043</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.0008688097306690164</v>
+        <v>0.01361135244714737</v>
       </c>
     </row>
     <row r="219">
@@ -2192,7 +2192,7 @@
         <v>43046</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.02455272173582031</v>
+        <v>-0.01979444232965358</v>
       </c>
     </row>
     <row r="220">
@@ -2200,7 +2200,7 @@
         <v>43047</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.05947955390334572</v>
+        <v>-0.04089219330855019</v>
       </c>
     </row>
     <row r="221">
@@ -2208,7 +2208,7 @@
         <v>43048</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.01513681350669515</v>
+        <v>0.009120900446341914</v>
       </c>
     </row>
     <row r="222">
@@ -2216,7 +2216,7 @@
         <v>43049</v>
       </c>
       <c r="B222" t="n">
-        <v>0.03109137055837565</v>
+        <v>-0.0006345177664974484</v>
       </c>
     </row>
     <row r="223">
@@ -2224,7 +2224,7 @@
         <v>43050</v>
       </c>
       <c r="B223" t="n">
-        <v>0.07573149741824448</v>
+        <v>0.0327022375215147</v>
       </c>
     </row>
     <row r="224">
@@ -2240,7 +2240,7 @@
         <v>43054</v>
       </c>
       <c r="B225" t="n">
-        <v>0.005102829751043734</v>
+        <v>0.01824648214009576</v>
       </c>
     </row>
     <row r="226">
@@ -2248,7 +2248,7 @@
         <v>43055</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.006309148264984168</v>
+        <v>0.06729758149316516</v>
       </c>
     </row>
     <row r="227">
@@ -2256,7 +2256,7 @@
         <v>43056</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.009093028678013535</v>
+        <v>0.106784798321287</v>
       </c>
     </row>
     <row r="228">
@@ -2264,7 +2264,7 @@
         <v>43057</v>
       </c>
       <c r="B228" t="n">
-        <v>0.04251012145748987</v>
+        <v>0.01214574898785417</v>
       </c>
     </row>
     <row r="229">
@@ -2272,7 +2272,7 @@
         <v>43060</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0040567951318459</v>
+        <v>-0.006085192697768705</v>
       </c>
     </row>
     <row r="230">
@@ -2280,7 +2280,7 @@
         <v>43061</v>
       </c>
       <c r="B230" t="n">
-        <v>0.02616645649432529</v>
+        <v>0.004098360655737786</v>
       </c>
     </row>
     <row r="231">
@@ -2288,7 +2288,7 @@
         <v>43062</v>
       </c>
       <c r="B231" t="n">
-        <v>0.07020547945205483</v>
+        <v>0.04880136986301373</v>
       </c>
     </row>
     <row r="232">
@@ -2296,7 +2296,7 @@
         <v>43063</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.02293470629534278</v>
+        <v>-0.03463608705827281</v>
       </c>
     </row>
     <row r="233">
@@ -2304,7 +2304,7 @@
         <v>43064</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.01948538596052963</v>
+        <v>-0.02573070197351989</v>
       </c>
     </row>
     <row r="234">
@@ -2312,7 +2312,7 @@
         <v>43067</v>
       </c>
       <c r="B234" t="n">
-        <v>0.008818813468733252</v>
+        <v>0.02752538749331911</v>
       </c>
     </row>
     <row r="235">
@@ -2328,7 +2328,7 @@
         <v>43069</v>
       </c>
       <c r="B236" t="n">
-        <v>0.09146070741453319</v>
+        <v>0.06556163978096799</v>
       </c>
     </row>
     <row r="237">
@@ -2336,7 +2336,7 @@
         <v>43070</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0773390135998689</v>
+        <v>0.05685728330329344</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2344,7 @@
         <v>43071</v>
       </c>
       <c r="B238" t="n">
-        <v>0.03675192450956039</v>
+        <v>0.0553762105785944</v>
       </c>
     </row>
     <row r="239">
@@ -2352,7 +2352,7 @@
         <v>43074</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.0016708437761068</v>
+        <v>-0.01837928153717618</v>
       </c>
     </row>
     <row r="240">
@@ -2360,7 +2360,7 @@
         <v>43075</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.02560000000000002</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="241">
@@ -2368,7 +2368,7 @@
         <v>43076</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.1066198008201523</v>
+        <v>-0.150556531927358</v>
       </c>
     </row>
     <row r="242">
@@ -2376,7 +2376,7 @@
         <v>43077</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1089367253750815</v>
+        <v>0.1170906718851924</v>
       </c>
     </row>
     <row r="243">
@@ -2392,7 +2392,7 @@
         <v>43081</v>
       </c>
       <c r="B244" t="n">
-        <v>0.04075691411935949</v>
+        <v>0.04803493449781655</v>
       </c>
     </row>
     <row r="245">
@@ -2400,7 +2400,7 @@
         <v>43082</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1532738095238096</v>
+        <v>0.1253720238095239</v>
       </c>
     </row>
     <row r="246">
@@ -2408,7 +2408,7 @@
         <v>43083</v>
       </c>
       <c r="B246" t="n">
-        <v>0.01580135440180582</v>
+        <v>0.007739438890680374</v>
       </c>
     </row>
     <row r="247">
@@ -2416,7 +2416,7 @@
         <v>43084</v>
       </c>
       <c r="B247" t="n">
-        <v>0.08084738434932992</v>
+        <v>0.08625162127107656</v>
       </c>
     </row>
     <row r="248">
@@ -2448,7 +2448,7 @@
         <v>43090</v>
       </c>
       <c r="B251" t="n">
-        <v>0.0629646840148699</v>
+        <v>0.0571561338289963</v>
       </c>
     </row>
     <row r="252">
@@ -2456,7 +2456,7 @@
         <v>43091</v>
       </c>
       <c r="B252" t="n">
-        <v>0.01924537857685485</v>
+        <v>0.02810838186882754</v>
       </c>
     </row>
     <row r="253">
@@ -2464,7 +2464,7 @@
         <v>43092</v>
       </c>
       <c r="B253" t="n">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="254">
@@ -2472,7 +2472,7 @@
         <v>43097</v>
       </c>
       <c r="B254" t="n">
-        <v>0.0772545398584179</v>
+        <v>0.09264389042782388</v>
       </c>
     </row>
     <row r="255">
@@ -2480,7 +2480,7 @@
         <v>43098</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1260182079540009</v>
+        <v>0.1619549592716818</v>
       </c>
     </row>
     <row r="256">
@@ -2496,7 +2496,7 @@
         <v>43103</v>
       </c>
       <c r="B257" t="n">
-        <v>0.2263099219620958</v>
+        <v>0.309921962095875</v>
       </c>
     </row>
     <row r="258">
@@ -2504,7 +2504,7 @@
         <v>43104</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.1795043536503684</v>
+        <v>-0.1962491627595445</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2512,7 @@
         <v>43105</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.04792129482703908</v>
+        <v>-0.006664550936210754</v>
       </c>
     </row>
     <row r="260">
@@ -2520,7 +2520,7 @@
         <v>43106</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.06420765027322407</v>
+        <v>-0.04098360655737705</v>
       </c>
     </row>
     <row r="261">
@@ -2528,7 +2528,7 @@
         <v>43109</v>
       </c>
       <c r="B261" t="n">
-        <v>0.06576338400528746</v>
+        <v>0.0905485789821546</v>
       </c>
     </row>
     <row r="262">
@@ -2536,7 +2536,7 @@
         <v>43110</v>
       </c>
       <c r="B262" t="n">
-        <v>0.04040648439390278</v>
+        <v>0.04282603435760956</v>
       </c>
     </row>
     <row r="263">
@@ -2544,7 +2544,7 @@
         <v>43111</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.01005656819610301</v>
+        <v>0.005656819610308048</v>
       </c>
     </row>
     <row r="264">
@@ -2560,7 +2560,7 @@
         <v>43113</v>
       </c>
       <c r="B265" t="n">
-        <v>0.04351687388987563</v>
+        <v>0.05091770278271163</v>
       </c>
     </row>
     <row r="266">
@@ -2568,7 +2568,7 @@
         <v>43116</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.04481998530492281</v>
+        <v>-0.0540044085231447</v>
       </c>
     </row>
     <row r="267">
@@ -2576,7 +2576,7 @@
         <v>43117</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.02720385674931127</v>
+        <v>-0.01859504132231402</v>
       </c>
     </row>
     <row r="268">
@@ -2584,7 +2584,7 @@
         <v>43118</v>
       </c>
       <c r="B268" t="n">
-        <v>0.007585751978891835</v>
+        <v>0.02242744063324537</v>
       </c>
     </row>
     <row r="269">
@@ -2608,7 +2608,7 @@
         <v>43123</v>
       </c>
       <c r="B271" t="n">
-        <v>0.005901287553648038</v>
+        <v>-0.02092274678111591</v>
       </c>
     </row>
     <row r="272">
@@ -2616,7 +2616,7 @@
         <v>43124</v>
       </c>
       <c r="B272" t="n">
-        <v>0.02596314907872701</v>
+        <v>0.005025125628140745</v>
       </c>
     </row>
     <row r="273">
@@ -2632,7 +2632,7 @@
         <v>43126</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.03654485049833884</v>
+        <v>-0.05869324473975634</v>
       </c>
     </row>
     <row r="275">
@@ -2640,7 +2640,7 @@
         <v>43127</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.05516610789393484</v>
+        <v>-0.04754647973178915</v>
       </c>
     </row>
     <row r="276">
@@ -2648,7 +2648,7 @@
         <v>43130</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.02960067020385374</v>
+        <v>-0.05054454063110869</v>
       </c>
     </row>
     <row r="277">
@@ -2656,7 +2656,7 @@
         <v>43131</v>
       </c>
       <c r="B277" t="n">
-        <v>0.09514031485284057</v>
+        <v>0.07802874743326493</v>
       </c>
     </row>
     <row r="278">
@@ -2664,7 +2664,7 @@
         <v>43132</v>
       </c>
       <c r="B278" t="n">
-        <v>0.0005885815185404099</v>
+        <v>-0.02884049440847548</v>
       </c>
     </row>
     <row r="279">
@@ -2680,7 +2680,7 @@
         <v>43134</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.04419066534260181</v>
+        <v>-0.03798411122144988</v>
       </c>
     </row>
     <row r="281">
@@ -2704,7 +2704,7 @@
         <v>43139</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.03229041315683914</v>
+        <v>-0.02727637384677095</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2712,7 @@
         <v>43140</v>
       </c>
       <c r="B284" t="n">
-        <v>0.0220588235294119</v>
+        <v>0.01102941176470595</v>
       </c>
     </row>
     <row r="285">
@@ -2720,7 +2720,7 @@
         <v>43141</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.02234636871508386</v>
+        <v>-0.02869476891823267</v>
       </c>
     </row>
     <row r="286">
@@ -2728,7 +2728,7 @@
         <v>43144</v>
       </c>
       <c r="B286" t="n">
-        <v>0.01010101010101007</v>
+        <v>0.02272727272727269</v>
       </c>
     </row>
     <row r="287">
@@ -2736,7 +2736,7 @@
         <v>43145</v>
       </c>
       <c r="B287" t="n">
-        <v>0.003512293025589578</v>
+        <v>-0.009031610637230292</v>
       </c>
     </row>
     <row r="288">
@@ -2744,7 +2744,7 @@
         <v>43146</v>
       </c>
       <c r="B288" t="n">
-        <v>0.009953161592505956</v>
+        <v>-0.00468384074941442</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2752,7 @@
         <v>43147</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.04926962119336474</v>
+        <v>-0.05298341173557813</v>
       </c>
     </row>
     <row r="290">
@@ -2760,7 +2760,7 @@
         <v>43148</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.02310149913983774</v>
+        <v>-0.01081346768247721</v>
       </c>
     </row>
     <row r="291">
@@ -2768,7 +2768,7 @@
         <v>43151</v>
       </c>
       <c r="B291" t="n">
-        <v>0.004077471967380283</v>
+        <v>-0.03669724770642196</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2776,7 @@
         <v>43152</v>
       </c>
       <c r="B292" t="n">
-        <v>0.01925133689839569</v>
+        <v>0.04385026737967909</v>
       </c>
     </row>
     <row r="293">
@@ -2784,7 +2784,7 @@
         <v>43153</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.03627161535217206</v>
+        <v>-0.04997891185153953</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2792,7 @@
         <v>43154</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.006098938332956926</v>
+        <v>-0.03885249604698455</v>
       </c>
     </row>
     <row r="295">
@@ -2800,7 +2800,7 @@
         <v>43155</v>
       </c>
       <c r="B295" t="n">
-        <v>0.04053489343919761</v>
+        <v>-0.02214793146677815</v>
       </c>
     </row>
     <row r="296">
@@ -2808,7 +2808,7 @@
         <v>43158</v>
       </c>
       <c r="B296" t="n">
-        <v>0.04402386340259207</v>
+        <v>0.06150997737091138</v>
       </c>
     </row>
     <row r="297">
@@ -2816,7 +2816,7 @@
         <v>43159</v>
       </c>
       <c r="B297" t="n">
-        <v>0.01724137931034479</v>
+        <v>0.002652519893899053</v>
       </c>
     </row>
     <row r="298">
@@ -2824,7 +2824,7 @@
         <v>43160</v>
       </c>
       <c r="B298" t="n">
-        <v>0.08760826115922715</v>
+        <v>0.1075949367088608</v>
       </c>
     </row>
     <row r="299">
@@ -2832,7 +2832,7 @@
         <v>43161</v>
       </c>
       <c r="B299" t="n">
-        <v>0.045274616526472</v>
+        <v>0.02177140029688262</v>
       </c>
     </row>
     <row r="300">
@@ -2840,7 +2840,7 @@
         <v>43162</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.01420701652652949</v>
+        <v>0.0002899391127862572</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2848,7 @@
         <v>43165</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.05849358974358978</v>
+        <v>0.01262019230769222</v>
       </c>
     </row>
     <row r="302">
@@ -2856,7 +2856,7 @@
         <v>43166</v>
       </c>
       <c r="B302" t="n">
-        <v>0.02315006200909461</v>
+        <v>-0.002687060768912826</v>
       </c>
     </row>
     <row r="303">
@@ -2864,7 +2864,7 @@
         <v>43167</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.04076738609112713</v>
+        <v>-0.0740740740740741</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2872,7 @@
         <v>43168</v>
       </c>
       <c r="B304" t="n">
-        <v>0.00593311758360299</v>
+        <v>0.01132686084142399</v>
       </c>
     </row>
     <row r="305">
@@ -2880,7 +2880,7 @@
         <v>43169</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.0290563866513233</v>
+        <v>-0.05782508630609891</v>
       </c>
     </row>
     <row r="306">
@@ -2888,7 +2888,7 @@
         <v>43172</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.02910185649774201</v>
+        <v>-0.06547917711991971</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2896,7 @@
         <v>43173</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.0006412997007268306</v>
+        <v>0.004702864471996556</v>
       </c>
     </row>
     <row r="308">
@@ -2904,7 +2904,7 @@
         <v>43174</v>
       </c>
       <c r="B308" t="n">
-        <v>0.1368250101502234</v>
+        <v>0.1469752334551361</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2912,7 @@
         <v>43175</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.1217598908594816</v>
+        <v>-0.1132332878581173</v>
       </c>
     </row>
     <row r="310">
@@ -2920,7 +2920,7 @@
         <v>43176</v>
       </c>
       <c r="B310" t="n">
-        <v>0.03015075376884414</v>
+        <v>0.005025125628140708</v>
       </c>
     </row>
     <row r="311">
@@ -2928,7 +2928,7 @@
         <v>43179</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.01024685607824867</v>
+        <v>-0.02189101071262221</v>
       </c>
     </row>
     <row r="312">
@@ -2936,7 +2936,7 @@
         <v>43180</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.02180204514759783</v>
+        <v>-0.01794327609492571</v>
       </c>
     </row>
     <row r="313">
@@ -2944,7 +2944,7 @@
         <v>43181</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.06285845377380136</v>
+        <v>-0.0502408809359946</v>
       </c>
     </row>
     <row r="314">
@@ -2968,7 +2968,7 @@
         <v>43186</v>
       </c>
       <c r="B316" t="n">
-        <v>0.03727534945640115</v>
+        <v>0.05946305746616374</v>
       </c>
     </row>
     <row r="317">
@@ -2976,7 +2976,7 @@
         <v>43187</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.01554404145077726</v>
+        <v>-0.0130767332839872</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2984,7 @@
         <v>43188</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.006300866369125807</v>
+        <v>-0.01286426883696513</v>
       </c>
     </row>
     <row r="319">
@@ -2992,7 +2992,7 @@
         <v>43189</v>
       </c>
       <c r="B319" t="n">
-        <v>0.0292616536236815</v>
+        <v>0.01395032323919701</v>
       </c>
     </row>
     <row r="320">
@@ -3000,7 +3000,7 @@
         <v>43194</v>
       </c>
       <c r="B320" t="n">
-        <v>0.01286613742129753</v>
+        <v>0.01149739939775532</v>
       </c>
     </row>
     <row r="321">
@@ -3008,7 +3008,7 @@
         <v>43195</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.09398034398034405</v>
+        <v>-0.1108722358722359</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3016,7 @@
         <v>43196</v>
       </c>
       <c r="B322" t="n">
-        <v>0.03551136363636363</v>
+        <v>0.02414772727272711</v>
       </c>
     </row>
     <row r="323">
@@ -3024,7 +3024,7 @@
         <v>43197</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.07463592233009711</v>
+        <v>-0.05946601941747575</v>
       </c>
     </row>
     <row r="324">
@@ -3032,7 +3032,7 @@
         <v>43200</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.004995836802664438</v>
+        <v>-0.03552595059672498</v>
       </c>
     </row>
     <row r="325">
@@ -3048,7 +3048,7 @@
         <v>43202</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.04658176943699734</v>
+        <v>-0.05831099195710451</v>
       </c>
     </row>
     <row r="327">
@@ -3056,7 +3056,7 @@
         <v>43203</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.03322086685699458</v>
+        <v>-0.0539839086426161</v>
       </c>
     </row>
     <row r="328">
@@ -3064,7 +3064,7 @@
         <v>43204</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.07507082152974501</v>
+        <v>-0.07932011331444752</v>
       </c>
     </row>
     <row r="329">
@@ -3072,7 +3072,7 @@
         <v>43207</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0182648401826485</v>
+        <v>0.01598173515981742</v>
       </c>
     </row>
     <row r="330">
@@ -3080,7 +3080,7 @@
         <v>43208</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.008767657087189464</v>
+        <v>-0.003896736483195414</v>
       </c>
     </row>
     <row r="331">
@@ -3096,7 +3096,7 @@
         <v>43210</v>
       </c>
       <c r="B332" t="n">
-        <v>0.005695055656225701</v>
+        <v>0.003106393994304878</v>
       </c>
     </row>
     <row r="333">
@@ -3104,7 +3104,7 @@
         <v>43211</v>
       </c>
       <c r="B333" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.03666666666666672</v>
       </c>
     </row>
     <row r="334">
@@ -3120,7 +3120,7 @@
         <v>43215</v>
       </c>
       <c r="B335" t="n">
-        <v>0.04433858556247713</v>
+        <v>0.09014290949065595</v>
       </c>
     </row>
     <row r="336">
@@ -3128,7 +3128,7 @@
         <v>43216</v>
       </c>
       <c r="B336" t="n">
-        <v>0.02627257799671595</v>
+        <v>0.03448275862068968</v>
       </c>
     </row>
     <row r="337">
@@ -3144,7 +3144,7 @@
         <v>43218</v>
       </c>
       <c r="B338" t="n">
-        <v>0.005500171880371266</v>
+        <v>0.01065658301821928</v>
       </c>
     </row>
     <row r="339">
@@ -3160,7 +3160,7 @@
         <v>43224</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.01876079980251785</v>
+        <v>-0.02493211552703032</v>
       </c>
     </row>
     <row r="341">
@@ -3168,7 +3168,7 @@
         <v>43225</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.03555086237240414</v>
+        <v>-0.02675114396339323</v>
       </c>
     </row>
     <row r="342">
@@ -3176,7 +3176,7 @@
         <v>43228</v>
       </c>
       <c r="B342" t="n">
-        <v>0.1030214779759739</v>
+        <v>0.1285038223516564</v>
       </c>
     </row>
     <row r="343">
@@ -3192,7 +3192,7 @@
         <v>43230</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.1379310344827586</v>
+        <v>-0.1478398731668649</v>
       </c>
     </row>
     <row r="345">
@@ -3200,7 +3200,7 @@
         <v>43231</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.06990521327014225</v>
+        <v>-0.09952606635071096</v>
       </c>
     </row>
     <row r="346">
@@ -3216,7 +3216,7 @@
         <v>43235</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.03959462644355408</v>
+        <v>-0.05727079896299787</v>
       </c>
     </row>
     <row r="348">
@@ -3224,7 +3224,7 @@
         <v>43236</v>
       </c>
       <c r="B348" t="n">
-        <v>0.02644230769230773</v>
+        <v>0.009615384615384581</v>
       </c>
     </row>
     <row r="349">
@@ -3232,7 +3232,7 @@
         <v>43237</v>
       </c>
       <c r="B349" t="n">
-        <v>0.0200621644532354</v>
+        <v>0.01017236507487989</v>
       </c>
     </row>
     <row r="350">
@@ -3240,7 +3240,7 @@
         <v>43238</v>
       </c>
       <c r="B350" t="n">
-        <v>0.03554078240859117</v>
+        <v>0.03426233699821026</v>
       </c>
     </row>
     <row r="351">
@@ -3256,7 +3256,7 @@
         <v>43242</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.09260991580916747</v>
+        <v>-0.09377923292797002</v>
       </c>
     </row>
     <row r="353">
@@ -3288,7 +3288,7 @@
         <v>43246</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.06283710895361376</v>
+        <v>-0.0560949298813376</v>
       </c>
     </row>
     <row r="357">
@@ -3296,7 +3296,7 @@
         <v>43249</v>
       </c>
       <c r="B357" t="n">
-        <v>0.01374970869261253</v>
+        <v>0.01957585644371949</v>
       </c>
     </row>
     <row r="358">
@@ -3312,7 +3312,7 @@
         <v>43251</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.005917159763313609</v>
+        <v>0.005917159763313609</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3320,7 @@
         <v>43252</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.04873294346978558</v>
+        <v>-0.04970760233918124</v>
       </c>
     </row>
     <row r="361">
@@ -3336,7 +3336,7 @@
         <v>43256</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.01391883944324644</v>
+        <v>-0.02960203881591841</v>
       </c>
     </row>
     <row r="363">
@@ -3352,7 +3352,7 @@
         <v>43258</v>
       </c>
       <c r="B364" t="n">
-        <v>0.03809715783108245</v>
+        <v>0.04616004837734326</v>
       </c>
     </row>
     <row r="365">
@@ -3360,7 +3360,7 @@
         <v>43259</v>
       </c>
       <c r="B365" t="n">
-        <v>0.03238866396761136</v>
+        <v>0.04251012145748991</v>
       </c>
     </row>
     <row r="366">
@@ -3368,7 +3368,7 @@
         <v>43260</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.01106663527195665</v>
+        <v>-0.01342123852130917</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3376,7 @@
         <v>43263</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.02473356123064542</v>
+        <v>-0.009652121455861591</v>
       </c>
     </row>
     <row r="368">
@@ -3392,7 +3392,7 @@
         <v>43265</v>
       </c>
       <c r="B369" t="n">
-        <v>0.0286368843069874</v>
+        <v>0.01947308132875147</v>
       </c>
     </row>
     <row r="370">
@@ -3416,7 +3416,7 @@
         <v>43270</v>
       </c>
       <c r="B372" t="n">
-        <v>0.001719690455717934</v>
+        <v>-0.00150472914875323</v>
       </c>
     </row>
     <row r="373">
@@ -3432,7 +3432,7 @@
         <v>43272</v>
       </c>
       <c r="B374" t="n">
-        <v>0.1309523809523811</v>
+        <v>0.09126984126984132</v>
       </c>
     </row>
     <row r="375">
@@ -3440,7 +3440,7 @@
         <v>43273</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1818620356970574</v>
+        <v>0.1456825856246985</v>
       </c>
     </row>
     <row r="376">
@@ -3448,7 +3448,7 @@
         <v>43274</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.05818334030975306</v>
+        <v>-0.1419003767266639</v>
       </c>
     </row>
     <row r="377">
@@ -3472,7 +3472,7 @@
         <v>43279</v>
       </c>
       <c r="B379" t="n">
-        <v>0.005791935843172154</v>
+        <v>0.01358877255513476</v>
       </c>
     </row>
     <row r="380">
@@ -3480,7 +3480,7 @@
         <v>43280</v>
       </c>
       <c r="B380" t="n">
-        <v>0.009702166064981943</v>
+        <v>-0.0004512635379062077</v>
       </c>
     </row>
     <row r="381">
@@ -3512,7 +3512,7 @@
         <v>43286</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.02721482339316741</v>
+        <v>-0.03011001737116391</v>
       </c>
     </row>
     <row r="385">
@@ -3520,7 +3520,7 @@
         <v>43287</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.03785818866345957</v>
+        <v>-0.04099560761347</v>
       </c>
     </row>
     <row r="386">
@@ -3528,7 +3528,7 @@
         <v>43288</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.01215805471124616</v>
+        <v>0.01215805471124616</v>
       </c>
     </row>
     <row r="387">
@@ -3544,7 +3544,7 @@
         <v>43292</v>
       </c>
       <c r="B388" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02285714285714291</v>
       </c>
     </row>
     <row r="389">
@@ -3552,7 +3552,7 @@
         <v>43293</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.000187582067154476</v>
+        <v>0.003564059275933178</v>
       </c>
     </row>
     <row r="390">
@@ -3560,7 +3560,7 @@
         <v>43294</v>
       </c>
       <c r="B390" t="n">
-        <v>0.007279165846940873</v>
+        <v>0.008262836907338219</v>
       </c>
     </row>
     <row r="391">
@@ -3568,7 +3568,7 @@
         <v>43295</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.01930261519302615</v>
+        <v>-0.0244914902449149</v>
       </c>
     </row>
     <row r="392">
@@ -3576,7 +3576,7 @@
         <v>43298</v>
       </c>
       <c r="B392" t="n">
-        <v>0.02991944764096667</v>
+        <v>0.03663214422708087</v>
       </c>
     </row>
     <row r="393">
@@ -3584,7 +3584,7 @@
         <v>43299</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.007035175879397014</v>
+        <v>0.01507537688442211</v>
       </c>
     </row>
     <row r="394">
@@ -3592,7 +3592,7 @@
         <v>43300</v>
       </c>
       <c r="B394" t="n">
-        <v>0.00968054211035818</v>
+        <v>0.01161665053242984</v>
       </c>
     </row>
     <row r="395">
@@ -3600,7 +3600,7 @@
         <v>43301</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.00448262980948827</v>
+        <v>-0.0007471049682480229</v>
       </c>
     </row>
     <row r="396">
@@ -3608,7 +3608,7 @@
         <v>43302</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.008371536774965152</v>
+        <v>-0.01335459437911106</v>
       </c>
     </row>
     <row r="397">
@@ -3616,7 +3616,7 @@
         <v>43305</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.002471751412429389</v>
+        <v>0.01518361581920903</v>
       </c>
     </row>
     <row r="398">
@@ -3624,7 +3624,7 @@
         <v>43306</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.007019346002396792</v>
+        <v>-0.0001712035610340355</v>
       </c>
     </row>
     <row r="399">
@@ -3632,7 +3632,7 @@
         <v>43307</v>
       </c>
       <c r="B399" t="n">
-        <v>0.003268567278009801</v>
+        <v>0.006900308698020747</v>
       </c>
     </row>
     <row r="400">
@@ -3640,7 +3640,7 @@
         <v>43308</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.01454409845235878</v>
+        <v>-0.04437814655976138</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3648,7 @@
         <v>43309</v>
       </c>
       <c r="B401" t="n">
-        <v>0.002155172413793134</v>
+        <v>-0.01400862068965514</v>
       </c>
     </row>
     <row r="402">
@@ -3656,7 +3656,7 @@
         <v>43312</v>
       </c>
       <c r="B402" t="n">
-        <v>0.009231315462453456</v>
+        <v>0.008343688975679015</v>
       </c>
     </row>
     <row r="403">
@@ -3664,7 +3664,7 @@
         <v>43313</v>
       </c>
       <c r="B403" t="n">
-        <v>0.01651278409090908</v>
+        <v>0.02095170454545454</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3672,7 @@
         <v>43314</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.008069939475453883</v>
+        <v>-0.01227303295225281</v>
       </c>
     </row>
     <row r="405">
@@ -3680,7 +3680,7 @@
         <v>43315</v>
       </c>
       <c r="B405" t="n">
-        <v>0.0004783163265306304</v>
+        <v>-0.003507653061224472</v>
       </c>
     </row>
     <row r="406">
@@ -3696,7 +3696,7 @@
         <v>43319</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.02210884353741507</v>
+        <v>-0.01978973407544849</v>
       </c>
     </row>
     <row r="408">
@@ -3704,7 +3704,7 @@
         <v>43320</v>
       </c>
       <c r="B408" t="n">
-        <v>0.02477276777757977</v>
+        <v>0.01586170023168777</v>
       </c>
     </row>
     <row r="409">
@@ -3728,7 +3728,7 @@
         <v>43323</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.0397574123989219</v>
+        <v>-0.04537286612758318</v>
       </c>
     </row>
     <row r="412">
@@ -3736,7 +3736,7 @@
         <v>43326</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.02651652742462769</v>
+        <v>-0.02833272793316386</v>
       </c>
     </row>
     <row r="413">
@@ -3744,7 +3744,7 @@
         <v>43327</v>
       </c>
       <c r="B413" t="n">
-        <v>0.0289990645463049</v>
+        <v>0.02432179607109443</v>
       </c>
     </row>
     <row r="414">
@@ -3752,7 +3752,7 @@
         <v>43328</v>
       </c>
       <c r="B414" t="n">
-        <v>0.009992862241256286</v>
+        <v>0.01623840114204146</v>
       </c>
     </row>
     <row r="415">
@@ -3760,7 +3760,7 @@
         <v>43329</v>
       </c>
       <c r="B415" t="n">
-        <v>0.01207937877480579</v>
+        <v>-0.007765314926660963</v>
       </c>
     </row>
     <row r="416">
@@ -3768,7 +3768,7 @@
         <v>43330</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.02361911846754702</v>
+        <v>-0.03291798400595133</v>
       </c>
     </row>
     <row r="417">
@@ -3784,7 +3784,7 @@
         <v>43334</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.006116207951070423</v>
+        <v>-0.02140672782874626</v>
       </c>
     </row>
     <row r="419">
@@ -3792,7 +3792,7 @@
         <v>43335</v>
       </c>
       <c r="B419" t="n">
-        <v>0.02160638797557543</v>
+        <v>0.01377798653514956</v>
       </c>
     </row>
     <row r="420">
@@ -3800,7 +3800,7 @@
         <v>43336</v>
       </c>
       <c r="B420" t="n">
-        <v>0.004340277777777778</v>
+        <v>-0.005208333333333408</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3808,7 @@
         <v>43337</v>
       </c>
       <c r="B421" t="n">
-        <v>0.006523765144454827</v>
+        <v>-0.01211556383970174</v>
       </c>
     </row>
     <row r="422">
@@ -3816,7 +3816,7 @@
         <v>43340</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.008627213561374197</v>
+        <v>-0.01619494475556218</v>
       </c>
     </row>
     <row r="423">
@@ -3824,7 +3824,7 @@
         <v>43341</v>
       </c>
       <c r="B423" t="n">
-        <v>0.0195641800540798</v>
+        <v>0.01797359630984575</v>
       </c>
     </row>
     <row r="424">
@@ -3832,7 +3832,7 @@
         <v>43342</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.02003484320557489</v>
+        <v>-0.002613240418118442</v>
       </c>
     </row>
     <row r="425">
@@ -3840,7 +3840,7 @@
         <v>43343</v>
       </c>
       <c r="B425" t="n">
-        <v>0.01194168734491309</v>
+        <v>0.004187344913151303</v>
       </c>
     </row>
     <row r="426">
@@ -3848,7 +3848,7 @@
         <v>43344</v>
       </c>
       <c r="B426" t="n">
-        <v>0.02074966532797861</v>
+        <v>0.02493306559571623</v>
       </c>
     </row>
     <row r="427">
@@ -3856,7 +3856,7 @@
         <v>43347</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.008711324722138755</v>
+        <v>0.002553319315109668</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3864,7 @@
         <v>43348</v>
       </c>
       <c r="B428" t="n">
-        <v>0.00540216086434573</v>
+        <v>0.001650660264105634</v>
       </c>
     </row>
     <row r="429">
@@ -3872,7 +3872,7 @@
         <v>43349</v>
       </c>
       <c r="B429" t="n">
-        <v>0.00566355426297267</v>
+        <v>-0.0004592071024032013</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3880,7 @@
         <v>43350</v>
       </c>
       <c r="B430" t="n">
-        <v>0.001121255806503288</v>
+        <v>0.005125740829729301</v>
       </c>
     </row>
     <row r="431">
@@ -3888,7 +3888,7 @@
         <v>43351</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.005188585112751906</v>
+        <v>-0.01217321891837955</v>
       </c>
     </row>
     <row r="432">
@@ -3896,7 +3896,7 @@
         <v>43354</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.003460207612456674</v>
+        <v>-0.01038062283737014</v>
       </c>
     </row>
     <row r="433">
@@ -3904,7 +3904,7 @@
         <v>43355</v>
       </c>
       <c r="B433" t="n">
-        <v>0.003449357165255548</v>
+        <v>0.007369081216682328</v>
       </c>
     </row>
     <row r="434">
@@ -3912,7 +3912,7 @@
         <v>43356</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.0282438478747203</v>
+        <v>-0.0142617449664429</v>
       </c>
     </row>
     <row r="435">
@@ -3920,7 +3920,7 @@
         <v>43357</v>
       </c>
       <c r="B435" t="n">
-        <v>0.008636644046884674</v>
+        <v>0.01403454657618749</v>
       </c>
     </row>
     <row r="436">
@@ -3928,7 +3928,7 @@
         <v>43358</v>
       </c>
       <c r="B436" t="n">
-        <v>0.01853639698783551</v>
+        <v>0.005985711527321921</v>
       </c>
     </row>
     <row r="437">
@@ -3936,7 +3936,7 @@
         <v>43361</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.0510697032436163</v>
+        <v>-0.05452035886818501</v>
       </c>
     </row>
     <row r="438">
@@ -3944,7 +3944,7 @@
         <v>43362</v>
       </c>
       <c r="B438" t="n">
-        <v>0.03732638888888886</v>
+        <v>0.0503472222222222</v>
       </c>
     </row>
     <row r="439">
@@ -3952,7 +3952,7 @@
         <v>43363</v>
       </c>
       <c r="B439" t="n">
-        <v>0.01188425766448498</v>
+        <v>0.003272476748191487</v>
       </c>
     </row>
     <row r="440">
@@ -3960,7 +3960,7 @@
         <v>43364</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.05637254901960777</v>
+        <v>-0.08088235294117641</v>
       </c>
     </row>
     <row r="441">
@@ -3968,7 +3968,7 @@
         <v>43365</v>
       </c>
       <c r="B441" t="n">
-        <v>0.2593467138921685</v>
+        <v>0.2199921290830382</v>
       </c>
     </row>
     <row r="442">
@@ -3976,7 +3976,7 @@
         <v>43368</v>
       </c>
       <c r="B442" t="n">
-        <v>0.0008020532563361751</v>
+        <v>0.04427333974975924</v>
       </c>
     </row>
     <row r="443">
@@ -3984,7 +3984,7 @@
         <v>43369</v>
       </c>
       <c r="B443" t="n">
-        <v>0.134861172322609</v>
+        <v>0.1844424856765094</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3992,7 @@
         <v>43370</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.005381332343663002</v>
+        <v>-0.02115420300612359</v>
       </c>
     </row>
     <row r="445">
@@ -4008,7 +4008,7 @@
         <v>43372</v>
       </c>
       <c r="B446" t="n">
-        <v>0.05399010539901049</v>
+        <v>0.1131426113142611</v>
       </c>
     </row>
     <row r="447">
@@ -4016,7 +4016,7 @@
         <v>43375</v>
       </c>
       <c r="B447" t="n">
-        <v>0.08880491261218701</v>
+        <v>0.1454888993859234</v>
       </c>
     </row>
     <row r="448">
@@ -4024,7 +4024,7 @@
         <v>43376</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1115363586659376</v>
+        <v>-0.04319300164024052</v>
       </c>
     </row>
     <row r="449">
@@ -4032,7 +4032,7 @@
         <v>43377</v>
       </c>
       <c r="B449" t="n">
-        <v>0.005372217958557088</v>
+        <v>-0.01765157329240223</v>
       </c>
     </row>
     <row r="450">
@@ -4048,7 +4048,7 @@
         <v>43379</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.02866517009152127</v>
+        <v>-0.05456743222241404</v>
       </c>
     </row>
     <row r="452">
@@ -4056,7 +4056,7 @@
         <v>43382</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.05686740254296484</v>
+        <v>-0.06385356993153547</v>
       </c>
     </row>
     <row r="453">
@@ -4064,7 +4064,7 @@
         <v>43383</v>
       </c>
       <c r="B453" t="n">
-        <v>0.01737172269583398</v>
+        <v>0.009329258484799714</v>
       </c>
     </row>
     <row r="454">
@@ -4072,7 +4072,7 @@
         <v>43384</v>
       </c>
       <c r="B454" t="n">
-        <v>0.002759889604415797</v>
+        <v>-0.03403863845446185</v>
       </c>
     </row>
     <row r="455">
@@ -4080,7 +4080,7 @@
         <v>43385</v>
       </c>
       <c r="B455" t="n">
-        <v>0.01814338559098105</v>
+        <v>0.03047384181786149</v>
       </c>
     </row>
     <row r="456">
@@ -4096,7 +4096,7 @@
         <v>43389</v>
       </c>
       <c r="B457" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="458">
@@ -4112,7 +4112,7 @@
         <v>43391</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.01440785307156423</v>
+        <v>-0.009658011399620005</v>
       </c>
     </row>
     <row r="460">
@@ -4120,7 +4120,7 @@
         <v>43392</v>
       </c>
       <c r="B460" t="n">
-        <v>0.009466055317260769</v>
+        <v>-0.005324656115959169</v>
       </c>
     </row>
     <row r="461">
@@ -4128,7 +4128,7 @@
         <v>43393</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.0400808352980802</v>
+        <v>-0.05692152239811388</v>
       </c>
     </row>
     <row r="462">
@@ -4136,7 +4136,7 @@
         <v>43396</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.07567879838243782</v>
+        <v>-0.1117850953206238</v>
       </c>
     </row>
     <row r="463">
@@ -4144,7 +4144,7 @@
         <v>43397</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.1137536459501907</v>
+        <v>-0.153017724927081</v>
       </c>
     </row>
     <row r="464">
@@ -4152,7 +4152,7 @@
         <v>43398</v>
       </c>
       <c r="B464" t="n">
-        <v>0.0155929421419778</v>
+        <v>0.03610997127615917</v>
       </c>
     </row>
     <row r="465">
@@ -4160,7 +4160,7 @@
         <v>43399</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.01332649923116352</v>
+        <v>-0.01759781308730567</v>
       </c>
     </row>
     <row r="466">
@@ -4168,7 +4168,7 @@
         <v>43400</v>
       </c>
       <c r="B466" t="n">
-        <v>0.01309226932668335</v>
+        <v>0.002701579384871209</v>
       </c>
     </row>
     <row r="467">
@@ -4176,7 +4176,7 @@
         <v>43403</v>
       </c>
       <c r="B467" t="n">
-        <v>0.0246510246510246</v>
+        <v>0.03950103950103945</v>
       </c>
     </row>
     <row r="468">
@@ -4184,7 +4184,7 @@
         <v>43404</v>
       </c>
       <c r="B468" t="n">
-        <v>0.06889676561807707</v>
+        <v>0.06335844040762072</v>
       </c>
     </row>
     <row r="469">
@@ -4192,7 +4192,7 @@
         <v>43405</v>
       </c>
       <c r="B469" t="n">
-        <v>0.03840534335211863</v>
+        <v>0.02275099144228769</v>
       </c>
     </row>
     <row r="470">
@@ -4200,7 +4200,7 @@
         <v>43406</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.08252693080153374</v>
+        <v>-0.1053496439656747</v>
       </c>
     </row>
     <row r="471">
@@ -4208,7 +4208,7 @@
         <v>43407</v>
       </c>
       <c r="B471" t="n">
-        <v>0.06648731744811685</v>
+        <v>0.07609531129900078</v>
       </c>
     </row>
     <row r="472">
@@ -4216,7 +4216,7 @@
         <v>43410</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.04355251921434666</v>
+        <v>-0.03415883859948762</v>
       </c>
     </row>
     <row r="473">
@@ -4224,7 +4224,7 @@
         <v>43411</v>
       </c>
       <c r="B473" t="n">
-        <v>0.005177646848776989</v>
+        <v>0.008748437778968077</v>
       </c>
     </row>
     <row r="474">
@@ -4240,7 +4240,7 @@
         <v>43413</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.008569988237271014</v>
+        <v>-0.03797681062006382</v>
       </c>
     </row>
     <row r="476">
@@ -4248,7 +4248,7 @@
         <v>43414</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.01903877408869283</v>
+        <v>-0.01323426979335965</v>
       </c>
     </row>
     <row r="477">
@@ -4256,7 +4256,7 @@
         <v>43417</v>
       </c>
       <c r="B477" t="n">
-        <v>0.002636038410845426</v>
+        <v>-0.01619280738090754</v>
       </c>
     </row>
     <row r="478">
@@ -4264,7 +4264,7 @@
         <v>43418</v>
       </c>
       <c r="B478" t="n">
-        <v>0.02634556327784068</v>
+        <v>0.03038629384192666</v>
       </c>
     </row>
     <row r="479">
@@ -4272,7 +4272,7 @@
         <v>43419</v>
       </c>
       <c r="B479" t="n">
-        <v>0.0003150598613737103</v>
+        <v>0.012129804662886</v>
       </c>
     </row>
     <row r="480">
@@ -4280,7 +4280,7 @@
         <v>43420</v>
       </c>
       <c r="B480" t="n">
-        <v>0.003981305175696674</v>
+        <v>-0.009001211701575265</v>
       </c>
     </row>
     <row r="481">
@@ -4288,7 +4288,7 @@
         <v>43421</v>
       </c>
       <c r="B481" t="n">
-        <v>0.0215722879070732</v>
+        <v>0.03609209707529562</v>
       </c>
     </row>
     <row r="482">
@@ -4296,7 +4296,7 @@
         <v>43424</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.02143622722400857</v>
+        <v>-0.05144694533762055</v>
       </c>
     </row>
     <row r="483">
@@ -4312,7 +4312,7 @@
         <v>43426</v>
       </c>
       <c r="B484" t="n">
-        <v>0.008997429305912633</v>
+        <v>-0.04884318766066834</v>
       </c>
     </row>
     <row r="485">
@@ -4320,7 +4320,7 @@
         <v>43427</v>
       </c>
       <c r="B485" t="n">
-        <v>0.0207892443669862</v>
+        <v>0.02390140669737336</v>
       </c>
     </row>
     <row r="486">
@@ -4328,7 +4328,7 @@
         <v>43428</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.007263922518159852</v>
+        <v>0.0008071025020177104</v>
       </c>
     </row>
     <row r="487">
@@ -4336,7 +4336,7 @@
         <v>43431</v>
       </c>
       <c r="B487" t="n">
-        <v>0.08263806118394908</v>
+        <v>0.1058137994967553</v>
       </c>
     </row>
     <row r="488">
@@ -4344,7 +4344,7 @@
         <v>43432</v>
       </c>
       <c r="B488" t="n">
-        <v>0.03227023966786188</v>
+        <v>0.0143423287412719</v>
       </c>
     </row>
     <row r="489">
@@ -4376,7 +4376,7 @@
         <v>43438</v>
       </c>
       <c r="B492" t="n">
-        <v>0.07601184600197436</v>
+        <v>0.06120434353405729</v>
       </c>
     </row>
     <row r="493">
@@ -4384,7 +4384,7 @@
         <v>43439</v>
       </c>
       <c r="B493" t="n">
-        <v>0.01925350447559535</v>
+        <v>0.03445363958790743</v>
       </c>
     </row>
     <row r="494">
@@ -4392,7 +4392,7 @@
         <v>43440</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.0410958904109589</v>
+        <v>-0.045662100456621</v>
       </c>
     </row>
     <row r="495">
@@ -4400,7 +4400,7 @@
         <v>43441</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.03710662282761856</v>
+        <v>-0.04884922498825736</v>
       </c>
     </row>
     <row r="496">
@@ -4408,7 +4408,7 @@
         <v>43442</v>
       </c>
       <c r="B496" t="n">
-        <v>0.4321819713563607</v>
+        <v>0.4743049705139007</v>
       </c>
     </row>
     <row r="497">
@@ -4416,7 +4416,7 @@
         <v>43445</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.02474264041899941</v>
+        <v>-0.03377280115586053</v>
       </c>
     </row>
     <row r="498">
@@ -4432,7 +4432,7 @@
         <v>43447</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.005887681159420299</v>
+        <v>-0.02702294685990326</v>
       </c>
     </row>
     <row r="500">
@@ -4440,7 +4440,7 @@
         <v>43448</v>
       </c>
       <c r="B500" t="n">
-        <v>0.0237492973580663</v>
+        <v>0.02234401349072518</v>
       </c>
     </row>
     <row r="501">
@@ -4448,7 +4448,7 @@
         <v>43449</v>
       </c>
       <c r="B501" t="n">
-        <v>0.05679103106046689</v>
+        <v>0.03841205660724138</v>
       </c>
     </row>
     <row r="502">
@@ -4456,7 +4456,7 @@
         <v>43452</v>
       </c>
       <c r="B502" t="n">
-        <v>0.04289318755256513</v>
+        <v>0.05971404541631618</v>
       </c>
     </row>
     <row r="503">
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="B503" t="n">
-        <v>0.009922041105598908</v>
+        <v>0.001063075832742776</v>
       </c>
     </row>
     <row r="504">
@@ -4472,7 +4472,7 @@
         <v>43454</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.02540130534485796</v>
+        <v>-0.01217145881107775</v>
       </c>
     </row>
     <row r="505">
@@ -4480,7 +4480,7 @@
         <v>43455</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.0175332527206771</v>
+        <v>0.001612253123740536</v>
       </c>
     </row>
     <row r="506">
@@ -4504,7 +4504,7 @@
         <v>43463</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.1233629066328687</v>
+        <v>-0.1180819602872835</v>
       </c>
     </row>
     <row r="509">
@@ -4512,7 +4512,7 @@
         <v>43468</v>
       </c>
       <c r="B509" t="n">
-        <v>0.0221760221760222</v>
+        <v>0.05682605682605685</v>
       </c>
     </row>
     <row r="510">
@@ -4520,7 +4520,7 @@
         <v>43469</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.003205770386695985</v>
+        <v>0.01182127830094176</v>
       </c>
     </row>
     <row r="511">
@@ -4528,7 +4528,7 @@
         <v>43470</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.01612138454243717</v>
+        <v>-0.02797534376481744</v>
       </c>
     </row>
     <row r="512">
@@ -4536,7 +4536,7 @@
         <v>43473</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.1594202898550725</v>
+        <v>-0.1666666666666667</v>
       </c>
     </row>
     <row r="513">
@@ -4544,7 +4544,7 @@
         <v>43474</v>
       </c>
       <c r="B513" t="n">
-        <v>0.05875000000000004</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="514">
@@ -4552,7 +4552,7 @@
         <v>43475</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.02098418797103593</v>
+        <v>-0.02467858726171127</v>
       </c>
     </row>
     <row r="515">
@@ -4560,7 +4560,7 @@
         <v>43476</v>
       </c>
       <c r="B515" t="n">
-        <v>0.06370192307692307</v>
+        <v>0.04166666666666663</v>
       </c>
     </row>
     <row r="516">
@@ -4568,7 +4568,7 @@
         <v>43477</v>
       </c>
       <c r="B516" t="n">
-        <v>0.0220588235294119</v>
+        <v>0.01102941176470595</v>
       </c>
     </row>
     <row r="517">
@@ -4584,7 +4584,7 @@
         <v>43481</v>
       </c>
       <c r="B518" t="n">
-        <v>0.0309734513274336</v>
+        <v>0.02876106194690259</v>
       </c>
     </row>
     <row r="519">
@@ -4592,7 +4592,7 @@
         <v>43482</v>
       </c>
       <c r="B519" t="n">
-        <v>0.04458450046685333</v>
+        <v>0.06792717086834725</v>
       </c>
     </row>
     <row r="520">
@@ -4600,7 +4600,7 @@
         <v>43483</v>
       </c>
       <c r="B520" t="n">
-        <v>0.02057346508990772</v>
+        <v>0.02867325449538317</v>
       </c>
     </row>
     <row r="521">
@@ -4608,7 +4608,7 @@
         <v>43484</v>
       </c>
       <c r="B521" t="n">
-        <v>0.02003971836071492</v>
+        <v>0.02906661852319912</v>
       </c>
     </row>
     <row r="522">
@@ -4632,7 +4632,7 @@
         <v>43489</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.02680652680652677</v>
+        <v>-0.03846153846153843</v>
       </c>
     </row>
     <row r="525">
@@ -4640,7 +4640,7 @@
         <v>43490</v>
       </c>
       <c r="B525" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="526">
@@ -4648,7 +4648,7 @@
         <v>43491</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.01201874108779799</v>
+        <v>-0.009981666327154247</v>
       </c>
     </row>
     <row r="527">
@@ -4656,7 +4656,7 @@
         <v>43494</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.02890845655424481</v>
+        <v>-0.003156670543279577</v>
       </c>
     </row>
     <row r="528">
@@ -4664,7 +4664,7 @@
         <v>43495</v>
       </c>
       <c r="B528" t="n">
-        <v>0.05521009986809873</v>
+        <v>0.04578858111927642</v>
       </c>
     </row>
     <row r="529">
@@ -4672,7 +4672,7 @@
         <v>43496</v>
       </c>
       <c r="B529" t="n">
-        <v>0.01938502673796786</v>
+        <v>0.01102941176470582</v>
       </c>
     </row>
     <row r="530">
@@ -4680,7 +4680,7 @@
         <v>43497</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.01315789473684205</v>
+        <v>-0.008651766402307082</v>
       </c>
     </row>
     <row r="531">
@@ -4688,7 +4688,7 @@
         <v>43498</v>
       </c>
       <c r="B531" t="n">
-        <v>0.01613867304243878</v>
+        <v>0.05100617652918913</v>
       </c>
     </row>
     <row r="532">
@@ -4696,7 +4696,7 @@
         <v>43501</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.01003904071388732</v>
+        <v>-0.01933444878230153</v>
       </c>
     </row>
     <row r="533">
@@ -4704,7 +4704,7 @@
         <v>43502</v>
       </c>
       <c r="B533" t="n">
-        <v>0.0132501948558067</v>
+        <v>0.02299298519095868</v>
       </c>
     </row>
     <row r="534">
@@ -4712,7 +4712,7 @@
         <v>43503</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.05162738496071823</v>
+        <v>-0.06846240179573507</v>
       </c>
     </row>
     <row r="535">
@@ -4720,7 +4720,7 @@
         <v>43504</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.03892359442575679</v>
+        <v>-0.05694377703027385</v>
       </c>
     </row>
     <row r="536">
@@ -4728,7 +4728,7 @@
         <v>43505</v>
       </c>
       <c r="B536" t="n">
-        <v>0.3215859030837005</v>
+        <v>0.2481644640234949</v>
       </c>
     </row>
     <row r="537">
@@ -4736,7 +4736,7 @@
         <v>43508</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.005134788189987205</v>
+        <v>0.02695763799743256</v>
       </c>
     </row>
     <row r="538">
@@ -4744,7 +4744,7 @@
         <v>43509</v>
       </c>
       <c r="B538" t="n">
-        <v>0.02137505509034815</v>
+        <v>0.0191714411635081</v>
       </c>
     </row>
     <row r="539">
@@ -4752,7 +4752,7 @@
         <v>43510</v>
       </c>
       <c r="B539" t="n">
-        <v>0.008352006518639163</v>
+        <v>0.01344469342024845</v>
       </c>
     </row>
     <row r="540">
@@ -4760,7 +4760,7 @@
         <v>43511</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.02141957160856775</v>
+        <v>-0.0182696346073078</v>
       </c>
     </row>
     <row r="541">
@@ -4768,7 +4768,7 @@
         <v>43512</v>
       </c>
       <c r="B541" t="n">
-        <v>0.01988781234064256</v>
+        <v>0.0007649158592555109</v>
       </c>
     </row>
     <row r="542">
@@ -4776,7 +4776,7 @@
         <v>43515</v>
       </c>
       <c r="B542" t="n">
-        <v>0.002178649237472677</v>
+        <v>-0.01960784313725496</v>
       </c>
     </row>
     <row r="543">
@@ -4784,7 +4784,7 @@
         <v>43516</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.0175438596491229</v>
+        <v>-0.02412280701754389</v>
       </c>
     </row>
     <row r="544">
@@ -4792,7 +4792,7 @@
         <v>43517</v>
       </c>
       <c r="B544" t="n">
-        <v>0.0316909553550776</v>
+        <v>0.02359472588480229</v>
       </c>
     </row>
     <row r="545">
@@ -4800,7 +4800,7 @@
         <v>43518</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.02012711864406785</v>
+        <v>-0.00423728813559328</v>
       </c>
     </row>
     <row r="546">
@@ -4816,7 +4816,7 @@
         <v>43522</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.007847533632287027</v>
+        <v>-0.006726457399103235</v>
       </c>
     </row>
     <row r="548">
@@ -4824,7 +4824,7 @@
         <v>43523</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.01040488577244969</v>
+        <v>-0.02736937344492198</v>
       </c>
     </row>
     <row r="549">
@@ -4832,7 +4832,7 @@
         <v>43524</v>
       </c>
       <c r="B549" t="n">
-        <v>0.003477396920019885</v>
+        <v>-0.02136115250869348</v>
       </c>
     </row>
     <row r="550">
@@ -4840,7 +4840,7 @@
         <v>43525</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.01526717557251915</v>
+        <v>-0.02399127589967288</v>
       </c>
     </row>
     <row r="551">
@@ -4848,7 +4848,7 @@
         <v>43526</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.01818181818181818</v>
+        <v>-0.03636363636363636</v>
       </c>
     </row>
     <row r="552">
@@ -4856,7 +4856,7 @@
         <v>43529</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.1464582003828973</v>
+        <v>-0.1703892788768347</v>
       </c>
     </row>
     <row r="553">
@@ -4864,7 +4864,7 @@
         <v>43530</v>
       </c>
       <c r="B553" t="n">
-        <v>0.1216566005176876</v>
+        <v>0.1072763876905377</v>
       </c>
     </row>
     <row r="554">
@@ -4872,7 +4872,7 @@
         <v>43531</v>
       </c>
       <c r="B554" t="n">
-        <v>0.01481736733287387</v>
+        <v>0.02515506547208823</v>
       </c>
     </row>
     <row r="555">
@@ -4880,7 +4880,7 @@
         <v>43532</v>
       </c>
       <c r="B555" t="n">
-        <v>0.05153467222432737</v>
+        <v>0.02311481621826447</v>
       </c>
     </row>
     <row r="556">
@@ -4888,7 +4888,7 @@
         <v>43533</v>
       </c>
       <c r="B556" t="n">
-        <v>0.4097744360902255</v>
+        <v>0.5037593984962405</v>
       </c>
     </row>
     <row r="557">
@@ -4896,7 +4896,7 @@
         <v>43536</v>
       </c>
       <c r="B557" t="n">
-        <v>0.01393823449029784</v>
+        <v>0.008472260180377019</v>
       </c>
     </row>
     <row r="558">
@@ -4904,7 +4904,7 @@
         <v>43537</v>
       </c>
       <c r="B558" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1911357340720221</v>
       </c>
     </row>
     <row r="559">
@@ -4912,7 +4912,7 @@
         <v>43538</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.0396435156730178</v>
+        <v>-0.1318377381684081</v>
       </c>
     </row>
     <row r="560">
@@ -4936,7 +4936,7 @@
         <v>43543</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.0163211292456992</v>
+        <v>-0.005293339214821394</v>
       </c>
     </row>
     <row r="563">
@@ -4944,7 +4944,7 @@
         <v>43544</v>
       </c>
       <c r="B563" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.04216867469879518</v>
       </c>
     </row>
     <row r="564">
@@ -4952,7 +4952,7 @@
         <v>43545</v>
       </c>
       <c r="B564" t="n">
-        <v>0.02412666499120384</v>
+        <v>0.01784367931641118</v>
       </c>
     </row>
     <row r="565">
@@ -4960,7 +4960,7 @@
         <v>43546</v>
       </c>
       <c r="B565" t="n">
-        <v>0.00443677594281488</v>
+        <v>0.01059896475228</v>
       </c>
     </row>
     <row r="566">
@@ -4976,7 +4976,7 @@
         <v>43550</v>
       </c>
       <c r="B567" t="n">
-        <v>0.0136986301369863</v>
+        <v>0.03424657534246575</v>
       </c>
     </row>
     <row r="568">
@@ -4984,7 +4984,7 @@
         <v>43551</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.004727544165215172</v>
+        <v>-0.01094799701418258</v>
       </c>
     </row>
     <row r="569">
@@ -4992,7 +4992,7 @@
         <v>43552</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.01937618147448016</v>
+        <v>-0.001654064272211727</v>
       </c>
     </row>
     <row r="570">
@@ -5000,7 +5000,7 @@
         <v>43553</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.01505646173149313</v>
+        <v>-0.02885821831869507</v>
       </c>
     </row>
     <row r="571">
@@ -5008,7 +5008,7 @@
         <v>43554</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.01541095890410957</v>
+        <v>-0.0225456621004566</v>
       </c>
     </row>
     <row r="572">
@@ -5016,7 +5016,7 @@
         <v>43557</v>
       </c>
       <c r="B572" t="n">
-        <v>0.03397341211225993</v>
+        <v>0.05612998522895121</v>
       </c>
     </row>
     <row r="573">
@@ -5024,7 +5024,7 @@
         <v>43558</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.01160037878787883</v>
+        <v>-0.01964962121212134</v>
       </c>
     </row>
     <row r="574">
@@ -5032,7 +5032,7 @@
         <v>43559</v>
       </c>
       <c r="B574" t="n">
-        <v>0.01142313184197993</v>
+        <v>0.001903855306996627</v>
       </c>
     </row>
     <row r="575">
@@ -5040,7 +5040,7 @@
         <v>43560</v>
       </c>
       <c r="B575" t="n">
-        <v>0.001655629139072854</v>
+        <v>-0.003074739829706778</v>
       </c>
     </row>
     <row r="576">
@@ -5048,7 +5048,7 @@
         <v>43561</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.04774328202452383</v>
+        <v>-0.04122097573702057</v>
       </c>
     </row>
     <row r="577">
@@ -5056,7 +5056,7 @@
         <v>43564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.01809954751131217</v>
+        <v>0.0121457489878542</v>
       </c>
     </row>
     <row r="578">
@@ -5064,7 +5064,7 @@
         <v>43565</v>
       </c>
       <c r="B578" t="n">
-        <v>0.004203643157403076</v>
+        <v>-0.01914992993928072</v>
       </c>
     </row>
     <row r="579">
@@ -5072,7 +5072,7 @@
         <v>43566</v>
       </c>
       <c r="B579" t="n">
-        <v>0.005811354492624005</v>
+        <v>0.01139919535091636</v>
       </c>
     </row>
     <row r="580">
@@ -5080,7 +5080,7 @@
         <v>43567</v>
       </c>
       <c r="B580" t="n">
-        <v>0.007795100222717181</v>
+        <v>0.0111358574610245</v>
       </c>
     </row>
     <row r="581">
@@ -5088,7 +5088,7 @@
         <v>43568</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.01014002897151139</v>
+        <v>-0.005311443746982106</v>
       </c>
     </row>
     <row r="582">
@@ -5096,7 +5096,7 @@
         <v>43571</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.007688611244593952</v>
+        <v>-0.008889956751561689</v>
       </c>
     </row>
     <row r="583">
@@ -5104,7 +5104,7 @@
         <v>43572</v>
       </c>
       <c r="B583" t="n">
-        <v>0.01200686106346471</v>
+        <v>0.0291595197255574</v>
       </c>
     </row>
     <row r="584">
@@ -5112,7 +5112,7 @@
         <v>43573</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.0658667972575907</v>
+        <v>-0.06953966699314405</v>
       </c>
     </row>
     <row r="585">
@@ -5120,7 +5120,7 @@
         <v>43574</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.09131205673758874</v>
+        <v>-0.1060874704491727</v>
       </c>
     </row>
     <row r="586">
@@ -5128,7 +5128,7 @@
         <v>43579</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.03458213256484158</v>
+        <v>-0.02017291066282429</v>
       </c>
     </row>
     <row r="587">
@@ -5136,7 +5136,7 @@
         <v>43580</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.02696514881709494</v>
+        <v>-0.007886034088018374</v>
       </c>
     </row>
     <row r="588">
@@ -5144,7 +5144,7 @@
         <v>43581</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.02388608176389525</v>
+        <v>-0.02618282039503906</v>
       </c>
     </row>
     <row r="589">
@@ -5152,7 +5152,7 @@
         <v>43582</v>
       </c>
       <c r="B589" t="n">
-        <v>0.02375742419506101</v>
+        <v>0.05501719287277279</v>
       </c>
     </row>
     <row r="590">
@@ -5160,7 +5160,7 @@
         <v>43585</v>
       </c>
       <c r="B590" t="n">
-        <v>0.0006997900629811322</v>
+        <v>0.008864007464427399</v>
       </c>
     </row>
     <row r="591">
@@ -5168,7 +5168,7 @@
         <v>43586</v>
       </c>
       <c r="B591" t="n">
-        <v>0.02080879466038481</v>
+        <v>0.1189634864546526</v>
       </c>
     </row>
     <row r="592">
@@ -5176,7 +5176,7 @@
         <v>43588</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.02948402948402955</v>
+        <v>-0.02334152334152341</v>
       </c>
     </row>
     <row r="593">
@@ -5184,7 +5184,7 @@
         <v>43589</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.05720070868134645</v>
+        <v>-0.06352822070361928</v>
       </c>
     </row>
     <row r="594">
@@ -5192,7 +5192,7 @@
         <v>43592</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.02912621359223299</v>
+        <v>-0.04893996433524864</v>
       </c>
     </row>
     <row r="595">
@@ -5200,7 +5200,7 @@
         <v>43593</v>
       </c>
       <c r="B595" t="n">
-        <v>0.04509754243729418</v>
+        <v>0.03876361793767422</v>
       </c>
     </row>
     <row r="596">
@@ -5208,7 +5208,7 @@
         <v>43594</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.04972375690607735</v>
+        <v>-0.06077348066298342</v>
       </c>
     </row>
     <row r="597">
@@ -5216,7 +5216,7 @@
         <v>43595</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.006474659522214761</v>
+        <v>0.0102701495869614</v>
       </c>
     </row>
     <row r="598">
@@ -5224,7 +5224,7 @@
         <v>43596</v>
       </c>
       <c r="B598" t="n">
-        <v>0.0170167508641319</v>
+        <v>0.03695825578303644</v>
       </c>
     </row>
     <row r="599">
@@ -5232,7 +5232,7 @@
         <v>43599</v>
       </c>
       <c r="B599" t="n">
-        <v>0.02414045354791519</v>
+        <v>0.01194830529139239</v>
       </c>
     </row>
     <row r="600">
@@ -5240,7 +5240,7 @@
         <v>43600</v>
       </c>
       <c r="B600" t="n">
-        <v>0.04651162790697671</v>
+        <v>0.05263157894736838</v>
       </c>
     </row>
     <row r="601">
@@ -5248,7 +5248,7 @@
         <v>43601</v>
       </c>
       <c r="B601" t="n">
-        <v>0.04958469670274367</v>
+        <v>0.04455071734205898</v>
       </c>
     </row>
     <row r="602">
@@ -5264,7 +5264,7 @@
         <v>43603</v>
       </c>
       <c r="B603" t="n">
-        <v>-0.01855337456305452</v>
+        <v>-0.0118311374025275</v>
       </c>
     </row>
     <row r="604">
@@ -5272,7 +5272,7 @@
         <v>43606</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.02748902748902744</v>
+        <v>-0.03557403557403555</v>
       </c>
     </row>
     <row r="605">
@@ -5280,7 +5280,7 @@
         <v>43607</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.002244948865053714</v>
+        <v>0.0039910202045397</v>
       </c>
     </row>
     <row r="606">
@@ -5288,7 +5288,7 @@
         <v>43608</v>
       </c>
       <c r="B606" t="n">
-        <v>0.05114334890582735</v>
+        <v>0.05974920088517334</v>
       </c>
     </row>
     <row r="607">
@@ -5296,7 +5296,7 @@
         <v>43609</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.01136925358378648</v>
+        <v>-0.005190311418685142</v>
       </c>
     </row>
     <row r="608">
@@ -5304,7 +5304,7 @@
         <v>43610</v>
       </c>
       <c r="B608" t="n">
-        <v>0.00872410032715377</v>
+        <v>-0.01172300981461286</v>
       </c>
     </row>
     <row r="609">
@@ -5312,7 +5312,7 @@
         <v>43613</v>
       </c>
       <c r="B609" t="n">
-        <v>-0.03069466882067847</v>
+        <v>-0.02954073390260792</v>
       </c>
     </row>
     <row r="610">
@@ -5320,7 +5320,7 @@
         <v>43614</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.0002394636015325194</v>
+        <v>0.005747126436781657</v>
       </c>
     </row>
     <row r="611">
@@ -5336,7 +5336,7 @@
         <v>43616</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.0156380899190171</v>
+        <v>-0.004468025691147827</v>
       </c>
     </row>
     <row r="613">
@@ -5344,7 +5344,7 @@
         <v>43617</v>
       </c>
       <c r="B613" t="n">
-        <v>0.04305740987983975</v>
+        <v>0.05807743658210943</v>
       </c>
     </row>
     <row r="614">
@@ -5352,7 +5352,7 @@
         <v>43620</v>
       </c>
       <c r="B614" t="n">
-        <v>0.02590407796870987</v>
+        <v>0.04129263913824056</v>
       </c>
     </row>
     <row r="615">
@@ -5360,7 +5360,7 @@
         <v>43621</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.04429211705773793</v>
+        <v>-0.05483785921434216</v>
       </c>
     </row>
     <row r="616">
@@ -5368,7 +5368,7 @@
         <v>43622</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.02001096491228062</v>
+        <v>-0.06524122807017532</v>
       </c>
     </row>
     <row r="617">
@@ -5376,7 +5376,7 @@
         <v>43623</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.06274926881148629</v>
+        <v>-0.06939643711778781</v>
       </c>
     </row>
     <row r="618">
@@ -5384,7 +5384,7 @@
         <v>43627</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.0038056861428252</v>
+        <v>-0.02619207521826733</v>
       </c>
     </row>
     <row r="619">
@@ -5392,7 +5392,7 @@
         <v>43628</v>
       </c>
       <c r="B619" t="n">
-        <v>0.01136363636363636</v>
+        <v>-0.01704545454545454</v>
       </c>
     </row>
     <row r="620">
@@ -5400,7 +5400,7 @@
         <v>43629</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.01973513373149826</v>
+        <v>-0.0002596728122565051</v>
       </c>
     </row>
     <row r="621">
@@ -5408,7 +5408,7 @@
         <v>43630</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.01249399327246507</v>
+        <v>-0.02090341182123973</v>
       </c>
     </row>
     <row r="622">
@@ -5416,7 +5416,7 @@
         <v>43631</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.02714192282537601</v>
+        <v>-0.04349247874427725</v>
       </c>
     </row>
     <row r="623">
@@ -5424,7 +5424,7 @@
         <v>43634</v>
       </c>
       <c r="B623" t="n">
-        <v>0.001655629139072854</v>
+        <v>0.01111636707663195</v>
       </c>
     </row>
     <row r="624">
@@ -5432,7 +5432,7 @@
         <v>43635</v>
       </c>
       <c r="B624" t="n">
-        <v>-0.008495145631067996</v>
+        <v>-0.01092233009708745</v>
       </c>
     </row>
     <row r="625">
@@ -5440,7 +5440,7 @@
         <v>43636</v>
       </c>
       <c r="B625" t="n">
-        <v>0.01676284693597141</v>
+        <v>0.02363286617202526</v>
       </c>
     </row>
     <row r="626">
@@ -5448,7 +5448,7 @@
         <v>43637</v>
       </c>
       <c r="B626" t="n">
-        <v>0.001550788317394734</v>
+        <v>-0.004910829671749748</v>
       </c>
     </row>
     <row r="627">
@@ -5456,7 +5456,7 @@
         <v>43638</v>
       </c>
       <c r="B627" t="n">
-        <v>0.04331331014859314</v>
+        <v>0.05912108757508697</v>
       </c>
     </row>
     <row r="628">
@@ -5464,7 +5464,7 @@
         <v>43641</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.01283316880552821</v>
+        <v>-0.03751233958539001</v>
       </c>
     </row>
     <row r="629">
@@ -5472,7 +5472,7 @@
         <v>43642</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.02619294605809142</v>
+        <v>-0.01452282157676354</v>
       </c>
     </row>
     <row r="630">
@@ -5480,7 +5480,7 @@
         <v>43643</v>
       </c>
       <c r="B630" t="n">
-        <v>0.01494220468001131</v>
+        <v>-0.006202424584155593</v>
       </c>
     </row>
     <row r="631">
@@ -5488,7 +5488,7 @@
         <v>43644</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.03337169159953977</v>
+        <v>-0.05638665132336024</v>
       </c>
     </row>
     <row r="632">
@@ -5496,7 +5496,7 @@
         <v>43645</v>
       </c>
       <c r="B632" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.009022556390977357</v>
       </c>
     </row>
     <row r="633">
@@ -5504,7 +5504,7 @@
         <v>43648</v>
       </c>
       <c r="B633" t="n">
-        <v>0.01949025487256368</v>
+        <v>0.005997001499250247</v>
       </c>
     </row>
     <row r="634">
@@ -5512,7 +5512,7 @@
         <v>43649</v>
       </c>
       <c r="B634" t="n">
-        <v>0.009809578765147244</v>
+        <v>0.07184073860357768</v>
       </c>
     </row>
     <row r="635">
@@ -5520,7 +5520,7 @@
         <v>43650</v>
       </c>
       <c r="B635" t="n">
-        <v>0.006474396703943673</v>
+        <v>0.02266038846380233</v>
       </c>
     </row>
     <row r="636">
@@ -5528,7 +5528,7 @@
         <v>43651</v>
       </c>
       <c r="B636" t="n">
-        <v>0.01389676687464555</v>
+        <v>-0.007373794668179184</v>
       </c>
     </row>
     <row r="637">
@@ -5536,7 +5536,7 @@
         <v>43652</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.0171370967741936</v>
+        <v>-0.05913978494623661</v>
       </c>
     </row>
     <row r="638">
@@ -5544,7 +5544,7 @@
         <v>43655</v>
       </c>
       <c r="B638" t="n">
-        <v>0.01096549879646955</v>
+        <v>0.01631452259962555</v>
       </c>
     </row>
     <row r="639">
@@ -5552,7 +5552,7 @@
         <v>43656</v>
       </c>
       <c r="B639" t="n">
-        <v>0.007957559681697571</v>
+        <v>0.03086568603809986</v>
       </c>
     </row>
     <row r="640">
@@ -5560,7 +5560,7 @@
         <v>43657</v>
       </c>
       <c r="B640" t="n">
-        <v>0.001960357220649171</v>
+        <v>0.01829666739272497</v>
       </c>
     </row>
     <row r="641">
@@ -5568,7 +5568,7 @@
         <v>43658</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.02740937223695849</v>
+        <v>-0.03846153846153851</v>
       </c>
     </row>
     <row r="642">
@@ -5576,7 +5576,7 @@
         <v>43659</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.009129967776584409</v>
+        <v>-0.01584317937701405</v>
       </c>
     </row>
     <row r="643">
@@ -5584,7 +5584,7 @@
         <v>43662</v>
       </c>
       <c r="B643" t="n">
-        <v>0.0258801585451154</v>
+        <v>0.03170902308230356</v>
       </c>
     </row>
     <row r="644">
@@ -5592,7 +5592,7 @@
         <v>43663</v>
       </c>
       <c r="B644" t="n">
-        <v>0.02877070619006103</v>
+        <v>0.04075850043591973</v>
       </c>
     </row>
     <row r="645">
@@ -5608,7 +5608,7 @@
         <v>43665</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.00133898683329619</v>
+        <v>0.002008480249944126</v>
       </c>
     </row>
     <row r="647">
@@ -5616,7 +5616,7 @@
         <v>43666</v>
       </c>
       <c r="B647" t="n">
-        <v>0.03305785123966932</v>
+        <v>0.04730692504987166</v>
       </c>
     </row>
     <row r="648">
@@ -5632,7 +5632,7 @@
         <v>43670</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.04028436018957345</v>
+        <v>-0.06200631911532387</v>
       </c>
     </row>
     <row r="650">
@@ -5640,7 +5640,7 @@
         <v>43671</v>
       </c>
       <c r="B650" t="n">
-        <v>0.04021501094963176</v>
+        <v>0.03523790563408328</v>
       </c>
     </row>
     <row r="651">
@@ -5648,7 +5648,7 @@
         <v>43672</v>
       </c>
       <c r="B651" t="n">
-        <v>0.02808988764044944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -5656,7 +5656,7 @@
         <v>43673</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.004424778761061853</v>
+        <v>-0.01825221238938044</v>
       </c>
     </row>
     <row r="653">
@@ -5664,7 +5664,7 @@
         <v>43676</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.01190208847967665</v>
+        <v>-0.006287895800583901</v>
       </c>
     </row>
     <row r="654">
@@ -5672,7 +5672,7 @@
         <v>43677</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.1211058386630905</v>
+        <v>-0.1231689704972148</v>
       </c>
     </row>
     <row r="655">
@@ -5680,7 +5680,7 @@
         <v>43678</v>
       </c>
       <c r="B655" t="n">
-        <v>0.02440662785490379</v>
+        <v>0.01880877742946716</v>
       </c>
     </row>
     <row r="656">
@@ -5688,7 +5688,7 @@
         <v>43679</v>
       </c>
       <c r="B656" t="n">
-        <v>0.01487414187643017</v>
+        <v>0.001144164759725335</v>
       </c>
     </row>
     <row r="657">
@@ -5696,7 +5696,7 @@
         <v>43680</v>
       </c>
       <c r="B657" t="n">
-        <v>0.0393181193291174</v>
+        <v>0.03794335991201547</v>
       </c>
     </row>
     <row r="658">
@@ -5704,7 +5704,7 @@
         <v>43683</v>
       </c>
       <c r="B658" t="n">
-        <v>0.01759391345696612</v>
+        <v>0.01046124583927717</v>
       </c>
     </row>
     <row r="659">
@@ -5712,7 +5712,7 @@
         <v>43684</v>
       </c>
       <c r="B659" t="n">
-        <v>0.03988255444091027</v>
+        <v>0.04110594568142892</v>
       </c>
     </row>
     <row r="660">
@@ -5720,7 +5720,7 @@
         <v>43685</v>
       </c>
       <c r="B660" t="n">
-        <v>0.02246543778801847</v>
+        <v>0.03686635944700464</v>
       </c>
     </row>
     <row r="661">
@@ -5728,7 +5728,7 @@
         <v>43686</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.004910829671749748</v>
+        <v>0.01576634789351252</v>
       </c>
     </row>
     <row r="662">
@@ -5736,7 +5736,7 @@
         <v>43687</v>
       </c>
       <c r="B662" t="n">
-        <v>0.01286173633440516</v>
+        <v>-0.7909967845659164</v>
       </c>
     </row>
     <row r="663">
@@ -5744,7 +5744,7 @@
         <v>43690</v>
       </c>
       <c r="B663" t="n">
-        <v>0.03180862250262884</v>
+        <v>0.01866456361724503</v>
       </c>
     </row>
     <row r="664">
@@ -5752,7 +5752,7 @@
         <v>43691</v>
       </c>
       <c r="B664" t="n">
-        <v>0.07686355429455756</v>
+        <v>0.08331183905081239</v>
       </c>
     </row>
     <row r="665">
@@ -5760,7 +5760,7 @@
         <v>43692</v>
       </c>
       <c r="B665" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.05737704918032787</v>
       </c>
     </row>
     <row r="666">
@@ -5768,7 +5768,7 @@
         <v>43693</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.005323620061641853</v>
+        <v>-0.01092743065284395</v>
       </c>
     </row>
     <row r="667">
@@ -5776,7 +5776,7 @@
         <v>43694</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.04462242562929055</v>
+        <v>-0.008390541571319561</v>
       </c>
     </row>
     <row r="668">
@@ -5784,7 +5784,7 @@
         <v>43697</v>
       </c>
       <c r="B668" t="n">
-        <v>0.04396984924623116</v>
+        <v>0.06783919597989957</v>
       </c>
     </row>
     <row r="669">
@@ -5800,7 +5800,7 @@
         <v>43699</v>
       </c>
       <c r="B670" t="n">
-        <v>0.04654365188653257</v>
+        <v>0.06031396309556589</v>
       </c>
     </row>
     <row r="671">
@@ -5808,7 +5808,7 @@
         <v>43700</v>
       </c>
       <c r="B671" t="n">
-        <v>0.0329581993569131</v>
+        <v>0.02893890675241153</v>
       </c>
     </row>
     <row r="672">
@@ -5824,7 +5824,7 @@
         <v>43704</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.01981904351572602</v>
+        <v>-0.04136148211977599</v>
       </c>
     </row>
     <row r="674">
@@ -5832,7 +5832,7 @@
         <v>43705</v>
       </c>
       <c r="B674" t="n">
-        <v>-0.05075742671650597</v>
+        <v>-0.07534920322644105</v>
       </c>
     </row>
     <row r="675">
@@ -5840,7 +5840,7 @@
         <v>43706</v>
       </c>
       <c r="B675" t="n">
-        <v>0.03843560350640595</v>
+        <v>0.06203641267700602</v>
       </c>
     </row>
     <row r="676">
@@ -5848,7 +5848,7 @@
         <v>43707</v>
       </c>
       <c r="B676" t="n">
-        <v>0.02443154329946778</v>
+        <v>0.01596516690856305</v>
       </c>
     </row>
     <row r="677">
@@ -5856,7 +5856,7 @@
         <v>43708</v>
       </c>
       <c r="B677" t="n">
-        <v>0.0101010101010102</v>
+        <v>0.03980986333927521</v>
       </c>
     </row>
     <row r="678">
@@ -5864,7 +5864,7 @@
         <v>43711</v>
       </c>
       <c r="B678" t="n">
-        <v>0.0225988700564973</v>
+        <v>0.05932203389830513</v>
       </c>
     </row>
     <row r="679">
@@ -5872,7 +5872,7 @@
         <v>43712</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.01499558953249039</v>
+        <v>0.0364598647456631</v>
       </c>
     </row>
     <row r="680">
@@ -5880,7 +5880,7 @@
         <v>43713</v>
       </c>
       <c r="B680" t="n">
-        <v>0.002522068095838646</v>
+        <v>-0.03846153846153843</v>
       </c>
     </row>
     <row r="681">
@@ -5888,7 +5888,7 @@
         <v>43714</v>
       </c>
       <c r="B681" t="n">
-        <v>0.03389830508474558</v>
+        <v>0.04006163328197217</v>
       </c>
     </row>
     <row r="682">
@@ -5896,7 +5896,7 @@
         <v>43715</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.05954368391764053</v>
+        <v>-0.06649972175848638</v>
       </c>
     </row>
     <row r="683">
@@ -5904,7 +5904,7 @@
         <v>43718</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.001901140684410654</v>
+        <v>0.004888647474198797</v>
       </c>
     </row>
     <row r="684">
@@ -5912,7 +5912,7 @@
         <v>43719</v>
       </c>
       <c r="B684" t="n">
-        <v>0.02269378131447106</v>
+        <v>0.02858826996758028</v>
       </c>
     </row>
     <row r="685">
@@ -5920,7 +5920,7 @@
         <v>43720</v>
       </c>
       <c r="B685" t="n">
-        <v>0.01905770248808891</v>
+        <v>0.01244044467972469</v>
       </c>
     </row>
     <row r="686">
@@ -5928,7 +5928,7 @@
         <v>43721</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.05945668887749872</v>
+        <v>-0.06458226550486937</v>
       </c>
     </row>
     <row r="687">
@@ -5936,7 +5936,7 @@
         <v>43722</v>
       </c>
       <c r="B687" t="n">
-        <v>0.02209944751381207</v>
+        <v>0.00828729281767948</v>
       </c>
     </row>
     <row r="688">
@@ -5944,7 +5944,7 @@
         <v>43725</v>
       </c>
       <c r="B688" t="n">
-        <v>0.02598169471508718</v>
+        <v>0.04812518452908186</v>
       </c>
     </row>
     <row r="689">
@@ -5952,7 +5952,7 @@
         <v>43726</v>
       </c>
       <c r="B689" t="n">
-        <v>0.0005482456140351734</v>
+        <v>0.01425438596491237</v>
       </c>
     </row>
     <row r="690">
@@ -5960,7 +5960,7 @@
         <v>43727</v>
       </c>
       <c r="B690" t="n">
-        <v>0.005025125628140678</v>
+        <v>0.03357697578803104</v>
       </c>
     </row>
     <row r="691">
@@ -5968,7 +5968,7 @@
         <v>43728</v>
       </c>
       <c r="B691" t="n">
-        <v>0.02459016393442616</v>
+        <v>0.04800936768149876</v>
       </c>
     </row>
     <row r="692">
@@ -5976,7 +5976,7 @@
         <v>43729</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.05627705627705615</v>
+        <v>-0.03318903318903315</v>
       </c>
     </row>
     <row r="693">
@@ -5984,7 +5984,7 @@
         <v>43732</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.03793466807165446</v>
+        <v>-0.04636459430979985</v>
       </c>
     </row>
     <row r="694">
@@ -5992,7 +5992,7 @@
         <v>43733</v>
       </c>
       <c r="B694" t="n">
-        <v>0.01091142490372268</v>
+        <v>0.005562687205819383</v>
       </c>
     </row>
     <row r="695">
@@ -6000,7 +6000,7 @@
         <v>43734</v>
       </c>
       <c r="B695" t="n">
-        <v>0.004330045706038001</v>
+        <v>0.01034399807553523</v>
       </c>
     </row>
     <row r="696">
@@ -6008,7 +6008,7 @@
         <v>43735</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.002341311134235076</v>
+        <v>-0.01795005202913626</v>
       </c>
     </row>
     <row r="697">
@@ -6016,7 +6016,7 @@
         <v>43736</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.04564315352697101</v>
+        <v>-0.1493775933609959</v>
       </c>
     </row>
     <row r="698">
@@ -6024,7 +6024,7 @@
         <v>43739</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.03642773207990593</v>
+        <v>-0.0658049353701527</v>
       </c>
     </row>
     <row r="699">
@@ -6032,7 +6032,7 @@
         <v>43740</v>
       </c>
       <c r="B699" t="n">
-        <v>0.021781693587861</v>
+        <v>0.02790014684287814</v>
       </c>
     </row>
     <row r="700">
@@ -6040,7 +6040,7 @@
         <v>43741</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.01921637135013734</v>
+        <v>-0.02919890192163718</v>
       </c>
     </row>
     <row r="701">
@@ -6048,7 +6048,7 @@
         <v>43742</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.009844322344322337</v>
+        <v>-0.001831501831501792</v>
       </c>
     </row>
     <row r="702">
@@ -6056,7 +6056,7 @@
         <v>43743</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.02277039848197353</v>
+        <v>-0.03361344537815131</v>
       </c>
     </row>
     <row r="703">
@@ -6064,7 +6064,7 @@
         <v>43746</v>
       </c>
       <c r="B703" t="n">
-        <v>0.05421686746987953</v>
+        <v>0.03270223752151465</v>
       </c>
     </row>
     <row r="704">
@@ -6080,7 +6080,7 @@
         <v>43748</v>
       </c>
       <c r="B705" t="n">
-        <v>0.01772816808929741</v>
+        <v>0.03250164149704525</v>
       </c>
     </row>
     <row r="706">
@@ -6088,7 +6088,7 @@
         <v>43749</v>
       </c>
       <c r="B706" t="n">
-        <v>0.001155179052753221</v>
+        <v>-0.008471313053523253</v>
       </c>
     </row>
     <row r="707">
@@ -6096,7 +6096,7 @@
         <v>43750</v>
       </c>
       <c r="B707" t="n">
-        <v>0.1277242777496198</v>
+        <v>0.1403953370501774</v>
       </c>
     </row>
     <row r="708">
@@ -6104,7 +6104,7 @@
         <v>43753</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.04652761861104747</v>
+        <v>-0.03735961494384604</v>
       </c>
     </row>
     <row r="709">
@@ -6112,7 +6112,7 @@
         <v>43754</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.01165737455651295</v>
+        <v>-0.03066396350734923</v>
       </c>
     </row>
     <row r="710">
@@ -6120,7 +6120,7 @@
         <v>43755</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.006168608636052161</v>
+        <v>0.01096641535298142</v>
       </c>
     </row>
     <row r="711">
@@ -6128,7 +6128,7 @@
         <v>43756</v>
       </c>
       <c r="B711" t="n">
-        <v>0.03394625176803383</v>
+        <v>0.04667609618104664</v>
       </c>
     </row>
     <row r="712">
@@ -6136,7 +6136,7 @@
         <v>43757</v>
       </c>
       <c r="B712" t="n">
-        <v>0.004835297673012892</v>
+        <v>0.0123904502870957</v>
       </c>
     </row>
     <row r="713">
@@ -6144,7 +6144,7 @@
         <v>43760</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.01772368140081141</v>
+        <v>-0.001708306641042031</v>
       </c>
     </row>
     <row r="714">
@@ -6152,7 +6152,7 @@
         <v>43761</v>
       </c>
       <c r="B714" t="n">
-        <v>0.01102941176470581</v>
+        <v>0.005284926470588163</v>
       </c>
     </row>
     <row r="715">
@@ -6160,7 +6160,7 @@
         <v>43762</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.002849002849002834</v>
+        <v>0.02305102305102306</v>
       </c>
     </row>
     <row r="716">
@@ -6176,7 +6176,7 @@
         <v>43764</v>
       </c>
       <c r="B717" t="n">
-        <v>0.01434933201385448</v>
+        <v>0.0514596734289955</v>
       </c>
     </row>
     <row r="718">
@@ -6184,7 +6184,7 @@
         <v>43767</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.002286426938266461</v>
+        <v>0.008106422781126596</v>
       </c>
     </row>
     <row r="719">
@@ -6192,7 +6192,7 @@
         <v>43768</v>
       </c>
       <c r="B719" t="n">
-        <v>0.009995835068721301</v>
+        <v>0.02040816326530605</v>
       </c>
     </row>
     <row r="720">
@@ -6208,7 +6208,7 @@
         <v>43770</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.03036876355748385</v>
+        <v>-0.01611403780601187</v>
       </c>
     </row>
     <row r="722">
@@ -6216,7 +6216,7 @@
         <v>43771</v>
       </c>
       <c r="B722" t="n">
-        <v>0.009825327510917015</v>
+        <v>0.01892285298398834</v>
       </c>
     </row>
     <row r="723">
@@ -6224,7 +6224,7 @@
         <v>43774</v>
       </c>
       <c r="B723" t="n">
-        <v>0.007025761124121713</v>
+        <v>0.01873536299765801</v>
       </c>
     </row>
     <row r="724">
@@ -6232,7 +6232,7 @@
         <v>43775</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.04325159297161618</v>
+        <v>-0.05387140374589688</v>
       </c>
     </row>
     <row r="725">
@@ -6240,7 +6240,7 @@
         <v>43776</v>
       </c>
       <c r="B725" t="n">
-        <v>0.01825842696629216</v>
+        <v>0.006554307116104895</v>
       </c>
     </row>
     <row r="726">
@@ -6248,7 +6248,7 @@
         <v>43777</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.00785229202037346</v>
+        <v>-0.004668930390492336</v>
       </c>
     </row>
     <row r="727">
@@ -6256,7 +6256,7 @@
         <v>43778</v>
       </c>
       <c r="B727" t="n">
-        <v>-0.03454065723195005</v>
+        <v>-0.04533461261693453</v>
       </c>
     </row>
     <row r="728">
@@ -6264,7 +6264,7 @@
         <v>43781</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.02369668246445497</v>
+        <v>-0.02251184834123229</v>
       </c>
     </row>
     <row r="729">
@@ -6272,7 +6272,7 @@
         <v>43782</v>
       </c>
       <c r="B729" t="n">
-        <v>0.003610875106202245</v>
+        <v>0.01954120645709434</v>
       </c>
     </row>
     <row r="730">
@@ -6280,7 +6280,7 @@
         <v>43783</v>
       </c>
       <c r="B730" t="n">
-        <v>0.03155339805825242</v>
+        <v>0.05361871138570167</v>
       </c>
     </row>
     <row r="731">
@@ -6288,7 +6288,7 @@
         <v>43784</v>
       </c>
       <c r="B731" t="n">
-        <v>0.0105540897097625</v>
+        <v>0.01583113456464384</v>
       </c>
     </row>
     <row r="732">
@@ -6296,7 +6296,7 @@
         <v>43785</v>
       </c>
       <c r="B732" t="n">
-        <v>0.003937007874015711</v>
+        <v>0.03149606299212587</v>
       </c>
     </row>
     <row r="733">
@@ -6304,7 +6304,7 @@
         <v>43788</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.06969240696924074</v>
+        <v>-0.08044740804474085</v>
       </c>
     </row>
     <row r="734">
@@ -6312,7 +6312,7 @@
         <v>43789</v>
       </c>
       <c r="B734" t="n">
-        <v>0.06666666666666661</v>
+        <v>0.06572769953051644</v>
       </c>
     </row>
     <row r="735">
@@ -6320,7 +6320,7 @@
         <v>43790</v>
       </c>
       <c r="B735" t="n">
-        <v>0.008185266520263457</v>
+        <v>0.01816729886204824</v>
       </c>
     </row>
     <row r="736">
@@ -6328,7 +6328,7 @@
         <v>43791</v>
       </c>
       <c r="B736" t="n">
-        <v>0.00160624139513539</v>
+        <v>0.01537402478201014</v>
       </c>
     </row>
     <row r="737">
@@ -6336,7 +6336,7 @@
         <v>43792</v>
       </c>
       <c r="B737" t="n">
-        <v>0.0137344669718771</v>
+        <v>-0.002616088947024143</v>
       </c>
     </row>
     <row r="738">
@@ -6344,7 +6344,7 @@
         <v>43795</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.01393581081081074</v>
+        <v>-0.01288006756756756</v>
       </c>
     </row>
     <row r="739">
@@ -6352,7 +6352,7 @@
         <v>43796</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.03164556962025317</v>
+        <v>-0.04430379746835443</v>
       </c>
     </row>
     <row r="740">
@@ -6360,7 +6360,7 @@
         <v>43797</v>
       </c>
       <c r="B740" t="n">
-        <v>0.006887504099704849</v>
+        <v>-0.04066907182682842</v>
       </c>
     </row>
     <row r="741">
@@ -6368,7 +6368,7 @@
         <v>43798</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.0331836327345309</v>
+        <v>-0.01447105788423149</v>
       </c>
     </row>
     <row r="742">
@@ -6376,7 +6376,7 @@
         <v>43799</v>
       </c>
       <c r="B742" t="n">
-        <v>0.01761485360628427</v>
+        <v>0.005712925493930064</v>
       </c>
     </row>
     <row r="743">
@@ -6384,7 +6384,7 @@
         <v>43802</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.04108255451713395</v>
+        <v>-0.03621495327102803</v>
       </c>
     </row>
     <row r="744">
@@ -6392,7 +6392,7 @@
         <v>43803</v>
       </c>
       <c r="B744" t="n">
-        <v>0.02211097204839388</v>
+        <v>0.02732582394659996</v>
       </c>
     </row>
     <row r="745">
@@ -6400,7 +6400,7 @@
         <v>43804</v>
       </c>
       <c r="B745" t="n">
-        <v>0.04017216642754662</v>
+        <v>0.03419416547106647</v>
       </c>
     </row>
     <row r="746">
@@ -6408,7 +6408,7 @@
         <v>43805</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.05144694533762062</v>
+        <v>-0.06752411575562706</v>
       </c>
     </row>
     <row r="747">
@@ -6424,7 +6424,7 @@
         <v>43809</v>
       </c>
       <c r="B748" t="n">
-        <v>0.02066218571072936</v>
+        <v>0.02688573562359966</v>
       </c>
     </row>
     <row r="749">
@@ -6432,7 +6432,7 @@
         <v>43810</v>
       </c>
       <c r="B749" t="n">
-        <v>0.04931794333683113</v>
+        <v>0.08210912906610711</v>
       </c>
     </row>
     <row r="750">
@@ -6440,7 +6440,7 @@
         <v>43811</v>
       </c>
       <c r="B750" t="n">
-        <v>0.002913491707754428</v>
+        <v>-0.01949798296727919</v>
       </c>
     </row>
     <row r="751">
@@ -6456,7 +6456,7 @@
         <v>43813</v>
       </c>
       <c r="B752" t="n">
-        <v>0.01162290142057682</v>
+        <v>-0.02066293585880329</v>
       </c>
     </row>
     <row r="753">
@@ -6464,7 +6464,7 @@
         <v>43816</v>
       </c>
       <c r="B753" t="n">
-        <v>0.06209150326797389</v>
+        <v>0.05119825708061009</v>
       </c>
     </row>
     <row r="754">
@@ -6480,7 +6480,7 @@
         <v>43818</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.0115440115440115</v>
+        <v>-0.03318903318903315</v>
       </c>
     </row>
     <row r="756">
@@ -6488,7 +6488,7 @@
         <v>43819</v>
       </c>
       <c r="B756" t="n">
-        <v>0.0098605916354981</v>
+        <v>0.01666099965997955</v>
       </c>
     </row>
     <row r="757">
@@ -6496,7 +6496,7 @@
         <v>43820</v>
       </c>
       <c r="B757" t="n">
-        <v>0.06723585912486661</v>
+        <v>0.04055496264674495</v>
       </c>
     </row>
     <row r="758">
@@ -6504,7 +6504,7 @@
         <v>43823</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1208576998050682</v>
+        <v>0.2183235867446394</v>
       </c>
     </row>
     <row r="759">
@@ -6512,15 +6512,7 @@
         <v>43827</v>
       </c>
       <c r="B759" t="n">
-        <v>0.02070574511519396</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" s="2" t="n">
-        <v>43830</v>
-      </c>
-      <c r="B760" t="n">
-        <v>-0.09896151496640201</v>
+        <v>0.03528725575969673</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/D1_riskprem_expost.xlsx
+++ b/datasets/D1_riskprem_expost.xlsx
@@ -456,7 +456,7 @@
         <v>42738</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1198550349469325</v>
+        <v>-0.02925187677970496</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>42739</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07208872458410348</v>
+        <v>0.1090573012939001</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>42740</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007806244995996809</v>
+        <v>0.01581265012009606</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>42741</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03935418768920289</v>
+        <v>0.04439959636730581</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>42742</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09034267912772577</v>
+        <v>0.07736240913810999</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>42745</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0615271928218275</v>
+        <v>-0.05694927668925105</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>42746</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007795100222717181</v>
+        <v>0.04398663697104672</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>42747</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0005851375073143104</v>
+        <v>0.00936220011702751</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>42748</v>
       </c>
       <c r="B10" t="n">
-        <v>0.005025125628140776</v>
+        <v>0.01758793969849253</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>42752</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0219046503455547</v>
+        <v>-0.01311936277380818</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>42753</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1155721250358475</v>
+        <v>0.1041009463722398</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>42754</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1067903081064912</v>
+        <v>0.0843553694286569</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>42755</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03371501272264627</v>
+        <v>0.04166666666666662</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>42756</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07749689183588898</v>
+        <v>0.03605470368835479</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>42759</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1689560439560439</v>
+        <v>-0.1022370486656201</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>42760</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.05824904080920829</v>
+        <v>-0.01755609812812469</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>42761</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09761078211149686</v>
+        <v>0.08740044925464573</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>42762</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06188627540534371</v>
+        <v>0.05046814341173786</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>42763</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.03279075253597548</v>
+        <v>-0.05048360462373203</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>42766</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1008962127782597</v>
+        <v>-0.0929459381324083</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>42767</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.030214424951267</v>
+        <v>0.03313840155945425</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>42768</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0472370766488413</v>
+        <v>0.02495543672014254</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>42769</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01765316718587749</v>
+        <v>0.03426791277258564</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>42770</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.07284768211920524</v>
+        <v>-0.0573951434878586</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>42773</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03893672781729686</v>
+        <v>0.06701609883938596</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>42774</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.05296681193429428</v>
+        <v>0.02665102246061018</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>42775</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06180939226519334</v>
+        <v>0.03763812154696132</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>42776</v>
       </c>
       <c r="B30" t="n">
-        <v>0.069995541685243</v>
+        <v>0.003120820329915305</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>42777</v>
       </c>
       <c r="B31" t="n">
-        <v>0.007782101167315286</v>
+        <v>-0.001297016861219122</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>42780</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05863192182410431</v>
+        <v>0.05281526291298286</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>42781</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01965342349957734</v>
+        <v>-0.00464919695688924</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>42782</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00566084174255486</v>
+        <v>0.009106571498892381</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>42783</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.02952115295211536</v>
+        <v>-0.01208740120874019</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>42784</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02015426723065445</v>
+        <v>0.03508335406817626</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>42787</v>
       </c>
       <c r="B37" t="n">
-        <v>0.008261933904528859</v>
+        <v>0.009791921664626693</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>42788</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0149130074565037</v>
+        <v>-0.05343827671913833</v>
       </c>
     </row>
     <row r="39">
@@ -760,7 +760,7 @@
         <v>42790</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.008695652173913044</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>42791</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0094180961991255</v>
+        <v>0.04271779347460476</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>42794</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.07345013477088948</v>
+        <v>-0.0835579514824798</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>42795</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.02469828795958469</v>
+        <v>-0.006455234353073364</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>42796</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00731261425959778</v>
+        <v>0.04204753199268733</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>42797</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01489417298144761</v>
+        <v>-0.01358766657956632</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>42798</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0251107828655835</v>
+        <v>-0.03988183161004435</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>42801</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.01370478544147381</v>
+        <v>-0.0226915299932599</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>42802</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.01675363911013457</v>
+        <v>-0.02499313375446297</v>
       </c>
     </row>
     <row r="49">
@@ -840,7 +840,7 @@
         <v>42804</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01311084624553032</v>
+        <v>0.02502979737783064</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>42805</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05462822458270097</v>
+        <v>0.03186646433990886</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>42808</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.003182870370370354</v>
+        <v>0.005787037037036914</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>42809</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.02732402732402737</v>
+        <v>-0.01544401544401554</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>42810</v>
       </c>
       <c r="B54" t="n">
-        <v>0.003776873910517009</v>
+        <v>0.00232423009877973</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>42811</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03545103545103551</v>
+        <v>0.009126009126009181</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>42812</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.173868835790544</v>
+        <v>-0.1865785460091511</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>42815</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.007220216606498158</v>
+        <v>-0.01378404988513286</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>42816</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07042253521126761</v>
+        <v>0.04225352112676056</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>42817</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0199004975124378</v>
+        <v>0.02575358501609586</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>42818</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.008457276173811583</v>
+        <v>-0.002624671916010391</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>42819</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.07407407407407413</v>
+        <v>-0.04761904761904766</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>42823</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.05509288917360663</v>
+        <v>-0.06470211402946828</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>42824</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.01546698393813195</v>
+        <v>-0.02290303390838775</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>42825</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.01706700379266748</v>
+        <v>-0.01232616940581544</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>42826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04509545753785388</v>
+        <v>0.04180381830151414</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>42829</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01681759379042687</v>
+        <v>-0.003880983182406173</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>42830</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.02110737228510241</v>
+        <v>0.003364943407769943</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>42831</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.01633877959319768</v>
+        <v>-0.009669889963321078</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>42832</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.06148389003842739</v>
+        <v>-0.04966006503103754</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>42833</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.02842227378190246</v>
+        <v>-0.03132250580046399</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>42836</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.05102954341987459</v>
+        <v>-0.03014025663980895</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>42837</v>
       </c>
       <c r="B73" t="n">
-        <v>0.04046242774566478</v>
+        <v>0.04768786127167631</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>42838</v>
       </c>
       <c r="B74" t="n">
-        <v>0.004441407584557534</v>
+        <v>0.007857874957294172</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>42839</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.02608121492241661</v>
+        <v>0.001980851766259567</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>42844</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005401026194975971</v>
+        <v>-0.004860923575479333</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>42845</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04088219472834866</v>
+        <v>0.04491662183969881</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>42846</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09245214879017691</v>
+        <v>0.08342361863488619</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>42847</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01874490627546866</v>
+        <v>0.07986960065199677</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>42850</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02900552486187837</v>
+        <v>0.02348066298342525</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>42851</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03608118266098734</v>
+        <v>0.02355299423703345</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>42852</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03968469692851321</v>
+        <v>0.02337591736885022</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>42853</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0008136696501220813</v>
+        <v>0.02657987523732042</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>42854</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05028117763810783</v>
+        <v>0.03374131657294077</v>
       </c>
     </row>
     <row r="85">
@@ -1128,7 +1128,7 @@
         <v>42859</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.03904820012202566</v>
+        <v>-0.0237949969493594</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>42860</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.03416557161629428</v>
+        <v>-0.028909329829172</v>
       </c>
     </row>
     <row r="88">
@@ -1152,7 +1152,7 @@
         <v>42864</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.02917505030181078</v>
+        <v>-0.01282696177062369</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>42865</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.0265258820499614</v>
+        <v>-0.02781354622714392</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>42866</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08311229000884174</v>
+        <v>0.0713233127026231</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>42867</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.06653565412689494</v>
+        <v>-0.04267265581134183</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>42868</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0003125976867771667</v>
+        <v>0.03157236636448895</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>42871</v>
       </c>
       <c r="B94" t="n">
-        <v>0.04440549225825309</v>
+        <v>0.02249488752556247</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>42872</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01476014760147592</v>
+        <v>0.01168511685116837</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>42873</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.04551007941356145</v>
+        <v>-0.02718387293830179</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>42874</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.006382361473745253</v>
+        <v>-0.02378880185668698</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42875</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1484699659992444</v>
+        <v>0.1333585190782018</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42878</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0008963250672244141</v>
+        <v>0.002390200179264963</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42879</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.04717566728739912</v>
+        <v>-0.03165735567970204</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42880</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1487455197132616</v>
+        <v>-0.1451612903225805</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42881</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.01291512915129156</v>
+        <v>-0.02060270602706032</v>
       </c>
     </row>
     <row r="103">
@@ -1272,7 +1272,7 @@
         <v>42885</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.04994571118349628</v>
+        <v>-0.02280130293159618</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42886</v>
       </c>
       <c r="B105" t="n">
-        <v>0.02396844660194172</v>
+        <v>0.008798543689320362</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42887</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01213458356315513</v>
+        <v>0.02730281301709879</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42888</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.005486968449931491</v>
+        <v>-0.0150891632373115</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42889</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.01967213114754103</v>
+        <v>-0.01639344262295082</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>42892</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2888992104040872</v>
+        <v>0.2772875058058522</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>42893</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.004507888805409504</v>
+        <v>0.09691960931630346</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>42894</v>
       </c>
       <c r="B111" t="n">
-        <v>0.04202848211184442</v>
+        <v>0.05939562348037516</v>
       </c>
     </row>
     <row r="112">
@@ -1344,7 +1344,7 @@
         <v>42896</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.04930712213986468</v>
+        <v>-0.05736384144376414</v>
       </c>
     </row>
     <row r="114">
@@ -1352,7 +1352,7 @@
         <v>42899</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.04274809160305339</v>
+        <v>-0.03969465648854964</v>
       </c>
     </row>
     <row r="115">
@@ -1360,7 +1360,7 @@
         <v>42900</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002137894174238329</v>
+        <v>0.008818813468733252</v>
       </c>
     </row>
     <row r="116">
@@ -1368,7 +1368,7 @@
         <v>42901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01739670705187954</v>
+        <v>0.02205653929791864</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1376,7 @@
         <v>42902</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1212871287128713</v>
+        <v>0.1386138613861387</v>
       </c>
     </row>
     <row r="118">
@@ -1384,7 +1384,7 @@
         <v>42903</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.006947282386595756</v>
+        <v>0.01144258275439318</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1392,7 @@
         <v>42906</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02221597300337455</v>
+        <v>0.02643419572553424</v>
       </c>
     </row>
     <row r="120">
@@ -1400,7 +1400,7 @@
         <v>42907</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.00708322792815586</v>
+        <v>-0.0007589172780167249</v>
       </c>
     </row>
     <row r="121">
@@ -1408,7 +1408,7 @@
         <v>42908</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01911723362384031</v>
+        <v>0.01208883890919313</v>
       </c>
     </row>
     <row r="122">
@@ -1416,7 +1416,7 @@
         <v>42909</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0400667779632721</v>
+        <v>0.03505843071786313</v>
       </c>
     </row>
     <row r="123">
@@ -1424,7 +1424,7 @@
         <v>42910</v>
       </c>
       <c r="B123" t="n">
-        <v>0.02708803611738156</v>
+        <v>0.01580135440180594</v>
       </c>
     </row>
     <row r="124">
@@ -1640,7 +1640,7 @@
         <v>42949</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01210287443267793</v>
+        <v>0.01815431164901669</v>
       </c>
     </row>
     <row r="151">
@@ -1648,7 +1648,7 @@
         <v>42950</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.01852511578197362</v>
+        <v>-0.01496259351620954</v>
       </c>
     </row>
     <row r="152">
@@ -1848,7 +1848,7 @@
         <v>42985</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.02994011976047904</v>
+        <v>-0.01646706586826339</v>
       </c>
     </row>
     <row r="177">
@@ -1864,7 +1864,7 @@
         <v>42987</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1057542768273717</v>
+        <v>-0.09331259720062209</v>
       </c>
     </row>
     <row r="179">
@@ -1888,7 +1888,7 @@
         <v>42992</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.0304098721903923</v>
+        <v>-0.01939180255619221</v>
       </c>
     </row>
     <row r="182">
@@ -1896,7 +1896,7 @@
         <v>42993</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.01084784470453904</v>
+        <v>-0.006565800742221067</v>
       </c>
     </row>
     <row r="183">
@@ -1952,7 +1952,7 @@
         <v>43004</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.005934718100890081</v>
+        <v>-0.003461918892185969</v>
       </c>
     </row>
     <row r="190">
@@ -1984,7 +1984,7 @@
         <v>43008</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.01038742279618185</v>
+        <v>-0.03144300954519925</v>
       </c>
     </row>
     <row r="194">
@@ -1992,7 +1992,7 @@
         <v>43011</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1625816993464052</v>
+        <v>-0.1013071895424837</v>
       </c>
     </row>
     <row r="195">
@@ -2000,7 +2000,7 @@
         <v>43012</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.05627403005941976</v>
+        <v>0.004893393918210436</v>
       </c>
     </row>
     <row r="196">
@@ -2008,7 +2008,7 @@
         <v>43013</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1397670549084858</v>
+        <v>0.1369938990571269</v>
       </c>
     </row>
     <row r="197">
@@ -2032,7 +2032,7 @@
         <v>43018</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.0219721329046088</v>
+        <v>-0.003215434083601218</v>
       </c>
     </row>
     <row r="200">
@@ -2040,7 +2040,7 @@
         <v>43019</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.06596614127262108</v>
+        <v>-0.03677758318739049</v>
       </c>
     </row>
     <row r="201">
@@ -2048,7 +2048,7 @@
         <v>43020</v>
       </c>
       <c r="B201" t="n">
-        <v>0.04412923561859736</v>
+        <v>0.04018912529550826</v>
       </c>
     </row>
     <row r="202">
@@ -2072,7 +2072,7 @@
         <v>43025</v>
       </c>
       <c r="B204" t="n">
-        <v>0.005594033031433161</v>
+        <v>0.01225359616409166</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2080,7 @@
         <v>43026</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.09609895337773544</v>
+        <v>-0.05328258801141764</v>
       </c>
     </row>
     <row r="206">
@@ -2088,7 +2088,7 @@
         <v>43027</v>
       </c>
       <c r="B206" t="n">
-        <v>0.005393743257820927</v>
+        <v>-0.007551240560949329</v>
       </c>
     </row>
     <row r="207">
@@ -2096,7 +2096,7 @@
         <v>43028</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.01350635593220334</v>
+        <v>-0.00158898305084733</v>
       </c>
     </row>
     <row r="208">
@@ -2112,7 +2112,7 @@
         <v>43032</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1041174927878311</v>
+        <v>0.1067400996590611</v>
       </c>
     </row>
     <row r="210">
@@ -2120,7 +2120,7 @@
         <v>43033</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.06721942552561454</v>
+        <v>-0.03020432336393257</v>
       </c>
     </row>
     <row r="211">
@@ -2136,7 +2136,7 @@
         <v>43035</v>
       </c>
       <c r="B212" t="n">
-        <v>0.01970443349753699</v>
+        <v>0.01642036124794746</v>
       </c>
     </row>
     <row r="213">
@@ -2152,7 +2152,7 @@
         <v>43039</v>
       </c>
       <c r="B214" t="n">
-        <v>0.001082251082251059</v>
+        <v>0.006493506493506547</v>
       </c>
     </row>
     <row r="215">
@@ -2160,7 +2160,7 @@
         <v>43040</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0129449838187703</v>
+        <v>-0.01294498381877018</v>
       </c>
     </row>
     <row r="216">
@@ -2176,7 +2176,7 @@
         <v>43042</v>
       </c>
       <c r="B217" t="n">
-        <v>0.001189532117367214</v>
+        <v>-0.00376685170499599</v>
       </c>
     </row>
     <row r="218">
@@ -2184,7 +2184,7 @@
         <v>43043</v>
       </c>
       <c r="B218" t="n">
-        <v>0.01361135244714737</v>
+        <v>-0.0008688097306690164</v>
       </c>
     </row>
     <row r="219">
@@ -2192,7 +2192,7 @@
         <v>43046</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.01979444232965358</v>
+        <v>-0.02455272173582031</v>
       </c>
     </row>
     <row r="220">
@@ -2200,7 +2200,7 @@
         <v>43047</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.04089219330855019</v>
+        <v>-0.05947955390334572</v>
       </c>
     </row>
     <row r="221">
@@ -2208,7 +2208,7 @@
         <v>43048</v>
       </c>
       <c r="B221" t="n">
-        <v>0.009120900446341914</v>
+        <v>-0.01513681350669515</v>
       </c>
     </row>
     <row r="222">
@@ -2216,7 +2216,7 @@
         <v>43049</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.0006345177664974484</v>
+        <v>0.03109137055837565</v>
       </c>
     </row>
     <row r="223">
@@ -2224,7 +2224,7 @@
         <v>43050</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0327022375215147</v>
+        <v>0.07573149741824448</v>
       </c>
     </row>
     <row r="224">
@@ -2240,7 +2240,7 @@
         <v>43054</v>
       </c>
       <c r="B225" t="n">
-        <v>0.01824648214009576</v>
+        <v>0.005102829751043734</v>
       </c>
     </row>
     <row r="226">
@@ -2248,7 +2248,7 @@
         <v>43055</v>
       </c>
       <c r="B226" t="n">
-        <v>0.06729758149316516</v>
+        <v>-0.006309148264984168</v>
       </c>
     </row>
     <row r="227">
@@ -2256,7 +2256,7 @@
         <v>43056</v>
       </c>
       <c r="B227" t="n">
-        <v>0.106784798321287</v>
+        <v>-0.009093028678013535</v>
       </c>
     </row>
     <row r="228">
@@ -2264,7 +2264,7 @@
         <v>43057</v>
       </c>
       <c r="B228" t="n">
-        <v>0.01214574898785417</v>
+        <v>0.04251012145748987</v>
       </c>
     </row>
     <row r="229">
@@ -2272,7 +2272,7 @@
         <v>43060</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.006085192697768705</v>
+        <v>0.0040567951318459</v>
       </c>
     </row>
     <row r="230">
@@ -2280,7 +2280,7 @@
         <v>43061</v>
       </c>
       <c r="B230" t="n">
-        <v>0.004098360655737786</v>
+        <v>0.02616645649432529</v>
       </c>
     </row>
     <row r="231">
@@ -2288,7 +2288,7 @@
         <v>43062</v>
       </c>
       <c r="B231" t="n">
-        <v>0.04880136986301373</v>
+        <v>0.07020547945205483</v>
       </c>
     </row>
     <row r="232">
@@ -2296,7 +2296,7 @@
         <v>43063</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.03463608705827281</v>
+        <v>-0.02293470629534278</v>
       </c>
     </row>
     <row r="233">
@@ -2304,7 +2304,7 @@
         <v>43064</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.02573070197351989</v>
+        <v>-0.01948538596052963</v>
       </c>
     </row>
     <row r="234">
@@ -2312,7 +2312,7 @@
         <v>43067</v>
       </c>
       <c r="B234" t="n">
-        <v>0.02752538749331911</v>
+        <v>0.008818813468733252</v>
       </c>
     </row>
     <row r="235">
@@ -2328,7 +2328,7 @@
         <v>43069</v>
       </c>
       <c r="B236" t="n">
-        <v>0.06556163978096799</v>
+        <v>0.09146070741453319</v>
       </c>
     </row>
     <row r="237">
@@ -2336,7 +2336,7 @@
         <v>43070</v>
       </c>
       <c r="B237" t="n">
-        <v>0.05685728330329344</v>
+        <v>0.0773390135998689</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2344,7 @@
         <v>43071</v>
       </c>
       <c r="B238" t="n">
-        <v>0.0553762105785944</v>
+        <v>0.03675192450956039</v>
       </c>
     </row>
     <row r="239">
@@ -2352,7 +2352,7 @@
         <v>43074</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.01837928153717618</v>
+        <v>-0.0016708437761068</v>
       </c>
     </row>
     <row r="240">
@@ -2360,7 +2360,7 @@
         <v>43075</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.032</v>
+        <v>-0.02560000000000002</v>
       </c>
     </row>
     <row r="241">
@@ -2368,7 +2368,7 @@
         <v>43076</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.150556531927358</v>
+        <v>-0.1066198008201523</v>
       </c>
     </row>
     <row r="242">
@@ -2376,7 +2376,7 @@
         <v>43077</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1170906718851924</v>
+        <v>0.1089367253750815</v>
       </c>
     </row>
     <row r="243">
@@ -2392,7 +2392,7 @@
         <v>43081</v>
       </c>
       <c r="B244" t="n">
-        <v>0.04803493449781655</v>
+        <v>0.04075691411935949</v>
       </c>
     </row>
     <row r="245">
@@ -2400,7 +2400,7 @@
         <v>43082</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1253720238095239</v>
+        <v>0.1532738095238096</v>
       </c>
     </row>
     <row r="246">
@@ -2408,7 +2408,7 @@
         <v>43083</v>
       </c>
       <c r="B246" t="n">
-        <v>0.007739438890680374</v>
+        <v>0.01580135440180582</v>
       </c>
     </row>
     <row r="247">
@@ -2416,7 +2416,7 @@
         <v>43084</v>
       </c>
       <c r="B247" t="n">
-        <v>0.08625162127107656</v>
+        <v>0.08084738434932992</v>
       </c>
     </row>
     <row r="248">
@@ -2448,7 +2448,7 @@
         <v>43090</v>
       </c>
       <c r="B251" t="n">
-        <v>0.0571561338289963</v>
+        <v>0.0629646840148699</v>
       </c>
     </row>
     <row r="252">
@@ -2456,7 +2456,7 @@
         <v>43091</v>
       </c>
       <c r="B252" t="n">
-        <v>0.02810838186882754</v>
+        <v>0.01924537857685485</v>
       </c>
     </row>
     <row r="253">
@@ -2464,7 +2464,7 @@
         <v>43092</v>
       </c>
       <c r="B253" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="254">
@@ -2472,7 +2472,7 @@
         <v>43097</v>
       </c>
       <c r="B254" t="n">
-        <v>0.09264389042782388</v>
+        <v>0.0772545398584179</v>
       </c>
     </row>
     <row r="255">
@@ -2480,7 +2480,7 @@
         <v>43098</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1619549592716818</v>
+        <v>0.1260182079540009</v>
       </c>
     </row>
     <row r="256">
@@ -2496,7 +2496,7 @@
         <v>43103</v>
       </c>
       <c r="B257" t="n">
-        <v>0.309921962095875</v>
+        <v>0.2263099219620958</v>
       </c>
     </row>
     <row r="258">
@@ -2504,7 +2504,7 @@
         <v>43104</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.1962491627595445</v>
+        <v>-0.1795043536503684</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2512,7 @@
         <v>43105</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.006664550936210754</v>
+        <v>-0.04792129482703908</v>
       </c>
     </row>
     <row r="260">
@@ -2520,7 +2520,7 @@
         <v>43106</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.04098360655737705</v>
+        <v>-0.06420765027322407</v>
       </c>
     </row>
     <row r="261">
@@ -2528,7 +2528,7 @@
         <v>43109</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0905485789821546</v>
+        <v>0.06576338400528746</v>
       </c>
     </row>
     <row r="262">
@@ -2536,7 +2536,7 @@
         <v>43110</v>
       </c>
       <c r="B262" t="n">
-        <v>0.04282603435760956</v>
+        <v>0.04040648439390278</v>
       </c>
     </row>
     <row r="263">
@@ -2544,7 +2544,7 @@
         <v>43111</v>
       </c>
       <c r="B263" t="n">
-        <v>0.005656819610308048</v>
+        <v>-0.01005656819610301</v>
       </c>
     </row>
     <row r="264">
@@ -2560,7 +2560,7 @@
         <v>43113</v>
       </c>
       <c r="B265" t="n">
-        <v>0.05091770278271163</v>
+        <v>0.04351687388987563</v>
       </c>
     </row>
     <row r="266">
@@ -2568,7 +2568,7 @@
         <v>43116</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.0540044085231447</v>
+        <v>-0.04481998530492281</v>
       </c>
     </row>
     <row r="267">
@@ -2576,7 +2576,7 @@
         <v>43117</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.01859504132231402</v>
+        <v>-0.02720385674931127</v>
       </c>
     </row>
     <row r="268">
@@ -2584,7 +2584,7 @@
         <v>43118</v>
       </c>
       <c r="B268" t="n">
-        <v>0.02242744063324537</v>
+        <v>0.007585751978891835</v>
       </c>
     </row>
     <row r="269">
@@ -2608,7 +2608,7 @@
         <v>43123</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.02092274678111591</v>
+        <v>0.005901287553648038</v>
       </c>
     </row>
     <row r="272">
@@ -2616,7 +2616,7 @@
         <v>43124</v>
       </c>
       <c r="B272" t="n">
-        <v>0.005025125628140745</v>
+        <v>0.02596314907872701</v>
       </c>
     </row>
     <row r="273">
@@ -2632,7 +2632,7 @@
         <v>43126</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.05869324473975634</v>
+        <v>-0.03654485049833884</v>
       </c>
     </row>
     <row r="275">
@@ -2640,7 +2640,7 @@
         <v>43127</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.04754647973178915</v>
+        <v>-0.05516610789393484</v>
       </c>
     </row>
     <row r="276">
@@ -2648,7 +2648,7 @@
         <v>43130</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.05054454063110869</v>
+        <v>-0.02960067020385374</v>
       </c>
     </row>
     <row r="277">
@@ -2656,7 +2656,7 @@
         <v>43131</v>
       </c>
       <c r="B277" t="n">
-        <v>0.07802874743326493</v>
+        <v>0.09514031485284057</v>
       </c>
     </row>
     <row r="278">
@@ -2664,7 +2664,7 @@
         <v>43132</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.02884049440847548</v>
+        <v>0.0005885815185404099</v>
       </c>
     </row>
     <row r="279">
@@ -2680,7 +2680,7 @@
         <v>43134</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.03798411122144988</v>
+        <v>-0.04419066534260181</v>
       </c>
     </row>
     <row r="281">
@@ -2704,7 +2704,7 @@
         <v>43139</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.02727637384677095</v>
+        <v>-0.03229041315683914</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2712,7 @@
         <v>43140</v>
       </c>
       <c r="B284" t="n">
-        <v>0.01102941176470595</v>
+        <v>0.0220588235294119</v>
       </c>
     </row>
     <row r="285">
@@ -2720,7 +2720,7 @@
         <v>43141</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.02869476891823267</v>
+        <v>-0.02234636871508386</v>
       </c>
     </row>
     <row r="286">
@@ -2728,7 +2728,7 @@
         <v>43144</v>
       </c>
       <c r="B286" t="n">
-        <v>0.02272727272727269</v>
+        <v>0.01010101010101007</v>
       </c>
     </row>
     <row r="287">
@@ -2736,7 +2736,7 @@
         <v>43145</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.009031610637230292</v>
+        <v>0.003512293025589578</v>
       </c>
     </row>
     <row r="288">
@@ -2744,7 +2744,7 @@
         <v>43146</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.00468384074941442</v>
+        <v>0.009953161592505956</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2752,7 @@
         <v>43147</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.05298341173557813</v>
+        <v>-0.04926962119336474</v>
       </c>
     </row>
     <row r="290">
@@ -2760,7 +2760,7 @@
         <v>43148</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.01081346768247721</v>
+        <v>-0.02310149913983774</v>
       </c>
     </row>
     <row r="291">
@@ -2768,7 +2768,7 @@
         <v>43151</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.03669724770642196</v>
+        <v>0.004077471967380283</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2776,7 @@
         <v>43152</v>
       </c>
       <c r="B292" t="n">
-        <v>0.04385026737967909</v>
+        <v>0.01925133689839569</v>
       </c>
     </row>
     <row r="293">
@@ -2784,7 +2784,7 @@
         <v>43153</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.04997891185153953</v>
+        <v>-0.03627161535217206</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2792,7 @@
         <v>43154</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.03885249604698455</v>
+        <v>-0.006098938332956926</v>
       </c>
     </row>
     <row r="295">
@@ -2800,7 +2800,7 @@
         <v>43155</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.02214793146677815</v>
+        <v>0.04053489343919761</v>
       </c>
     </row>
     <row r="296">
@@ -2808,7 +2808,7 @@
         <v>43158</v>
       </c>
       <c r="B296" t="n">
-        <v>0.06150997737091138</v>
+        <v>0.04402386340259207</v>
       </c>
     </row>
     <row r="297">
@@ -2816,7 +2816,7 @@
         <v>43159</v>
       </c>
       <c r="B297" t="n">
-        <v>0.002652519893899053</v>
+        <v>0.01724137931034479</v>
       </c>
     </row>
     <row r="298">
@@ -2824,7 +2824,7 @@
         <v>43160</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1075949367088608</v>
+        <v>0.08760826115922715</v>
       </c>
     </row>
     <row r="299">
@@ -2832,7 +2832,7 @@
         <v>43161</v>
       </c>
       <c r="B299" t="n">
-        <v>0.02177140029688262</v>
+        <v>0.045274616526472</v>
       </c>
     </row>
     <row r="300">
@@ -2840,7 +2840,7 @@
         <v>43162</v>
       </c>
       <c r="B300" t="n">
-        <v>0.0002899391127862572</v>
+        <v>-0.01420701652652949</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2848,7 @@
         <v>43165</v>
       </c>
       <c r="B301" t="n">
-        <v>0.01262019230769222</v>
+        <v>-0.05849358974358978</v>
       </c>
     </row>
     <row r="302">
@@ -2856,7 +2856,7 @@
         <v>43166</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.002687060768912826</v>
+        <v>0.02315006200909461</v>
       </c>
     </row>
     <row r="303">
@@ -2864,7 +2864,7 @@
         <v>43167</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.0740740740740741</v>
+        <v>-0.04076738609112713</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2872,7 @@
         <v>43168</v>
       </c>
       <c r="B304" t="n">
-        <v>0.01132686084142399</v>
+        <v>0.00593311758360299</v>
       </c>
     </row>
     <row r="305">
@@ -2880,7 +2880,7 @@
         <v>43169</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.05782508630609891</v>
+        <v>-0.0290563866513233</v>
       </c>
     </row>
     <row r="306">
@@ -2888,7 +2888,7 @@
         <v>43172</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.06547917711991971</v>
+        <v>-0.02910185649774201</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2896,7 @@
         <v>43173</v>
       </c>
       <c r="B307" t="n">
-        <v>0.004702864471996556</v>
+        <v>-0.0006412997007268306</v>
       </c>
     </row>
     <row r="308">
@@ -2904,7 +2904,7 @@
         <v>43174</v>
       </c>
       <c r="B308" t="n">
-        <v>0.1469752334551361</v>
+        <v>0.1368250101502234</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2912,7 @@
         <v>43175</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.1132332878581173</v>
+        <v>-0.1217598908594816</v>
       </c>
     </row>
     <row r="310">
@@ -2920,7 +2920,7 @@
         <v>43176</v>
       </c>
       <c r="B310" t="n">
-        <v>0.005025125628140708</v>
+        <v>0.03015075376884414</v>
       </c>
     </row>
     <row r="311">
@@ -2928,7 +2928,7 @@
         <v>43179</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.02189101071262221</v>
+        <v>-0.01024685607824867</v>
       </c>
     </row>
     <row r="312">
@@ -2936,7 +2936,7 @@
         <v>43180</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.01794327609492571</v>
+        <v>-0.02180204514759783</v>
       </c>
     </row>
     <row r="313">
@@ -2944,7 +2944,7 @@
         <v>43181</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.0502408809359946</v>
+        <v>-0.06285845377380136</v>
       </c>
     </row>
     <row r="314">
@@ -2968,7 +2968,7 @@
         <v>43186</v>
       </c>
       <c r="B316" t="n">
-        <v>0.05946305746616374</v>
+        <v>0.03727534945640115</v>
       </c>
     </row>
     <row r="317">
@@ -2976,7 +2976,7 @@
         <v>43187</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.0130767332839872</v>
+        <v>-0.01554404145077726</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2984,7 @@
         <v>43188</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.01286426883696513</v>
+        <v>-0.006300866369125807</v>
       </c>
     </row>
     <row r="319">
@@ -2992,7 +2992,7 @@
         <v>43189</v>
       </c>
       <c r="B319" t="n">
-        <v>0.01395032323919701</v>
+        <v>0.0292616536236815</v>
       </c>
     </row>
     <row r="320">
@@ -3000,7 +3000,7 @@
         <v>43194</v>
       </c>
       <c r="B320" t="n">
-        <v>0.01149739939775532</v>
+        <v>0.01286613742129753</v>
       </c>
     </row>
     <row r="321">
@@ -3008,7 +3008,7 @@
         <v>43195</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.1108722358722359</v>
+        <v>-0.09398034398034405</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3016,7 @@
         <v>43196</v>
       </c>
       <c r="B322" t="n">
-        <v>0.02414772727272711</v>
+        <v>0.03551136363636363</v>
       </c>
     </row>
     <row r="323">
@@ -3024,7 +3024,7 @@
         <v>43197</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.05946601941747575</v>
+        <v>-0.07463592233009711</v>
       </c>
     </row>
     <row r="324">
@@ -3032,7 +3032,7 @@
         <v>43200</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.03552595059672498</v>
+        <v>-0.004995836802664438</v>
       </c>
     </row>
     <row r="325">
@@ -3048,7 +3048,7 @@
         <v>43202</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.05831099195710451</v>
+        <v>-0.04658176943699734</v>
       </c>
     </row>
     <row r="327">
@@ -3056,7 +3056,7 @@
         <v>43203</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.0539839086426161</v>
+        <v>-0.03322086685699458</v>
       </c>
     </row>
     <row r="328">
@@ -3064,7 +3064,7 @@
         <v>43204</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.07932011331444752</v>
+        <v>-0.07507082152974501</v>
       </c>
     </row>
     <row r="329">
@@ -3072,7 +3072,7 @@
         <v>43207</v>
       </c>
       <c r="B329" t="n">
-        <v>0.01598173515981742</v>
+        <v>0.0182648401826485</v>
       </c>
     </row>
     <row r="330">
@@ -3080,7 +3080,7 @@
         <v>43208</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.003896736483195414</v>
+        <v>-0.008767657087189464</v>
       </c>
     </row>
     <row r="331">
@@ -3096,7 +3096,7 @@
         <v>43210</v>
       </c>
       <c r="B332" t="n">
-        <v>0.003106393994304878</v>
+        <v>0.005695055656225701</v>
       </c>
     </row>
     <row r="333">
@@ -3104,7 +3104,7 @@
         <v>43211</v>
       </c>
       <c r="B333" t="n">
-        <v>0.03666666666666672</v>
+        <v>0.05833333333333333</v>
       </c>
     </row>
     <row r="334">
@@ -3120,7 +3120,7 @@
         <v>43215</v>
       </c>
       <c r="B335" t="n">
-        <v>0.09014290949065595</v>
+        <v>0.04433858556247713</v>
       </c>
     </row>
     <row r="336">
@@ -3128,7 +3128,7 @@
         <v>43216</v>
       </c>
       <c r="B336" t="n">
-        <v>0.03448275862068968</v>
+        <v>0.02627257799671595</v>
       </c>
     </row>
     <row r="337">
@@ -3144,7 +3144,7 @@
         <v>43218</v>
       </c>
       <c r="B338" t="n">
-        <v>0.01065658301821928</v>
+        <v>0.005500171880371266</v>
       </c>
     </row>
     <row r="339">
@@ -3160,7 +3160,7 @@
         <v>43224</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.02493211552703032</v>
+        <v>-0.01876079980251785</v>
       </c>
     </row>
     <row r="341">
@@ -3168,7 +3168,7 @@
         <v>43225</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.02675114396339323</v>
+        <v>-0.03555086237240414</v>
       </c>
     </row>
     <row r="342">
@@ -3176,7 +3176,7 @@
         <v>43228</v>
       </c>
       <c r="B342" t="n">
-        <v>0.1285038223516564</v>
+        <v>0.1030214779759739</v>
       </c>
     </row>
     <row r="343">
@@ -3192,7 +3192,7 @@
         <v>43230</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.1478398731668649</v>
+        <v>-0.1379310344827586</v>
       </c>
     </row>
     <row r="345">
@@ -3200,7 +3200,7 @@
         <v>43231</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.09952606635071096</v>
+        <v>-0.06990521327014225</v>
       </c>
     </row>
     <row r="346">
@@ -3216,7 +3216,7 @@
         <v>43235</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.05727079896299787</v>
+        <v>-0.03959462644355408</v>
       </c>
     </row>
     <row r="348">
@@ -3224,7 +3224,7 @@
         <v>43236</v>
       </c>
       <c r="B348" t="n">
-        <v>0.009615384615384581</v>
+        <v>0.02644230769230773</v>
       </c>
     </row>
     <row r="349">
@@ -3232,7 +3232,7 @@
         <v>43237</v>
       </c>
       <c r="B349" t="n">
-        <v>0.01017236507487989</v>
+        <v>0.0200621644532354</v>
       </c>
     </row>
     <row r="350">
@@ -3240,7 +3240,7 @@
         <v>43238</v>
       </c>
       <c r="B350" t="n">
-        <v>0.03426233699821026</v>
+        <v>0.03554078240859117</v>
       </c>
     </row>
     <row r="351">
@@ -3256,7 +3256,7 @@
         <v>43242</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.09377923292797002</v>
+        <v>-0.09260991580916747</v>
       </c>
     </row>
     <row r="353">
@@ -3288,7 +3288,7 @@
         <v>43246</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.0560949298813376</v>
+        <v>-0.06283710895361376</v>
       </c>
     </row>
     <row r="357">
@@ -3296,7 +3296,7 @@
         <v>43249</v>
       </c>
       <c r="B357" t="n">
-        <v>0.01957585644371949</v>
+        <v>0.01374970869261253</v>
       </c>
     </row>
     <row r="358">
@@ -3312,7 +3312,7 @@
         <v>43251</v>
       </c>
       <c r="B359" t="n">
-        <v>0.005917159763313609</v>
+        <v>-0.005917159763313609</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3320,7 @@
         <v>43252</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.04970760233918124</v>
+        <v>-0.04873294346978558</v>
       </c>
     </row>
     <row r="361">
@@ -3336,7 +3336,7 @@
         <v>43256</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.02960203881591841</v>
+        <v>-0.01391883944324644</v>
       </c>
     </row>
     <row r="363">
@@ -3352,7 +3352,7 @@
         <v>43258</v>
       </c>
       <c r="B364" t="n">
-        <v>0.04616004837734326</v>
+        <v>0.03809715783108245</v>
       </c>
     </row>
     <row r="365">
@@ -3360,7 +3360,7 @@
         <v>43259</v>
       </c>
       <c r="B365" t="n">
-        <v>0.04251012145748991</v>
+        <v>0.03238866396761136</v>
       </c>
     </row>
     <row r="366">
@@ -3368,7 +3368,7 @@
         <v>43260</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.01342123852130917</v>
+        <v>-0.01106663527195665</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3376,7 @@
         <v>43263</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.009652121455861591</v>
+        <v>-0.02473356123064542</v>
       </c>
     </row>
     <row r="368">
@@ -3392,7 +3392,7 @@
         <v>43265</v>
       </c>
       <c r="B369" t="n">
-        <v>0.01947308132875147</v>
+        <v>0.0286368843069874</v>
       </c>
     </row>
     <row r="370">
@@ -3416,7 +3416,7 @@
         <v>43270</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.00150472914875323</v>
+        <v>0.001719690455717934</v>
       </c>
     </row>
     <row r="373">
@@ -3432,7 +3432,7 @@
         <v>43272</v>
       </c>
       <c r="B374" t="n">
-        <v>0.09126984126984132</v>
+        <v>0.1309523809523811</v>
       </c>
     </row>
     <row r="375">
@@ -3440,7 +3440,7 @@
         <v>43273</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1456825856246985</v>
+        <v>0.1818620356970574</v>
       </c>
     </row>
     <row r="376">
@@ -3448,7 +3448,7 @@
         <v>43274</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.1419003767266639</v>
+        <v>-0.05818334030975306</v>
       </c>
     </row>
     <row r="377">
@@ -3472,7 +3472,7 @@
         <v>43279</v>
       </c>
       <c r="B379" t="n">
-        <v>0.01358877255513476</v>
+        <v>0.005791935843172154</v>
       </c>
     </row>
     <row r="380">
@@ -3480,7 +3480,7 @@
         <v>43280</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.0004512635379062077</v>
+        <v>0.009702166064981943</v>
       </c>
     </row>
     <row r="381">
@@ -3512,7 +3512,7 @@
         <v>43286</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.03011001737116391</v>
+        <v>-0.02721482339316741</v>
       </c>
     </row>
     <row r="385">
@@ -3520,7 +3520,7 @@
         <v>43287</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.04099560761347</v>
+        <v>-0.03785818866345957</v>
       </c>
     </row>
     <row r="386">
@@ -3528,7 +3528,7 @@
         <v>43288</v>
       </c>
       <c r="B386" t="n">
-        <v>0.01215805471124616</v>
+        <v>-0.01215805471124616</v>
       </c>
     </row>
     <row r="387">
@@ -3544,7 +3544,7 @@
         <v>43292</v>
       </c>
       <c r="B388" t="n">
-        <v>0.02285714285714291</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="389">
@@ -3552,7 +3552,7 @@
         <v>43293</v>
       </c>
       <c r="B389" t="n">
-        <v>0.003564059275933178</v>
+        <v>-0.000187582067154476</v>
       </c>
     </row>
     <row r="390">
@@ -3560,7 +3560,7 @@
         <v>43294</v>
       </c>
       <c r="B390" t="n">
-        <v>0.008262836907338219</v>
+        <v>0.007279165846940873</v>
       </c>
     </row>
     <row r="391">
@@ -3568,7 +3568,7 @@
         <v>43295</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.0244914902449149</v>
+        <v>-0.01930261519302615</v>
       </c>
     </row>
     <row r="392">
@@ -3576,7 +3576,7 @@
         <v>43298</v>
       </c>
       <c r="B392" t="n">
-        <v>0.03663214422708087</v>
+        <v>0.02991944764096667</v>
       </c>
     </row>
     <row r="393">
@@ -3584,7 +3584,7 @@
         <v>43299</v>
       </c>
       <c r="B393" t="n">
-        <v>0.01507537688442211</v>
+        <v>-0.007035175879397014</v>
       </c>
     </row>
     <row r="394">
@@ -3592,7 +3592,7 @@
         <v>43300</v>
       </c>
       <c r="B394" t="n">
-        <v>0.01161665053242984</v>
+        <v>0.00968054211035818</v>
       </c>
     </row>
     <row r="395">
@@ -3600,7 +3600,7 @@
         <v>43301</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.0007471049682480229</v>
+        <v>-0.00448262980948827</v>
       </c>
     </row>
     <row r="396">
@@ -3608,7 +3608,7 @@
         <v>43302</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.01335459437911106</v>
+        <v>-0.008371536774965152</v>
       </c>
     </row>
     <row r="397">
@@ -3616,7 +3616,7 @@
         <v>43305</v>
       </c>
       <c r="B397" t="n">
-        <v>0.01518361581920903</v>
+        <v>-0.002471751412429389</v>
       </c>
     </row>
     <row r="398">
@@ -3624,7 +3624,7 @@
         <v>43306</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.0001712035610340355</v>
+        <v>-0.007019346002396792</v>
       </c>
     </row>
     <row r="399">
@@ -3632,7 +3632,7 @@
         <v>43307</v>
       </c>
       <c r="B399" t="n">
-        <v>0.006900308698020747</v>
+        <v>0.003268567278009801</v>
       </c>
     </row>
     <row r="400">
@@ -3640,7 +3640,7 @@
         <v>43308</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.04437814655976138</v>
+        <v>-0.01454409845235878</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3648,7 @@
         <v>43309</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.01400862068965514</v>
+        <v>0.002155172413793134</v>
       </c>
     </row>
     <row r="402">
@@ -3656,7 +3656,7 @@
         <v>43312</v>
       </c>
       <c r="B402" t="n">
-        <v>0.008343688975679015</v>
+        <v>0.009231315462453456</v>
       </c>
     </row>
     <row r="403">
@@ -3664,7 +3664,7 @@
         <v>43313</v>
       </c>
       <c r="B403" t="n">
-        <v>0.02095170454545454</v>
+        <v>0.01651278409090908</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3672,7 @@
         <v>43314</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.01227303295225281</v>
+        <v>-0.008069939475453883</v>
       </c>
     </row>
     <row r="405">
@@ -3680,7 +3680,7 @@
         <v>43315</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.003507653061224472</v>
+        <v>0.0004783163265306304</v>
       </c>
     </row>
     <row r="406">
@@ -3696,7 +3696,7 @@
         <v>43319</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.01978973407544849</v>
+        <v>-0.02210884353741507</v>
       </c>
     </row>
     <row r="408">
@@ -3704,7 +3704,7 @@
         <v>43320</v>
       </c>
       <c r="B408" t="n">
-        <v>0.01586170023168777</v>
+        <v>0.02477276777757977</v>
       </c>
     </row>
     <row r="409">
@@ -3728,7 +3728,7 @@
         <v>43323</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.04537286612758318</v>
+        <v>-0.0397574123989219</v>
       </c>
     </row>
     <row r="412">
@@ -3736,7 +3736,7 @@
         <v>43326</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.02833272793316386</v>
+        <v>-0.02651652742462769</v>
       </c>
     </row>
     <row r="413">
@@ -3744,7 +3744,7 @@
         <v>43327</v>
       </c>
       <c r="B413" t="n">
-        <v>0.02432179607109443</v>
+        <v>0.0289990645463049</v>
       </c>
     </row>
     <row r="414">
@@ -3752,7 +3752,7 @@
         <v>43328</v>
       </c>
       <c r="B414" t="n">
-        <v>0.01623840114204146</v>
+        <v>0.009992862241256286</v>
       </c>
     </row>
     <row r="415">
@@ -3760,7 +3760,7 @@
         <v>43329</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.007765314926660963</v>
+        <v>0.01207937877480579</v>
       </c>
     </row>
     <row r="416">
@@ -3768,7 +3768,7 @@
         <v>43330</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.03291798400595133</v>
+        <v>-0.02361911846754702</v>
       </c>
     </row>
     <row r="417">
@@ -3784,7 +3784,7 @@
         <v>43334</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.02140672782874626</v>
+        <v>-0.006116207951070423</v>
       </c>
     </row>
     <row r="419">
@@ -3792,7 +3792,7 @@
         <v>43335</v>
       </c>
       <c r="B419" t="n">
-        <v>0.01377798653514956</v>
+        <v>0.02160638797557543</v>
       </c>
     </row>
     <row r="420">
@@ -3800,7 +3800,7 @@
         <v>43336</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.005208333333333408</v>
+        <v>0.004340277777777778</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3808,7 @@
         <v>43337</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.01211556383970174</v>
+        <v>0.006523765144454827</v>
       </c>
     </row>
     <row r="422">
@@ -3816,7 +3816,7 @@
         <v>43340</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.01619494475556218</v>
+        <v>-0.008627213561374197</v>
       </c>
     </row>
     <row r="423">
@@ -3824,7 +3824,7 @@
         <v>43341</v>
       </c>
       <c r="B423" t="n">
-        <v>0.01797359630984575</v>
+        <v>0.0195641800540798</v>
       </c>
     </row>
     <row r="424">
@@ -3832,7 +3832,7 @@
         <v>43342</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.002613240418118442</v>
+        <v>-0.02003484320557489</v>
       </c>
     </row>
     <row r="425">
@@ -3840,7 +3840,7 @@
         <v>43343</v>
       </c>
       <c r="B425" t="n">
-        <v>0.004187344913151303</v>
+        <v>0.01194168734491309</v>
       </c>
     </row>
     <row r="426">
@@ -3848,7 +3848,7 @@
         <v>43344</v>
       </c>
       <c r="B426" t="n">
-        <v>0.02493306559571623</v>
+        <v>0.02074966532797861</v>
       </c>
     </row>
     <row r="427">
@@ -3856,7 +3856,7 @@
         <v>43347</v>
       </c>
       <c r="B427" t="n">
-        <v>0.002553319315109668</v>
+        <v>-0.008711324722138755</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3864,7 @@
         <v>43348</v>
       </c>
       <c r="B428" t="n">
-        <v>0.001650660264105634</v>
+        <v>0.00540216086434573</v>
       </c>
     </row>
     <row r="429">
@@ -3872,7 +3872,7 @@
         <v>43349</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.0004592071024032013</v>
+        <v>0.00566355426297267</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3880,7 @@
         <v>43350</v>
       </c>
       <c r="B430" t="n">
-        <v>0.005125740829729301</v>
+        <v>0.001121255806503288</v>
       </c>
     </row>
     <row r="431">
@@ -3888,7 +3888,7 @@
         <v>43351</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.01217321891837955</v>
+        <v>-0.005188585112751906</v>
       </c>
     </row>
     <row r="432">
@@ -3896,7 +3896,7 @@
         <v>43354</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.01038062283737014</v>
+        <v>-0.003460207612456674</v>
       </c>
     </row>
     <row r="433">
@@ -3904,7 +3904,7 @@
         <v>43355</v>
       </c>
       <c r="B433" t="n">
-        <v>0.007369081216682328</v>
+        <v>0.003449357165255548</v>
       </c>
     </row>
     <row r="434">
@@ -3912,7 +3912,7 @@
         <v>43356</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.0142617449664429</v>
+        <v>-0.0282438478747203</v>
       </c>
     </row>
     <row r="435">
@@ -3920,7 +3920,7 @@
         <v>43357</v>
       </c>
       <c r="B435" t="n">
-        <v>0.01403454657618749</v>
+        <v>0.008636644046884674</v>
       </c>
     </row>
     <row r="436">
@@ -3928,7 +3928,7 @@
         <v>43358</v>
       </c>
       <c r="B436" t="n">
-        <v>0.005985711527321921</v>
+        <v>0.01853639698783551</v>
       </c>
     </row>
     <row r="437">
@@ -3936,7 +3936,7 @@
         <v>43361</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.05452035886818501</v>
+        <v>-0.0510697032436163</v>
       </c>
     </row>
     <row r="438">
@@ -3944,7 +3944,7 @@
         <v>43362</v>
       </c>
       <c r="B438" t="n">
-        <v>0.0503472222222222</v>
+        <v>0.03732638888888886</v>
       </c>
     </row>
     <row r="439">
@@ -3952,7 +3952,7 @@
         <v>43363</v>
       </c>
       <c r="B439" t="n">
-        <v>0.003272476748191487</v>
+        <v>0.01188425766448498</v>
       </c>
     </row>
     <row r="440">
@@ -3960,7 +3960,7 @@
         <v>43364</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.08088235294117641</v>
+        <v>-0.05637254901960777</v>
       </c>
     </row>
     <row r="441">
@@ -3968,7 +3968,7 @@
         <v>43365</v>
       </c>
       <c r="B441" t="n">
-        <v>0.2199921290830382</v>
+        <v>0.2593467138921685</v>
       </c>
     </row>
     <row r="442">
@@ -3976,7 +3976,7 @@
         <v>43368</v>
       </c>
       <c r="B442" t="n">
-        <v>0.04427333974975924</v>
+        <v>0.0008020532563361751</v>
       </c>
     </row>
     <row r="443">
@@ -3984,7 +3984,7 @@
         <v>43369</v>
       </c>
       <c r="B443" t="n">
-        <v>0.1844424856765094</v>
+        <v>0.134861172322609</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3992,7 @@
         <v>43370</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.02115420300612359</v>
+        <v>-0.005381332343663002</v>
       </c>
     </row>
     <row r="445">
@@ -4008,7 +4008,7 @@
         <v>43372</v>
       </c>
       <c r="B446" t="n">
-        <v>0.1131426113142611</v>
+        <v>0.05399010539901049</v>
       </c>
     </row>
     <row r="447">
@@ -4016,7 +4016,7 @@
         <v>43375</v>
       </c>
       <c r="B447" t="n">
-        <v>0.1454888993859234</v>
+        <v>0.08880491261218701</v>
       </c>
     </row>
     <row r="448">
@@ -4024,7 +4024,7 @@
         <v>43376</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.04319300164024052</v>
+        <v>-0.1115363586659376</v>
       </c>
     </row>
     <row r="449">
@@ -4032,7 +4032,7 @@
         <v>43377</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.01765157329240223</v>
+        <v>0.005372217958557088</v>
       </c>
     </row>
     <row r="450">
@@ -4048,7 +4048,7 @@
         <v>43379</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.05456743222241404</v>
+        <v>-0.02866517009152127</v>
       </c>
     </row>
     <row r="452">
@@ -4056,7 +4056,7 @@
         <v>43382</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.06385356993153547</v>
+        <v>-0.05686740254296484</v>
       </c>
     </row>
     <row r="453">
@@ -4064,7 +4064,7 @@
         <v>43383</v>
       </c>
       <c r="B453" t="n">
-        <v>0.009329258484799714</v>
+        <v>0.01737172269583398</v>
       </c>
     </row>
     <row r="454">
@@ -4072,7 +4072,7 @@
         <v>43384</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.03403863845446185</v>
+        <v>0.002759889604415797</v>
       </c>
     </row>
     <row r="455">
@@ -4080,7 +4080,7 @@
         <v>43385</v>
       </c>
       <c r="B455" t="n">
-        <v>0.03047384181786149</v>
+        <v>0.01814338559098105</v>
       </c>
     </row>
     <row r="456">
@@ -4096,7 +4096,7 @@
         <v>43389</v>
       </c>
       <c r="B457" t="n">
-        <v>0.01041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="458">
@@ -4112,7 +4112,7 @@
         <v>43391</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.009658011399620005</v>
+        <v>-0.01440785307156423</v>
       </c>
     </row>
     <row r="460">
@@ -4120,7 +4120,7 @@
         <v>43392</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.005324656115959169</v>
+        <v>0.009466055317260769</v>
       </c>
     </row>
     <row r="461">
@@ -4128,7 +4128,7 @@
         <v>43393</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.05692152239811388</v>
+        <v>-0.0400808352980802</v>
       </c>
     </row>
     <row r="462">
@@ -4136,7 +4136,7 @@
         <v>43396</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.1117850953206238</v>
+        <v>-0.07567879838243782</v>
       </c>
     </row>
     <row r="463">
@@ -4144,7 +4144,7 @@
         <v>43397</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.153017724927081</v>
+        <v>-0.1137536459501907</v>
       </c>
     </row>
     <row r="464">
@@ -4152,7 +4152,7 @@
         <v>43398</v>
       </c>
       <c r="B464" t="n">
-        <v>0.03610997127615917</v>
+        <v>0.0155929421419778</v>
       </c>
     </row>
     <row r="465">
@@ -4160,7 +4160,7 @@
         <v>43399</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.01759781308730567</v>
+        <v>-0.01332649923116352</v>
       </c>
     </row>
     <row r="466">
@@ -4168,7 +4168,7 @@
         <v>43400</v>
       </c>
       <c r="B466" t="n">
-        <v>0.002701579384871209</v>
+        <v>0.01309226932668335</v>
       </c>
     </row>
     <row r="467">
@@ -4176,7 +4176,7 @@
         <v>43403</v>
       </c>
       <c r="B467" t="n">
-        <v>0.03950103950103945</v>
+        <v>0.0246510246510246</v>
       </c>
     </row>
     <row r="468">
@@ -4184,7 +4184,7 @@
         <v>43404</v>
       </c>
       <c r="B468" t="n">
-        <v>0.06335844040762072</v>
+        <v>0.06889676561807707</v>
       </c>
     </row>
     <row r="469">
@@ -4192,7 +4192,7 @@
         <v>43405</v>
       </c>
       <c r="B469" t="n">
-        <v>0.02275099144228769</v>
+        <v>0.03840534335211863</v>
       </c>
     </row>
     <row r="470">
@@ -4200,7 +4200,7 @@
         <v>43406</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.1053496439656747</v>
+        <v>-0.08252693080153374</v>
       </c>
     </row>
     <row r="471">
@@ -4208,7 +4208,7 @@
         <v>43407</v>
       </c>
       <c r="B471" t="n">
-        <v>0.07609531129900078</v>
+        <v>0.06648731744811685</v>
       </c>
     </row>
     <row r="472">
@@ -4216,7 +4216,7 @@
         <v>43410</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.03415883859948762</v>
+        <v>-0.04355251921434666</v>
       </c>
     </row>
     <row r="473">
@@ -4224,7 +4224,7 @@
         <v>43411</v>
       </c>
       <c r="B473" t="n">
-        <v>0.008748437778968077</v>
+        <v>0.005177646848776989</v>
       </c>
     </row>
     <row r="474">
@@ -4240,7 +4240,7 @@
         <v>43413</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.03797681062006382</v>
+        <v>-0.008569988237271014</v>
       </c>
     </row>
     <row r="476">
@@ -4248,7 +4248,7 @@
         <v>43414</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.01323426979335965</v>
+        <v>-0.01903877408869283</v>
       </c>
     </row>
     <row r="477">
@@ -4256,7 +4256,7 @@
         <v>43417</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.01619280738090754</v>
+        <v>0.002636038410845426</v>
       </c>
     </row>
     <row r="478">
@@ -4264,7 +4264,7 @@
         <v>43418</v>
       </c>
       <c r="B478" t="n">
-        <v>0.03038629384192666</v>
+        <v>0.02634556327784068</v>
       </c>
     </row>
     <row r="479">
@@ -4272,7 +4272,7 @@
         <v>43419</v>
       </c>
       <c r="B479" t="n">
-        <v>0.012129804662886</v>
+        <v>0.0003150598613737103</v>
       </c>
     </row>
     <row r="480">
@@ -4280,7 +4280,7 @@
         <v>43420</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.009001211701575265</v>
+        <v>0.003981305175696674</v>
       </c>
     </row>
     <row r="481">
@@ -4288,7 +4288,7 @@
         <v>43421</v>
       </c>
       <c r="B481" t="n">
-        <v>0.03609209707529562</v>
+        <v>0.0215722879070732</v>
       </c>
     </row>
     <row r="482">
@@ -4296,7 +4296,7 @@
         <v>43424</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.05144694533762055</v>
+        <v>-0.02143622722400857</v>
       </c>
     </row>
     <row r="483">
@@ -4312,7 +4312,7 @@
         <v>43426</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.04884318766066834</v>
+        <v>0.008997429305912633</v>
       </c>
     </row>
     <row r="485">
@@ -4320,7 +4320,7 @@
         <v>43427</v>
       </c>
       <c r="B485" t="n">
-        <v>0.02390140669737336</v>
+        <v>0.0207892443669862</v>
       </c>
     </row>
     <row r="486">
@@ -4328,7 +4328,7 @@
         <v>43428</v>
       </c>
       <c r="B486" t="n">
-        <v>0.0008071025020177104</v>
+        <v>-0.007263922518159852</v>
       </c>
     </row>
     <row r="487">
@@ -4336,7 +4336,7 @@
         <v>43431</v>
       </c>
       <c r="B487" t="n">
-        <v>0.1058137994967553</v>
+        <v>0.08263806118394908</v>
       </c>
     </row>
     <row r="488">
@@ -4344,7 +4344,7 @@
         <v>43432</v>
       </c>
       <c r="B488" t="n">
-        <v>0.0143423287412719</v>
+        <v>0.03227023966786188</v>
       </c>
     </row>
     <row r="489">
@@ -4376,7 +4376,7 @@
         <v>43438</v>
       </c>
       <c r="B492" t="n">
-        <v>0.06120434353405729</v>
+        <v>0.07601184600197436</v>
       </c>
     </row>
     <row r="493">
@@ -4384,7 +4384,7 @@
         <v>43439</v>
       </c>
       <c r="B493" t="n">
-        <v>0.03445363958790743</v>
+        <v>0.01925350447559535</v>
       </c>
     </row>
     <row r="494">
@@ -4392,7 +4392,7 @@
         <v>43440</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.045662100456621</v>
+        <v>-0.0410958904109589</v>
       </c>
     </row>
     <row r="495">
@@ -4400,7 +4400,7 @@
         <v>43441</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.04884922498825736</v>
+        <v>-0.03710662282761856</v>
       </c>
     </row>
     <row r="496">
@@ -4408,7 +4408,7 @@
         <v>43442</v>
       </c>
       <c r="B496" t="n">
-        <v>0.4743049705139007</v>
+        <v>0.4321819713563607</v>
       </c>
     </row>
     <row r="497">
@@ -4416,7 +4416,7 @@
         <v>43445</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.03377280115586053</v>
+        <v>-0.02474264041899941</v>
       </c>
     </row>
     <row r="498">
@@ -4432,7 +4432,7 @@
         <v>43447</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.02702294685990326</v>
+        <v>-0.005887681159420299</v>
       </c>
     </row>
     <row r="500">
@@ -4440,7 +4440,7 @@
         <v>43448</v>
       </c>
       <c r="B500" t="n">
-        <v>0.02234401349072518</v>
+        <v>0.0237492973580663</v>
       </c>
     </row>
     <row r="501">
@@ -4448,7 +4448,7 @@
         <v>43449</v>
       </c>
       <c r="B501" t="n">
-        <v>0.03841205660724138</v>
+        <v>0.05679103106046689</v>
       </c>
     </row>
     <row r="502">
@@ -4456,7 +4456,7 @@
         <v>43452</v>
       </c>
       <c r="B502" t="n">
-        <v>0.05971404541631618</v>
+        <v>0.04289318755256513</v>
       </c>
     </row>
     <row r="503">
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="B503" t="n">
-        <v>0.001063075832742776</v>
+        <v>0.009922041105598908</v>
       </c>
     </row>
     <row r="504">
@@ -4472,7 +4472,7 @@
         <v>43454</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.01217145881107775</v>
+        <v>-0.02540130534485796</v>
       </c>
     </row>
     <row r="505">
@@ -4480,7 +4480,7 @@
         <v>43455</v>
       </c>
       <c r="B505" t="n">
-        <v>0.001612253123740536</v>
+        <v>-0.0175332527206771</v>
       </c>
     </row>
     <row r="506">
@@ -4504,7 +4504,7 @@
         <v>43463</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.1180819602872835</v>
+        <v>-0.1233629066328687</v>
       </c>
     </row>
     <row r="509">
@@ -4512,7 +4512,7 @@
         <v>43468</v>
       </c>
       <c r="B509" t="n">
-        <v>0.05682605682605685</v>
+        <v>0.0221760221760222</v>
       </c>
     </row>
     <row r="510">
@@ -4520,7 +4520,7 @@
         <v>43469</v>
       </c>
       <c r="B510" t="n">
-        <v>0.01182127830094176</v>
+        <v>-0.003205770386695985</v>
       </c>
     </row>
     <row r="511">
@@ -4528,7 +4528,7 @@
         <v>43470</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.02797534376481744</v>
+        <v>-0.01612138454243717</v>
       </c>
     </row>
     <row r="512">
@@ -4536,7 +4536,7 @@
         <v>43473</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.1594202898550725</v>
       </c>
     </row>
     <row r="513">
@@ -4544,7 +4544,7 @@
         <v>43474</v>
       </c>
       <c r="B513" t="n">
-        <v>0.05</v>
+        <v>0.05875000000000004</v>
       </c>
     </row>
     <row r="514">
@@ -4552,7 +4552,7 @@
         <v>43475</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.02467858726171127</v>
+        <v>-0.02098418797103593</v>
       </c>
     </row>
     <row r="515">
@@ -4560,7 +4560,7 @@
         <v>43476</v>
       </c>
       <c r="B515" t="n">
-        <v>0.04166666666666663</v>
+        <v>0.06370192307692307</v>
       </c>
     </row>
     <row r="516">
@@ -4568,7 +4568,7 @@
         <v>43477</v>
       </c>
       <c r="B516" t="n">
-        <v>0.01102941176470595</v>
+        <v>0.0220588235294119</v>
       </c>
     </row>
     <row r="517">
@@ -4584,7 +4584,7 @@
         <v>43481</v>
       </c>
       <c r="B518" t="n">
-        <v>0.02876106194690259</v>
+        <v>0.0309734513274336</v>
       </c>
     </row>
     <row r="519">
@@ -4592,7 +4592,7 @@
         <v>43482</v>
       </c>
       <c r="B519" t="n">
-        <v>0.06792717086834725</v>
+        <v>0.04458450046685333</v>
       </c>
     </row>
     <row r="520">
@@ -4600,7 +4600,7 @@
         <v>43483</v>
       </c>
       <c r="B520" t="n">
-        <v>0.02867325449538317</v>
+        <v>0.02057346508990772</v>
       </c>
     </row>
     <row r="521">
@@ -4608,7 +4608,7 @@
         <v>43484</v>
       </c>
       <c r="B521" t="n">
-        <v>0.02906661852319912</v>
+        <v>0.02003971836071492</v>
       </c>
     </row>
     <row r="522">
@@ -4632,7 +4632,7 @@
         <v>43489</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.03846153846153843</v>
+        <v>-0.02680652680652677</v>
       </c>
     </row>
     <row r="525">
@@ -4640,7 +4640,7 @@
         <v>43490</v>
       </c>
       <c r="B525" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.007518796992481203</v>
       </c>
     </row>
     <row r="526">
@@ -4648,7 +4648,7 @@
         <v>43491</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.009981666327154247</v>
+        <v>-0.01201874108779799</v>
       </c>
     </row>
     <row r="527">
@@ -4656,7 +4656,7 @@
         <v>43494</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.003156670543279577</v>
+        <v>-0.02890845655424481</v>
       </c>
     </row>
     <row r="528">
@@ -4664,7 +4664,7 @@
         <v>43495</v>
       </c>
       <c r="B528" t="n">
-        <v>0.04578858111927642</v>
+        <v>0.05521009986809873</v>
       </c>
     </row>
     <row r="529">
@@ -4672,7 +4672,7 @@
         <v>43496</v>
       </c>
       <c r="B529" t="n">
-        <v>0.01102941176470582</v>
+        <v>0.01938502673796786</v>
       </c>
     </row>
     <row r="530">
@@ -4680,7 +4680,7 @@
         <v>43497</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.008651766402307082</v>
+        <v>-0.01315789473684205</v>
       </c>
     </row>
     <row r="531">
@@ -4688,7 +4688,7 @@
         <v>43498</v>
       </c>
       <c r="B531" t="n">
-        <v>0.05100617652918913</v>
+        <v>0.01613867304243878</v>
       </c>
     </row>
     <row r="532">
@@ -4696,7 +4696,7 @@
         <v>43501</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.01933444878230153</v>
+        <v>-0.01003904071388732</v>
       </c>
     </row>
     <row r="533">
@@ -4704,7 +4704,7 @@
         <v>43502</v>
       </c>
       <c r="B533" t="n">
-        <v>0.02299298519095868</v>
+        <v>0.0132501948558067</v>
       </c>
     </row>
     <row r="534">
@@ -4712,7 +4712,7 @@
         <v>43503</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.06846240179573507</v>
+        <v>-0.05162738496071823</v>
       </c>
     </row>
     <row r="535">
@@ -4720,7 +4720,7 @@
         <v>43504</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.05694377703027385</v>
+        <v>-0.03892359442575679</v>
       </c>
     </row>
     <row r="536">
@@ -4728,7 +4728,7 @@
         <v>43505</v>
       </c>
       <c r="B536" t="n">
-        <v>0.2481644640234949</v>
+        <v>0.3215859030837005</v>
       </c>
     </row>
     <row r="537">
@@ -4736,7 +4736,7 @@
         <v>43508</v>
       </c>
       <c r="B537" t="n">
-        <v>0.02695763799743256</v>
+        <v>-0.005134788189987205</v>
       </c>
     </row>
     <row r="538">
@@ -4744,7 +4744,7 @@
         <v>43509</v>
       </c>
       <c r="B538" t="n">
-        <v>0.0191714411635081</v>
+        <v>0.02137505509034815</v>
       </c>
     </row>
     <row r="539">
@@ -4752,7 +4752,7 @@
         <v>43510</v>
       </c>
       <c r="B539" t="n">
-        <v>0.01344469342024845</v>
+        <v>0.008352006518639163</v>
       </c>
     </row>
     <row r="540">
@@ -4760,7 +4760,7 @@
         <v>43511</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.0182696346073078</v>
+        <v>-0.02141957160856775</v>
       </c>
     </row>
     <row r="541">
@@ -4768,7 +4768,7 @@
         <v>43512</v>
       </c>
       <c r="B541" t="n">
-        <v>0.0007649158592555109</v>
+        <v>0.01988781234064256</v>
       </c>
     </row>
     <row r="542">
@@ -4776,7 +4776,7 @@
         <v>43515</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.01960784313725496</v>
+        <v>0.002178649237472677</v>
       </c>
     </row>
     <row r="543">
@@ -4784,7 +4784,7 @@
         <v>43516</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.02412280701754389</v>
+        <v>-0.0175438596491229</v>
       </c>
     </row>
     <row r="544">
@@ -4792,7 +4792,7 @@
         <v>43517</v>
       </c>
       <c r="B544" t="n">
-        <v>0.02359472588480229</v>
+        <v>0.0316909553550776</v>
       </c>
     </row>
     <row r="545">
@@ -4800,7 +4800,7 @@
         <v>43518</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.00423728813559328</v>
+        <v>-0.02012711864406785</v>
       </c>
     </row>
     <row r="546">
@@ -4816,7 +4816,7 @@
         <v>43522</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.006726457399103235</v>
+        <v>-0.007847533632287027</v>
       </c>
     </row>
     <row r="548">
@@ -4824,7 +4824,7 @@
         <v>43523</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.02736937344492198</v>
+        <v>-0.01040488577244969</v>
       </c>
     </row>
     <row r="549">
@@ -4832,7 +4832,7 @@
         <v>43524</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.02136115250869348</v>
+        <v>0.003477396920019885</v>
       </c>
     </row>
     <row r="550">
@@ -4840,7 +4840,7 @@
         <v>43525</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.02399127589967288</v>
+        <v>-0.01526717557251915</v>
       </c>
     </row>
     <row r="551">
@@ -4848,7 +4848,7 @@
         <v>43526</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.03636363636363636</v>
+        <v>-0.01818181818181818</v>
       </c>
     </row>
     <row r="552">
@@ -4856,7 +4856,7 @@
         <v>43529</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.1703892788768347</v>
+        <v>-0.1464582003828973</v>
       </c>
     </row>
     <row r="553">
@@ -4864,7 +4864,7 @@
         <v>43530</v>
       </c>
       <c r="B553" t="n">
-        <v>0.1072763876905377</v>
+        <v>0.1216566005176876</v>
       </c>
     </row>
     <row r="554">
@@ -4872,7 +4872,7 @@
         <v>43531</v>
       </c>
       <c r="B554" t="n">
-        <v>0.02515506547208823</v>
+        <v>0.01481736733287387</v>
       </c>
     </row>
     <row r="555">
@@ -4880,7 +4880,7 @@
         <v>43532</v>
       </c>
       <c r="B555" t="n">
-        <v>0.02311481621826447</v>
+        <v>0.05153467222432737</v>
       </c>
     </row>
     <row r="556">
@@ -4888,7 +4888,7 @@
         <v>43533</v>
       </c>
       <c r="B556" t="n">
-        <v>0.5037593984962405</v>
+        <v>0.4097744360902255</v>
       </c>
     </row>
     <row r="557">
@@ -4896,7 +4896,7 @@
         <v>43536</v>
       </c>
       <c r="B557" t="n">
-        <v>0.008472260180377019</v>
+        <v>0.01393823449029784</v>
       </c>
     </row>
     <row r="558">
@@ -4904,7 +4904,7 @@
         <v>43537</v>
       </c>
       <c r="B558" t="n">
-        <v>0.1911357340720221</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="559">
@@ -4912,7 +4912,7 @@
         <v>43538</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.1318377381684081</v>
+        <v>-0.0396435156730178</v>
       </c>
     </row>
     <row r="560">
@@ -4936,7 +4936,7 @@
         <v>43543</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.005293339214821394</v>
+        <v>-0.0163211292456992</v>
       </c>
     </row>
     <row r="563">
@@ -4944,7 +4944,7 @@
         <v>43544</v>
       </c>
       <c r="B563" t="n">
-        <v>0.04216867469879518</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="564">
@@ -4952,7 +4952,7 @@
         <v>43545</v>
       </c>
       <c r="B564" t="n">
-        <v>0.01784367931641118</v>
+        <v>0.02412666499120384</v>
       </c>
     </row>
     <row r="565">
@@ -4960,7 +4960,7 @@
         <v>43546</v>
       </c>
       <c r="B565" t="n">
-        <v>0.01059896475228</v>
+        <v>0.00443677594281488</v>
       </c>
     </row>
     <row r="566">
@@ -4976,7 +4976,7 @@
         <v>43550</v>
       </c>
       <c r="B567" t="n">
-        <v>0.03424657534246575</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="568">
@@ -4984,7 +4984,7 @@
         <v>43551</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.01094799701418258</v>
+        <v>-0.004727544165215172</v>
       </c>
     </row>
     <row r="569">
@@ -4992,7 +4992,7 @@
         <v>43552</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.001654064272211727</v>
+        <v>-0.01937618147448016</v>
       </c>
     </row>
     <row r="570">
@@ -5000,7 +5000,7 @@
         <v>43553</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.02885821831869507</v>
+        <v>-0.01505646173149313</v>
       </c>
     </row>
     <row r="571">
@@ -5008,7 +5008,7 @@
         <v>43554</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.0225456621004566</v>
+        <v>-0.01541095890410957</v>
       </c>
     </row>
     <row r="572">
@@ -5016,7 +5016,7 @@
         <v>43557</v>
       </c>
       <c r="B572" t="n">
-        <v>0.05612998522895121</v>
+        <v>0.03397341211225993</v>
       </c>
     </row>
     <row r="573">
@@ -5024,7 +5024,7 @@
         <v>43558</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.01964962121212134</v>
+        <v>-0.01160037878787883</v>
       </c>
     </row>
     <row r="574">
@@ -5032,7 +5032,7 @@
         <v>43559</v>
       </c>
       <c r="B574" t="n">
-        <v>0.001903855306996627</v>
+        <v>0.01142313184197993</v>
       </c>
     </row>
     <row r="575">
@@ -5040,7 +5040,7 @@
         <v>43560</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.003074739829706778</v>
+        <v>0.001655629139072854</v>
       </c>
     </row>
     <row r="576">
@@ -5048,7 +5048,7 @@
         <v>43561</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.04122097573702057</v>
+        <v>-0.04774328202452383</v>
       </c>
     </row>
     <row r="577">
@@ -5056,7 +5056,7 @@
         <v>43564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.0121457489878542</v>
+        <v>0.01809954751131217</v>
       </c>
     </row>
     <row r="578">
@@ -5064,7 +5064,7 @@
         <v>43565</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.01914992993928072</v>
+        <v>0.004203643157403076</v>
       </c>
     </row>
     <row r="579">
@@ -5072,7 +5072,7 @@
         <v>43566</v>
       </c>
       <c r="B579" t="n">
-        <v>0.01139919535091636</v>
+        <v>0.005811354492624005</v>
       </c>
     </row>
     <row r="580">
@@ -5080,7 +5080,7 @@
         <v>43567</v>
       </c>
       <c r="B580" t="n">
-        <v>0.0111358574610245</v>
+        <v>0.007795100222717181</v>
       </c>
     </row>
     <row r="581">
@@ -5088,7 +5088,7 @@
         <v>43568</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.005311443746982106</v>
+        <v>-0.01014002897151139</v>
       </c>
     </row>
     <row r="582">
@@ -5096,7 +5096,7 @@
         <v>43571</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.008889956751561689</v>
+        <v>-0.007688611244593952</v>
       </c>
     </row>
     <row r="583">
@@ -5104,7 +5104,7 @@
         <v>43572</v>
       </c>
       <c r="B583" t="n">
-        <v>0.0291595197255574</v>
+        <v>0.01200686106346471</v>
       </c>
     </row>
     <row r="584">
@@ -5112,7 +5112,7 @@
         <v>43573</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.06953966699314405</v>
+        <v>-0.0658667972575907</v>
       </c>
     </row>
     <row r="585">
@@ -5120,7 +5120,7 @@
         <v>43574</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.1060874704491727</v>
+        <v>-0.09131205673758874</v>
       </c>
     </row>
     <row r="586">
@@ -5128,7 +5128,7 @@
         <v>43579</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.02017291066282429</v>
+        <v>-0.03458213256484158</v>
       </c>
     </row>
     <row r="587">
@@ -5136,7 +5136,7 @@
         <v>43580</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.007886034088018374</v>
+        <v>-0.02696514881709494</v>
       </c>
     </row>
     <row r="588">
@@ -5144,7 +5144,7 @@
         <v>43581</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.02618282039503906</v>
+        <v>-0.02388608176389525</v>
       </c>
     </row>
     <row r="589">
@@ -5152,7 +5152,7 @@
         <v>43582</v>
       </c>
       <c r="B589" t="n">
-        <v>0.05501719287277279</v>
+        <v>0.02375742419506101</v>
       </c>
     </row>
     <row r="590">
@@ -5160,7 +5160,7 @@
         <v>43585</v>
       </c>
       <c r="B590" t="n">
-        <v>0.008864007464427399</v>
+        <v>0.0006997900629811322</v>
       </c>
     </row>
     <row r="591">
@@ -5168,7 +5168,7 @@
         <v>43586</v>
       </c>
       <c r="B591" t="n">
-        <v>0.1189634864546526</v>
+        <v>0.02080879466038481</v>
       </c>
     </row>
     <row r="592">
@@ -5176,7 +5176,7 @@
         <v>43588</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.02334152334152341</v>
+        <v>-0.02948402948402955</v>
       </c>
     </row>
     <row r="593">
@@ -5184,7 +5184,7 @@
         <v>43589</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.06352822070361928</v>
+        <v>-0.05720070868134645</v>
       </c>
     </row>
     <row r="594">
@@ -5192,7 +5192,7 @@
         <v>43592</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.04893996433524864</v>
+        <v>-0.02912621359223299</v>
       </c>
     </row>
     <row r="595">
@@ -5200,7 +5200,7 @@
         <v>43593</v>
       </c>
       <c r="B595" t="n">
-        <v>0.03876361793767422</v>
+        <v>0.04509754243729418</v>
       </c>
     </row>
     <row r="596">
@@ -5208,7 +5208,7 @@
         <v>43594</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.06077348066298342</v>
+        <v>-0.04972375690607735</v>
       </c>
     </row>
     <row r="597">
@@ -5216,7 +5216,7 @@
         <v>43595</v>
       </c>
       <c r="B597" t="n">
-        <v>0.0102701495869614</v>
+        <v>-0.006474659522214761</v>
       </c>
     </row>
     <row r="598">
@@ -5224,7 +5224,7 @@
         <v>43596</v>
       </c>
       <c r="B598" t="n">
-        <v>0.03695825578303644</v>
+        <v>0.0170167508641319</v>
       </c>
     </row>
     <row r="599">
@@ -5232,7 +5232,7 @@
         <v>43599</v>
       </c>
       <c r="B599" t="n">
-        <v>0.01194830529139239</v>
+        <v>0.02414045354791519</v>
       </c>
     </row>
     <row r="600">
@@ -5240,7 +5240,7 @@
         <v>43600</v>
       </c>
       <c r="B600" t="n">
-        <v>0.05263157894736838</v>
+        <v>0.04651162790697671</v>
       </c>
     </row>
     <row r="601">
@@ -5248,7 +5248,7 @@
         <v>43601</v>
       </c>
       <c r="B601" t="n">
-        <v>0.04455071734205898</v>
+        <v>0.04958469670274367</v>
       </c>
     </row>
     <row r="602">
@@ -5264,7 +5264,7 @@
         <v>43603</v>
       </c>
       <c r="B603" t="n">
-        <v>-0.0118311374025275</v>
+        <v>-0.01855337456305452</v>
       </c>
     </row>
     <row r="604">
@@ -5272,7 +5272,7 @@
         <v>43606</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.03557403557403555</v>
+        <v>-0.02748902748902744</v>
       </c>
     </row>
     <row r="605">
@@ -5280,7 +5280,7 @@
         <v>43607</v>
       </c>
       <c r="B605" t="n">
-        <v>0.0039910202045397</v>
+        <v>-0.002244948865053714</v>
       </c>
     </row>
     <row r="606">
@@ -5288,7 +5288,7 @@
         <v>43608</v>
       </c>
       <c r="B606" t="n">
-        <v>0.05974920088517334</v>
+        <v>0.05114334890582735</v>
       </c>
     </row>
     <row r="607">
@@ -5296,7 +5296,7 @@
         <v>43609</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.005190311418685142</v>
+        <v>-0.01136925358378648</v>
       </c>
     </row>
     <row r="608">
@@ -5304,7 +5304,7 @@
         <v>43610</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.01172300981461286</v>
+        <v>0.00872410032715377</v>
       </c>
     </row>
     <row r="609">
@@ -5312,7 +5312,7 @@
         <v>43613</v>
       </c>
       <c r="B609" t="n">
-        <v>-0.02954073390260792</v>
+        <v>-0.03069466882067847</v>
       </c>
     </row>
     <row r="610">
@@ -5320,7 +5320,7 @@
         <v>43614</v>
       </c>
       <c r="B610" t="n">
-        <v>0.005747126436781657</v>
+        <v>-0.0002394636015325194</v>
       </c>
     </row>
     <row r="611">
@@ -5336,7 +5336,7 @@
         <v>43616</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.004468025691147827</v>
+        <v>-0.0156380899190171</v>
       </c>
     </row>
     <row r="613">
@@ -5344,7 +5344,7 @@
         <v>43617</v>
       </c>
       <c r="B613" t="n">
-        <v>0.05807743658210943</v>
+        <v>0.04305740987983975</v>
       </c>
     </row>
     <row r="614">
@@ -5352,7 +5352,7 @@
         <v>43620</v>
       </c>
       <c r="B614" t="n">
-        <v>0.04129263913824056</v>
+        <v>0.02590407796870987</v>
       </c>
     </row>
     <row r="615">
@@ -5360,7 +5360,7 @@
         <v>43621</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.05483785921434216</v>
+        <v>-0.04429211705773793</v>
       </c>
     </row>
     <row r="616">
@@ -5368,7 +5368,7 @@
         <v>43622</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.06524122807017532</v>
+        <v>-0.02001096491228062</v>
       </c>
     </row>
     <row r="617">
@@ -5376,7 +5376,7 @@
         <v>43623</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.06939643711778781</v>
+        <v>-0.06274926881148629</v>
       </c>
     </row>
     <row r="618">
@@ -5384,7 +5384,7 @@
         <v>43627</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.02619207521826733</v>
+        <v>-0.0038056861428252</v>
       </c>
     </row>
     <row r="619">
@@ -5392,7 +5392,7 @@
         <v>43628</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.01704545454545454</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="620">
@@ -5400,7 +5400,7 @@
         <v>43629</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.0002596728122565051</v>
+        <v>-0.01973513373149826</v>
       </c>
     </row>
     <row r="621">
@@ -5408,7 +5408,7 @@
         <v>43630</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.02090341182123973</v>
+        <v>-0.01249399327246507</v>
       </c>
     </row>
     <row r="622">
@@ -5416,7 +5416,7 @@
         <v>43631</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.04349247874427725</v>
+        <v>-0.02714192282537601</v>
       </c>
     </row>
     <row r="623">
@@ -5424,7 +5424,7 @@
         <v>43634</v>
       </c>
       <c r="B623" t="n">
-        <v>0.01111636707663195</v>
+        <v>0.001655629139072854</v>
       </c>
     </row>
     <row r="624">
@@ -5432,7 +5432,7 @@
         <v>43635</v>
       </c>
       <c r="B624" t="n">
-        <v>-0.01092233009708745</v>
+        <v>-0.008495145631067996</v>
       </c>
     </row>
     <row r="625">
@@ -5440,7 +5440,7 @@
         <v>43636</v>
       </c>
       <c r="B625" t="n">
-        <v>0.02363286617202526</v>
+        <v>0.01676284693597141</v>
       </c>
     </row>
     <row r="626">
@@ -5448,7 +5448,7 @@
         <v>43637</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.004910829671749748</v>
+        <v>0.001550788317394734</v>
       </c>
     </row>
     <row r="627">
@@ -5456,7 +5456,7 @@
         <v>43638</v>
       </c>
       <c r="B627" t="n">
-        <v>0.05912108757508697</v>
+        <v>0.04331331014859314</v>
       </c>
     </row>
     <row r="628">
@@ -5464,7 +5464,7 @@
         <v>43641</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.03751233958539001</v>
+        <v>-0.01283316880552821</v>
       </c>
     </row>
     <row r="629">
@@ -5472,7 +5472,7 @@
         <v>43642</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.01452282157676354</v>
+        <v>-0.02619294605809142</v>
       </c>
     </row>
     <row r="630">
@@ -5480,7 +5480,7 @@
         <v>43643</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.006202424584155593</v>
+        <v>0.01494220468001131</v>
       </c>
     </row>
     <row r="631">
@@ -5488,7 +5488,7 @@
         <v>43644</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.05638665132336024</v>
+        <v>-0.03337169159953977</v>
       </c>
     </row>
     <row r="632">
@@ -5496,7 +5496,7 @@
         <v>43645</v>
       </c>
       <c r="B632" t="n">
-        <v>0.009022556390977357</v>
+        <v>0.007518796992481203</v>
       </c>
     </row>
     <row r="633">
@@ -5504,7 +5504,7 @@
         <v>43648</v>
       </c>
       <c r="B633" t="n">
-        <v>0.005997001499250247</v>
+        <v>0.01949025487256368</v>
       </c>
     </row>
     <row r="634">
@@ -5512,7 +5512,7 @@
         <v>43649</v>
       </c>
       <c r="B634" t="n">
-        <v>0.07184073860357768</v>
+        <v>0.009809578765147244</v>
       </c>
     </row>
     <row r="635">
@@ -5520,7 +5520,7 @@
         <v>43650</v>
       </c>
       <c r="B635" t="n">
-        <v>0.02266038846380233</v>
+        <v>0.006474396703943673</v>
       </c>
     </row>
     <row r="636">
@@ -5528,7 +5528,7 @@
         <v>43651</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.007373794668179184</v>
+        <v>0.01389676687464555</v>
       </c>
     </row>
     <row r="637">
@@ -5536,7 +5536,7 @@
         <v>43652</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.05913978494623661</v>
+        <v>-0.0171370967741936</v>
       </c>
     </row>
     <row r="638">
@@ -5544,7 +5544,7 @@
         <v>43655</v>
       </c>
       <c r="B638" t="n">
-        <v>0.01631452259962555</v>
+        <v>0.01096549879646955</v>
       </c>
     </row>
     <row r="639">
@@ -5552,7 +5552,7 @@
         <v>43656</v>
       </c>
       <c r="B639" t="n">
-        <v>0.03086568603809986</v>
+        <v>0.007957559681697571</v>
       </c>
     </row>
     <row r="640">
@@ -5560,7 +5560,7 @@
         <v>43657</v>
       </c>
       <c r="B640" t="n">
-        <v>0.01829666739272497</v>
+        <v>0.001960357220649171</v>
       </c>
     </row>
     <row r="641">
@@ -5568,7 +5568,7 @@
         <v>43658</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.03846153846153851</v>
+        <v>-0.02740937223695849</v>
       </c>
     </row>
     <row r="642">
@@ -5576,7 +5576,7 @@
         <v>43659</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.01584317937701405</v>
+        <v>-0.009129967776584409</v>
       </c>
     </row>
     <row r="643">
@@ -5584,7 +5584,7 @@
         <v>43662</v>
       </c>
       <c r="B643" t="n">
-        <v>0.03170902308230356</v>
+        <v>0.0258801585451154</v>
       </c>
     </row>
     <row r="644">
@@ -5592,7 +5592,7 @@
         <v>43663</v>
       </c>
       <c r="B644" t="n">
-        <v>0.04075850043591973</v>
+        <v>0.02877070619006103</v>
       </c>
     </row>
     <row r="645">
@@ -5608,7 +5608,7 @@
         <v>43665</v>
       </c>
       <c r="B646" t="n">
-        <v>0.002008480249944126</v>
+        <v>-0.00133898683329619</v>
       </c>
     </row>
     <row r="647">
@@ -5616,7 +5616,7 @@
         <v>43666</v>
       </c>
       <c r="B647" t="n">
-        <v>0.04730692504987166</v>
+        <v>0.03305785123966932</v>
       </c>
     </row>
     <row r="648">
@@ -5632,7 +5632,7 @@
         <v>43670</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.06200631911532387</v>
+        <v>-0.04028436018957345</v>
       </c>
     </row>
     <row r="650">
@@ -5640,7 +5640,7 @@
         <v>43671</v>
       </c>
       <c r="B650" t="n">
-        <v>0.03523790563408328</v>
+        <v>0.04021501094963176</v>
       </c>
     </row>
     <row r="651">
@@ -5648,7 +5648,7 @@
         <v>43672</v>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>0.02808988764044944</v>
       </c>
     </row>
     <row r="652">
@@ -5656,7 +5656,7 @@
         <v>43673</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.01825221238938044</v>
+        <v>-0.004424778761061853</v>
       </c>
     </row>
     <row r="653">
@@ -5664,7 +5664,7 @@
         <v>43676</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.006287895800583901</v>
+        <v>-0.01190208847967665</v>
       </c>
     </row>
     <row r="654">
@@ -5672,7 +5672,7 @@
         <v>43677</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.1231689704972148</v>
+        <v>-0.1211058386630905</v>
       </c>
     </row>
     <row r="655">
@@ -5680,7 +5680,7 @@
         <v>43678</v>
       </c>
       <c r="B655" t="n">
-        <v>0.01880877742946716</v>
+        <v>0.02440662785490379</v>
       </c>
     </row>
     <row r="656">
@@ -5688,7 +5688,7 @@
         <v>43679</v>
       </c>
       <c r="B656" t="n">
-        <v>0.001144164759725335</v>
+        <v>0.01487414187643017</v>
       </c>
     </row>
     <row r="657">
@@ -5696,7 +5696,7 @@
         <v>43680</v>
       </c>
       <c r="B657" t="n">
-        <v>0.03794335991201547</v>
+        <v>0.0393181193291174</v>
       </c>
     </row>
     <row r="658">
@@ -5704,7 +5704,7 @@
         <v>43683</v>
       </c>
       <c r="B658" t="n">
-        <v>0.01046124583927717</v>
+        <v>0.01759391345696612</v>
       </c>
     </row>
     <row r="659">
@@ -5712,7 +5712,7 @@
         <v>43684</v>
       </c>
       <c r="B659" t="n">
-        <v>0.04110594568142892</v>
+        <v>0.03988255444091027</v>
       </c>
     </row>
     <row r="660">
@@ -5720,7 +5720,7 @@
         <v>43685</v>
       </c>
       <c r="B660" t="n">
-        <v>0.03686635944700464</v>
+        <v>0.02246543778801847</v>
       </c>
     </row>
     <row r="661">
@@ -5728,7 +5728,7 @@
         <v>43686</v>
       </c>
       <c r="B661" t="n">
-        <v>0.01576634789351252</v>
+        <v>-0.004910829671749748</v>
       </c>
     </row>
     <row r="662">
@@ -5736,7 +5736,7 @@
         <v>43687</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.7909967845659164</v>
+        <v>0.01286173633440516</v>
       </c>
     </row>
     <row r="663">
@@ -5744,7 +5744,7 @@
         <v>43690</v>
       </c>
       <c r="B663" t="n">
-        <v>0.01866456361724503</v>
+        <v>0.03180862250262884</v>
       </c>
     </row>
     <row r="664">
@@ -5752,7 +5752,7 @@
         <v>43691</v>
       </c>
       <c r="B664" t="n">
-        <v>0.08331183905081239</v>
+        <v>0.07686355429455756</v>
       </c>
     </row>
     <row r="665">
@@ -5760,7 +5760,7 @@
         <v>43692</v>
       </c>
       <c r="B665" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="666">
@@ -5768,7 +5768,7 @@
         <v>43693</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.01092743065284395</v>
+        <v>-0.005323620061641853</v>
       </c>
     </row>
     <row r="667">
@@ -5776,7 +5776,7 @@
         <v>43694</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.008390541571319561</v>
+        <v>-0.04462242562929055</v>
       </c>
     </row>
     <row r="668">
@@ -5784,7 +5784,7 @@
         <v>43697</v>
       </c>
       <c r="B668" t="n">
-        <v>0.06783919597989957</v>
+        <v>0.04396984924623116</v>
       </c>
     </row>
     <row r="669">
@@ -5800,7 +5800,7 @@
         <v>43699</v>
       </c>
       <c r="B670" t="n">
-        <v>0.06031396309556589</v>
+        <v>0.04654365188653257</v>
       </c>
     </row>
     <row r="671">
@@ -5808,7 +5808,7 @@
         <v>43700</v>
       </c>
       <c r="B671" t="n">
-        <v>0.02893890675241153</v>
+        <v>0.0329581993569131</v>
       </c>
     </row>
     <row r="672">
@@ -5824,7 +5824,7 @@
         <v>43704</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.04136148211977599</v>
+        <v>-0.01981904351572602</v>
       </c>
     </row>
     <row r="674">
@@ -5832,7 +5832,7 @@
         <v>43705</v>
       </c>
       <c r="B674" t="n">
-        <v>-0.07534920322644105</v>
+        <v>-0.05075742671650597</v>
       </c>
     </row>
     <row r="675">
@@ -5840,7 +5840,7 @@
         <v>43706</v>
       </c>
       <c r="B675" t="n">
-        <v>0.06203641267700602</v>
+        <v>0.03843560350640595</v>
       </c>
     </row>
     <row r="676">
@@ -5848,7 +5848,7 @@
         <v>43707</v>
       </c>
       <c r="B676" t="n">
-        <v>0.01596516690856305</v>
+        <v>0.02443154329946778</v>
       </c>
     </row>
     <row r="677">
@@ -5856,7 +5856,7 @@
         <v>43708</v>
       </c>
       <c r="B677" t="n">
-        <v>0.03980986333927521</v>
+        <v>0.0101010101010102</v>
       </c>
     </row>
     <row r="678">
@@ -5864,7 +5864,7 @@
         <v>43711</v>
       </c>
       <c r="B678" t="n">
-        <v>0.05932203389830513</v>
+        <v>0.0225988700564973</v>
       </c>
     </row>
     <row r="679">
@@ -5872,7 +5872,7 @@
         <v>43712</v>
       </c>
       <c r="B679" t="n">
-        <v>0.0364598647456631</v>
+        <v>-0.01499558953249039</v>
       </c>
     </row>
     <row r="680">
@@ -5880,7 +5880,7 @@
         <v>43713</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.03846153846153843</v>
+        <v>0.002522068095838646</v>
       </c>
     </row>
     <row r="681">
@@ -5888,7 +5888,7 @@
         <v>43714</v>
       </c>
       <c r="B681" t="n">
-        <v>0.04006163328197217</v>
+        <v>0.03389830508474558</v>
       </c>
     </row>
     <row r="682">
@@ -5896,7 +5896,7 @@
         <v>43715</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.06649972175848638</v>
+        <v>-0.05954368391764053</v>
       </c>
     </row>
     <row r="683">
@@ -5904,7 +5904,7 @@
         <v>43718</v>
       </c>
       <c r="B683" t="n">
-        <v>0.004888647474198797</v>
+        <v>-0.001901140684410654</v>
       </c>
     </row>
     <row r="684">
@@ -5912,7 +5912,7 @@
         <v>43719</v>
       </c>
       <c r="B684" t="n">
-        <v>0.02858826996758028</v>
+        <v>0.02269378131447106</v>
       </c>
     </row>
     <row r="685">
@@ -5920,7 +5920,7 @@
         <v>43720</v>
       </c>
       <c r="B685" t="n">
-        <v>0.01244044467972469</v>
+        <v>0.01905770248808891</v>
       </c>
     </row>
     <row r="686">
@@ -5928,7 +5928,7 @@
         <v>43721</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.06458226550486937</v>
+        <v>-0.05945668887749872</v>
       </c>
     </row>
     <row r="687">
@@ -5936,7 +5936,7 @@
         <v>43722</v>
       </c>
       <c r="B687" t="n">
-        <v>0.00828729281767948</v>
+        <v>0.02209944751381207</v>
       </c>
     </row>
     <row r="688">
@@ -5944,7 +5944,7 @@
         <v>43725</v>
       </c>
       <c r="B688" t="n">
-        <v>0.04812518452908186</v>
+        <v>0.02598169471508718</v>
       </c>
     </row>
     <row r="689">
@@ -5952,7 +5952,7 @@
         <v>43726</v>
       </c>
       <c r="B689" t="n">
-        <v>0.01425438596491237</v>
+        <v>0.0005482456140351734</v>
       </c>
     </row>
     <row r="690">
@@ -5960,7 +5960,7 @@
         <v>43727</v>
       </c>
       <c r="B690" t="n">
-        <v>0.03357697578803104</v>
+        <v>0.005025125628140678</v>
       </c>
     </row>
     <row r="691">
@@ -5968,7 +5968,7 @@
         <v>43728</v>
       </c>
       <c r="B691" t="n">
-        <v>0.04800936768149876</v>
+        <v>0.02459016393442616</v>
       </c>
     </row>
     <row r="692">
@@ -5976,7 +5976,7 @@
         <v>43729</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.03318903318903315</v>
+        <v>-0.05627705627705615</v>
       </c>
     </row>
     <row r="693">
@@ -5984,7 +5984,7 @@
         <v>43732</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.04636459430979985</v>
+        <v>-0.03793466807165446</v>
       </c>
     </row>
     <row r="694">
@@ -5992,7 +5992,7 @@
         <v>43733</v>
       </c>
       <c r="B694" t="n">
-        <v>0.005562687205819383</v>
+        <v>0.01091142490372268</v>
       </c>
     </row>
     <row r="695">
@@ -6000,7 +6000,7 @@
         <v>43734</v>
       </c>
       <c r="B695" t="n">
-        <v>0.01034399807553523</v>
+        <v>0.004330045706038001</v>
       </c>
     </row>
     <row r="696">
@@ -6008,7 +6008,7 @@
         <v>43735</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.01795005202913626</v>
+        <v>-0.002341311134235076</v>
       </c>
     </row>
     <row r="697">
@@ -6016,7 +6016,7 @@
         <v>43736</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.1493775933609959</v>
+        <v>-0.04564315352697101</v>
       </c>
     </row>
     <row r="698">
@@ -6024,7 +6024,7 @@
         <v>43739</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.0658049353701527</v>
+        <v>-0.03642773207990593</v>
       </c>
     </row>
     <row r="699">
@@ -6032,7 +6032,7 @@
         <v>43740</v>
       </c>
       <c r="B699" t="n">
-        <v>0.02790014684287814</v>
+        <v>0.021781693587861</v>
       </c>
     </row>
     <row r="700">
@@ -6040,7 +6040,7 @@
         <v>43741</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.02919890192163718</v>
+        <v>-0.01921637135013734</v>
       </c>
     </row>
     <row r="701">
@@ -6048,7 +6048,7 @@
         <v>43742</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.001831501831501792</v>
+        <v>-0.009844322344322337</v>
       </c>
     </row>
     <row r="702">
@@ -6056,7 +6056,7 @@
         <v>43743</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.03361344537815131</v>
+        <v>-0.02277039848197353</v>
       </c>
     </row>
     <row r="703">
@@ -6064,7 +6064,7 @@
         <v>43746</v>
       </c>
       <c r="B703" t="n">
-        <v>0.03270223752151465</v>
+        <v>0.05421686746987953</v>
       </c>
     </row>
     <row r="704">
@@ -6080,7 +6080,7 @@
         <v>43748</v>
       </c>
       <c r="B705" t="n">
-        <v>0.03250164149704525</v>
+        <v>0.01772816808929741</v>
       </c>
     </row>
     <row r="706">
@@ -6088,7 +6088,7 @@
         <v>43749</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.008471313053523253</v>
+        <v>0.001155179052753221</v>
       </c>
     </row>
     <row r="707">
@@ -6096,7 +6096,7 @@
         <v>43750</v>
       </c>
       <c r="B707" t="n">
-        <v>0.1403953370501774</v>
+        <v>0.1277242777496198</v>
       </c>
     </row>
     <row r="708">
@@ -6104,7 +6104,7 @@
         <v>43753</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.03735961494384604</v>
+        <v>-0.04652761861104747</v>
       </c>
     </row>
     <row r="709">
@@ -6112,7 +6112,7 @@
         <v>43754</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.03066396350734923</v>
+        <v>-0.01165737455651295</v>
       </c>
     </row>
     <row r="710">
@@ -6120,7 +6120,7 @@
         <v>43755</v>
       </c>
       <c r="B710" t="n">
-        <v>0.01096641535298142</v>
+        <v>-0.006168608636052161</v>
       </c>
     </row>
     <row r="711">
@@ -6128,7 +6128,7 @@
         <v>43756</v>
       </c>
       <c r="B711" t="n">
-        <v>0.04667609618104664</v>
+        <v>0.03394625176803383</v>
       </c>
     </row>
     <row r="712">
@@ -6136,7 +6136,7 @@
         <v>43757</v>
       </c>
       <c r="B712" t="n">
-        <v>0.0123904502870957</v>
+        <v>0.004835297673012892</v>
       </c>
     </row>
     <row r="713">
@@ -6144,7 +6144,7 @@
         <v>43760</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.001708306641042031</v>
+        <v>-0.01772368140081141</v>
       </c>
     </row>
     <row r="714">
@@ -6152,7 +6152,7 @@
         <v>43761</v>
       </c>
       <c r="B714" t="n">
-        <v>0.005284926470588163</v>
+        <v>0.01102941176470581</v>
       </c>
     </row>
     <row r="715">
@@ -6160,7 +6160,7 @@
         <v>43762</v>
       </c>
       <c r="B715" t="n">
-        <v>0.02305102305102306</v>
+        <v>-0.002849002849002834</v>
       </c>
     </row>
     <row r="716">
@@ -6176,7 +6176,7 @@
         <v>43764</v>
       </c>
       <c r="B717" t="n">
-        <v>0.0514596734289955</v>
+        <v>0.01434933201385448</v>
       </c>
     </row>
     <row r="718">
@@ -6184,7 +6184,7 @@
         <v>43767</v>
       </c>
       <c r="B718" t="n">
-        <v>0.008106422781126596</v>
+        <v>-0.002286426938266461</v>
       </c>
     </row>
     <row r="719">
@@ -6192,7 +6192,7 @@
         <v>43768</v>
       </c>
       <c r="B719" t="n">
-        <v>0.02040816326530605</v>
+        <v>0.009995835068721301</v>
       </c>
     </row>
     <row r="720">
@@ -6208,7 +6208,7 @@
         <v>43770</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.01611403780601187</v>
+        <v>-0.03036876355748385</v>
       </c>
     </row>
     <row r="722">
@@ -6216,7 +6216,7 @@
         <v>43771</v>
       </c>
       <c r="B722" t="n">
-        <v>0.01892285298398834</v>
+        <v>0.009825327510917015</v>
       </c>
     </row>
     <row r="723">
@@ -6224,7 +6224,7 @@
         <v>43774</v>
       </c>
       <c r="B723" t="n">
-        <v>0.01873536299765801</v>
+        <v>0.007025761124121713</v>
       </c>
     </row>
     <row r="724">
@@ -6232,7 +6232,7 @@
         <v>43775</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.05387140374589688</v>
+        <v>-0.04325159297161618</v>
       </c>
     </row>
     <row r="725">
@@ -6240,7 +6240,7 @@
         <v>43776</v>
       </c>
       <c r="B725" t="n">
-        <v>0.006554307116104895</v>
+        <v>0.01825842696629216</v>
       </c>
     </row>
     <row r="726">
@@ -6248,7 +6248,7 @@
         <v>43777</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.004668930390492336</v>
+        <v>-0.00785229202037346</v>
       </c>
     </row>
     <row r="727">
@@ -6256,7 +6256,7 @@
         <v>43778</v>
       </c>
       <c r="B727" t="n">
-        <v>-0.04533461261693453</v>
+        <v>-0.03454065723195005</v>
       </c>
     </row>
     <row r="728">
@@ -6264,7 +6264,7 @@
         <v>43781</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.02251184834123229</v>
+        <v>-0.02369668246445497</v>
       </c>
     </row>
     <row r="729">
@@ -6272,7 +6272,7 @@
         <v>43782</v>
       </c>
       <c r="B729" t="n">
-        <v>0.01954120645709434</v>
+        <v>0.003610875106202245</v>
       </c>
     </row>
     <row r="730">
@@ -6280,7 +6280,7 @@
         <v>43783</v>
       </c>
       <c r="B730" t="n">
-        <v>0.05361871138570167</v>
+        <v>0.03155339805825242</v>
       </c>
     </row>
     <row r="731">
@@ -6288,7 +6288,7 @@
         <v>43784</v>
       </c>
       <c r="B731" t="n">
-        <v>0.01583113456464384</v>
+        <v>0.0105540897097625</v>
       </c>
     </row>
     <row r="732">
@@ -6296,7 +6296,7 @@
         <v>43785</v>
       </c>
       <c r="B732" t="n">
-        <v>0.03149606299212587</v>
+        <v>0.003937007874015711</v>
       </c>
     </row>
     <row r="733">
@@ -6304,7 +6304,7 @@
         <v>43788</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.08044740804474085</v>
+        <v>-0.06969240696924074</v>
       </c>
     </row>
     <row r="734">
@@ -6312,7 +6312,7 @@
         <v>43789</v>
       </c>
       <c r="B734" t="n">
-        <v>0.06572769953051644</v>
+        <v>0.06666666666666661</v>
       </c>
     </row>
     <row r="735">
@@ -6320,7 +6320,7 @@
         <v>43790</v>
       </c>
       <c r="B735" t="n">
-        <v>0.01816729886204824</v>
+        <v>0.008185266520263457</v>
       </c>
     </row>
     <row r="736">
@@ -6328,7 +6328,7 @@
         <v>43791</v>
       </c>
       <c r="B736" t="n">
-        <v>0.01537402478201014</v>
+        <v>0.00160624139513539</v>
       </c>
     </row>
     <row r="737">
@@ -6336,7 +6336,7 @@
         <v>43792</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.002616088947024143</v>
+        <v>0.0137344669718771</v>
       </c>
     </row>
     <row r="738">
@@ -6344,7 +6344,7 @@
         <v>43795</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.01288006756756756</v>
+        <v>-0.01393581081081074</v>
       </c>
     </row>
     <row r="739">
@@ -6352,7 +6352,7 @@
         <v>43796</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.04430379746835443</v>
+        <v>-0.03164556962025317</v>
       </c>
     </row>
     <row r="740">
@@ -6360,7 +6360,7 @@
         <v>43797</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.04066907182682842</v>
+        <v>0.006887504099704849</v>
       </c>
     </row>
     <row r="741">
@@ -6368,7 +6368,7 @@
         <v>43798</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.01447105788423149</v>
+        <v>-0.0331836327345309</v>
       </c>
     </row>
     <row r="742">
@@ -6376,7 +6376,7 @@
         <v>43799</v>
       </c>
       <c r="B742" t="n">
-        <v>0.005712925493930064</v>
+        <v>0.01761485360628427</v>
       </c>
     </row>
     <row r="743">
@@ -6384,7 +6384,7 @@
         <v>43802</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.03621495327102803</v>
+        <v>-0.04108255451713395</v>
       </c>
     </row>
     <row r="744">
@@ -6392,7 +6392,7 @@
         <v>43803</v>
       </c>
       <c r="B744" t="n">
-        <v>0.02732582394659996</v>
+        <v>0.02211097204839388</v>
       </c>
     </row>
     <row r="745">
@@ -6400,7 +6400,7 @@
         <v>43804</v>
       </c>
       <c r="B745" t="n">
-        <v>0.03419416547106647</v>
+        <v>0.04017216642754662</v>
       </c>
     </row>
     <row r="746">
@@ -6408,7 +6408,7 @@
         <v>43805</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.06752411575562706</v>
+        <v>-0.05144694533762062</v>
       </c>
     </row>
     <row r="747">
@@ -6424,7 +6424,7 @@
         <v>43809</v>
       </c>
       <c r="B748" t="n">
-        <v>0.02688573562359966</v>
+        <v>0.02066218571072936</v>
       </c>
     </row>
     <row r="749">
@@ -6432,7 +6432,7 @@
         <v>43810</v>
       </c>
       <c r="B749" t="n">
-        <v>0.08210912906610711</v>
+        <v>0.04931794333683113</v>
       </c>
     </row>
     <row r="750">
@@ -6440,7 +6440,7 @@
         <v>43811</v>
       </c>
       <c r="B750" t="n">
-        <v>-0.01949798296727919</v>
+        <v>0.002913491707754428</v>
       </c>
     </row>
     <row r="751">
@@ -6456,7 +6456,7 @@
         <v>43813</v>
       </c>
       <c r="B752" t="n">
-        <v>-0.02066293585880329</v>
+        <v>0.01162290142057682</v>
       </c>
     </row>
     <row r="753">
@@ -6464,7 +6464,7 @@
         <v>43816</v>
       </c>
       <c r="B753" t="n">
-        <v>0.05119825708061009</v>
+        <v>0.06209150326797389</v>
       </c>
     </row>
     <row r="754">
@@ -6480,7 +6480,7 @@
         <v>43818</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.03318903318903315</v>
+        <v>-0.0115440115440115</v>
       </c>
     </row>
     <row r="756">
@@ -6488,7 +6488,7 @@
         <v>43819</v>
       </c>
       <c r="B756" t="n">
-        <v>0.01666099965997955</v>
+        <v>0.0098605916354981</v>
       </c>
     </row>
     <row r="757">
@@ -6496,7 +6496,7 @@
         <v>43820</v>
       </c>
       <c r="B757" t="n">
-        <v>0.04055496264674495</v>
+        <v>0.06723585912486661</v>
       </c>
     </row>
     <row r="758">
@@ -6504,7 +6504,7 @@
         <v>43823</v>
       </c>
       <c r="B758" t="n">
-        <v>0.2183235867446394</v>
+        <v>0.1208576998050682</v>
       </c>
     </row>
     <row r="759">
@@ -6512,7 +6512,7 @@
         <v>43827</v>
       </c>
       <c r="B759" t="n">
-        <v>0.03528725575969673</v>
+        <v>0.02070574511519396</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/D1_riskprem_expost.xlsx
+++ b/datasets/D1_riskprem_expost.xlsx
@@ -456,7 +456,7 @@
         <v>42738</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02925187677970496</v>
+        <v>-0.1198550349469325</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>42739</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1090573012939001</v>
+        <v>0.07208872458410348</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>42740</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01581265012009606</v>
+        <v>0.007806244995996809</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>42741</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04439959636730581</v>
+        <v>0.03935418768920289</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>42742</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07736240913810999</v>
+        <v>0.09034267912772577</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>42745</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05694927668925105</v>
+        <v>-0.0615271928218275</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>42746</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04398663697104672</v>
+        <v>0.007795100222717181</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>42747</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00936220011702751</v>
+        <v>0.0005851375073143104</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>42748</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01758793969849253</v>
+        <v>0.005025125628140776</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>42752</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01311936277380818</v>
+        <v>-0.0219046503455547</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>42753</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1041009463722398</v>
+        <v>0.1155721250358475</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>42754</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0843553694286569</v>
+        <v>0.1067903081064912</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>42755</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04166666666666662</v>
+        <v>0.03371501272264627</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>42756</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03605470368835479</v>
+        <v>0.07749689183588898</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>42759</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1022370486656201</v>
+        <v>-0.1689560439560439</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>42760</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01755609812812469</v>
+        <v>-0.05824904080920829</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>42761</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08740044925464573</v>
+        <v>0.09761078211149686</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>42762</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05046814341173786</v>
+        <v>0.06188627540534371</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>42763</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.05048360462373203</v>
+        <v>-0.03279075253597548</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>42766</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0929459381324083</v>
+        <v>-0.1008962127782597</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>42767</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03313840155945425</v>
+        <v>-0.030214424951267</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>42768</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02495543672014254</v>
+        <v>0.0472370766488413</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>42769</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03426791277258564</v>
+        <v>0.01765316718587749</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>42770</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0573951434878586</v>
+        <v>-0.07284768211920524</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>42773</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06701609883938596</v>
+        <v>0.03893672781729686</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>42774</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02665102246061018</v>
+        <v>-0.05296681193429428</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>42775</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03763812154696132</v>
+        <v>0.06180939226519334</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>42776</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003120820329915305</v>
+        <v>0.069995541685243</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>42777</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.001297016861219122</v>
+        <v>0.007782101167315286</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>42780</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05281526291298286</v>
+        <v>0.05863192182410431</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>42781</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.00464919695688924</v>
+        <v>0.01965342349957734</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>42782</v>
       </c>
       <c r="B34" t="n">
-        <v>0.009106571498892381</v>
+        <v>-0.00566084174255486</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>42783</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.01208740120874019</v>
+        <v>-0.02952115295211536</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>42784</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03508335406817626</v>
+        <v>0.02015426723065445</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>42787</v>
       </c>
       <c r="B37" t="n">
-        <v>0.009791921664626693</v>
+        <v>0.008261933904528859</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>42788</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.05343827671913833</v>
+        <v>0.0149130074565037</v>
       </c>
     </row>
     <row r="39">
@@ -760,7 +760,7 @@
         <v>42790</v>
       </c>
       <c r="B40" t="n">
-        <v>0.008695652173913044</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>42791</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04271779347460476</v>
+        <v>-0.0094180961991255</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>42794</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0835579514824798</v>
+        <v>-0.07345013477088948</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>42795</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.006455234353073364</v>
+        <v>-0.02469828795958469</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>42796</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04204753199268733</v>
+        <v>0.00731261425959778</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>42797</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01358766657956632</v>
+        <v>-0.01489417298144761</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>42798</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.03988183161004435</v>
+        <v>-0.0251107828655835</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>42801</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0226915299932599</v>
+        <v>-0.01370478544147381</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>42802</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.02499313375446297</v>
+        <v>-0.01675363911013457</v>
       </c>
     </row>
     <row r="49">
@@ -840,7 +840,7 @@
         <v>42804</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02502979737783064</v>
+        <v>0.01311084624553032</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>42805</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03186646433990886</v>
+        <v>0.05462822458270097</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>42808</v>
       </c>
       <c r="B52" t="n">
-        <v>0.005787037037036914</v>
+        <v>-0.003182870370370354</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>42809</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.01544401544401554</v>
+        <v>-0.02732402732402737</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>42810</v>
       </c>
       <c r="B54" t="n">
-        <v>0.00232423009877973</v>
+        <v>0.003776873910517009</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>42811</v>
       </c>
       <c r="B55" t="n">
-        <v>0.009126009126009181</v>
+        <v>0.03545103545103551</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>42812</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1865785460091511</v>
+        <v>-0.173868835790544</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>42815</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.01378404988513286</v>
+        <v>-0.007220216606498158</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>42816</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04225352112676056</v>
+        <v>0.07042253521126761</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>42817</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02575358501609586</v>
+        <v>0.0199004975124378</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>42818</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.002624671916010391</v>
+        <v>-0.008457276173811583</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>42819</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.04761904761904766</v>
+        <v>-0.07407407407407413</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>42823</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.06470211402946828</v>
+        <v>-0.05509288917360663</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>42824</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02290303390838775</v>
+        <v>-0.01546698393813195</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>42825</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.01232616940581544</v>
+        <v>-0.01706700379266748</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>42826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04180381830151414</v>
+        <v>0.04509545753785388</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>42829</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.003880983182406173</v>
+        <v>-0.01681759379042687</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>42830</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003364943407769943</v>
+        <v>-0.02110737228510241</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>42831</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.009669889963321078</v>
+        <v>-0.01633877959319768</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>42832</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.04966006503103754</v>
+        <v>-0.06148389003842739</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>42833</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.03132250580046399</v>
+        <v>-0.02842227378190246</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>42836</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.03014025663980895</v>
+        <v>-0.05102954341987459</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>42837</v>
       </c>
       <c r="B73" t="n">
-        <v>0.04768786127167631</v>
+        <v>0.04046242774566478</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>42838</v>
       </c>
       <c r="B74" t="n">
-        <v>0.007857874957294172</v>
+        <v>0.004441407584557534</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>42839</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001980851766259567</v>
+        <v>-0.02608121492241661</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>42844</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.004860923575479333</v>
+        <v>0.0005401026194975971</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>42845</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04491662183969881</v>
+        <v>0.04088219472834866</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>42846</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08342361863488619</v>
+        <v>0.09245214879017691</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>42847</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07986960065199677</v>
+        <v>0.01874490627546866</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>42850</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02348066298342525</v>
+        <v>0.02900552486187837</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>42851</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02355299423703345</v>
+        <v>0.03608118266098734</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>42852</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02337591736885022</v>
+        <v>0.03968469692851321</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>42853</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02657987523732042</v>
+        <v>0.0008136696501220813</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>42854</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03374131657294077</v>
+        <v>0.05028117763810783</v>
       </c>
     </row>
     <row r="85">
@@ -1128,7 +1128,7 @@
         <v>42859</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0237949969493594</v>
+        <v>-0.03904820012202566</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>42860</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.028909329829172</v>
+        <v>-0.03416557161629428</v>
       </c>
     </row>
     <row r="88">
@@ -1152,7 +1152,7 @@
         <v>42864</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.01282696177062369</v>
+        <v>-0.02917505030181078</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>42865</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.02781354622714392</v>
+        <v>-0.0265258820499614</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>42866</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0713233127026231</v>
+        <v>0.08311229000884174</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>42867</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.04267265581134183</v>
+        <v>-0.06653565412689494</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>42868</v>
       </c>
       <c r="B93" t="n">
-        <v>0.03157236636448895</v>
+        <v>0.0003125976867771667</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>42871</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02249488752556247</v>
+        <v>0.04440549225825309</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>42872</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01168511685116837</v>
+        <v>0.01476014760147592</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>42873</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.02718387293830179</v>
+        <v>-0.04551007941356145</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>42874</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.02378880185668698</v>
+        <v>-0.006382361473745253</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42875</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1333585190782018</v>
+        <v>0.1484699659992444</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42878</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002390200179264963</v>
+        <v>0.0008963250672244141</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42879</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.03165735567970204</v>
+        <v>-0.04717566728739912</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42880</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1451612903225805</v>
+        <v>-0.1487455197132616</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42881</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.02060270602706032</v>
+        <v>-0.01291512915129156</v>
       </c>
     </row>
     <row r="103">
@@ -1272,7 +1272,7 @@
         <v>42885</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.02280130293159618</v>
+        <v>-0.04994571118349628</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42886</v>
       </c>
       <c r="B105" t="n">
-        <v>0.008798543689320362</v>
+        <v>0.02396844660194172</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42887</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02730281301709879</v>
+        <v>0.01213458356315513</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42888</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.0150891632373115</v>
+        <v>-0.005486968449931491</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42889</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.01639344262295082</v>
+        <v>-0.01967213114754103</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>42892</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2772875058058522</v>
+        <v>0.2888992104040872</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>42893</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09691960931630346</v>
+        <v>-0.004507888805409504</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>42894</v>
       </c>
       <c r="B111" t="n">
-        <v>0.05939562348037516</v>
+        <v>0.04202848211184442</v>
       </c>
     </row>
     <row r="112">
@@ -1344,7 +1344,7 @@
         <v>42896</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.05736384144376414</v>
+        <v>-0.04930712213986468</v>
       </c>
     </row>
     <row r="114">
@@ -1352,7 +1352,7 @@
         <v>42899</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.03969465648854964</v>
+        <v>-0.04274809160305339</v>
       </c>
     </row>
     <row r="115">
@@ -1360,7 +1360,7 @@
         <v>42900</v>
       </c>
       <c r="B115" t="n">
-        <v>0.008818813468733252</v>
+        <v>0.002137894174238329</v>
       </c>
     </row>
     <row r="116">
@@ -1368,7 +1368,7 @@
         <v>42901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02205653929791864</v>
+        <v>0.01739670705187954</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1376,7 @@
         <v>42902</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1386138613861387</v>
+        <v>0.1212871287128713</v>
       </c>
     </row>
     <row r="118">
@@ -1384,7 +1384,7 @@
         <v>42903</v>
       </c>
       <c r="B118" t="n">
-        <v>0.01144258275439318</v>
+        <v>-0.006947282386595756</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1392,7 @@
         <v>42906</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02643419572553424</v>
+        <v>0.02221597300337455</v>
       </c>
     </row>
     <row r="120">
@@ -1400,7 +1400,7 @@
         <v>42907</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.0007589172780167249</v>
+        <v>-0.00708322792815586</v>
       </c>
     </row>
     <row r="121">
@@ -1408,7 +1408,7 @@
         <v>42908</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01208883890919313</v>
+        <v>0.01911723362384031</v>
       </c>
     </row>
     <row r="122">
@@ -1416,7 +1416,7 @@
         <v>42909</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03505843071786313</v>
+        <v>0.0400667779632721</v>
       </c>
     </row>
     <row r="123">
@@ -1424,7 +1424,7 @@
         <v>42910</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01580135440180594</v>
+        <v>0.02708803611738156</v>
       </c>
     </row>
     <row r="124">
@@ -1640,7 +1640,7 @@
         <v>42949</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01815431164901669</v>
+        <v>0.01210287443267793</v>
       </c>
     </row>
     <row r="151">
@@ -1648,7 +1648,7 @@
         <v>42950</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.01496259351620954</v>
+        <v>-0.01852511578197362</v>
       </c>
     </row>
     <row r="152">
@@ -1848,7 +1848,7 @@
         <v>42985</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.01646706586826339</v>
+        <v>-0.02994011976047904</v>
       </c>
     </row>
     <row r="177">
@@ -1864,7 +1864,7 @@
         <v>42987</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.09331259720062209</v>
+        <v>-0.1057542768273717</v>
       </c>
     </row>
     <row r="179">
@@ -1888,7 +1888,7 @@
         <v>42992</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.01939180255619221</v>
+        <v>-0.0304098721903923</v>
       </c>
     </row>
     <row r="182">
@@ -1896,7 +1896,7 @@
         <v>42993</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.006565800742221067</v>
+        <v>-0.01084784470453904</v>
       </c>
     </row>
     <row r="183">
@@ -1952,7 +1952,7 @@
         <v>43004</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.003461918892185969</v>
+        <v>-0.005934718100890081</v>
       </c>
     </row>
     <row r="190">
@@ -1984,7 +1984,7 @@
         <v>43008</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.03144300954519925</v>
+        <v>-0.01038742279618185</v>
       </c>
     </row>
     <row r="194">
@@ -1992,7 +1992,7 @@
         <v>43011</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1013071895424837</v>
+        <v>-0.1625816993464052</v>
       </c>
     </row>
     <row r="195">
@@ -2000,7 +2000,7 @@
         <v>43012</v>
       </c>
       <c r="B195" t="n">
-        <v>0.004893393918210436</v>
+        <v>-0.05627403005941976</v>
       </c>
     </row>
     <row r="196">
@@ -2008,7 +2008,7 @@
         <v>43013</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1369938990571269</v>
+        <v>0.1397670549084858</v>
       </c>
     </row>
     <row r="197">
@@ -2032,7 +2032,7 @@
         <v>43018</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.003215434083601218</v>
+        <v>-0.0219721329046088</v>
       </c>
     </row>
     <row r="200">
@@ -2040,7 +2040,7 @@
         <v>43019</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.03677758318739049</v>
+        <v>-0.06596614127262108</v>
       </c>
     </row>
     <row r="201">
@@ -2048,7 +2048,7 @@
         <v>43020</v>
       </c>
       <c r="B201" t="n">
-        <v>0.04018912529550826</v>
+        <v>0.04412923561859736</v>
       </c>
     </row>
     <row r="202">
@@ -2072,7 +2072,7 @@
         <v>43025</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01225359616409166</v>
+        <v>0.005594033031433161</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2080,7 @@
         <v>43026</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.05328258801141764</v>
+        <v>-0.09609895337773544</v>
       </c>
     </row>
     <row r="206">
@@ -2088,7 +2088,7 @@
         <v>43027</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.007551240560949329</v>
+        <v>0.005393743257820927</v>
       </c>
     </row>
     <row r="207">
@@ -2096,7 +2096,7 @@
         <v>43028</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.00158898305084733</v>
+        <v>-0.01350635593220334</v>
       </c>
     </row>
     <row r="208">
@@ -2112,7 +2112,7 @@
         <v>43032</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1067400996590611</v>
+        <v>0.1041174927878311</v>
       </c>
     </row>
     <row r="210">
@@ -2120,7 +2120,7 @@
         <v>43033</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.03020432336393257</v>
+        <v>-0.06721942552561454</v>
       </c>
     </row>
     <row r="211">
@@ -2136,7 +2136,7 @@
         <v>43035</v>
       </c>
       <c r="B212" t="n">
-        <v>0.01642036124794746</v>
+        <v>0.01970443349753699</v>
       </c>
     </row>
     <row r="213">
@@ -2152,7 +2152,7 @@
         <v>43039</v>
       </c>
       <c r="B214" t="n">
-        <v>0.006493506493506547</v>
+        <v>0.001082251082251059</v>
       </c>
     </row>
     <row r="215">
@@ -2160,7 +2160,7 @@
         <v>43040</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.01294498381877018</v>
+        <v>0.0129449838187703</v>
       </c>
     </row>
     <row r="216">
@@ -2176,7 +2176,7 @@
         <v>43042</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.00376685170499599</v>
+        <v>0.001189532117367214</v>
       </c>
     </row>
     <row r="218">
@@ -2184,7 +2184,7 @@
         <v>43043</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.0008688097306690164</v>
+        <v>0.01361135244714737</v>
       </c>
     </row>
     <row r="219">
@@ -2192,7 +2192,7 @@
         <v>43046</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.02455272173582031</v>
+        <v>-0.01979444232965358</v>
       </c>
     </row>
     <row r="220">
@@ -2200,7 +2200,7 @@
         <v>43047</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.05947955390334572</v>
+        <v>-0.04089219330855019</v>
       </c>
     </row>
     <row r="221">
@@ -2208,7 +2208,7 @@
         <v>43048</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.01513681350669515</v>
+        <v>0.009120900446341914</v>
       </c>
     </row>
     <row r="222">
@@ -2216,7 +2216,7 @@
         <v>43049</v>
       </c>
       <c r="B222" t="n">
-        <v>0.03109137055837565</v>
+        <v>-0.0006345177664974484</v>
       </c>
     </row>
     <row r="223">
@@ -2224,7 +2224,7 @@
         <v>43050</v>
       </c>
       <c r="B223" t="n">
-        <v>0.07573149741824448</v>
+        <v>0.0327022375215147</v>
       </c>
     </row>
     <row r="224">
@@ -2240,7 +2240,7 @@
         <v>43054</v>
       </c>
       <c r="B225" t="n">
-        <v>0.005102829751043734</v>
+        <v>0.01824648214009576</v>
       </c>
     </row>
     <row r="226">
@@ -2248,7 +2248,7 @@
         <v>43055</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.006309148264984168</v>
+        <v>0.06729758149316516</v>
       </c>
     </row>
     <row r="227">
@@ -2256,7 +2256,7 @@
         <v>43056</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.009093028678013535</v>
+        <v>0.106784798321287</v>
       </c>
     </row>
     <row r="228">
@@ -2264,7 +2264,7 @@
         <v>43057</v>
       </c>
       <c r="B228" t="n">
-        <v>0.04251012145748987</v>
+        <v>0.01214574898785417</v>
       </c>
     </row>
     <row r="229">
@@ -2272,7 +2272,7 @@
         <v>43060</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0040567951318459</v>
+        <v>-0.006085192697768705</v>
       </c>
     </row>
     <row r="230">
@@ -2280,7 +2280,7 @@
         <v>43061</v>
       </c>
       <c r="B230" t="n">
-        <v>0.02616645649432529</v>
+        <v>0.004098360655737786</v>
       </c>
     </row>
     <row r="231">
@@ -2288,7 +2288,7 @@
         <v>43062</v>
       </c>
       <c r="B231" t="n">
-        <v>0.07020547945205483</v>
+        <v>0.04880136986301373</v>
       </c>
     </row>
     <row r="232">
@@ -2296,7 +2296,7 @@
         <v>43063</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.02293470629534278</v>
+        <v>-0.03463608705827281</v>
       </c>
     </row>
     <row r="233">
@@ -2304,7 +2304,7 @@
         <v>43064</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.01948538596052963</v>
+        <v>-0.02573070197351989</v>
       </c>
     </row>
     <row r="234">
@@ -2312,7 +2312,7 @@
         <v>43067</v>
       </c>
       <c r="B234" t="n">
-        <v>0.008818813468733252</v>
+        <v>0.02752538749331911</v>
       </c>
     </row>
     <row r="235">
@@ -2328,7 +2328,7 @@
         <v>43069</v>
       </c>
       <c r="B236" t="n">
-        <v>0.09146070741453319</v>
+        <v>0.06556163978096799</v>
       </c>
     </row>
     <row r="237">
@@ -2336,7 +2336,7 @@
         <v>43070</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0773390135998689</v>
+        <v>0.05685728330329344</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2344,7 @@
         <v>43071</v>
       </c>
       <c r="B238" t="n">
-        <v>0.03675192450956039</v>
+        <v>0.0553762105785944</v>
       </c>
     </row>
     <row r="239">
@@ -2352,7 +2352,7 @@
         <v>43074</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.0016708437761068</v>
+        <v>-0.01837928153717618</v>
       </c>
     </row>
     <row r="240">
@@ -2360,7 +2360,7 @@
         <v>43075</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.02560000000000002</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="241">
@@ -2368,7 +2368,7 @@
         <v>43076</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.1066198008201523</v>
+        <v>-0.150556531927358</v>
       </c>
     </row>
     <row r="242">
@@ -2376,7 +2376,7 @@
         <v>43077</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1089367253750815</v>
+        <v>0.1170906718851924</v>
       </c>
     </row>
     <row r="243">
@@ -2392,7 +2392,7 @@
         <v>43081</v>
       </c>
       <c r="B244" t="n">
-        <v>0.04075691411935949</v>
+        <v>0.04803493449781655</v>
       </c>
     </row>
     <row r="245">
@@ -2400,7 +2400,7 @@
         <v>43082</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1532738095238096</v>
+        <v>0.1253720238095239</v>
       </c>
     </row>
     <row r="246">
@@ -2408,7 +2408,7 @@
         <v>43083</v>
       </c>
       <c r="B246" t="n">
-        <v>0.01580135440180582</v>
+        <v>0.007739438890680374</v>
       </c>
     </row>
     <row r="247">
@@ -2416,7 +2416,7 @@
         <v>43084</v>
       </c>
       <c r="B247" t="n">
-        <v>0.08084738434932992</v>
+        <v>0.08625162127107656</v>
       </c>
     </row>
     <row r="248">
@@ -2448,7 +2448,7 @@
         <v>43090</v>
       </c>
       <c r="B251" t="n">
-        <v>0.0629646840148699</v>
+        <v>0.0571561338289963</v>
       </c>
     </row>
     <row r="252">
@@ -2456,7 +2456,7 @@
         <v>43091</v>
       </c>
       <c r="B252" t="n">
-        <v>0.01924537857685485</v>
+        <v>0.02810838186882754</v>
       </c>
     </row>
     <row r="253">
@@ -2464,7 +2464,7 @@
         <v>43092</v>
       </c>
       <c r="B253" t="n">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="254">
@@ -2472,7 +2472,7 @@
         <v>43097</v>
       </c>
       <c r="B254" t="n">
-        <v>0.0772545398584179</v>
+        <v>0.09264389042782388</v>
       </c>
     </row>
     <row r="255">
@@ -2480,7 +2480,7 @@
         <v>43098</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1260182079540009</v>
+        <v>0.1619549592716818</v>
       </c>
     </row>
     <row r="256">
@@ -2496,7 +2496,7 @@
         <v>43103</v>
       </c>
       <c r="B257" t="n">
-        <v>0.2263099219620958</v>
+        <v>0.309921962095875</v>
       </c>
     </row>
     <row r="258">
@@ -2504,7 +2504,7 @@
         <v>43104</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.1795043536503684</v>
+        <v>-0.1962491627595445</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2512,7 @@
         <v>43105</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.04792129482703908</v>
+        <v>-0.006664550936210754</v>
       </c>
     </row>
     <row r="260">
@@ -2520,7 +2520,7 @@
         <v>43106</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.06420765027322407</v>
+        <v>-0.04098360655737705</v>
       </c>
     </row>
     <row r="261">
@@ -2528,7 +2528,7 @@
         <v>43109</v>
       </c>
       <c r="B261" t="n">
-        <v>0.06576338400528746</v>
+        <v>0.0905485789821546</v>
       </c>
     </row>
     <row r="262">
@@ -2536,7 +2536,7 @@
         <v>43110</v>
       </c>
       <c r="B262" t="n">
-        <v>0.04040648439390278</v>
+        <v>0.04282603435760956</v>
       </c>
     </row>
     <row r="263">
@@ -2544,7 +2544,7 @@
         <v>43111</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.01005656819610301</v>
+        <v>0.005656819610308048</v>
       </c>
     </row>
     <row r="264">
@@ -2560,7 +2560,7 @@
         <v>43113</v>
       </c>
       <c r="B265" t="n">
-        <v>0.04351687388987563</v>
+        <v>0.05091770278271163</v>
       </c>
     </row>
     <row r="266">
@@ -2568,7 +2568,7 @@
         <v>43116</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.04481998530492281</v>
+        <v>-0.0540044085231447</v>
       </c>
     </row>
     <row r="267">
@@ -2576,7 +2576,7 @@
         <v>43117</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.02720385674931127</v>
+        <v>-0.01859504132231402</v>
       </c>
     </row>
     <row r="268">
@@ -2584,7 +2584,7 @@
         <v>43118</v>
       </c>
       <c r="B268" t="n">
-        <v>0.007585751978891835</v>
+        <v>0.02242744063324537</v>
       </c>
     </row>
     <row r="269">
@@ -2608,7 +2608,7 @@
         <v>43123</v>
       </c>
       <c r="B271" t="n">
-        <v>0.005901287553648038</v>
+        <v>-0.02092274678111591</v>
       </c>
     </row>
     <row r="272">
@@ -2616,7 +2616,7 @@
         <v>43124</v>
       </c>
       <c r="B272" t="n">
-        <v>0.02596314907872701</v>
+        <v>0.005025125628140745</v>
       </c>
     </row>
     <row r="273">
@@ -2632,7 +2632,7 @@
         <v>43126</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.03654485049833884</v>
+        <v>-0.05869324473975634</v>
       </c>
     </row>
     <row r="275">
@@ -2640,7 +2640,7 @@
         <v>43127</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.05516610789393484</v>
+        <v>-0.04754647973178915</v>
       </c>
     </row>
     <row r="276">
@@ -2648,7 +2648,7 @@
         <v>43130</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.02960067020385374</v>
+        <v>-0.05054454063110869</v>
       </c>
     </row>
     <row r="277">
@@ -2656,7 +2656,7 @@
         <v>43131</v>
       </c>
       <c r="B277" t="n">
-        <v>0.09514031485284057</v>
+        <v>0.07802874743326493</v>
       </c>
     </row>
     <row r="278">
@@ -2664,7 +2664,7 @@
         <v>43132</v>
       </c>
       <c r="B278" t="n">
-        <v>0.0005885815185404099</v>
+        <v>-0.02884049440847548</v>
       </c>
     </row>
     <row r="279">
@@ -2680,7 +2680,7 @@
         <v>43134</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.04419066534260181</v>
+        <v>-0.03798411122144988</v>
       </c>
     </row>
     <row r="281">
@@ -2704,7 +2704,7 @@
         <v>43139</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.03229041315683914</v>
+        <v>-0.02727637384677095</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2712,7 @@
         <v>43140</v>
       </c>
       <c r="B284" t="n">
-        <v>0.0220588235294119</v>
+        <v>0.01102941176470595</v>
       </c>
     </row>
     <row r="285">
@@ -2720,7 +2720,7 @@
         <v>43141</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.02234636871508386</v>
+        <v>-0.02869476891823267</v>
       </c>
     </row>
     <row r="286">
@@ -2728,7 +2728,7 @@
         <v>43144</v>
       </c>
       <c r="B286" t="n">
-        <v>0.01010101010101007</v>
+        <v>0.02272727272727269</v>
       </c>
     </row>
     <row r="287">
@@ -2736,7 +2736,7 @@
         <v>43145</v>
       </c>
       <c r="B287" t="n">
-        <v>0.003512293025589578</v>
+        <v>-0.009031610637230292</v>
       </c>
     </row>
     <row r="288">
@@ -2744,7 +2744,7 @@
         <v>43146</v>
       </c>
       <c r="B288" t="n">
-        <v>0.009953161592505956</v>
+        <v>-0.00468384074941442</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2752,7 @@
         <v>43147</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.04926962119336474</v>
+        <v>-0.05298341173557813</v>
       </c>
     </row>
     <row r="290">
@@ -2760,7 +2760,7 @@
         <v>43148</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.02310149913983774</v>
+        <v>-0.01081346768247721</v>
       </c>
     </row>
     <row r="291">
@@ -2768,7 +2768,7 @@
         <v>43151</v>
       </c>
       <c r="B291" t="n">
-        <v>0.004077471967380283</v>
+        <v>-0.03669724770642196</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2776,7 @@
         <v>43152</v>
       </c>
       <c r="B292" t="n">
-        <v>0.01925133689839569</v>
+        <v>0.04385026737967909</v>
       </c>
     </row>
     <row r="293">
@@ -2784,7 +2784,7 @@
         <v>43153</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.03627161535217206</v>
+        <v>-0.04997891185153953</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2792,7 @@
         <v>43154</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.006098938332956926</v>
+        <v>-0.03885249604698455</v>
       </c>
     </row>
     <row r="295">
@@ -2800,7 +2800,7 @@
         <v>43155</v>
       </c>
       <c r="B295" t="n">
-        <v>0.04053489343919761</v>
+        <v>-0.02214793146677815</v>
       </c>
     </row>
     <row r="296">
@@ -2808,7 +2808,7 @@
         <v>43158</v>
       </c>
       <c r="B296" t="n">
-        <v>0.04402386340259207</v>
+        <v>0.06150997737091138</v>
       </c>
     </row>
     <row r="297">
@@ -2816,7 +2816,7 @@
         <v>43159</v>
       </c>
       <c r="B297" t="n">
-        <v>0.01724137931034479</v>
+        <v>0.002652519893899053</v>
       </c>
     </row>
     <row r="298">
@@ -2824,7 +2824,7 @@
         <v>43160</v>
       </c>
       <c r="B298" t="n">
-        <v>0.08760826115922715</v>
+        <v>0.1075949367088608</v>
       </c>
     </row>
     <row r="299">
@@ -2832,7 +2832,7 @@
         <v>43161</v>
       </c>
       <c r="B299" t="n">
-        <v>0.045274616526472</v>
+        <v>0.02177140029688262</v>
       </c>
     </row>
     <row r="300">
@@ -2840,7 +2840,7 @@
         <v>43162</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.01420701652652949</v>
+        <v>0.0002899391127862572</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2848,7 @@
         <v>43165</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.05849358974358978</v>
+        <v>0.01262019230769222</v>
       </c>
     </row>
     <row r="302">
@@ -2856,7 +2856,7 @@
         <v>43166</v>
       </c>
       <c r="B302" t="n">
-        <v>0.02315006200909461</v>
+        <v>-0.002687060768912826</v>
       </c>
     </row>
     <row r="303">
@@ -2864,7 +2864,7 @@
         <v>43167</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.04076738609112713</v>
+        <v>-0.0740740740740741</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2872,7 @@
         <v>43168</v>
       </c>
       <c r="B304" t="n">
-        <v>0.00593311758360299</v>
+        <v>0.01132686084142399</v>
       </c>
     </row>
     <row r="305">
@@ -2880,7 +2880,7 @@
         <v>43169</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.0290563866513233</v>
+        <v>-0.05782508630609891</v>
       </c>
     </row>
     <row r="306">
@@ -2888,7 +2888,7 @@
         <v>43172</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.02910185649774201</v>
+        <v>-0.06547917711991971</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2896,7 @@
         <v>43173</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.0006412997007268306</v>
+        <v>0.004702864471996556</v>
       </c>
     </row>
     <row r="308">
@@ -2904,7 +2904,7 @@
         <v>43174</v>
       </c>
       <c r="B308" t="n">
-        <v>0.1368250101502234</v>
+        <v>0.1469752334551361</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2912,7 @@
         <v>43175</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.1217598908594816</v>
+        <v>-0.1132332878581173</v>
       </c>
     </row>
     <row r="310">
@@ -2920,7 +2920,7 @@
         <v>43176</v>
       </c>
       <c r="B310" t="n">
-        <v>0.03015075376884414</v>
+        <v>0.005025125628140708</v>
       </c>
     </row>
     <row r="311">
@@ -2928,7 +2928,7 @@
         <v>43179</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.01024685607824867</v>
+        <v>-0.02189101071262221</v>
       </c>
     </row>
     <row r="312">
@@ -2936,7 +2936,7 @@
         <v>43180</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.02180204514759783</v>
+        <v>-0.01794327609492571</v>
       </c>
     </row>
     <row r="313">
@@ -2944,7 +2944,7 @@
         <v>43181</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.06285845377380136</v>
+        <v>-0.0502408809359946</v>
       </c>
     </row>
     <row r="314">
@@ -2968,7 +2968,7 @@
         <v>43186</v>
       </c>
       <c r="B316" t="n">
-        <v>0.03727534945640115</v>
+        <v>0.05946305746616374</v>
       </c>
     </row>
     <row r="317">
@@ -2976,7 +2976,7 @@
         <v>43187</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.01554404145077726</v>
+        <v>-0.0130767332839872</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2984,7 @@
         <v>43188</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.006300866369125807</v>
+        <v>-0.01286426883696513</v>
       </c>
     </row>
     <row r="319">
@@ -2992,7 +2992,7 @@
         <v>43189</v>
       </c>
       <c r="B319" t="n">
-        <v>0.0292616536236815</v>
+        <v>0.01395032323919701</v>
       </c>
     </row>
     <row r="320">
@@ -3000,7 +3000,7 @@
         <v>43194</v>
       </c>
       <c r="B320" t="n">
-        <v>0.01286613742129753</v>
+        <v>0.01149739939775532</v>
       </c>
     </row>
     <row r="321">
@@ -3008,7 +3008,7 @@
         <v>43195</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.09398034398034405</v>
+        <v>-0.1108722358722359</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3016,7 @@
         <v>43196</v>
       </c>
       <c r="B322" t="n">
-        <v>0.03551136363636363</v>
+        <v>0.02414772727272711</v>
       </c>
     </row>
     <row r="323">
@@ -3024,7 +3024,7 @@
         <v>43197</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.07463592233009711</v>
+        <v>-0.05946601941747575</v>
       </c>
     </row>
     <row r="324">
@@ -3032,7 +3032,7 @@
         <v>43200</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.004995836802664438</v>
+        <v>-0.03552595059672498</v>
       </c>
     </row>
     <row r="325">
@@ -3048,7 +3048,7 @@
         <v>43202</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.04658176943699734</v>
+        <v>-0.05831099195710451</v>
       </c>
     </row>
     <row r="327">
@@ -3056,7 +3056,7 @@
         <v>43203</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.03322086685699458</v>
+        <v>-0.0539839086426161</v>
       </c>
     </row>
     <row r="328">
@@ -3064,7 +3064,7 @@
         <v>43204</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.07507082152974501</v>
+        <v>-0.07932011331444752</v>
       </c>
     </row>
     <row r="329">
@@ -3072,7 +3072,7 @@
         <v>43207</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0182648401826485</v>
+        <v>0.01598173515981742</v>
       </c>
     </row>
     <row r="330">
@@ -3080,7 +3080,7 @@
         <v>43208</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.008767657087189464</v>
+        <v>-0.003896736483195414</v>
       </c>
     </row>
     <row r="331">
@@ -3096,7 +3096,7 @@
         <v>43210</v>
       </c>
       <c r="B332" t="n">
-        <v>0.005695055656225701</v>
+        <v>0.003106393994304878</v>
       </c>
     </row>
     <row r="333">
@@ -3104,7 +3104,7 @@
         <v>43211</v>
       </c>
       <c r="B333" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.03666666666666672</v>
       </c>
     </row>
     <row r="334">
@@ -3120,7 +3120,7 @@
         <v>43215</v>
       </c>
       <c r="B335" t="n">
-        <v>0.04433858556247713</v>
+        <v>0.09014290949065595</v>
       </c>
     </row>
     <row r="336">
@@ -3128,7 +3128,7 @@
         <v>43216</v>
       </c>
       <c r="B336" t="n">
-        <v>0.02627257799671595</v>
+        <v>0.03448275862068968</v>
       </c>
     </row>
     <row r="337">
@@ -3144,7 +3144,7 @@
         <v>43218</v>
       </c>
       <c r="B338" t="n">
-        <v>0.005500171880371266</v>
+        <v>0.01065658301821928</v>
       </c>
     </row>
     <row r="339">
@@ -3160,7 +3160,7 @@
         <v>43224</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.01876079980251785</v>
+        <v>-0.02493211552703032</v>
       </c>
     </row>
     <row r="341">
@@ -3168,7 +3168,7 @@
         <v>43225</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.03555086237240414</v>
+        <v>-0.02675114396339323</v>
       </c>
     </row>
     <row r="342">
@@ -3176,7 +3176,7 @@
         <v>43228</v>
       </c>
       <c r="B342" t="n">
-        <v>0.1030214779759739</v>
+        <v>0.1285038223516564</v>
       </c>
     </row>
     <row r="343">
@@ -3192,7 +3192,7 @@
         <v>43230</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.1379310344827586</v>
+        <v>-0.1478398731668649</v>
       </c>
     </row>
     <row r="345">
@@ -3200,7 +3200,7 @@
         <v>43231</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.06990521327014225</v>
+        <v>-0.09952606635071096</v>
       </c>
     </row>
     <row r="346">
@@ -3216,7 +3216,7 @@
         <v>43235</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.03959462644355408</v>
+        <v>-0.05727079896299787</v>
       </c>
     </row>
     <row r="348">
@@ -3224,7 +3224,7 @@
         <v>43236</v>
       </c>
       <c r="B348" t="n">
-        <v>0.02644230769230773</v>
+        <v>0.009615384615384581</v>
       </c>
     </row>
     <row r="349">
@@ -3232,7 +3232,7 @@
         <v>43237</v>
       </c>
       <c r="B349" t="n">
-        <v>0.0200621644532354</v>
+        <v>0.01017236507487989</v>
       </c>
     </row>
     <row r="350">
@@ -3240,7 +3240,7 @@
         <v>43238</v>
       </c>
       <c r="B350" t="n">
-        <v>0.03554078240859117</v>
+        <v>0.03426233699821026</v>
       </c>
     </row>
     <row r="351">
@@ -3256,7 +3256,7 @@
         <v>43242</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.09260991580916747</v>
+        <v>-0.09377923292797002</v>
       </c>
     </row>
     <row r="353">
@@ -3288,7 +3288,7 @@
         <v>43246</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.06283710895361376</v>
+        <v>-0.0560949298813376</v>
       </c>
     </row>
     <row r="357">
@@ -3296,7 +3296,7 @@
         <v>43249</v>
       </c>
       <c r="B357" t="n">
-        <v>0.01374970869261253</v>
+        <v>0.01957585644371949</v>
       </c>
     </row>
     <row r="358">
@@ -3312,7 +3312,7 @@
         <v>43251</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.005917159763313609</v>
+        <v>0.005917159763313609</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3320,7 @@
         <v>43252</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.04873294346978558</v>
+        <v>-0.04970760233918124</v>
       </c>
     </row>
     <row r="361">
@@ -3336,7 +3336,7 @@
         <v>43256</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.01391883944324644</v>
+        <v>-0.02960203881591841</v>
       </c>
     </row>
     <row r="363">
@@ -3352,7 +3352,7 @@
         <v>43258</v>
       </c>
       <c r="B364" t="n">
-        <v>0.03809715783108245</v>
+        <v>0.04616004837734326</v>
       </c>
     </row>
     <row r="365">
@@ -3360,7 +3360,7 @@
         <v>43259</v>
       </c>
       <c r="B365" t="n">
-        <v>0.03238866396761136</v>
+        <v>0.04251012145748991</v>
       </c>
     </row>
     <row r="366">
@@ -3368,7 +3368,7 @@
         <v>43260</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.01106663527195665</v>
+        <v>-0.01342123852130917</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3376,7 @@
         <v>43263</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.02473356123064542</v>
+        <v>-0.009652121455861591</v>
       </c>
     </row>
     <row r="368">
@@ -3392,7 +3392,7 @@
         <v>43265</v>
       </c>
       <c r="B369" t="n">
-        <v>0.0286368843069874</v>
+        <v>0.01947308132875147</v>
       </c>
     </row>
     <row r="370">
@@ -3416,7 +3416,7 @@
         <v>43270</v>
       </c>
       <c r="B372" t="n">
-        <v>0.001719690455717934</v>
+        <v>-0.00150472914875323</v>
       </c>
     </row>
     <row r="373">
@@ -3432,7 +3432,7 @@
         <v>43272</v>
       </c>
       <c r="B374" t="n">
-        <v>0.1309523809523811</v>
+        <v>0.09126984126984132</v>
       </c>
     </row>
     <row r="375">
@@ -3440,7 +3440,7 @@
         <v>43273</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1818620356970574</v>
+        <v>0.1456825856246985</v>
       </c>
     </row>
     <row r="376">
@@ -3448,7 +3448,7 @@
         <v>43274</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.05818334030975306</v>
+        <v>-0.1419003767266639</v>
       </c>
     </row>
     <row r="377">
@@ -3472,7 +3472,7 @@
         <v>43279</v>
       </c>
       <c r="B379" t="n">
-        <v>0.005791935843172154</v>
+        <v>0.01358877255513476</v>
       </c>
     </row>
     <row r="380">
@@ -3480,7 +3480,7 @@
         <v>43280</v>
       </c>
       <c r="B380" t="n">
-        <v>0.009702166064981943</v>
+        <v>-0.0004512635379062077</v>
       </c>
     </row>
     <row r="381">
@@ -3512,7 +3512,7 @@
         <v>43286</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.02721482339316741</v>
+        <v>-0.03011001737116391</v>
       </c>
     </row>
     <row r="385">
@@ -3520,7 +3520,7 @@
         <v>43287</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.03785818866345957</v>
+        <v>-0.04099560761347</v>
       </c>
     </row>
     <row r="386">
@@ -3528,7 +3528,7 @@
         <v>43288</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.01215805471124616</v>
+        <v>0.01215805471124616</v>
       </c>
     </row>
     <row r="387">
@@ -3544,7 +3544,7 @@
         <v>43292</v>
       </c>
       <c r="B388" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02285714285714291</v>
       </c>
     </row>
     <row r="389">
@@ -3552,7 +3552,7 @@
         <v>43293</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.000187582067154476</v>
+        <v>0.003564059275933178</v>
       </c>
     </row>
     <row r="390">
@@ -3560,7 +3560,7 @@
         <v>43294</v>
       </c>
       <c r="B390" t="n">
-        <v>0.007279165846940873</v>
+        <v>0.008262836907338219</v>
       </c>
     </row>
     <row r="391">
@@ -3568,7 +3568,7 @@
         <v>43295</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.01930261519302615</v>
+        <v>-0.0244914902449149</v>
       </c>
     </row>
     <row r="392">
@@ -3576,7 +3576,7 @@
         <v>43298</v>
       </c>
       <c r="B392" t="n">
-        <v>0.02991944764096667</v>
+        <v>0.03663214422708087</v>
       </c>
     </row>
     <row r="393">
@@ -3584,7 +3584,7 @@
         <v>43299</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.007035175879397014</v>
+        <v>0.01507537688442211</v>
       </c>
     </row>
     <row r="394">
@@ -3592,7 +3592,7 @@
         <v>43300</v>
       </c>
       <c r="B394" t="n">
-        <v>0.00968054211035818</v>
+        <v>0.01161665053242984</v>
       </c>
     </row>
     <row r="395">
@@ -3600,7 +3600,7 @@
         <v>43301</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.00448262980948827</v>
+        <v>-0.0007471049682480229</v>
       </c>
     </row>
     <row r="396">
@@ -3608,7 +3608,7 @@
         <v>43302</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.008371536774965152</v>
+        <v>-0.01335459437911106</v>
       </c>
     </row>
     <row r="397">
@@ -3616,7 +3616,7 @@
         <v>43305</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.002471751412429389</v>
+        <v>0.01518361581920903</v>
       </c>
     </row>
     <row r="398">
@@ -3624,7 +3624,7 @@
         <v>43306</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.007019346002396792</v>
+        <v>-0.0001712035610340355</v>
       </c>
     </row>
     <row r="399">
@@ -3632,7 +3632,7 @@
         <v>43307</v>
       </c>
       <c r="B399" t="n">
-        <v>0.003268567278009801</v>
+        <v>0.006900308698020747</v>
       </c>
     </row>
     <row r="400">
@@ -3640,7 +3640,7 @@
         <v>43308</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.01454409845235878</v>
+        <v>-0.04437814655976138</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3648,7 @@
         <v>43309</v>
       </c>
       <c r="B401" t="n">
-        <v>0.002155172413793134</v>
+        <v>-0.01400862068965514</v>
       </c>
     </row>
     <row r="402">
@@ -3656,7 +3656,7 @@
         <v>43312</v>
       </c>
       <c r="B402" t="n">
-        <v>0.009231315462453456</v>
+        <v>0.008343688975679015</v>
       </c>
     </row>
     <row r="403">
@@ -3664,7 +3664,7 @@
         <v>43313</v>
       </c>
       <c r="B403" t="n">
-        <v>0.01651278409090908</v>
+        <v>0.02095170454545454</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3672,7 @@
         <v>43314</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.008069939475453883</v>
+        <v>-0.01227303295225281</v>
       </c>
     </row>
     <row r="405">
@@ -3680,7 +3680,7 @@
         <v>43315</v>
       </c>
       <c r="B405" t="n">
-        <v>0.0004783163265306304</v>
+        <v>-0.003507653061224472</v>
       </c>
     </row>
     <row r="406">
@@ -3696,7 +3696,7 @@
         <v>43319</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.02210884353741507</v>
+        <v>-0.01978973407544849</v>
       </c>
     </row>
     <row r="408">
@@ -3704,7 +3704,7 @@
         <v>43320</v>
       </c>
       <c r="B408" t="n">
-        <v>0.02477276777757977</v>
+        <v>0.01586170023168777</v>
       </c>
     </row>
     <row r="409">
@@ -3728,7 +3728,7 @@
         <v>43323</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.0397574123989219</v>
+        <v>-0.04537286612758318</v>
       </c>
     </row>
     <row r="412">
@@ -3736,7 +3736,7 @@
         <v>43326</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.02651652742462769</v>
+        <v>-0.02833272793316386</v>
       </c>
     </row>
     <row r="413">
@@ -3744,7 +3744,7 @@
         <v>43327</v>
       </c>
       <c r="B413" t="n">
-        <v>0.0289990645463049</v>
+        <v>0.02432179607109443</v>
       </c>
     </row>
     <row r="414">
@@ -3752,7 +3752,7 @@
         <v>43328</v>
       </c>
       <c r="B414" t="n">
-        <v>0.009992862241256286</v>
+        <v>0.01623840114204146</v>
       </c>
     </row>
     <row r="415">
@@ -3760,7 +3760,7 @@
         <v>43329</v>
       </c>
       <c r="B415" t="n">
-        <v>0.01207937877480579</v>
+        <v>-0.007765314926660963</v>
       </c>
     </row>
     <row r="416">
@@ -3768,7 +3768,7 @@
         <v>43330</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.02361911846754702</v>
+        <v>-0.03291798400595133</v>
       </c>
     </row>
     <row r="417">
@@ -3784,7 +3784,7 @@
         <v>43334</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.006116207951070423</v>
+        <v>-0.02140672782874626</v>
       </c>
     </row>
     <row r="419">
@@ -3792,7 +3792,7 @@
         <v>43335</v>
       </c>
       <c r="B419" t="n">
-        <v>0.02160638797557543</v>
+        <v>0.01377798653514956</v>
       </c>
     </row>
     <row r="420">
@@ -3800,7 +3800,7 @@
         <v>43336</v>
       </c>
       <c r="B420" t="n">
-        <v>0.004340277777777778</v>
+        <v>-0.005208333333333408</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3808,7 @@
         <v>43337</v>
       </c>
       <c r="B421" t="n">
-        <v>0.006523765144454827</v>
+        <v>-0.01211556383970174</v>
       </c>
     </row>
     <row r="422">
@@ -3816,7 +3816,7 @@
         <v>43340</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.008627213561374197</v>
+        <v>-0.01619494475556218</v>
       </c>
     </row>
     <row r="423">
@@ -3824,7 +3824,7 @@
         <v>43341</v>
       </c>
       <c r="B423" t="n">
-        <v>0.0195641800540798</v>
+        <v>0.01797359630984575</v>
       </c>
     </row>
     <row r="424">
@@ -3832,7 +3832,7 @@
         <v>43342</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.02003484320557489</v>
+        <v>-0.002613240418118442</v>
       </c>
     </row>
     <row r="425">
@@ -3840,7 +3840,7 @@
         <v>43343</v>
       </c>
       <c r="B425" t="n">
-        <v>0.01194168734491309</v>
+        <v>0.004187344913151303</v>
       </c>
     </row>
     <row r="426">
@@ -3848,7 +3848,7 @@
         <v>43344</v>
       </c>
       <c r="B426" t="n">
-        <v>0.02074966532797861</v>
+        <v>0.02493306559571623</v>
       </c>
     </row>
     <row r="427">
@@ -3856,7 +3856,7 @@
         <v>43347</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.008711324722138755</v>
+        <v>0.002553319315109668</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3864,7 @@
         <v>43348</v>
       </c>
       <c r="B428" t="n">
-        <v>0.00540216086434573</v>
+        <v>0.001650660264105634</v>
       </c>
     </row>
     <row r="429">
@@ -3872,7 +3872,7 @@
         <v>43349</v>
       </c>
       <c r="B429" t="n">
-        <v>0.00566355426297267</v>
+        <v>-0.0004592071024032013</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3880,7 @@
         <v>43350</v>
       </c>
       <c r="B430" t="n">
-        <v>0.001121255806503288</v>
+        <v>0.005125740829729301</v>
       </c>
     </row>
     <row r="431">
@@ -3888,7 +3888,7 @@
         <v>43351</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.005188585112751906</v>
+        <v>-0.01217321891837955</v>
       </c>
     </row>
     <row r="432">
@@ -3896,7 +3896,7 @@
         <v>43354</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.003460207612456674</v>
+        <v>-0.01038062283737014</v>
       </c>
     </row>
     <row r="433">
@@ -3904,7 +3904,7 @@
         <v>43355</v>
       </c>
       <c r="B433" t="n">
-        <v>0.003449357165255548</v>
+        <v>0.007369081216682328</v>
       </c>
     </row>
     <row r="434">
@@ -3912,7 +3912,7 @@
         <v>43356</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.0282438478747203</v>
+        <v>-0.0142617449664429</v>
       </c>
     </row>
     <row r="435">
@@ -3920,7 +3920,7 @@
         <v>43357</v>
       </c>
       <c r="B435" t="n">
-        <v>0.008636644046884674</v>
+        <v>0.01403454657618749</v>
       </c>
     </row>
     <row r="436">
@@ -3928,7 +3928,7 @@
         <v>43358</v>
       </c>
       <c r="B436" t="n">
-        <v>0.01853639698783551</v>
+        <v>0.005985711527321921</v>
       </c>
     </row>
     <row r="437">
@@ -3936,7 +3936,7 @@
         <v>43361</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.0510697032436163</v>
+        <v>-0.05452035886818501</v>
       </c>
     </row>
     <row r="438">
@@ -3944,7 +3944,7 @@
         <v>43362</v>
       </c>
       <c r="B438" t="n">
-        <v>0.03732638888888886</v>
+        <v>0.0503472222222222</v>
       </c>
     </row>
     <row r="439">
@@ -3952,7 +3952,7 @@
         <v>43363</v>
       </c>
       <c r="B439" t="n">
-        <v>0.01188425766448498</v>
+        <v>0.003272476748191487</v>
       </c>
     </row>
     <row r="440">
@@ -3960,7 +3960,7 @@
         <v>43364</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.05637254901960777</v>
+        <v>-0.08088235294117641</v>
       </c>
     </row>
     <row r="441">
@@ -3968,7 +3968,7 @@
         <v>43365</v>
       </c>
       <c r="B441" t="n">
-        <v>0.2593467138921685</v>
+        <v>0.2199921290830382</v>
       </c>
     </row>
     <row r="442">
@@ -3976,7 +3976,7 @@
         <v>43368</v>
       </c>
       <c r="B442" t="n">
-        <v>0.0008020532563361751</v>
+        <v>0.04427333974975924</v>
       </c>
     </row>
     <row r="443">
@@ -3984,7 +3984,7 @@
         <v>43369</v>
       </c>
       <c r="B443" t="n">
-        <v>0.134861172322609</v>
+        <v>0.1844424856765094</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3992,7 @@
         <v>43370</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.005381332343663002</v>
+        <v>-0.02115420300612359</v>
       </c>
     </row>
     <row r="445">
@@ -4008,7 +4008,7 @@
         <v>43372</v>
       </c>
       <c r="B446" t="n">
-        <v>0.05399010539901049</v>
+        <v>0.1131426113142611</v>
       </c>
     </row>
     <row r="447">
@@ -4016,7 +4016,7 @@
         <v>43375</v>
       </c>
       <c r="B447" t="n">
-        <v>0.08880491261218701</v>
+        <v>0.1454888993859234</v>
       </c>
     </row>
     <row r="448">
@@ -4024,7 +4024,7 @@
         <v>43376</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1115363586659376</v>
+        <v>-0.04319300164024052</v>
       </c>
     </row>
     <row r="449">
@@ -4032,7 +4032,7 @@
         <v>43377</v>
       </c>
       <c r="B449" t="n">
-        <v>0.005372217958557088</v>
+        <v>-0.01765157329240223</v>
       </c>
     </row>
     <row r="450">
@@ -4048,7 +4048,7 @@
         <v>43379</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.02866517009152127</v>
+        <v>-0.05456743222241404</v>
       </c>
     </row>
     <row r="452">
@@ -4056,7 +4056,7 @@
         <v>43382</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.05686740254296484</v>
+        <v>-0.06385356993153547</v>
       </c>
     </row>
     <row r="453">
@@ -4064,7 +4064,7 @@
         <v>43383</v>
       </c>
       <c r="B453" t="n">
-        <v>0.01737172269583398</v>
+        <v>0.009329258484799714</v>
       </c>
     </row>
     <row r="454">
@@ -4072,7 +4072,7 @@
         <v>43384</v>
       </c>
       <c r="B454" t="n">
-        <v>0.002759889604415797</v>
+        <v>-0.03403863845446185</v>
       </c>
     </row>
     <row r="455">
@@ -4080,7 +4080,7 @@
         <v>43385</v>
       </c>
       <c r="B455" t="n">
-        <v>0.01814338559098105</v>
+        <v>0.03047384181786149</v>
       </c>
     </row>
     <row r="456">
@@ -4096,7 +4096,7 @@
         <v>43389</v>
       </c>
       <c r="B457" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="458">
@@ -4112,7 +4112,7 @@
         <v>43391</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.01440785307156423</v>
+        <v>-0.009658011399620005</v>
       </c>
     </row>
     <row r="460">
@@ -4120,7 +4120,7 @@
         <v>43392</v>
       </c>
       <c r="B460" t="n">
-        <v>0.009466055317260769</v>
+        <v>-0.005324656115959169</v>
       </c>
     </row>
     <row r="461">
@@ -4128,7 +4128,7 @@
         <v>43393</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.0400808352980802</v>
+        <v>-0.05692152239811388</v>
       </c>
     </row>
     <row r="462">
@@ -4136,7 +4136,7 @@
         <v>43396</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.07567879838243782</v>
+        <v>-0.1117850953206238</v>
       </c>
     </row>
     <row r="463">
@@ -4144,7 +4144,7 @@
         <v>43397</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.1137536459501907</v>
+        <v>-0.153017724927081</v>
       </c>
     </row>
     <row r="464">
@@ -4152,7 +4152,7 @@
         <v>43398</v>
       </c>
       <c r="B464" t="n">
-        <v>0.0155929421419778</v>
+        <v>0.03610997127615917</v>
       </c>
     </row>
     <row r="465">
@@ -4160,7 +4160,7 @@
         <v>43399</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.01332649923116352</v>
+        <v>-0.01759781308730567</v>
       </c>
     </row>
     <row r="466">
@@ -4168,7 +4168,7 @@
         <v>43400</v>
       </c>
       <c r="B466" t="n">
-        <v>0.01309226932668335</v>
+        <v>0.002701579384871209</v>
       </c>
     </row>
     <row r="467">
@@ -4176,7 +4176,7 @@
         <v>43403</v>
       </c>
       <c r="B467" t="n">
-        <v>0.0246510246510246</v>
+        <v>0.03950103950103945</v>
       </c>
     </row>
     <row r="468">
@@ -4184,7 +4184,7 @@
         <v>43404</v>
       </c>
       <c r="B468" t="n">
-        <v>0.06889676561807707</v>
+        <v>0.06335844040762072</v>
       </c>
     </row>
     <row r="469">
@@ -4192,7 +4192,7 @@
         <v>43405</v>
       </c>
       <c r="B469" t="n">
-        <v>0.03840534335211863</v>
+        <v>0.02275099144228769</v>
       </c>
     </row>
     <row r="470">
@@ -4200,7 +4200,7 @@
         <v>43406</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.08252693080153374</v>
+        <v>-0.1053496439656747</v>
       </c>
     </row>
     <row r="471">
@@ -4208,7 +4208,7 @@
         <v>43407</v>
       </c>
       <c r="B471" t="n">
-        <v>0.06648731744811685</v>
+        <v>0.07609531129900078</v>
       </c>
     </row>
     <row r="472">
@@ -4216,7 +4216,7 @@
         <v>43410</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.04355251921434666</v>
+        <v>-0.03415883859948762</v>
       </c>
     </row>
     <row r="473">
@@ -4224,7 +4224,7 @@
         <v>43411</v>
       </c>
       <c r="B473" t="n">
-        <v>0.005177646848776989</v>
+        <v>0.008748437778968077</v>
       </c>
     </row>
     <row r="474">
@@ -4240,7 +4240,7 @@
         <v>43413</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.008569988237271014</v>
+        <v>-0.03797681062006382</v>
       </c>
     </row>
     <row r="476">
@@ -4248,7 +4248,7 @@
         <v>43414</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.01903877408869283</v>
+        <v>-0.01323426979335965</v>
       </c>
     </row>
     <row r="477">
@@ -4256,7 +4256,7 @@
         <v>43417</v>
       </c>
       <c r="B477" t="n">
-        <v>0.002636038410845426</v>
+        <v>-0.01619280738090754</v>
       </c>
     </row>
     <row r="478">
@@ -4264,7 +4264,7 @@
         <v>43418</v>
       </c>
       <c r="B478" t="n">
-        <v>0.02634556327784068</v>
+        <v>0.03038629384192666</v>
       </c>
     </row>
     <row r="479">
@@ -4272,7 +4272,7 @@
         <v>43419</v>
       </c>
       <c r="B479" t="n">
-        <v>0.0003150598613737103</v>
+        <v>0.012129804662886</v>
       </c>
     </row>
     <row r="480">
@@ -4280,7 +4280,7 @@
         <v>43420</v>
       </c>
       <c r="B480" t="n">
-        <v>0.003981305175696674</v>
+        <v>-0.009001211701575265</v>
       </c>
     </row>
     <row r="481">
@@ -4288,7 +4288,7 @@
         <v>43421</v>
       </c>
       <c r="B481" t="n">
-        <v>0.0215722879070732</v>
+        <v>0.03609209707529562</v>
       </c>
     </row>
     <row r="482">
@@ -4296,7 +4296,7 @@
         <v>43424</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.02143622722400857</v>
+        <v>-0.05144694533762055</v>
       </c>
     </row>
     <row r="483">
@@ -4312,7 +4312,7 @@
         <v>43426</v>
       </c>
       <c r="B484" t="n">
-        <v>0.008997429305912633</v>
+        <v>-0.04884318766066834</v>
       </c>
     </row>
     <row r="485">
@@ -4320,7 +4320,7 @@
         <v>43427</v>
       </c>
       <c r="B485" t="n">
-        <v>0.0207892443669862</v>
+        <v>0.02390140669737336</v>
       </c>
     </row>
     <row r="486">
@@ -4328,7 +4328,7 @@
         <v>43428</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.007263922518159852</v>
+        <v>0.0008071025020177104</v>
       </c>
     </row>
     <row r="487">
@@ -4336,7 +4336,7 @@
         <v>43431</v>
       </c>
       <c r="B487" t="n">
-        <v>0.08263806118394908</v>
+        <v>0.1058137994967553</v>
       </c>
     </row>
     <row r="488">
@@ -4344,7 +4344,7 @@
         <v>43432</v>
       </c>
       <c r="B488" t="n">
-        <v>0.03227023966786188</v>
+        <v>0.0143423287412719</v>
       </c>
     </row>
     <row r="489">
@@ -4376,7 +4376,7 @@
         <v>43438</v>
       </c>
       <c r="B492" t="n">
-        <v>0.07601184600197436</v>
+        <v>0.06120434353405729</v>
       </c>
     </row>
     <row r="493">
@@ -4384,7 +4384,7 @@
         <v>43439</v>
       </c>
       <c r="B493" t="n">
-        <v>0.01925350447559535</v>
+        <v>0.03445363958790743</v>
       </c>
     </row>
     <row r="494">
@@ -4392,7 +4392,7 @@
         <v>43440</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.0410958904109589</v>
+        <v>-0.045662100456621</v>
       </c>
     </row>
     <row r="495">
@@ -4400,7 +4400,7 @@
         <v>43441</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.03710662282761856</v>
+        <v>-0.04884922498825736</v>
       </c>
     </row>
     <row r="496">
@@ -4408,7 +4408,7 @@
         <v>43442</v>
       </c>
       <c r="B496" t="n">
-        <v>0.4321819713563607</v>
+        <v>0.4743049705139007</v>
       </c>
     </row>
     <row r="497">
@@ -4416,7 +4416,7 @@
         <v>43445</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.02474264041899941</v>
+        <v>-0.03377280115586053</v>
       </c>
     </row>
     <row r="498">
@@ -4432,7 +4432,7 @@
         <v>43447</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.005887681159420299</v>
+        <v>-0.02702294685990326</v>
       </c>
     </row>
     <row r="500">
@@ -4440,7 +4440,7 @@
         <v>43448</v>
       </c>
       <c r="B500" t="n">
-        <v>0.0237492973580663</v>
+        <v>0.02234401349072518</v>
       </c>
     </row>
     <row r="501">
@@ -4448,7 +4448,7 @@
         <v>43449</v>
       </c>
       <c r="B501" t="n">
-        <v>0.05679103106046689</v>
+        <v>0.03841205660724138</v>
       </c>
     </row>
     <row r="502">
@@ -4456,7 +4456,7 @@
         <v>43452</v>
       </c>
       <c r="B502" t="n">
-        <v>0.04289318755256513</v>
+        <v>0.05971404541631618</v>
       </c>
     </row>
     <row r="503">
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="B503" t="n">
-        <v>0.009922041105598908</v>
+        <v>0.001063075832742776</v>
       </c>
     </row>
     <row r="504">
@@ -4472,7 +4472,7 @@
         <v>43454</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.02540130534485796</v>
+        <v>-0.01217145881107775</v>
       </c>
     </row>
     <row r="505">
@@ -4480,7 +4480,7 @@
         <v>43455</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.0175332527206771</v>
+        <v>0.001612253123740536</v>
       </c>
     </row>
     <row r="506">
@@ -4504,7 +4504,7 @@
         <v>43463</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.1233629066328687</v>
+        <v>-0.1180819602872835</v>
       </c>
     </row>
     <row r="509">
@@ -4512,7 +4512,7 @@
         <v>43468</v>
       </c>
       <c r="B509" t="n">
-        <v>0.0221760221760222</v>
+        <v>0.05682605682605685</v>
       </c>
     </row>
     <row r="510">
@@ -4520,7 +4520,7 @@
         <v>43469</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.003205770386695985</v>
+        <v>0.01182127830094176</v>
       </c>
     </row>
     <row r="511">
@@ -4528,7 +4528,7 @@
         <v>43470</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.01612138454243717</v>
+        <v>-0.02797534376481744</v>
       </c>
     </row>
     <row r="512">
@@ -4536,7 +4536,7 @@
         <v>43473</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.1594202898550725</v>
+        <v>-0.1666666666666667</v>
       </c>
     </row>
     <row r="513">
@@ -4544,7 +4544,7 @@
         <v>43474</v>
       </c>
       <c r="B513" t="n">
-        <v>0.05875000000000004</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="514">
@@ -4552,7 +4552,7 @@
         <v>43475</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.02098418797103593</v>
+        <v>-0.02467858726171127</v>
       </c>
     </row>
     <row r="515">
@@ -4560,7 +4560,7 @@
         <v>43476</v>
       </c>
       <c r="B515" t="n">
-        <v>0.06370192307692307</v>
+        <v>0.04166666666666663</v>
       </c>
     </row>
     <row r="516">
@@ -4568,7 +4568,7 @@
         <v>43477</v>
       </c>
       <c r="B516" t="n">
-        <v>0.0220588235294119</v>
+        <v>0.01102941176470595</v>
       </c>
     </row>
     <row r="517">
@@ -4584,7 +4584,7 @@
         <v>43481</v>
       </c>
       <c r="B518" t="n">
-        <v>0.0309734513274336</v>
+        <v>0.02876106194690259</v>
       </c>
     </row>
     <row r="519">
@@ -4592,7 +4592,7 @@
         <v>43482</v>
       </c>
       <c r="B519" t="n">
-        <v>0.04458450046685333</v>
+        <v>0.06792717086834725</v>
       </c>
     </row>
     <row r="520">
@@ -4600,7 +4600,7 @@
         <v>43483</v>
       </c>
       <c r="B520" t="n">
-        <v>0.02057346508990772</v>
+        <v>0.02867325449538317</v>
       </c>
     </row>
     <row r="521">
@@ -4608,7 +4608,7 @@
         <v>43484</v>
       </c>
       <c r="B521" t="n">
-        <v>0.02003971836071492</v>
+        <v>0.02906661852319912</v>
       </c>
     </row>
     <row r="522">
@@ -4632,7 +4632,7 @@
         <v>43489</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.02680652680652677</v>
+        <v>-0.03846153846153843</v>
       </c>
     </row>
     <row r="525">
@@ -4640,7 +4640,7 @@
         <v>43490</v>
       </c>
       <c r="B525" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="526">
@@ -4648,7 +4648,7 @@
         <v>43491</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.01201874108779799</v>
+        <v>-0.009981666327154247</v>
       </c>
     </row>
     <row r="527">
@@ -4656,7 +4656,7 @@
         <v>43494</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.02890845655424481</v>
+        <v>-0.003156670543279577</v>
       </c>
     </row>
     <row r="528">
@@ -4664,7 +4664,7 @@
         <v>43495</v>
       </c>
       <c r="B528" t="n">
-        <v>0.05521009986809873</v>
+        <v>0.04578858111927642</v>
       </c>
     </row>
     <row r="529">
@@ -4672,7 +4672,7 @@
         <v>43496</v>
       </c>
       <c r="B529" t="n">
-        <v>0.01938502673796786</v>
+        <v>0.01102941176470582</v>
       </c>
     </row>
     <row r="530">
@@ -4680,7 +4680,7 @@
         <v>43497</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.01315789473684205</v>
+        <v>-0.008651766402307082</v>
       </c>
     </row>
     <row r="531">
@@ -4688,7 +4688,7 @@
         <v>43498</v>
       </c>
       <c r="B531" t="n">
-        <v>0.01613867304243878</v>
+        <v>0.05100617652918913</v>
       </c>
     </row>
     <row r="532">
@@ -4696,7 +4696,7 @@
         <v>43501</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.01003904071388732</v>
+        <v>-0.01933444878230153</v>
       </c>
     </row>
     <row r="533">
@@ -4704,7 +4704,7 @@
         <v>43502</v>
       </c>
       <c r="B533" t="n">
-        <v>0.0132501948558067</v>
+        <v>0.02299298519095868</v>
       </c>
     </row>
     <row r="534">
@@ -4712,7 +4712,7 @@
         <v>43503</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.05162738496071823</v>
+        <v>-0.06846240179573507</v>
       </c>
     </row>
     <row r="535">
@@ -4720,7 +4720,7 @@
         <v>43504</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.03892359442575679</v>
+        <v>-0.05694377703027385</v>
       </c>
     </row>
     <row r="536">
@@ -4728,7 +4728,7 @@
         <v>43505</v>
       </c>
       <c r="B536" t="n">
-        <v>0.3215859030837005</v>
+        <v>0.2481644640234949</v>
       </c>
     </row>
     <row r="537">
@@ -4736,7 +4736,7 @@
         <v>43508</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.005134788189987205</v>
+        <v>0.02695763799743256</v>
       </c>
     </row>
     <row r="538">
@@ -4744,7 +4744,7 @@
         <v>43509</v>
       </c>
       <c r="B538" t="n">
-        <v>0.02137505509034815</v>
+        <v>0.0191714411635081</v>
       </c>
     </row>
     <row r="539">
@@ -4752,7 +4752,7 @@
         <v>43510</v>
       </c>
       <c r="B539" t="n">
-        <v>0.008352006518639163</v>
+        <v>0.01344469342024845</v>
       </c>
     </row>
     <row r="540">
@@ -4760,7 +4760,7 @@
         <v>43511</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.02141957160856775</v>
+        <v>-0.0182696346073078</v>
       </c>
     </row>
     <row r="541">
@@ -4768,7 +4768,7 @@
         <v>43512</v>
       </c>
       <c r="B541" t="n">
-        <v>0.01988781234064256</v>
+        <v>0.0007649158592555109</v>
       </c>
     </row>
     <row r="542">
@@ -4776,7 +4776,7 @@
         <v>43515</v>
       </c>
       <c r="B542" t="n">
-        <v>0.002178649237472677</v>
+        <v>-0.01960784313725496</v>
       </c>
     </row>
     <row r="543">
@@ -4784,7 +4784,7 @@
         <v>43516</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.0175438596491229</v>
+        <v>-0.02412280701754389</v>
       </c>
     </row>
     <row r="544">
@@ -4792,7 +4792,7 @@
         <v>43517</v>
       </c>
       <c r="B544" t="n">
-        <v>0.0316909553550776</v>
+        <v>0.02359472588480229</v>
       </c>
     </row>
     <row r="545">
@@ -4800,7 +4800,7 @@
         <v>43518</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.02012711864406785</v>
+        <v>-0.00423728813559328</v>
       </c>
     </row>
     <row r="546">
@@ -4816,7 +4816,7 @@
         <v>43522</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.007847533632287027</v>
+        <v>-0.006726457399103235</v>
       </c>
     </row>
     <row r="548">
@@ -4824,7 +4824,7 @@
         <v>43523</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.01040488577244969</v>
+        <v>-0.02736937344492198</v>
       </c>
     </row>
     <row r="549">
@@ -4832,7 +4832,7 @@
         <v>43524</v>
       </c>
       <c r="B549" t="n">
-        <v>0.003477396920019885</v>
+        <v>-0.02136115250869348</v>
       </c>
     </row>
     <row r="550">
@@ -4840,7 +4840,7 @@
         <v>43525</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.01526717557251915</v>
+        <v>-0.02399127589967288</v>
       </c>
     </row>
     <row r="551">
@@ -4848,7 +4848,7 @@
         <v>43526</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.01818181818181818</v>
+        <v>-0.03636363636363636</v>
       </c>
     </row>
     <row r="552">
@@ -4856,7 +4856,7 @@
         <v>43529</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.1464582003828973</v>
+        <v>-0.1703892788768347</v>
       </c>
     </row>
     <row r="553">
@@ -4864,7 +4864,7 @@
         <v>43530</v>
       </c>
       <c r="B553" t="n">
-        <v>0.1216566005176876</v>
+        <v>0.1072763876905377</v>
       </c>
     </row>
     <row r="554">
@@ -4872,7 +4872,7 @@
         <v>43531</v>
       </c>
       <c r="B554" t="n">
-        <v>0.01481736733287387</v>
+        <v>0.02515506547208823</v>
       </c>
     </row>
     <row r="555">
@@ -4880,7 +4880,7 @@
         <v>43532</v>
       </c>
       <c r="B555" t="n">
-        <v>0.05153467222432737</v>
+        <v>0.02311481621826447</v>
       </c>
     </row>
     <row r="556">
@@ -4888,7 +4888,7 @@
         <v>43533</v>
       </c>
       <c r="B556" t="n">
-        <v>0.4097744360902255</v>
+        <v>0.5037593984962405</v>
       </c>
     </row>
     <row r="557">
@@ -4896,7 +4896,7 @@
         <v>43536</v>
       </c>
       <c r="B557" t="n">
-        <v>0.01393823449029784</v>
+        <v>0.008472260180377019</v>
       </c>
     </row>
     <row r="558">
@@ -4904,7 +4904,7 @@
         <v>43537</v>
       </c>
       <c r="B558" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1911357340720221</v>
       </c>
     </row>
     <row r="559">
@@ -4912,7 +4912,7 @@
         <v>43538</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.0396435156730178</v>
+        <v>-0.1318377381684081</v>
       </c>
     </row>
     <row r="560">
@@ -4936,7 +4936,7 @@
         <v>43543</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.0163211292456992</v>
+        <v>-0.005293339214821394</v>
       </c>
     </row>
     <row r="563">
@@ -4944,7 +4944,7 @@
         <v>43544</v>
       </c>
       <c r="B563" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.04216867469879518</v>
       </c>
     </row>
     <row r="564">
@@ -4952,7 +4952,7 @@
         <v>43545</v>
       </c>
       <c r="B564" t="n">
-        <v>0.02412666499120384</v>
+        <v>0.01784367931641118</v>
       </c>
     </row>
     <row r="565">
@@ -4960,7 +4960,7 @@
         <v>43546</v>
       </c>
       <c r="B565" t="n">
-        <v>0.00443677594281488</v>
+        <v>0.01059896475228</v>
       </c>
     </row>
     <row r="566">
@@ -4976,7 +4976,7 @@
         <v>43550</v>
       </c>
       <c r="B567" t="n">
-        <v>0.0136986301369863</v>
+        <v>0.03424657534246575</v>
       </c>
     </row>
     <row r="568">
@@ -4984,7 +4984,7 @@
         <v>43551</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.004727544165215172</v>
+        <v>-0.01094799701418258</v>
       </c>
     </row>
     <row r="569">
@@ -4992,7 +4992,7 @@
         <v>43552</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.01937618147448016</v>
+        <v>-0.001654064272211727</v>
       </c>
     </row>
     <row r="570">
@@ -5000,7 +5000,7 @@
         <v>43553</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.01505646173149313</v>
+        <v>-0.02885821831869507</v>
       </c>
     </row>
     <row r="571">
@@ -5008,7 +5008,7 @@
         <v>43554</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.01541095890410957</v>
+        <v>-0.0225456621004566</v>
       </c>
     </row>
     <row r="572">
@@ -5016,7 +5016,7 @@
         <v>43557</v>
       </c>
       <c r="B572" t="n">
-        <v>0.03397341211225993</v>
+        <v>0.05612998522895121</v>
       </c>
     </row>
     <row r="573">
@@ -5024,7 +5024,7 @@
         <v>43558</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.01160037878787883</v>
+        <v>-0.01964962121212134</v>
       </c>
     </row>
     <row r="574">
@@ -5032,7 +5032,7 @@
         <v>43559</v>
       </c>
       <c r="B574" t="n">
-        <v>0.01142313184197993</v>
+        <v>0.001903855306996627</v>
       </c>
     </row>
     <row r="575">
@@ -5040,7 +5040,7 @@
         <v>43560</v>
       </c>
       <c r="B575" t="n">
-        <v>0.001655629139072854</v>
+        <v>-0.003074739829706778</v>
       </c>
     </row>
     <row r="576">
@@ -5048,7 +5048,7 @@
         <v>43561</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.04774328202452383</v>
+        <v>-0.04122097573702057</v>
       </c>
     </row>
     <row r="577">
@@ -5056,7 +5056,7 @@
         <v>43564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.01809954751131217</v>
+        <v>0.0121457489878542</v>
       </c>
     </row>
     <row r="578">
@@ -5064,7 +5064,7 @@
         <v>43565</v>
       </c>
       <c r="B578" t="n">
-        <v>0.004203643157403076</v>
+        <v>-0.01914992993928072</v>
       </c>
     </row>
     <row r="579">
@@ -5072,7 +5072,7 @@
         <v>43566</v>
       </c>
       <c r="B579" t="n">
-        <v>0.005811354492624005</v>
+        <v>0.01139919535091636</v>
       </c>
     </row>
     <row r="580">
@@ -5080,7 +5080,7 @@
         <v>43567</v>
       </c>
       <c r="B580" t="n">
-        <v>0.007795100222717181</v>
+        <v>0.0111358574610245</v>
       </c>
     </row>
     <row r="581">
@@ -5088,7 +5088,7 @@
         <v>43568</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.01014002897151139</v>
+        <v>-0.005311443746982106</v>
       </c>
     </row>
     <row r="582">
@@ -5096,7 +5096,7 @@
         <v>43571</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.007688611244593952</v>
+        <v>-0.008889956751561689</v>
       </c>
     </row>
     <row r="583">
@@ -5104,7 +5104,7 @@
         <v>43572</v>
       </c>
       <c r="B583" t="n">
-        <v>0.01200686106346471</v>
+        <v>0.0291595197255574</v>
       </c>
     </row>
     <row r="584">
@@ -5112,7 +5112,7 @@
         <v>43573</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.0658667972575907</v>
+        <v>-0.06953966699314405</v>
       </c>
     </row>
     <row r="585">
@@ -5120,7 +5120,7 @@
         <v>43574</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.09131205673758874</v>
+        <v>-0.1060874704491727</v>
       </c>
     </row>
     <row r="586">
@@ -5128,7 +5128,7 @@
         <v>43579</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.03458213256484158</v>
+        <v>-0.02017291066282429</v>
       </c>
     </row>
     <row r="587">
@@ -5136,7 +5136,7 @@
         <v>43580</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.02696514881709494</v>
+        <v>-0.007886034088018374</v>
       </c>
     </row>
     <row r="588">
@@ -5144,7 +5144,7 @@
         <v>43581</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.02388608176389525</v>
+        <v>-0.02618282039503906</v>
       </c>
     </row>
     <row r="589">
@@ -5152,7 +5152,7 @@
         <v>43582</v>
       </c>
       <c r="B589" t="n">
-        <v>0.02375742419506101</v>
+        <v>0.05501719287277279</v>
       </c>
     </row>
     <row r="590">
@@ -5160,7 +5160,7 @@
         <v>43585</v>
       </c>
       <c r="B590" t="n">
-        <v>0.0006997900629811322</v>
+        <v>0.008864007464427399</v>
       </c>
     </row>
     <row r="591">
@@ -5168,7 +5168,7 @@
         <v>43586</v>
       </c>
       <c r="B591" t="n">
-        <v>0.02080879466038481</v>
+        <v>0.1189634864546526</v>
       </c>
     </row>
     <row r="592">
@@ -5176,7 +5176,7 @@
         <v>43588</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.02948402948402955</v>
+        <v>-0.02334152334152341</v>
       </c>
     </row>
     <row r="593">
@@ -5184,7 +5184,7 @@
         <v>43589</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.05720070868134645</v>
+        <v>-0.06352822070361928</v>
       </c>
     </row>
     <row r="594">
@@ -5192,7 +5192,7 @@
         <v>43592</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.02912621359223299</v>
+        <v>-0.04893996433524864</v>
       </c>
     </row>
     <row r="595">
@@ -5200,7 +5200,7 @@
         <v>43593</v>
       </c>
       <c r="B595" t="n">
-        <v>0.04509754243729418</v>
+        <v>0.03876361793767422</v>
       </c>
     </row>
     <row r="596">
@@ -5208,7 +5208,7 @@
         <v>43594</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.04972375690607735</v>
+        <v>-0.06077348066298342</v>
       </c>
     </row>
     <row r="597">
@@ -5216,7 +5216,7 @@
         <v>43595</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.006474659522214761</v>
+        <v>0.0102701495869614</v>
       </c>
     </row>
     <row r="598">
@@ -5224,7 +5224,7 @@
         <v>43596</v>
       </c>
       <c r="B598" t="n">
-        <v>0.0170167508641319</v>
+        <v>0.03695825578303644</v>
       </c>
     </row>
     <row r="599">
@@ -5232,7 +5232,7 @@
         <v>43599</v>
       </c>
       <c r="B599" t="n">
-        <v>0.02414045354791519</v>
+        <v>0.01194830529139239</v>
       </c>
     </row>
     <row r="600">
@@ -5240,7 +5240,7 @@
         <v>43600</v>
       </c>
       <c r="B600" t="n">
-        <v>0.04651162790697671</v>
+        <v>0.05263157894736838</v>
       </c>
     </row>
     <row r="601">
@@ -5248,7 +5248,7 @@
         <v>43601</v>
       </c>
       <c r="B601" t="n">
-        <v>0.04958469670274367</v>
+        <v>0.04455071734205898</v>
       </c>
     </row>
     <row r="602">
@@ -5264,7 +5264,7 @@
         <v>43603</v>
       </c>
       <c r="B603" t="n">
-        <v>-0.01855337456305452</v>
+        <v>-0.0118311374025275</v>
       </c>
     </row>
     <row r="604">
@@ -5272,7 +5272,7 @@
         <v>43606</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.02748902748902744</v>
+        <v>-0.03557403557403555</v>
       </c>
     </row>
     <row r="605">
@@ -5280,7 +5280,7 @@
         <v>43607</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.002244948865053714</v>
+        <v>0.0039910202045397</v>
       </c>
     </row>
     <row r="606">
@@ -5288,7 +5288,7 @@
         <v>43608</v>
       </c>
       <c r="B606" t="n">
-        <v>0.05114334890582735</v>
+        <v>0.05974920088517334</v>
       </c>
     </row>
     <row r="607">
@@ -5296,7 +5296,7 @@
         <v>43609</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.01136925358378648</v>
+        <v>-0.005190311418685142</v>
       </c>
     </row>
     <row r="608">
@@ -5304,7 +5304,7 @@
         <v>43610</v>
       </c>
       <c r="B608" t="n">
-        <v>0.00872410032715377</v>
+        <v>-0.01172300981461286</v>
       </c>
     </row>
     <row r="609">
@@ -5312,7 +5312,7 @@
         <v>43613</v>
       </c>
       <c r="B609" t="n">
-        <v>-0.03069466882067847</v>
+        <v>-0.02954073390260792</v>
       </c>
     </row>
     <row r="610">
@@ -5320,7 +5320,7 @@
         <v>43614</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.0002394636015325194</v>
+        <v>0.005747126436781657</v>
       </c>
     </row>
     <row r="611">
@@ -5336,7 +5336,7 @@
         <v>43616</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.0156380899190171</v>
+        <v>-0.004468025691147827</v>
       </c>
     </row>
     <row r="613">
@@ -5344,7 +5344,7 @@
         <v>43617</v>
       </c>
       <c r="B613" t="n">
-        <v>0.04305740987983975</v>
+        <v>0.05807743658210943</v>
       </c>
     </row>
     <row r="614">
@@ -5352,7 +5352,7 @@
         <v>43620</v>
       </c>
       <c r="B614" t="n">
-        <v>0.02590407796870987</v>
+        <v>0.04129263913824056</v>
       </c>
     </row>
     <row r="615">
@@ -5360,7 +5360,7 @@
         <v>43621</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.04429211705773793</v>
+        <v>-0.05483785921434216</v>
       </c>
     </row>
     <row r="616">
@@ -5368,7 +5368,7 @@
         <v>43622</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.02001096491228062</v>
+        <v>-0.06524122807017532</v>
       </c>
     </row>
     <row r="617">
@@ -5376,7 +5376,7 @@
         <v>43623</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.06274926881148629</v>
+        <v>-0.06939643711778781</v>
       </c>
     </row>
     <row r="618">
@@ -5384,7 +5384,7 @@
         <v>43627</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.0038056861428252</v>
+        <v>-0.02619207521826733</v>
       </c>
     </row>
     <row r="619">
@@ -5392,7 +5392,7 @@
         <v>43628</v>
       </c>
       <c r="B619" t="n">
-        <v>0.01136363636363636</v>
+        <v>-0.01704545454545454</v>
       </c>
     </row>
     <row r="620">
@@ -5400,7 +5400,7 @@
         <v>43629</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.01973513373149826</v>
+        <v>-0.0002596728122565051</v>
       </c>
     </row>
     <row r="621">
@@ -5408,7 +5408,7 @@
         <v>43630</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.01249399327246507</v>
+        <v>-0.02090341182123973</v>
       </c>
     </row>
     <row r="622">
@@ -5416,7 +5416,7 @@
         <v>43631</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.02714192282537601</v>
+        <v>-0.04349247874427725</v>
       </c>
     </row>
     <row r="623">
@@ -5424,7 +5424,7 @@
         <v>43634</v>
       </c>
       <c r="B623" t="n">
-        <v>0.001655629139072854</v>
+        <v>0.01111636707663195</v>
       </c>
     </row>
     <row r="624">
@@ -5432,7 +5432,7 @@
         <v>43635</v>
       </c>
       <c r="B624" t="n">
-        <v>-0.008495145631067996</v>
+        <v>-0.01092233009708745</v>
       </c>
     </row>
     <row r="625">
@@ -5440,7 +5440,7 @@
         <v>43636</v>
       </c>
       <c r="B625" t="n">
-        <v>0.01676284693597141</v>
+        <v>0.02363286617202526</v>
       </c>
     </row>
     <row r="626">
@@ -5448,7 +5448,7 @@
         <v>43637</v>
       </c>
       <c r="B626" t="n">
-        <v>0.001550788317394734</v>
+        <v>-0.004910829671749748</v>
       </c>
     </row>
     <row r="627">
@@ -5456,7 +5456,7 @@
         <v>43638</v>
       </c>
       <c r="B627" t="n">
-        <v>0.04331331014859314</v>
+        <v>0.05912108757508697</v>
       </c>
     </row>
     <row r="628">
@@ -5464,7 +5464,7 @@
         <v>43641</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.01283316880552821</v>
+        <v>-0.03751233958539001</v>
       </c>
     </row>
     <row r="629">
@@ -5472,7 +5472,7 @@
         <v>43642</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.02619294605809142</v>
+        <v>-0.01452282157676354</v>
       </c>
     </row>
     <row r="630">
@@ -5480,7 +5480,7 @@
         <v>43643</v>
       </c>
       <c r="B630" t="n">
-        <v>0.01494220468001131</v>
+        <v>-0.006202424584155593</v>
       </c>
     </row>
     <row r="631">
@@ -5488,7 +5488,7 @@
         <v>43644</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.03337169159953977</v>
+        <v>-0.05638665132336024</v>
       </c>
     </row>
     <row r="632">
@@ -5496,7 +5496,7 @@
         <v>43645</v>
       </c>
       <c r="B632" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.009022556390977357</v>
       </c>
     </row>
     <row r="633">
@@ -5504,7 +5504,7 @@
         <v>43648</v>
       </c>
       <c r="B633" t="n">
-        <v>0.01949025487256368</v>
+        <v>0.005997001499250247</v>
       </c>
     </row>
     <row r="634">
@@ -5512,7 +5512,7 @@
         <v>43649</v>
       </c>
       <c r="B634" t="n">
-        <v>0.009809578765147244</v>
+        <v>0.07184073860357768</v>
       </c>
     </row>
     <row r="635">
@@ -5520,7 +5520,7 @@
         <v>43650</v>
       </c>
       <c r="B635" t="n">
-        <v>0.006474396703943673</v>
+        <v>0.02266038846380233</v>
       </c>
     </row>
     <row r="636">
@@ -5528,7 +5528,7 @@
         <v>43651</v>
       </c>
       <c r="B636" t="n">
-        <v>0.01389676687464555</v>
+        <v>-0.007373794668179184</v>
       </c>
     </row>
     <row r="637">
@@ -5536,7 +5536,7 @@
         <v>43652</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.0171370967741936</v>
+        <v>-0.05913978494623661</v>
       </c>
     </row>
     <row r="638">
@@ -5544,7 +5544,7 @@
         <v>43655</v>
       </c>
       <c r="B638" t="n">
-        <v>0.01096549879646955</v>
+        <v>0.01631452259962555</v>
       </c>
     </row>
     <row r="639">
@@ -5552,7 +5552,7 @@
         <v>43656</v>
       </c>
       <c r="B639" t="n">
-        <v>0.007957559681697571</v>
+        <v>0.03086568603809986</v>
       </c>
     </row>
     <row r="640">
@@ -5560,7 +5560,7 @@
         <v>43657</v>
       </c>
       <c r="B640" t="n">
-        <v>0.001960357220649171</v>
+        <v>0.01829666739272497</v>
       </c>
     </row>
     <row r="641">
@@ -5568,7 +5568,7 @@
         <v>43658</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.02740937223695849</v>
+        <v>-0.03846153846153851</v>
       </c>
     </row>
     <row r="642">
@@ -5576,7 +5576,7 @@
         <v>43659</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.009129967776584409</v>
+        <v>-0.01584317937701405</v>
       </c>
     </row>
     <row r="643">
@@ -5584,7 +5584,7 @@
         <v>43662</v>
       </c>
       <c r="B643" t="n">
-        <v>0.0258801585451154</v>
+        <v>0.03170902308230356</v>
       </c>
     </row>
     <row r="644">
@@ -5592,7 +5592,7 @@
         <v>43663</v>
       </c>
       <c r="B644" t="n">
-        <v>0.02877070619006103</v>
+        <v>0.04075850043591973</v>
       </c>
     </row>
     <row r="645">
@@ -5608,7 +5608,7 @@
         <v>43665</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.00133898683329619</v>
+        <v>0.002008480249944126</v>
       </c>
     </row>
     <row r="647">
@@ -5616,7 +5616,7 @@
         <v>43666</v>
       </c>
       <c r="B647" t="n">
-        <v>0.03305785123966932</v>
+        <v>0.04730692504987166</v>
       </c>
     </row>
     <row r="648">
@@ -5632,7 +5632,7 @@
         <v>43670</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.04028436018957345</v>
+        <v>-0.06200631911532387</v>
       </c>
     </row>
     <row r="650">
@@ -5640,7 +5640,7 @@
         <v>43671</v>
       </c>
       <c r="B650" t="n">
-        <v>0.04021501094963176</v>
+        <v>0.03523790563408328</v>
       </c>
     </row>
     <row r="651">
@@ -5648,7 +5648,7 @@
         <v>43672</v>
       </c>
       <c r="B651" t="n">
-        <v>0.02808988764044944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -5656,7 +5656,7 @@
         <v>43673</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.004424778761061853</v>
+        <v>-0.01825221238938044</v>
       </c>
     </row>
     <row r="653">
@@ -5664,7 +5664,7 @@
         <v>43676</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.01190208847967665</v>
+        <v>-0.006287895800583901</v>
       </c>
     </row>
     <row r="654">
@@ -5672,7 +5672,7 @@
         <v>43677</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.1211058386630905</v>
+        <v>-0.1231689704972148</v>
       </c>
     </row>
     <row r="655">
@@ -5680,7 +5680,7 @@
         <v>43678</v>
       </c>
       <c r="B655" t="n">
-        <v>0.02440662785490379</v>
+        <v>0.01880877742946716</v>
       </c>
     </row>
     <row r="656">
@@ -5688,7 +5688,7 @@
         <v>43679</v>
       </c>
       <c r="B656" t="n">
-        <v>0.01487414187643017</v>
+        <v>0.001144164759725335</v>
       </c>
     </row>
     <row r="657">
@@ -5696,7 +5696,7 @@
         <v>43680</v>
       </c>
       <c r="B657" t="n">
-        <v>0.0393181193291174</v>
+        <v>0.03794335991201547</v>
       </c>
     </row>
     <row r="658">
@@ -5704,7 +5704,7 @@
         <v>43683</v>
       </c>
       <c r="B658" t="n">
-        <v>0.01759391345696612</v>
+        <v>0.01046124583927717</v>
       </c>
     </row>
     <row r="659">
@@ -5712,7 +5712,7 @@
         <v>43684</v>
       </c>
       <c r="B659" t="n">
-        <v>0.03988255444091027</v>
+        <v>0.04110594568142892</v>
       </c>
     </row>
     <row r="660">
@@ -5720,7 +5720,7 @@
         <v>43685</v>
       </c>
       <c r="B660" t="n">
-        <v>0.02246543778801847</v>
+        <v>0.03686635944700464</v>
       </c>
     </row>
     <row r="661">
@@ -5728,7 +5728,7 @@
         <v>43686</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.004910829671749748</v>
+        <v>0.01576634789351252</v>
       </c>
     </row>
     <row r="662">
@@ -5736,7 +5736,7 @@
         <v>43687</v>
       </c>
       <c r="B662" t="n">
-        <v>0.01286173633440516</v>
+        <v>-0.7909967845659164</v>
       </c>
     </row>
     <row r="663">
@@ -5744,7 +5744,7 @@
         <v>43690</v>
       </c>
       <c r="B663" t="n">
-        <v>0.03180862250262884</v>
+        <v>0.01866456361724503</v>
       </c>
     </row>
     <row r="664">
@@ -5752,7 +5752,7 @@
         <v>43691</v>
       </c>
       <c r="B664" t="n">
-        <v>0.07686355429455756</v>
+        <v>0.08331183905081239</v>
       </c>
     </row>
     <row r="665">
@@ -5760,7 +5760,7 @@
         <v>43692</v>
       </c>
       <c r="B665" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.05737704918032787</v>
       </c>
     </row>
     <row r="666">
@@ -5768,7 +5768,7 @@
         <v>43693</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.005323620061641853</v>
+        <v>-0.01092743065284395</v>
       </c>
     </row>
     <row r="667">
@@ -5776,7 +5776,7 @@
         <v>43694</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.04462242562929055</v>
+        <v>-0.008390541571319561</v>
       </c>
     </row>
     <row r="668">
@@ -5784,7 +5784,7 @@
         <v>43697</v>
       </c>
       <c r="B668" t="n">
-        <v>0.04396984924623116</v>
+        <v>0.06783919597989957</v>
       </c>
     </row>
     <row r="669">
@@ -5800,7 +5800,7 @@
         <v>43699</v>
       </c>
       <c r="B670" t="n">
-        <v>0.04654365188653257</v>
+        <v>0.06031396309556589</v>
       </c>
     </row>
     <row r="671">
@@ -5808,7 +5808,7 @@
         <v>43700</v>
       </c>
       <c r="B671" t="n">
-        <v>0.0329581993569131</v>
+        <v>0.02893890675241153</v>
       </c>
     </row>
     <row r="672">
@@ -5824,7 +5824,7 @@
         <v>43704</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.01981904351572602</v>
+        <v>-0.04136148211977599</v>
       </c>
     </row>
     <row r="674">
@@ -5832,7 +5832,7 @@
         <v>43705</v>
       </c>
       <c r="B674" t="n">
-        <v>-0.05075742671650597</v>
+        <v>-0.07534920322644105</v>
       </c>
     </row>
     <row r="675">
@@ -5840,7 +5840,7 @@
         <v>43706</v>
       </c>
       <c r="B675" t="n">
-        <v>0.03843560350640595</v>
+        <v>0.06203641267700602</v>
       </c>
     </row>
     <row r="676">
@@ -5848,7 +5848,7 @@
         <v>43707</v>
       </c>
       <c r="B676" t="n">
-        <v>0.02443154329946778</v>
+        <v>0.01596516690856305</v>
       </c>
     </row>
     <row r="677">
@@ -5856,7 +5856,7 @@
         <v>43708</v>
       </c>
       <c r="B677" t="n">
-        <v>0.0101010101010102</v>
+        <v>0.03980986333927521</v>
       </c>
     </row>
     <row r="678">
@@ -5864,7 +5864,7 @@
         <v>43711</v>
       </c>
       <c r="B678" t="n">
-        <v>0.0225988700564973</v>
+        <v>0.05932203389830513</v>
       </c>
     </row>
     <row r="679">
@@ -5872,7 +5872,7 @@
         <v>43712</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.01499558953249039</v>
+        <v>0.0364598647456631</v>
       </c>
     </row>
     <row r="680">
@@ -5880,7 +5880,7 @@
         <v>43713</v>
       </c>
       <c r="B680" t="n">
-        <v>0.002522068095838646</v>
+        <v>-0.03846153846153843</v>
       </c>
     </row>
     <row r="681">
@@ -5888,7 +5888,7 @@
         <v>43714</v>
       </c>
       <c r="B681" t="n">
-        <v>0.03389830508474558</v>
+        <v>0.04006163328197217</v>
       </c>
     </row>
     <row r="682">
@@ -5896,7 +5896,7 @@
         <v>43715</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.05954368391764053</v>
+        <v>-0.06649972175848638</v>
       </c>
     </row>
     <row r="683">
@@ -5904,7 +5904,7 @@
         <v>43718</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.001901140684410654</v>
+        <v>0.004888647474198797</v>
       </c>
     </row>
     <row r="684">
@@ -5912,7 +5912,7 @@
         <v>43719</v>
       </c>
       <c r="B684" t="n">
-        <v>0.02269378131447106</v>
+        <v>0.02858826996758028</v>
       </c>
     </row>
     <row r="685">
@@ -5920,7 +5920,7 @@
         <v>43720</v>
       </c>
       <c r="B685" t="n">
-        <v>0.01905770248808891</v>
+        <v>0.01244044467972469</v>
       </c>
     </row>
     <row r="686">
@@ -5928,7 +5928,7 @@
         <v>43721</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.05945668887749872</v>
+        <v>-0.06458226550486937</v>
       </c>
     </row>
     <row r="687">
@@ -5936,7 +5936,7 @@
         <v>43722</v>
       </c>
       <c r="B687" t="n">
-        <v>0.02209944751381207</v>
+        <v>0.00828729281767948</v>
       </c>
     </row>
     <row r="688">
@@ -5944,7 +5944,7 @@
         <v>43725</v>
       </c>
       <c r="B688" t="n">
-        <v>0.02598169471508718</v>
+        <v>0.04812518452908186</v>
       </c>
     </row>
     <row r="689">
@@ -5952,7 +5952,7 @@
         <v>43726</v>
       </c>
       <c r="B689" t="n">
-        <v>0.0005482456140351734</v>
+        <v>0.01425438596491237</v>
       </c>
     </row>
     <row r="690">
@@ -5960,7 +5960,7 @@
         <v>43727</v>
       </c>
       <c r="B690" t="n">
-        <v>0.005025125628140678</v>
+        <v>0.03357697578803104</v>
       </c>
     </row>
     <row r="691">
@@ -5968,7 +5968,7 @@
         <v>43728</v>
       </c>
       <c r="B691" t="n">
-        <v>0.02459016393442616</v>
+        <v>0.04800936768149876</v>
       </c>
     </row>
     <row r="692">
@@ -5976,7 +5976,7 @@
         <v>43729</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.05627705627705615</v>
+        <v>-0.03318903318903315</v>
       </c>
     </row>
     <row r="693">
@@ -5984,7 +5984,7 @@
         <v>43732</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.03793466807165446</v>
+        <v>-0.04636459430979985</v>
       </c>
     </row>
     <row r="694">
@@ -5992,7 +5992,7 @@
         <v>43733</v>
       </c>
       <c r="B694" t="n">
-        <v>0.01091142490372268</v>
+        <v>0.005562687205819383</v>
       </c>
     </row>
     <row r="695">
@@ -6000,7 +6000,7 @@
         <v>43734</v>
       </c>
       <c r="B695" t="n">
-        <v>0.004330045706038001</v>
+        <v>0.01034399807553523</v>
       </c>
     </row>
     <row r="696">
@@ -6008,7 +6008,7 @@
         <v>43735</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.002341311134235076</v>
+        <v>-0.01795005202913626</v>
       </c>
     </row>
     <row r="697">
@@ -6016,7 +6016,7 @@
         <v>43736</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.04564315352697101</v>
+        <v>-0.1493775933609959</v>
       </c>
     </row>
     <row r="698">
@@ -6024,7 +6024,7 @@
         <v>43739</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.03642773207990593</v>
+        <v>-0.0658049353701527</v>
       </c>
     </row>
     <row r="699">
@@ -6032,7 +6032,7 @@
         <v>43740</v>
       </c>
       <c r="B699" t="n">
-        <v>0.021781693587861</v>
+        <v>0.02790014684287814</v>
       </c>
     </row>
     <row r="700">
@@ -6040,7 +6040,7 @@
         <v>43741</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.01921637135013734</v>
+        <v>-0.02919890192163718</v>
       </c>
     </row>
     <row r="701">
@@ -6048,7 +6048,7 @@
         <v>43742</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.009844322344322337</v>
+        <v>-0.001831501831501792</v>
       </c>
     </row>
     <row r="702">
@@ -6056,7 +6056,7 @@
         <v>43743</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.02277039848197353</v>
+        <v>-0.03361344537815131</v>
       </c>
     </row>
     <row r="703">
@@ -6064,7 +6064,7 @@
         <v>43746</v>
       </c>
       <c r="B703" t="n">
-        <v>0.05421686746987953</v>
+        <v>0.03270223752151465</v>
       </c>
     </row>
     <row r="704">
@@ -6080,7 +6080,7 @@
         <v>43748</v>
       </c>
       <c r="B705" t="n">
-        <v>0.01772816808929741</v>
+        <v>0.03250164149704525</v>
       </c>
     </row>
     <row r="706">
@@ -6088,7 +6088,7 @@
         <v>43749</v>
       </c>
       <c r="B706" t="n">
-        <v>0.001155179052753221</v>
+        <v>-0.008471313053523253</v>
       </c>
     </row>
     <row r="707">
@@ -6096,7 +6096,7 @@
         <v>43750</v>
       </c>
       <c r="B707" t="n">
-        <v>0.1277242777496198</v>
+        <v>0.1403953370501774</v>
       </c>
     </row>
     <row r="708">
@@ -6104,7 +6104,7 @@
         <v>43753</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.04652761861104747</v>
+        <v>-0.03735961494384604</v>
       </c>
     </row>
     <row r="709">
@@ -6112,7 +6112,7 @@
         <v>43754</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.01165737455651295</v>
+        <v>-0.03066396350734923</v>
       </c>
     </row>
     <row r="710">
@@ -6120,7 +6120,7 @@
         <v>43755</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.006168608636052161</v>
+        <v>0.01096641535298142</v>
       </c>
     </row>
     <row r="711">
@@ -6128,7 +6128,7 @@
         <v>43756</v>
       </c>
       <c r="B711" t="n">
-        <v>0.03394625176803383</v>
+        <v>0.04667609618104664</v>
       </c>
     </row>
     <row r="712">
@@ -6136,7 +6136,7 @@
         <v>43757</v>
       </c>
       <c r="B712" t="n">
-        <v>0.004835297673012892</v>
+        <v>0.0123904502870957</v>
       </c>
     </row>
     <row r="713">
@@ -6144,7 +6144,7 @@
         <v>43760</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.01772368140081141</v>
+        <v>-0.001708306641042031</v>
       </c>
     </row>
     <row r="714">
@@ -6152,7 +6152,7 @@
         <v>43761</v>
       </c>
       <c r="B714" t="n">
-        <v>0.01102941176470581</v>
+        <v>0.005284926470588163</v>
       </c>
     </row>
     <row r="715">
@@ -6160,7 +6160,7 @@
         <v>43762</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.002849002849002834</v>
+        <v>0.02305102305102306</v>
       </c>
     </row>
     <row r="716">
@@ -6176,7 +6176,7 @@
         <v>43764</v>
       </c>
       <c r="B717" t="n">
-        <v>0.01434933201385448</v>
+        <v>0.0514596734289955</v>
       </c>
     </row>
     <row r="718">
@@ -6184,7 +6184,7 @@
         <v>43767</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.002286426938266461</v>
+        <v>0.008106422781126596</v>
       </c>
     </row>
     <row r="719">
@@ -6192,7 +6192,7 @@
         <v>43768</v>
       </c>
       <c r="B719" t="n">
-        <v>0.009995835068721301</v>
+        <v>0.02040816326530605</v>
       </c>
     </row>
     <row r="720">
@@ -6208,7 +6208,7 @@
         <v>43770</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.03036876355748385</v>
+        <v>-0.01611403780601187</v>
       </c>
     </row>
     <row r="722">
@@ -6216,7 +6216,7 @@
         <v>43771</v>
       </c>
       <c r="B722" t="n">
-        <v>0.009825327510917015</v>
+        <v>0.01892285298398834</v>
       </c>
     </row>
     <row r="723">
@@ -6224,7 +6224,7 @@
         <v>43774</v>
       </c>
       <c r="B723" t="n">
-        <v>0.007025761124121713</v>
+        <v>0.01873536299765801</v>
       </c>
     </row>
     <row r="724">
@@ -6232,7 +6232,7 @@
         <v>43775</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.04325159297161618</v>
+        <v>-0.05387140374589688</v>
       </c>
     </row>
     <row r="725">
@@ -6240,7 +6240,7 @@
         <v>43776</v>
       </c>
       <c r="B725" t="n">
-        <v>0.01825842696629216</v>
+        <v>0.006554307116104895</v>
       </c>
     </row>
     <row r="726">
@@ -6248,7 +6248,7 @@
         <v>43777</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.00785229202037346</v>
+        <v>-0.004668930390492336</v>
       </c>
     </row>
     <row r="727">
@@ -6256,7 +6256,7 @@
         <v>43778</v>
       </c>
       <c r="B727" t="n">
-        <v>-0.03454065723195005</v>
+        <v>-0.04533461261693453</v>
       </c>
     </row>
     <row r="728">
@@ -6264,7 +6264,7 @@
         <v>43781</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.02369668246445497</v>
+        <v>-0.02251184834123229</v>
       </c>
     </row>
     <row r="729">
@@ -6272,7 +6272,7 @@
         <v>43782</v>
       </c>
       <c r="B729" t="n">
-        <v>0.003610875106202245</v>
+        <v>0.01954120645709434</v>
       </c>
     </row>
     <row r="730">
@@ -6280,7 +6280,7 @@
         <v>43783</v>
       </c>
       <c r="B730" t="n">
-        <v>0.03155339805825242</v>
+        <v>0.05361871138570167</v>
       </c>
     </row>
     <row r="731">
@@ -6288,7 +6288,7 @@
         <v>43784</v>
       </c>
       <c r="B731" t="n">
-        <v>0.0105540897097625</v>
+        <v>0.01583113456464384</v>
       </c>
     </row>
     <row r="732">
@@ -6296,7 +6296,7 @@
         <v>43785</v>
       </c>
       <c r="B732" t="n">
-        <v>0.003937007874015711</v>
+        <v>0.03149606299212587</v>
       </c>
     </row>
     <row r="733">
@@ -6304,7 +6304,7 @@
         <v>43788</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.06969240696924074</v>
+        <v>-0.08044740804474085</v>
       </c>
     </row>
     <row r="734">
@@ -6312,7 +6312,7 @@
         <v>43789</v>
       </c>
       <c r="B734" t="n">
-        <v>0.06666666666666661</v>
+        <v>0.06572769953051644</v>
       </c>
     </row>
     <row r="735">
@@ -6320,7 +6320,7 @@
         <v>43790</v>
       </c>
       <c r="B735" t="n">
-        <v>0.008185266520263457</v>
+        <v>0.01816729886204824</v>
       </c>
     </row>
     <row r="736">
@@ -6328,7 +6328,7 @@
         <v>43791</v>
       </c>
       <c r="B736" t="n">
-        <v>0.00160624139513539</v>
+        <v>0.01537402478201014</v>
       </c>
     </row>
     <row r="737">
@@ -6336,7 +6336,7 @@
         <v>43792</v>
       </c>
       <c r="B737" t="n">
-        <v>0.0137344669718771</v>
+        <v>-0.002616088947024143</v>
       </c>
     </row>
     <row r="738">
@@ -6344,7 +6344,7 @@
         <v>43795</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.01393581081081074</v>
+        <v>-0.01288006756756756</v>
       </c>
     </row>
     <row r="739">
@@ -6352,7 +6352,7 @@
         <v>43796</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.03164556962025317</v>
+        <v>-0.04430379746835443</v>
       </c>
     </row>
     <row r="740">
@@ -6360,7 +6360,7 @@
         <v>43797</v>
       </c>
       <c r="B740" t="n">
-        <v>0.006887504099704849</v>
+        <v>-0.04066907182682842</v>
       </c>
     </row>
     <row r="741">
@@ -6368,7 +6368,7 @@
         <v>43798</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.0331836327345309</v>
+        <v>-0.01447105788423149</v>
       </c>
     </row>
     <row r="742">
@@ -6376,7 +6376,7 @@
         <v>43799</v>
       </c>
       <c r="B742" t="n">
-        <v>0.01761485360628427</v>
+        <v>0.005712925493930064</v>
       </c>
     </row>
     <row r="743">
@@ -6384,7 +6384,7 @@
         <v>43802</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.04108255451713395</v>
+        <v>-0.03621495327102803</v>
       </c>
     </row>
     <row r="744">
@@ -6392,7 +6392,7 @@
         <v>43803</v>
       </c>
       <c r="B744" t="n">
-        <v>0.02211097204839388</v>
+        <v>0.02732582394659996</v>
       </c>
     </row>
     <row r="745">
@@ -6400,7 +6400,7 @@
         <v>43804</v>
       </c>
       <c r="B745" t="n">
-        <v>0.04017216642754662</v>
+        <v>0.03419416547106647</v>
       </c>
     </row>
     <row r="746">
@@ -6408,7 +6408,7 @@
         <v>43805</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.05144694533762062</v>
+        <v>-0.06752411575562706</v>
       </c>
     </row>
     <row r="747">
@@ -6424,7 +6424,7 @@
         <v>43809</v>
       </c>
       <c r="B748" t="n">
-        <v>0.02066218571072936</v>
+        <v>0.02688573562359966</v>
       </c>
     </row>
     <row r="749">
@@ -6432,7 +6432,7 @@
         <v>43810</v>
       </c>
       <c r="B749" t="n">
-        <v>0.04931794333683113</v>
+        <v>0.08210912906610711</v>
       </c>
     </row>
     <row r="750">
@@ -6440,7 +6440,7 @@
         <v>43811</v>
       </c>
       <c r="B750" t="n">
-        <v>0.002913491707754428</v>
+        <v>-0.01949798296727919</v>
       </c>
     </row>
     <row r="751">
@@ -6456,7 +6456,7 @@
         <v>43813</v>
       </c>
       <c r="B752" t="n">
-        <v>0.01162290142057682</v>
+        <v>-0.02066293585880329</v>
       </c>
     </row>
     <row r="753">
@@ -6464,7 +6464,7 @@
         <v>43816</v>
       </c>
       <c r="B753" t="n">
-        <v>0.06209150326797389</v>
+        <v>0.05119825708061009</v>
       </c>
     </row>
     <row r="754">
@@ -6480,7 +6480,7 @@
         <v>43818</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.0115440115440115</v>
+        <v>-0.03318903318903315</v>
       </c>
     </row>
     <row r="756">
@@ -6488,7 +6488,7 @@
         <v>43819</v>
       </c>
       <c r="B756" t="n">
-        <v>0.0098605916354981</v>
+        <v>0.01666099965997955</v>
       </c>
     </row>
     <row r="757">
@@ -6496,7 +6496,7 @@
         <v>43820</v>
       </c>
       <c r="B757" t="n">
-        <v>0.06723585912486661</v>
+        <v>0.04055496264674495</v>
       </c>
     </row>
     <row r="758">
@@ -6504,7 +6504,7 @@
         <v>43823</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1208576998050682</v>
+        <v>0.2183235867446394</v>
       </c>
     </row>
     <row r="759">
@@ -6512,7 +6512,7 @@
         <v>43827</v>
       </c>
       <c r="B759" t="n">
-        <v>0.02070574511519396</v>
+        <v>0.03528725575969673</v>
       </c>
     </row>
   </sheetData>
